--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -1069,7 +1069,7 @@
     <t>['7', '37']</t>
   </si>
   <si>
-    <t>['55', '69']</t>
+    <t>['55', '68']</t>
   </si>
   <si>
     <t>['41', '43']</t>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="360">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -769,6 +769,18 @@
     <t>['26', '73']</t>
   </si>
   <si>
+    <t>['26', '90+5']</t>
+  </si>
+  <si>
+    <t>['37', '89', '90+6']</t>
+  </si>
+  <si>
+    <t>['47', '85']</t>
+  </si>
+  <si>
+    <t>['28', '48', '55', '58', '78']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -1079,6 +1091,9 @@
   </si>
   <si>
     <t>['28', '32', '53', '66']</t>
+  </si>
+  <si>
+    <t>['36', '60']</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP241"/>
+  <dimension ref="A1:BP245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1777,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1905,7 +1920,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -1986,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2395,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ5">
         <v>0.8</v>
@@ -2810,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3425,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ10">
         <v>0.73</v>
@@ -3634,7 +3649,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ11">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3759,7 +3774,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q12">
         <v>5.25</v>
@@ -4171,7 +4186,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4249,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ14">
         <v>2.27</v>
@@ -4377,7 +4392,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q15">
         <v>2.1</v>
@@ -4583,7 +4598,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4789,7 +4804,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4995,7 +5010,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5201,7 +5216,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q19">
         <v>1.5</v>
@@ -5407,7 +5422,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q20">
         <v>3.3</v>
@@ -5613,7 +5628,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q21">
         <v>2.45</v>
@@ -6106,7 +6121,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR23">
         <v>1.87</v>
@@ -6231,7 +6246,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6312,7 +6327,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR24">
         <v>1.75</v>
@@ -6437,7 +6452,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q25">
         <v>1.44</v>
@@ -6515,10 +6530,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ25">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR25">
         <v>1.72</v>
@@ -7055,7 +7070,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q28">
         <v>4.75</v>
@@ -7133,7 +7148,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ28">
         <v>2.33</v>
@@ -7261,7 +7276,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q29">
         <v>4.75</v>
@@ -7673,7 +7688,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7957,10 +7972,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ32">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR32">
         <v>1.5</v>
@@ -8085,7 +8100,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -8163,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ33">
         <v>2</v>
@@ -8291,7 +8306,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q34">
         <v>2.66</v>
@@ -8703,7 +8718,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8909,7 +8924,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9402,7 +9417,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ39">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR39">
         <v>1.69</v>
@@ -9605,10 +9620,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR40">
         <v>1.14</v>
@@ -9811,10 +9826,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ41">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR41">
         <v>2.82</v>
@@ -10145,7 +10160,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10223,7 +10238,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ43">
         <v>1.27</v>
@@ -10557,7 +10572,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10969,7 +10984,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q47">
         <v>5.5</v>
@@ -11047,7 +11062,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ47">
         <v>2.27</v>
@@ -11256,7 +11271,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ48">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR48">
         <v>2.51</v>
@@ -11668,7 +11683,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ50">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR50">
         <v>1.29</v>
@@ -11793,7 +11808,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q51">
         <v>2.98</v>
@@ -11871,7 +11886,7 @@
         <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ51">
         <v>0.73</v>
@@ -12286,7 +12301,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR53">
         <v>1.65</v>
@@ -12411,7 +12426,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12617,7 +12632,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q55">
         <v>1.4</v>
@@ -12695,10 +12710,10 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ55">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR55">
         <v>2.44</v>
@@ -12823,7 +12838,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q56">
         <v>2.95</v>
@@ -13029,7 +13044,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -13522,7 +13537,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ59">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR59">
         <v>1.81</v>
@@ -13931,7 +13946,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ61">
         <v>2.27</v>
@@ -14059,7 +14074,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14265,7 +14280,7 @@
         <v>95</v>
       </c>
       <c r="P63" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14343,7 +14358,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ63">
         <v>0.67</v>
@@ -14758,7 +14773,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ65">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR65">
         <v>1.49</v>
@@ -14883,7 +14898,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -15089,7 +15104,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q67">
         <v>3.25</v>
@@ -15167,7 +15182,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ67">
         <v>1.2</v>
@@ -15295,7 +15310,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15376,7 +15391,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ68">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR68">
         <v>1.77</v>
@@ -15501,7 +15516,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15913,7 +15928,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q71">
         <v>1.67</v>
@@ -16119,7 +16134,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16197,7 +16212,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ72">
         <v>2.33</v>
@@ -16403,7 +16418,7 @@
         <v>1.75</v>
       </c>
       <c r="AP73">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ73">
         <v>1.27</v>
@@ -16531,7 +16546,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q74">
         <v>2.85</v>
@@ -16612,7 +16627,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ74">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR74">
         <v>1.65</v>
@@ -16737,7 +16752,7 @@
         <v>113</v>
       </c>
       <c r="P75" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q75">
         <v>2.7</v>
@@ -16943,7 +16958,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q76">
         <v>3.3</v>
@@ -17436,7 +17451,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR78">
         <v>1.32</v>
@@ -17845,7 +17860,7 @@
         <v>0.2</v>
       </c>
       <c r="AP80">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ80">
         <v>0.8</v>
@@ -18051,10 +18066,10 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ81">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR81">
         <v>1.23</v>
@@ -18260,7 +18275,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ82">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR82">
         <v>1.81</v>
@@ -19003,7 +19018,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -19209,7 +19224,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q87">
         <v>5.5</v>
@@ -19415,7 +19430,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -19621,7 +19636,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -19905,7 +19920,7 @@
         <v>1.2</v>
       </c>
       <c r="AP90">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -20523,7 +20538,7 @@
         <v>1.4</v>
       </c>
       <c r="AP93">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ93">
         <v>1.27</v>
@@ -20857,7 +20872,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -20938,7 +20953,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ95">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR95">
         <v>1.07</v>
@@ -21141,10 +21156,10 @@
         <v>1.2</v>
       </c>
       <c r="AP96">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR96">
         <v>1.29</v>
@@ -21347,7 +21362,7 @@
         <v>0.8</v>
       </c>
       <c r="AP97">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ97">
         <v>1.13</v>
@@ -21681,7 +21696,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21968,7 +21983,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ100">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR100">
         <v>1.67</v>
@@ -22299,7 +22314,7 @@
         <v>86</v>
       </c>
       <c r="P102" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q102">
         <v>1.67</v>
@@ -22380,7 +22395,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ102">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR102">
         <v>1.91</v>
@@ -22505,7 +22520,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q103">
         <v>4.75</v>
@@ -22711,7 +22726,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22917,7 +22932,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q105">
         <v>2.36</v>
@@ -22995,10 +23010,10 @@
         <v>0.29</v>
       </c>
       <c r="AP105">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ105">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR105">
         <v>1.26</v>
@@ -23201,7 +23216,7 @@
         <v>1.17</v>
       </c>
       <c r="AP106">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23822,7 +23837,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR109">
         <v>2.14</v>
@@ -23947,7 +23962,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24028,7 +24043,7 @@
         <v>1</v>
       </c>
       <c r="AQ110">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR110">
         <v>1.62</v>
@@ -24359,7 +24374,7 @@
         <v>111</v>
       </c>
       <c r="P112" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q112">
         <v>2.05</v>
@@ -24437,7 +24452,7 @@
         <v>1.2</v>
       </c>
       <c r="AP112">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ112">
         <v>2</v>
@@ -24565,7 +24580,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24643,7 +24658,7 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ113">
         <v>0.93</v>
@@ -24977,7 +24992,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q115">
         <v>3.83</v>
@@ -25470,7 +25485,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ117">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR117">
         <v>1.67</v>
@@ -25595,7 +25610,7 @@
         <v>140</v>
       </c>
       <c r="P118" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q118">
         <v>2.05</v>
@@ -25801,7 +25816,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -26007,7 +26022,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q120">
         <v>4.8</v>
@@ -26419,7 +26434,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26912,7 +26927,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR124">
         <v>1.05</v>
@@ -27115,7 +27130,7 @@
         <v>0.14</v>
       </c>
       <c r="AP125">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ125">
         <v>0.27</v>
@@ -27321,7 +27336,7 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ126">
         <v>1.13</v>
@@ -27530,7 +27545,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ127">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR127">
         <v>1.59</v>
@@ -27736,7 +27751,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ128">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR128">
         <v>2.1</v>
@@ -27861,7 +27876,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q129">
         <v>2.85</v>
@@ -28067,7 +28082,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q130">
         <v>6.06</v>
@@ -28145,7 +28160,7 @@
         <v>2.13</v>
       </c>
       <c r="AP130">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ130">
         <v>2.33</v>
@@ -28273,7 +28288,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q131">
         <v>2.35</v>
@@ -28351,7 +28366,7 @@
         <v>1.25</v>
       </c>
       <c r="AP131">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ131">
         <v>0.93</v>
@@ -28479,7 +28494,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28891,7 +28906,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q134">
         <v>1.91</v>
@@ -28972,7 +28987,7 @@
         <v>2</v>
       </c>
       <c r="AQ134">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR134">
         <v>1.67</v>
@@ -29097,7 +29112,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q135">
         <v>2.22</v>
@@ -29178,7 +29193,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ135">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR135">
         <v>1.63</v>
@@ -29303,7 +29318,7 @@
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q136">
         <v>3.77</v>
@@ -29384,7 +29399,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ136">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR136">
         <v>1.46</v>
@@ -29793,7 +29808,7 @@
         <v>1.25</v>
       </c>
       <c r="AP138">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ138">
         <v>1.2</v>
@@ -29921,7 +29936,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q139">
         <v>1.95</v>
@@ -30002,7 +30017,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ139">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR139">
         <v>1.46</v>
@@ -30127,7 +30142,7 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30205,7 +30220,7 @@
         <v>0.38</v>
       </c>
       <c r="AP140">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ140">
         <v>0.8</v>
@@ -30617,10 +30632,10 @@
         <v>0.44</v>
       </c>
       <c r="AP142">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ142">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR142">
         <v>1.47</v>
@@ -30745,7 +30760,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>2.89</v>
@@ -31235,7 +31250,7 @@
         <v>0.75</v>
       </c>
       <c r="AP145">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ145">
         <v>0.67</v>
@@ -31569,7 +31584,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31775,7 +31790,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -32187,7 +32202,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -32471,10 +32486,10 @@
         <v>1.44</v>
       </c>
       <c r="AP151">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ151">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR151">
         <v>1.34</v>
@@ -32805,7 +32820,7 @@
         <v>164</v>
       </c>
       <c r="P153" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q153">
         <v>1.95</v>
@@ -33217,7 +33232,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33298,7 +33313,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR155">
         <v>1.42</v>
@@ -33423,7 +33438,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33504,7 +33519,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ156">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR156">
         <v>1.16</v>
@@ -33629,7 +33644,7 @@
         <v>199</v>
       </c>
       <c r="P157" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q157">
         <v>1.62</v>
@@ -33707,7 +33722,7 @@
         <v>0.7</v>
       </c>
       <c r="AP157">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ157">
         <v>0.73</v>
@@ -33835,7 +33850,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34041,7 +34056,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q159">
         <v>2.8</v>
@@ -34247,7 +34262,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -34659,7 +34674,7 @@
         <v>88</v>
       </c>
       <c r="P162" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q162">
         <v>2.8</v>
@@ -34740,7 +34755,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ162">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR162">
         <v>1.54</v>
@@ -34865,7 +34880,7 @@
         <v>201</v>
       </c>
       <c r="P163" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q163">
         <v>2.16</v>
@@ -34943,7 +34958,7 @@
         <v>0.2</v>
       </c>
       <c r="AP163">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ163">
         <v>0.27</v>
@@ -35071,7 +35086,7 @@
         <v>202</v>
       </c>
       <c r="P164" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q164">
         <v>2.9</v>
@@ -35149,7 +35164,7 @@
         <v>1</v>
       </c>
       <c r="AP164">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ164">
         <v>0.93</v>
@@ -35277,7 +35292,7 @@
         <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q165">
         <v>4.1</v>
@@ -35483,7 +35498,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q166">
         <v>4.2</v>
@@ -35689,7 +35704,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -35895,7 +35910,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q168">
         <v>1.63</v>
@@ -36307,7 +36322,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36513,7 +36528,7 @@
         <v>207</v>
       </c>
       <c r="P171" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q171">
         <v>2.35</v>
@@ -36594,7 +36609,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ171">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR171">
         <v>1.31</v>
@@ -36719,7 +36734,7 @@
         <v>208</v>
       </c>
       <c r="P172" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q172">
         <v>2.25</v>
@@ -36800,7 +36815,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ172">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR172">
         <v>1.96</v>
@@ -37212,7 +37227,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ174">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR174">
         <v>1.87</v>
@@ -37415,7 +37430,7 @@
         <v>1.1</v>
       </c>
       <c r="AP175">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ175">
         <v>1</v>
@@ -37621,7 +37636,7 @@
         <v>1.3</v>
       </c>
       <c r="AP176">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ176">
         <v>1.13</v>
@@ -37749,7 +37764,7 @@
         <v>173</v>
       </c>
       <c r="P177" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q177">
         <v>4.33</v>
@@ -37955,7 +37970,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q178">
         <v>3.75</v>
@@ -38161,7 +38176,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q179">
         <v>1.84</v>
@@ -38367,7 +38382,7 @@
         <v>214</v>
       </c>
       <c r="P180" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q180">
         <v>2.7</v>
@@ -38448,7 +38463,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ180">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR180">
         <v>1.55</v>
@@ -38651,7 +38666,7 @@
         <v>0.64</v>
       </c>
       <c r="AP181">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ181">
         <v>0.8</v>
@@ -38779,7 +38794,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -38857,7 +38872,7 @@
         <v>2</v>
       </c>
       <c r="AP182">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ182">
         <v>2</v>
@@ -39191,7 +39206,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q184">
         <v>4.2</v>
@@ -39272,7 +39287,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ184">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR184">
         <v>1.44</v>
@@ -40302,7 +40317,7 @@
         <v>2</v>
       </c>
       <c r="AQ189">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR189">
         <v>1.67</v>
@@ -40427,7 +40442,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q190">
         <v>2.21</v>
@@ -40711,7 +40726,7 @@
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ191">
         <v>0.93</v>
@@ -40839,7 +40854,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -40917,10 +40932,10 @@
         <v>0.42</v>
       </c>
       <c r="AP192">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ192">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR192">
         <v>1.4</v>
@@ -41457,7 +41472,7 @@
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q195">
         <v>3.58</v>
@@ -41538,7 +41553,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ195">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR195">
         <v>1.4</v>
@@ -41663,7 +41678,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q196">
         <v>2.49</v>
@@ -42075,7 +42090,7 @@
         <v>225</v>
       </c>
       <c r="P198" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q198">
         <v>3.88</v>
@@ -42153,7 +42168,7 @@
         <v>2.08</v>
       </c>
       <c r="AP198">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ198">
         <v>2</v>
@@ -42281,7 +42296,7 @@
         <v>86</v>
       </c>
       <c r="P199" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q199">
         <v>4.13</v>
@@ -42359,10 +42374,10 @@
         <v>1.58</v>
       </c>
       <c r="AP199">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ199">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR199">
         <v>1.14</v>
@@ -42565,7 +42580,7 @@
         <v>0.55</v>
       </c>
       <c r="AP200">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ200">
         <v>0.67</v>
@@ -42693,7 +42708,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q201">
         <v>1.6</v>
@@ -43105,7 +43120,7 @@
         <v>200</v>
       </c>
       <c r="P203" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q203">
         <v>1.79</v>
@@ -43311,7 +43326,7 @@
         <v>86</v>
       </c>
       <c r="P204" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q204">
         <v>2.11</v>
@@ -43517,7 +43532,7 @@
         <v>229</v>
       </c>
       <c r="P205" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q205">
         <v>5.3</v>
@@ -43723,7 +43738,7 @@
         <v>230</v>
       </c>
       <c r="P206" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q206">
         <v>2</v>
@@ -43804,7 +43819,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ206">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR206">
         <v>1.59</v>
@@ -43929,7 +43944,7 @@
         <v>231</v>
       </c>
       <c r="P207" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q207">
         <v>2.2</v>
@@ -44216,7 +44231,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ208">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR208">
         <v>1.51</v>
@@ -44419,7 +44434,7 @@
         <v>2.17</v>
       </c>
       <c r="AP209">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ209">
         <v>2.33</v>
@@ -44753,7 +44768,7 @@
         <v>233</v>
       </c>
       <c r="P211" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q211">
         <v>3.09</v>
@@ -45165,7 +45180,7 @@
         <v>235</v>
       </c>
       <c r="P213" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q213">
         <v>1.61</v>
@@ -45243,10 +45258,10 @@
         <v>1.08</v>
       </c>
       <c r="AP213">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ213">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR213">
         <v>2.31</v>
@@ -45371,7 +45386,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q214">
         <v>2.8</v>
@@ -45655,7 +45670,7 @@
         <v>0.15</v>
       </c>
       <c r="AP215">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ215">
         <v>0.27</v>
@@ -45783,7 +45798,7 @@
         <v>236</v>
       </c>
       <c r="P216" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q216">
         <v>2.85</v>
@@ -45861,10 +45876,10 @@
         <v>1.69</v>
       </c>
       <c r="AP216">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ216">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR216">
         <v>1.55</v>
@@ -46195,7 +46210,7 @@
         <v>237</v>
       </c>
       <c r="P218" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q218">
         <v>2.25</v>
@@ -46401,7 +46416,7 @@
         <v>229</v>
       </c>
       <c r="P219" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q219">
         <v>5.25</v>
@@ -46607,7 +46622,7 @@
         <v>238</v>
       </c>
       <c r="P220" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q220">
         <v>3.83</v>
@@ -46685,7 +46700,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP220">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ220">
         <v>0.67</v>
@@ -47019,7 +47034,7 @@
         <v>240</v>
       </c>
       <c r="P222" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q222">
         <v>1.8</v>
@@ -47100,7 +47115,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ222">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR222">
         <v>1.93</v>
@@ -47225,7 +47240,7 @@
         <v>241</v>
       </c>
       <c r="P223" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q223">
         <v>2.52</v>
@@ -47843,7 +47858,7 @@
         <v>242</v>
       </c>
       <c r="P226" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q226">
         <v>1.85</v>
@@ -47924,7 +47939,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ226">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR226">
         <v>1.93</v>
@@ -48049,7 +48064,7 @@
         <v>243</v>
       </c>
       <c r="P227" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q227">
         <v>3.18</v>
@@ -48130,7 +48145,7 @@
         <v>1</v>
       </c>
       <c r="AQ227">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR227">
         <v>1.56</v>
@@ -48333,10 +48348,10 @@
         <v>0.43</v>
       </c>
       <c r="AP228">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ228">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR228">
         <v>1.56</v>
@@ -48461,7 +48476,7 @@
         <v>244</v>
       </c>
       <c r="P229" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q229">
         <v>2.21</v>
@@ -48873,7 +48888,7 @@
         <v>245</v>
       </c>
       <c r="P231" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q231">
         <v>1.55</v>
@@ -48951,7 +48966,7 @@
         <v>1</v>
       </c>
       <c r="AP231">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ231">
         <v>1</v>
@@ -49079,7 +49094,7 @@
         <v>243</v>
       </c>
       <c r="P232" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q232">
         <v>3.42</v>
@@ -49157,7 +49172,7 @@
         <v>1.08</v>
       </c>
       <c r="AP232">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AQ232">
         <v>1.2</v>
@@ -49491,7 +49506,7 @@
         <v>246</v>
       </c>
       <c r="P234" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q234">
         <v>2.4</v>
@@ -49697,7 +49712,7 @@
         <v>247</v>
       </c>
       <c r="P235" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q235">
         <v>6</v>
@@ -50109,7 +50124,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q237">
         <v>3.6</v>
@@ -50187,7 +50202,7 @@
         <v>1.29</v>
       </c>
       <c r="AP237">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ237">
         <v>1.27</v>
@@ -50315,7 +50330,7 @@
         <v>137</v>
       </c>
       <c r="P238" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q238">
         <v>5.5</v>
@@ -50599,7 +50614,7 @@
         <v>1.21</v>
       </c>
       <c r="AP239">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ239">
         <v>1.2</v>
@@ -50727,7 +50742,7 @@
         <v>250</v>
       </c>
       <c r="P240" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q240">
         <v>2.25</v>
@@ -51014,7 +51029,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ241">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR241">
         <v>1.48</v>
@@ -51090,6 +51105,830 @@
       </c>
       <c r="BP241">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="242" spans="1:68">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>7424528</v>
+      </c>
+      <c r="C242" t="s">
+        <v>68</v>
+      </c>
+      <c r="D242" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45416.41666666666</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242" t="s">
+        <v>81</v>
+      </c>
+      <c r="H242" t="s">
+        <v>82</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242">
+        <v>2</v>
+      </c>
+      <c r="L242">
+        <v>2</v>
+      </c>
+      <c r="M242">
+        <v>1</v>
+      </c>
+      <c r="N242">
+        <v>3</v>
+      </c>
+      <c r="O242" t="s">
+        <v>251</v>
+      </c>
+      <c r="P242" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q242">
+        <v>3.09</v>
+      </c>
+      <c r="R242">
+        <v>2.2</v>
+      </c>
+      <c r="S242">
+        <v>3.36</v>
+      </c>
+      <c r="T242">
+        <v>1.35</v>
+      </c>
+      <c r="U242">
+        <v>3.24</v>
+      </c>
+      <c r="V242">
+        <v>2.71</v>
+      </c>
+      <c r="W242">
+        <v>1.46</v>
+      </c>
+      <c r="X242">
+        <v>5.8</v>
+      </c>
+      <c r="Y242">
+        <v>1.1</v>
+      </c>
+      <c r="Z242">
+        <v>2.5</v>
+      </c>
+      <c r="AA242">
+        <v>3.1</v>
+      </c>
+      <c r="AB242">
+        <v>2.5</v>
+      </c>
+      <c r="AC242">
+        <v>1.05</v>
+      </c>
+      <c r="AD242">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE242">
+        <v>1.25</v>
+      </c>
+      <c r="AF242">
+        <v>3.83</v>
+      </c>
+      <c r="AG242">
+        <v>1.8</v>
+      </c>
+      <c r="AH242">
+        <v>1.95</v>
+      </c>
+      <c r="AI242">
+        <v>1.62</v>
+      </c>
+      <c r="AJ242">
+        <v>2.15</v>
+      </c>
+      <c r="AK242">
+        <v>1.45</v>
+      </c>
+      <c r="AL242">
+        <v>1.32</v>
+      </c>
+      <c r="AM242">
+        <v>1.5</v>
+      </c>
+      <c r="AN242">
+        <v>1.33</v>
+      </c>
+      <c r="AO242">
+        <v>1</v>
+      </c>
+      <c r="AP242">
+        <v>1.44</v>
+      </c>
+      <c r="AQ242">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR242">
+        <v>1.34</v>
+      </c>
+      <c r="AS242">
+        <v>1.24</v>
+      </c>
+      <c r="AT242">
+        <v>2.58</v>
+      </c>
+      <c r="AU242">
+        <v>5</v>
+      </c>
+      <c r="AV242">
+        <v>6</v>
+      </c>
+      <c r="AW242">
+        <v>6</v>
+      </c>
+      <c r="AX242">
+        <v>5</v>
+      </c>
+      <c r="AY242">
+        <v>11</v>
+      </c>
+      <c r="AZ242">
+        <v>11</v>
+      </c>
+      <c r="BA242">
+        <v>6</v>
+      </c>
+      <c r="BB242">
+        <v>6</v>
+      </c>
+      <c r="BC242">
+        <v>12</v>
+      </c>
+      <c r="BD242">
+        <v>1.75</v>
+      </c>
+      <c r="BE242">
+        <v>8.5</v>
+      </c>
+      <c r="BF242">
+        <v>2.41</v>
+      </c>
+      <c r="BG242">
+        <v>1.13</v>
+      </c>
+      <c r="BH242">
+        <v>5</v>
+      </c>
+      <c r="BI242">
+        <v>1.22</v>
+      </c>
+      <c r="BJ242">
+        <v>3.65</v>
+      </c>
+      <c r="BK242">
+        <v>1.4</v>
+      </c>
+      <c r="BL242">
+        <v>2.64</v>
+      </c>
+      <c r="BM242">
+        <v>1.74</v>
+      </c>
+      <c r="BN242">
+        <v>2.08</v>
+      </c>
+      <c r="BO242">
+        <v>2.15</v>
+      </c>
+      <c r="BP242">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="243" spans="1:68">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>7424529</v>
+      </c>
+      <c r="C243" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45416.41666666666</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243" t="s">
+        <v>85</v>
+      </c>
+      <c r="H243" t="s">
+        <v>71</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>1</v>
+      </c>
+      <c r="K243">
+        <v>2</v>
+      </c>
+      <c r="L243">
+        <v>3</v>
+      </c>
+      <c r="M243">
+        <v>2</v>
+      </c>
+      <c r="N243">
+        <v>5</v>
+      </c>
+      <c r="O243" t="s">
+        <v>252</v>
+      </c>
+      <c r="P243" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q243">
+        <v>2.12</v>
+      </c>
+      <c r="R243">
+        <v>2.32</v>
+      </c>
+      <c r="S243">
+        <v>5.1</v>
+      </c>
+      <c r="T243">
+        <v>1.3</v>
+      </c>
+      <c r="U243">
+        <v>3.2</v>
+      </c>
+      <c r="V243">
+        <v>2.65</v>
+      </c>
+      <c r="W243">
+        <v>1.42</v>
+      </c>
+      <c r="X243">
+        <v>6.5</v>
+      </c>
+      <c r="Y243">
+        <v>1.11</v>
+      </c>
+      <c r="Z243">
+        <v>1.6</v>
+      </c>
+      <c r="AA243">
+        <v>3.7</v>
+      </c>
+      <c r="AB243">
+        <v>4.6</v>
+      </c>
+      <c r="AC243">
+        <v>1.04</v>
+      </c>
+      <c r="AD243">
+        <v>10.25</v>
+      </c>
+      <c r="AE243">
+        <v>1.24</v>
+      </c>
+      <c r="AF243">
+        <v>3.92</v>
+      </c>
+      <c r="AG243">
+        <v>1.75</v>
+      </c>
+      <c r="AH243">
+        <v>1.95</v>
+      </c>
+      <c r="AI243">
+        <v>1.79</v>
+      </c>
+      <c r="AJ243">
+        <v>1.95</v>
+      </c>
+      <c r="AK243">
+        <v>1.13</v>
+      </c>
+      <c r="AL243">
+        <v>1.22</v>
+      </c>
+      <c r="AM243">
+        <v>2.25</v>
+      </c>
+      <c r="AN243">
+        <v>1.27</v>
+      </c>
+      <c r="AO243">
+        <v>0.67</v>
+      </c>
+      <c r="AP243">
+        <v>1.38</v>
+      </c>
+      <c r="AQ243">
+        <v>0.63</v>
+      </c>
+      <c r="AR243">
+        <v>1.56</v>
+      </c>
+      <c r="AS243">
+        <v>1.31</v>
+      </c>
+      <c r="AT243">
+        <v>2.87</v>
+      </c>
+      <c r="AU243">
+        <v>4</v>
+      </c>
+      <c r="AV243">
+        <v>3</v>
+      </c>
+      <c r="AW243">
+        <v>8</v>
+      </c>
+      <c r="AX243">
+        <v>5</v>
+      </c>
+      <c r="AY243">
+        <v>12</v>
+      </c>
+      <c r="AZ243">
+        <v>8</v>
+      </c>
+      <c r="BA243">
+        <v>3</v>
+      </c>
+      <c r="BB243">
+        <v>2</v>
+      </c>
+      <c r="BC243">
+        <v>5</v>
+      </c>
+      <c r="BD243">
+        <v>1.37</v>
+      </c>
+      <c r="BE243">
+        <v>9.5</v>
+      </c>
+      <c r="BF243">
+        <v>3.69</v>
+      </c>
+      <c r="BG243">
+        <v>1.17</v>
+      </c>
+      <c r="BH243">
+        <v>4.5</v>
+      </c>
+      <c r="BI243">
+        <v>1.25</v>
+      </c>
+      <c r="BJ243">
+        <v>3.42</v>
+      </c>
+      <c r="BK243">
+        <v>1.51</v>
+      </c>
+      <c r="BL243">
+        <v>2.51</v>
+      </c>
+      <c r="BM243">
+        <v>1.84</v>
+      </c>
+      <c r="BN243">
+        <v>1.96</v>
+      </c>
+      <c r="BO243">
+        <v>2.31</v>
+      </c>
+      <c r="BP243">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="244" spans="1:68">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>7424530</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+      <c r="D244" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45416.41666666666</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244" t="s">
+        <v>70</v>
+      </c>
+      <c r="H244" t="s">
+        <v>79</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>2</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>2</v>
+      </c>
+      <c r="O244" t="s">
+        <v>253</v>
+      </c>
+      <c r="P244" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q244">
+        <v>2.5</v>
+      </c>
+      <c r="R244">
+        <v>2.18</v>
+      </c>
+      <c r="S244">
+        <v>4.2</v>
+      </c>
+      <c r="T244">
+        <v>1.33</v>
+      </c>
+      <c r="U244">
+        <v>3.05</v>
+      </c>
+      <c r="V244">
+        <v>2.75</v>
+      </c>
+      <c r="W244">
+        <v>1.38</v>
+      </c>
+      <c r="X244">
+        <v>7</v>
+      </c>
+      <c r="Y244">
+        <v>1.1</v>
+      </c>
+      <c r="Z244">
+        <v>1.91</v>
+      </c>
+      <c r="AA244">
+        <v>3.3</v>
+      </c>
+      <c r="AB244">
+        <v>3.5</v>
+      </c>
+      <c r="AC244">
+        <v>1.05</v>
+      </c>
+      <c r="AD244">
+        <v>9.6</v>
+      </c>
+      <c r="AE244">
+        <v>1.27</v>
+      </c>
+      <c r="AF244">
+        <v>3.67</v>
+      </c>
+      <c r="AG244">
+        <v>1.83</v>
+      </c>
+      <c r="AH244">
+        <v>1.85</v>
+      </c>
+      <c r="AI244">
+        <v>1.71</v>
+      </c>
+      <c r="AJ244">
+        <v>2.05</v>
+      </c>
+      <c r="AK244">
+        <v>1.23</v>
+      </c>
+      <c r="AL244">
+        <v>1.27</v>
+      </c>
+      <c r="AM244">
+        <v>1.82</v>
+      </c>
+      <c r="AN244">
+        <v>0.73</v>
+      </c>
+      <c r="AO244">
+        <v>0.47</v>
+      </c>
+      <c r="AP244">
+        <v>0.88</v>
+      </c>
+      <c r="AQ244">
+        <v>0.44</v>
+      </c>
+      <c r="AR244">
+        <v>1.19</v>
+      </c>
+      <c r="AS244">
+        <v>1.06</v>
+      </c>
+      <c r="AT244">
+        <v>2.25</v>
+      </c>
+      <c r="AU244">
+        <v>4</v>
+      </c>
+      <c r="AV244">
+        <v>5</v>
+      </c>
+      <c r="AW244">
+        <v>5</v>
+      </c>
+      <c r="AX244">
+        <v>9</v>
+      </c>
+      <c r="AY244">
+        <v>9</v>
+      </c>
+      <c r="AZ244">
+        <v>14</v>
+      </c>
+      <c r="BA244">
+        <v>8</v>
+      </c>
+      <c r="BB244">
+        <v>3</v>
+      </c>
+      <c r="BC244">
+        <v>11</v>
+      </c>
+      <c r="BD244">
+        <v>1.64</v>
+      </c>
+      <c r="BE244">
+        <v>8.5</v>
+      </c>
+      <c r="BF244">
+        <v>2.64</v>
+      </c>
+      <c r="BG244">
+        <v>1.13</v>
+      </c>
+      <c r="BH244">
+        <v>5</v>
+      </c>
+      <c r="BI244">
+        <v>1.22</v>
+      </c>
+      <c r="BJ244">
+        <v>3.65</v>
+      </c>
+      <c r="BK244">
+        <v>1.4</v>
+      </c>
+      <c r="BL244">
+        <v>2.64</v>
+      </c>
+      <c r="BM244">
+        <v>1.74</v>
+      </c>
+      <c r="BN244">
+        <v>2.07</v>
+      </c>
+      <c r="BO244">
+        <v>2.17</v>
+      </c>
+      <c r="BP244">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="245" spans="1:68">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>7424531</v>
+      </c>
+      <c r="C245" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45416.54166666666</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245" t="s">
+        <v>73</v>
+      </c>
+      <c r="H245" t="s">
+        <v>80</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>1</v>
+      </c>
+      <c r="L245">
+        <v>5</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>5</v>
+      </c>
+      <c r="O245" t="s">
+        <v>254</v>
+      </c>
+      <c r="P245" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q245">
+        <v>1.74</v>
+      </c>
+      <c r="R245">
+        <v>2.7</v>
+      </c>
+      <c r="S245">
+        <v>6.5</v>
+      </c>
+      <c r="T245">
+        <v>1.22</v>
+      </c>
+      <c r="U245">
+        <v>3.8</v>
+      </c>
+      <c r="V245">
+        <v>2.25</v>
+      </c>
+      <c r="W245">
+        <v>1.57</v>
+      </c>
+      <c r="X245">
+        <v>4.95</v>
+      </c>
+      <c r="Y245">
+        <v>1.14</v>
+      </c>
+      <c r="Z245">
+        <v>1.32</v>
+      </c>
+      <c r="AA245">
+        <v>5</v>
+      </c>
+      <c r="AB245">
+        <v>7.5</v>
+      </c>
+      <c r="AC245">
+        <v>1.02</v>
+      </c>
+      <c r="AD245">
+        <v>12.25</v>
+      </c>
+      <c r="AE245">
+        <v>1.17</v>
+      </c>
+      <c r="AF245">
+        <v>4.92</v>
+      </c>
+      <c r="AG245">
+        <v>1.58</v>
+      </c>
+      <c r="AH245">
+        <v>2.28</v>
+      </c>
+      <c r="AI245">
+        <v>1.83</v>
+      </c>
+      <c r="AJ245">
+        <v>1.9</v>
+      </c>
+      <c r="AK245">
+        <v>1.05</v>
+      </c>
+      <c r="AL245">
+        <v>1.13</v>
+      </c>
+      <c r="AM245">
+        <v>3.15</v>
+      </c>
+      <c r="AN245">
+        <v>2.53</v>
+      </c>
+      <c r="AO245">
+        <v>1.67</v>
+      </c>
+      <c r="AP245">
+        <v>2.56</v>
+      </c>
+      <c r="AQ245">
+        <v>1.56</v>
+      </c>
+      <c r="AR245">
+        <v>2.35</v>
+      </c>
+      <c r="AS245">
+        <v>1.73</v>
+      </c>
+      <c r="AT245">
+        <v>4.08</v>
+      </c>
+      <c r="AU245">
+        <v>10</v>
+      </c>
+      <c r="AV245">
+        <v>2</v>
+      </c>
+      <c r="AW245">
+        <v>4</v>
+      </c>
+      <c r="AX245">
+        <v>4</v>
+      </c>
+      <c r="AY245">
+        <v>14</v>
+      </c>
+      <c r="AZ245">
+        <v>6</v>
+      </c>
+      <c r="BA245">
+        <v>2</v>
+      </c>
+      <c r="BB245">
+        <v>4</v>
+      </c>
+      <c r="BC245">
+        <v>6</v>
+      </c>
+      <c r="BD245">
+        <v>1.1</v>
+      </c>
+      <c r="BE245">
+        <v>13</v>
+      </c>
+      <c r="BF245">
+        <v>8.25</v>
+      </c>
+      <c r="BG245">
+        <v>1.12</v>
+      </c>
+      <c r="BH245">
+        <v>5.25</v>
+      </c>
+      <c r="BI245">
+        <v>1.25</v>
+      </c>
+      <c r="BJ245">
+        <v>3.6</v>
+      </c>
+      <c r="BK245">
+        <v>1.33</v>
+      </c>
+      <c r="BL245">
+        <v>2.93</v>
+      </c>
+      <c r="BM245">
+        <v>1.61</v>
+      </c>
+      <c r="BN245">
+        <v>2.27</v>
+      </c>
+      <c r="BO245">
+        <v>2</v>
+      </c>
+      <c r="BP245">
+        <v>1.81</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="363">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -781,6 +781,15 @@
     <t>['28', '48', '55', '58', '78']</t>
   </si>
   <si>
+    <t>['10', '12', '62']</t>
+  </si>
+  <si>
+    <t>['56', '90+2']</t>
+  </si>
+  <si>
+    <t>['20', '42', '44']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -1455,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP245"/>
+  <dimension ref="A1:BP248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1920,7 +1929,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -2204,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ4">
         <v>2</v>
@@ -3237,7 +3246,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3774,7 +3783,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q12">
         <v>5.25</v>
@@ -4186,7 +4195,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4392,7 +4401,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q15">
         <v>2.1</v>
@@ -4598,7 +4607,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4679,7 +4688,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ16">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR16">
         <v>1.39</v>
@@ -4804,7 +4813,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4882,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ17">
         <v>0.8</v>
@@ -5010,7 +5019,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5091,7 +5100,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR18">
         <v>1.12</v>
@@ -5216,7 +5225,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q19">
         <v>1.5</v>
@@ -5422,7 +5431,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q20">
         <v>3.3</v>
@@ -5503,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR20">
         <v>2.09</v>
@@ -5628,7 +5637,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q21">
         <v>2.45</v>
@@ -5706,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21">
         <v>0.27</v>
@@ -5912,7 +5921,7 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ22">
         <v>0.73</v>
@@ -6246,7 +6255,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6324,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ24">
         <v>1.56</v>
@@ -6452,7 +6461,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q25">
         <v>1.44</v>
@@ -6945,7 +6954,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ27">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR27">
         <v>0.7</v>
@@ -7070,7 +7079,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q28">
         <v>4.75</v>
@@ -7276,7 +7285,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q29">
         <v>4.75</v>
@@ -7688,7 +7697,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -8100,7 +8109,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -8306,7 +8315,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q34">
         <v>2.66</v>
@@ -8387,7 +8396,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ34">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR34">
         <v>1.19</v>
@@ -8718,7 +8727,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8924,7 +8933,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9002,7 +9011,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ37">
         <v>2.33</v>
@@ -9208,10 +9217,10 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR38">
         <v>1.72</v>
@@ -9414,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ39">
         <v>0.44</v>
@@ -10160,7 +10169,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10572,7 +10581,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10859,7 +10868,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ46">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR46">
         <v>1.72</v>
@@ -10984,7 +10993,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q47">
         <v>5.5</v>
@@ -11474,7 +11483,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ49">
         <v>1.13</v>
@@ -11808,7 +11817,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q51">
         <v>2.98</v>
@@ -12095,7 +12104,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ52">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR52">
         <v>1.69</v>
@@ -12298,7 +12307,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ53">
         <v>0.9399999999999999</v>
@@ -12426,7 +12435,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12632,7 +12641,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q55">
         <v>1.4</v>
@@ -12838,7 +12847,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q56">
         <v>2.95</v>
@@ -12916,10 +12925,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR56">
         <v>1.44</v>
@@ -13044,7 +13053,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -14074,7 +14083,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14280,7 +14289,7 @@
         <v>95</v>
       </c>
       <c r="P63" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14361,7 +14370,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR63">
         <v>0.9</v>
@@ -14898,7 +14907,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -15104,7 +15113,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q67">
         <v>3.25</v>
@@ -15185,7 +15194,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ67">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR67">
         <v>1.28</v>
@@ -15310,7 +15319,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15516,7 +15525,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15597,7 +15606,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR69">
         <v>1.68</v>
@@ -15800,7 +15809,7 @@
         <v>0.6</v>
       </c>
       <c r="AP70">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ70">
         <v>0.73</v>
@@ -15928,7 +15937,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q71">
         <v>1.67</v>
@@ -16006,7 +16015,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ71">
         <v>1.13</v>
@@ -16134,7 +16143,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16546,7 +16555,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q74">
         <v>2.85</v>
@@ -16752,7 +16761,7 @@
         <v>113</v>
       </c>
       <c r="P75" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q75">
         <v>2.7</v>
@@ -16958,7 +16967,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q76">
         <v>3.3</v>
@@ -17039,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR76">
         <v>1.65</v>
@@ -17654,7 +17663,7 @@
         <v>2.5</v>
       </c>
       <c r="AP79">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ79">
         <v>2.27</v>
@@ -18687,7 +18696,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ84">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR84">
         <v>1.67</v>
@@ -19018,7 +19027,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -19096,7 +19105,7 @@
         <v>2.2</v>
       </c>
       <c r="AP86">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ86">
         <v>2.33</v>
@@ -19224,7 +19233,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q87">
         <v>5.5</v>
@@ -19430,7 +19439,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -19508,7 +19517,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ88">
         <v>0.73</v>
@@ -19636,7 +19645,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -19717,7 +19726,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ89">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR89">
         <v>1.28</v>
@@ -19923,7 +19932,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR90">
         <v>1.28</v>
@@ -20872,7 +20881,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -20950,7 +20959,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ95">
         <v>1.56</v>
@@ -21568,7 +21577,7 @@
         <v>1.17</v>
       </c>
       <c r="AP98">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ98">
         <v>0.93</v>
@@ -21696,7 +21705,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21777,7 +21786,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ99">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR99">
         <v>1.6</v>
@@ -22314,7 +22323,7 @@
         <v>86</v>
       </c>
       <c r="P102" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q102">
         <v>1.67</v>
@@ -22392,7 +22401,7 @@
         <v>0</v>
       </c>
       <c r="AP102">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ102">
         <v>0.63</v>
@@ -22520,7 +22529,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q103">
         <v>4.75</v>
@@ -22726,7 +22735,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22932,7 +22941,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q105">
         <v>2.36</v>
@@ -23219,7 +23228,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR106">
         <v>1.37</v>
@@ -23422,10 +23431,10 @@
         <v>1.67</v>
       </c>
       <c r="AP107">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ107">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR107">
         <v>1.03</v>
@@ -23962,7 +23971,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24374,7 +24383,7 @@
         <v>111</v>
       </c>
       <c r="P112" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q112">
         <v>2.05</v>
@@ -24580,7 +24589,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24864,10 +24873,10 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ114">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR114">
         <v>1.49</v>
@@ -24992,7 +25001,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q115">
         <v>3.83</v>
@@ -25610,7 +25619,7 @@
         <v>140</v>
       </c>
       <c r="P118" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q118">
         <v>2.05</v>
@@ -25688,7 +25697,7 @@
         <v>1.17</v>
       </c>
       <c r="AP118">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ118">
         <v>1.27</v>
@@ -25816,7 +25825,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -26022,7 +26031,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q120">
         <v>4.8</v>
@@ -26309,7 +26318,7 @@
         <v>2</v>
       </c>
       <c r="AQ121">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR121">
         <v>1.65</v>
@@ -26434,7 +26443,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -26515,7 +26524,7 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR122">
         <v>1.69</v>
@@ -26718,7 +26727,7 @@
         <v>1.5</v>
       </c>
       <c r="AP123">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ123">
         <v>2</v>
@@ -26924,7 +26933,7 @@
         <v>1.29</v>
       </c>
       <c r="AP124">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ124">
         <v>0.9399999999999999</v>
@@ -27876,7 +27885,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q129">
         <v>2.85</v>
@@ -28082,7 +28091,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q130">
         <v>6.06</v>
@@ -28288,7 +28297,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q131">
         <v>2.35</v>
@@ -28494,7 +28503,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28906,7 +28915,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q134">
         <v>1.91</v>
@@ -29112,7 +29121,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q135">
         <v>2.22</v>
@@ -29318,7 +29327,7 @@
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q136">
         <v>3.77</v>
@@ -29396,7 +29405,7 @@
         <v>1.25</v>
       </c>
       <c r="AP136">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ136">
         <v>1.56</v>
@@ -29602,7 +29611,7 @@
         <v>0.13</v>
       </c>
       <c r="AP137">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ137">
         <v>0.27</v>
@@ -29811,7 +29820,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ138">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR138">
         <v>2.12</v>
@@ -29936,7 +29945,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q139">
         <v>1.95</v>
@@ -30142,7 +30151,7 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30429,7 +30438,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ141">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR141">
         <v>1.72</v>
@@ -30760,7 +30769,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q143">
         <v>2.89</v>
@@ -31253,7 +31262,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ145">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR145">
         <v>1.25</v>
@@ -31584,7 +31593,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31790,7 +31799,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -32202,7 +32211,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -32695,7 +32704,7 @@
         <v>2</v>
       </c>
       <c r="AQ152">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR152">
         <v>1.68</v>
@@ -32820,7 +32829,7 @@
         <v>164</v>
       </c>
       <c r="P153" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q153">
         <v>1.95</v>
@@ -33104,10 +33113,10 @@
         <v>1.11</v>
       </c>
       <c r="AP154">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ154">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR154">
         <v>1.95</v>
@@ -33232,7 +33241,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33310,7 +33319,7 @@
         <v>1.11</v>
       </c>
       <c r="AP155">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ155">
         <v>0.9399999999999999</v>
@@ -33438,7 +33447,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33516,7 +33525,7 @@
         <v>0.5</v>
       </c>
       <c r="AP156">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ156">
         <v>0.44</v>
@@ -33644,7 +33653,7 @@
         <v>199</v>
       </c>
       <c r="P157" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q157">
         <v>1.62</v>
@@ -33850,7 +33859,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34056,7 +34065,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q159">
         <v>2.8</v>
@@ -34262,7 +34271,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -34674,7 +34683,7 @@
         <v>88</v>
       </c>
       <c r="P162" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q162">
         <v>2.8</v>
@@ -34880,7 +34889,7 @@
         <v>201</v>
       </c>
       <c r="P163" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q163">
         <v>2.16</v>
@@ -35086,7 +35095,7 @@
         <v>202</v>
       </c>
       <c r="P164" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q164">
         <v>2.9</v>
@@ -35292,7 +35301,7 @@
         <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q165">
         <v>4.1</v>
@@ -35498,7 +35507,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q166">
         <v>4.2</v>
@@ -35704,7 +35713,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -35910,7 +35919,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q168">
         <v>1.63</v>
@@ -35991,7 +36000,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ168">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR168">
         <v>2.01</v>
@@ -36194,10 +36203,10 @@
         <v>1.22</v>
       </c>
       <c r="AP169">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ169">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR169">
         <v>1.23</v>
@@ -36322,7 +36331,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36528,7 +36537,7 @@
         <v>207</v>
       </c>
       <c r="P171" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q171">
         <v>2.35</v>
@@ -36606,7 +36615,7 @@
         <v>0.5</v>
       </c>
       <c r="AP171">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ171">
         <v>0.63</v>
@@ -36734,7 +36743,7 @@
         <v>208</v>
       </c>
       <c r="P172" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q172">
         <v>2.25</v>
@@ -37018,10 +37027,10 @@
         <v>1.1</v>
       </c>
       <c r="AP173">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ173">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR173">
         <v>1.43</v>
@@ -37224,7 +37233,7 @@
         <v>0.45</v>
       </c>
       <c r="AP174">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ174">
         <v>0.44</v>
@@ -37433,7 +37442,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ175">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR175">
         <v>1.39</v>
@@ -37764,7 +37773,7 @@
         <v>173</v>
       </c>
       <c r="P177" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q177">
         <v>4.33</v>
@@ -37970,7 +37979,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q178">
         <v>3.75</v>
@@ -38176,7 +38185,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q179">
         <v>1.84</v>
@@ -38382,7 +38391,7 @@
         <v>214</v>
       </c>
       <c r="P180" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q180">
         <v>2.7</v>
@@ -38794,7 +38803,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -39078,10 +39087,10 @@
         <v>0.6</v>
       </c>
       <c r="AP183">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ183">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR183">
         <v>1.39</v>
@@ -39206,7 +39215,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q184">
         <v>4.2</v>
@@ -39905,7 +39914,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ187">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR187">
         <v>1.62</v>
@@ -40108,7 +40117,7 @@
         <v>1.18</v>
       </c>
       <c r="AP188">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ188">
         <v>1.13</v>
@@ -40442,7 +40451,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q190">
         <v>2.21</v>
@@ -40523,7 +40532,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ190">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR190">
         <v>1.94</v>
@@ -40854,7 +40863,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41138,7 +41147,7 @@
         <v>2.36</v>
       </c>
       <c r="AP193">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ193">
         <v>2.33</v>
@@ -41472,7 +41481,7 @@
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q195">
         <v>3.58</v>
@@ -41678,7 +41687,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q196">
         <v>2.49</v>
@@ -41759,7 +41768,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ196">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR196">
         <v>1.54</v>
@@ -41962,7 +41971,7 @@
         <v>1.55</v>
       </c>
       <c r="AP197">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ197">
         <v>1.27</v>
@@ -42090,7 +42099,7 @@
         <v>225</v>
       </c>
       <c r="P198" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q198">
         <v>3.88</v>
@@ -42296,7 +42305,7 @@
         <v>86</v>
       </c>
       <c r="P199" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q199">
         <v>4.13</v>
@@ -42583,7 +42592,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ200">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR200">
         <v>2.34</v>
@@ -42708,7 +42717,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q201">
         <v>1.6</v>
@@ -43120,7 +43129,7 @@
         <v>200</v>
       </c>
       <c r="P203" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q203">
         <v>1.79</v>
@@ -43198,10 +43207,10 @@
         <v>0.5</v>
       </c>
       <c r="AP203">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ203">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR203">
         <v>1.92</v>
@@ -43326,7 +43335,7 @@
         <v>86</v>
       </c>
       <c r="P204" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q204">
         <v>2.11</v>
@@ -43532,7 +43541,7 @@
         <v>229</v>
       </c>
       <c r="P205" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q205">
         <v>5.3</v>
@@ -43738,7 +43747,7 @@
         <v>230</v>
       </c>
       <c r="P206" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q206">
         <v>2</v>
@@ -43944,7 +43953,7 @@
         <v>231</v>
       </c>
       <c r="P207" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q207">
         <v>2.2</v>
@@ -44228,7 +44237,7 @@
         <v>0.5</v>
       </c>
       <c r="AP208">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ208">
         <v>0.63</v>
@@ -44768,7 +44777,7 @@
         <v>233</v>
       </c>
       <c r="P211" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q211">
         <v>3.09</v>
@@ -44849,7 +44858,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ211">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR211">
         <v>1.43</v>
@@ -45180,7 +45189,7 @@
         <v>235</v>
       </c>
       <c r="P213" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q213">
         <v>1.61</v>
@@ -45386,7 +45395,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q214">
         <v>2.8</v>
@@ -45464,7 +45473,7 @@
         <v>0.62</v>
       </c>
       <c r="AP214">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ214">
         <v>0.8</v>
@@ -45798,7 +45807,7 @@
         <v>236</v>
       </c>
       <c r="P216" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q216">
         <v>2.85</v>
@@ -46085,7 +46094,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ217">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR217">
         <v>1.9</v>
@@ -46210,7 +46219,7 @@
         <v>237</v>
       </c>
       <c r="P218" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q218">
         <v>2.25</v>
@@ -46416,7 +46425,7 @@
         <v>229</v>
       </c>
       <c r="P219" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q219">
         <v>5.25</v>
@@ -46622,7 +46631,7 @@
         <v>238</v>
       </c>
       <c r="P220" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q220">
         <v>3.83</v>
@@ -46703,7 +46712,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ220">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR220">
         <v>1.35</v>
@@ -46906,7 +46915,7 @@
         <v>1.38</v>
       </c>
       <c r="AP221">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ221">
         <v>1.27</v>
@@ -47034,7 +47043,7 @@
         <v>240</v>
       </c>
       <c r="P222" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q222">
         <v>1.8</v>
@@ -47240,7 +47249,7 @@
         <v>241</v>
       </c>
       <c r="P223" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q223">
         <v>2.52</v>
@@ -47730,7 +47739,7 @@
         <v>2.38</v>
       </c>
       <c r="AP225">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ225">
         <v>2.27</v>
@@ -47858,7 +47867,7 @@
         <v>242</v>
       </c>
       <c r="P226" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q226">
         <v>1.85</v>
@@ -48064,7 +48073,7 @@
         <v>243</v>
       </c>
       <c r="P227" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q227">
         <v>3.18</v>
@@ -48476,7 +48485,7 @@
         <v>244</v>
       </c>
       <c r="P229" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q229">
         <v>2.21</v>
@@ -48554,7 +48563,7 @@
         <v>0.21</v>
       </c>
       <c r="AP229">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ229">
         <v>0.27</v>
@@ -48888,7 +48897,7 @@
         <v>245</v>
       </c>
       <c r="P231" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q231">
         <v>1.55</v>
@@ -48969,7 +48978,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ231">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR231">
         <v>2.29</v>
@@ -49094,7 +49103,7 @@
         <v>243</v>
       </c>
       <c r="P232" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q232">
         <v>3.42</v>
@@ -49175,7 +49184,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ232">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR232">
         <v>1.2</v>
@@ -49506,7 +49515,7 @@
         <v>246</v>
       </c>
       <c r="P234" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q234">
         <v>2.4</v>
@@ -49587,7 +49596,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ234">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR234">
         <v>1.93</v>
@@ -49712,7 +49721,7 @@
         <v>247</v>
       </c>
       <c r="P235" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q235">
         <v>6</v>
@@ -49790,7 +49799,7 @@
         <v>2.21</v>
       </c>
       <c r="AP235">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ235">
         <v>2.27</v>
@@ -49996,7 +50005,7 @@
         <v>1</v>
       </c>
       <c r="AP236">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ236">
         <v>0.93</v>
@@ -50124,7 +50133,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q237">
         <v>3.6</v>
@@ -50330,7 +50339,7 @@
         <v>137</v>
       </c>
       <c r="P238" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q238">
         <v>5.5</v>
@@ -50617,7 +50626,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ239">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR239">
         <v>1.56</v>
@@ -50742,7 +50751,7 @@
         <v>250</v>
       </c>
       <c r="P240" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q240">
         <v>2.25</v>
@@ -51154,7 +51163,7 @@
         <v>251</v>
       </c>
       <c r="P242" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q242">
         <v>3.09</v>
@@ -51247,22 +51256,22 @@
         <v>2.58</v>
       </c>
       <c r="AU242">
+        <v>0</v>
+      </c>
+      <c r="AV242">
         <v>5</v>
       </c>
-      <c r="AV242">
-        <v>6</v>
-      </c>
       <c r="AW242">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX242">
+        <v>3</v>
+      </c>
+      <c r="AY242">
         <v>5</v>
       </c>
-      <c r="AY242">
-        <v>11</v>
-      </c>
       <c r="AZ242">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA242">
         <v>6</v>
@@ -51360,7 +51369,7 @@
         <v>252</v>
       </c>
       <c r="P243" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q243">
         <v>2.12</v>
@@ -51453,7 +51462,7 @@
         <v>2.87</v>
       </c>
       <c r="AU243">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV243">
         <v>3</v>
@@ -51462,13 +51471,13 @@
         <v>8</v>
       </c>
       <c r="AX243">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY243">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ243">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA243">
         <v>3</v>
@@ -51659,22 +51668,22 @@
         <v>2.25</v>
       </c>
       <c r="AU244">
+        <v>2</v>
+      </c>
+      <c r="AV244">
         <v>4</v>
       </c>
-      <c r="AV244">
-        <v>5</v>
-      </c>
       <c r="AW244">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX244">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY244">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AZ244">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA244">
         <v>8</v>
@@ -51865,10 +51874,10 @@
         <v>4.08</v>
       </c>
       <c r="AU245">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW245">
         <v>4</v>
@@ -51877,10 +51886,10 @@
         <v>4</v>
       </c>
       <c r="AY245">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AZ245">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA245">
         <v>2</v>
@@ -51929,6 +51938,624 @@
       </c>
       <c r="BP245">
         <v>1.81</v>
+      </c>
+    </row>
+    <row r="246" spans="1:68">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>7424532</v>
+      </c>
+      <c r="C246" t="s">
+        <v>68</v>
+      </c>
+      <c r="D246" t="s">
+        <v>69</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45417.41666666666</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246" t="s">
+        <v>83</v>
+      </c>
+      <c r="H246" t="s">
+        <v>74</v>
+      </c>
+      <c r="I246">
+        <v>2</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>2</v>
+      </c>
+      <c r="L246">
+        <v>3</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>3</v>
+      </c>
+      <c r="O246" t="s">
+        <v>255</v>
+      </c>
+      <c r="P246" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q246">
+        <v>1.95</v>
+      </c>
+      <c r="R246">
+        <v>2.55</v>
+      </c>
+      <c r="S246">
+        <v>5.25</v>
+      </c>
+      <c r="T246">
+        <v>1.24</v>
+      </c>
+      <c r="U246">
+        <v>3.7</v>
+      </c>
+      <c r="V246">
+        <v>2.32</v>
+      </c>
+      <c r="W246">
+        <v>1.54</v>
+      </c>
+      <c r="X246">
+        <v>5.25</v>
+      </c>
+      <c r="Y246">
+        <v>1.14</v>
+      </c>
+      <c r="Z246">
+        <v>1.45</v>
+      </c>
+      <c r="AA246">
+        <v>4.5</v>
+      </c>
+      <c r="AB246">
+        <v>5.78</v>
+      </c>
+      <c r="AC246">
+        <v>1.02</v>
+      </c>
+      <c r="AD246">
+        <v>12</v>
+      </c>
+      <c r="AE246">
+        <v>1.18</v>
+      </c>
+      <c r="AF246">
+        <v>4.73</v>
+      </c>
+      <c r="AG246">
+        <v>1.56</v>
+      </c>
+      <c r="AH246">
+        <v>2.27</v>
+      </c>
+      <c r="AI246">
+        <v>1.67</v>
+      </c>
+      <c r="AJ246">
+        <v>2.1</v>
+      </c>
+      <c r="AK246">
+        <v>1.11</v>
+      </c>
+      <c r="AL246">
+        <v>1.17</v>
+      </c>
+      <c r="AM246">
+        <v>2.5</v>
+      </c>
+      <c r="AN246">
+        <v>2.13</v>
+      </c>
+      <c r="AO246">
+        <v>1.2</v>
+      </c>
+      <c r="AP246">
+        <v>2.19</v>
+      </c>
+      <c r="AQ246">
+        <v>1.13</v>
+      </c>
+      <c r="AR246">
+        <v>1.87</v>
+      </c>
+      <c r="AS246">
+        <v>1.39</v>
+      </c>
+      <c r="AT246">
+        <v>3.26</v>
+      </c>
+      <c r="AU246">
+        <v>3</v>
+      </c>
+      <c r="AV246">
+        <v>4</v>
+      </c>
+      <c r="AW246">
+        <v>3</v>
+      </c>
+      <c r="AX246">
+        <v>3</v>
+      </c>
+      <c r="AY246">
+        <v>6</v>
+      </c>
+      <c r="AZ246">
+        <v>7</v>
+      </c>
+      <c r="BA246">
+        <v>4</v>
+      </c>
+      <c r="BB246">
+        <v>3</v>
+      </c>
+      <c r="BC246">
+        <v>7</v>
+      </c>
+      <c r="BD246">
+        <v>1.41</v>
+      </c>
+      <c r="BE246">
+        <v>9.5</v>
+      </c>
+      <c r="BF246">
+        <v>3.35</v>
+      </c>
+      <c r="BG246">
+        <v>1.12</v>
+      </c>
+      <c r="BH246">
+        <v>5.25</v>
+      </c>
+      <c r="BI246">
+        <v>1.25</v>
+      </c>
+      <c r="BJ246">
+        <v>3.6</v>
+      </c>
+      <c r="BK246">
+        <v>1.33</v>
+      </c>
+      <c r="BL246">
+        <v>2.93</v>
+      </c>
+      <c r="BM246">
+        <v>1.61</v>
+      </c>
+      <c r="BN246">
+        <v>2.25</v>
+      </c>
+      <c r="BO246">
+        <v>1.9</v>
+      </c>
+      <c r="BP246">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:68">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>7424533</v>
+      </c>
+      <c r="C247" t="s">
+        <v>68</v>
+      </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45417.41666666666</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247" t="s">
+        <v>72</v>
+      </c>
+      <c r="H247" t="s">
+        <v>75</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>2</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>2</v>
+      </c>
+      <c r="O247" t="s">
+        <v>256</v>
+      </c>
+      <c r="P247" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q247">
+        <v>3.25</v>
+      </c>
+      <c r="R247">
+        <v>2.1</v>
+      </c>
+      <c r="S247">
+        <v>3.4</v>
+      </c>
+      <c r="T247">
+        <v>1.4</v>
+      </c>
+      <c r="U247">
+        <v>2.75</v>
+      </c>
+      <c r="V247">
+        <v>3</v>
+      </c>
+      <c r="W247">
+        <v>1.36</v>
+      </c>
+      <c r="X247">
+        <v>8</v>
+      </c>
+      <c r="Y247">
+        <v>1.08</v>
+      </c>
+      <c r="Z247">
+        <v>2.5</v>
+      </c>
+      <c r="AA247">
+        <v>3.1</v>
+      </c>
+      <c r="AB247">
+        <v>2.76</v>
+      </c>
+      <c r="AC247">
+        <v>1.03</v>
+      </c>
+      <c r="AD247">
+        <v>7.9</v>
+      </c>
+      <c r="AE247">
+        <v>1.28</v>
+      </c>
+      <c r="AF247">
+        <v>3.18</v>
+      </c>
+      <c r="AG247">
+        <v>1.96</v>
+      </c>
+      <c r="AH247">
+        <v>1.75</v>
+      </c>
+      <c r="AI247">
+        <v>1.75</v>
+      </c>
+      <c r="AJ247">
+        <v>2</v>
+      </c>
+      <c r="AK247">
+        <v>1.5</v>
+      </c>
+      <c r="AL247">
+        <v>1.25</v>
+      </c>
+      <c r="AM247">
+        <v>1.45</v>
+      </c>
+      <c r="AN247">
+        <v>1.2</v>
+      </c>
+      <c r="AO247">
+        <v>1.33</v>
+      </c>
+      <c r="AP247">
+        <v>1.26</v>
+      </c>
+      <c r="AQ247">
+        <v>1.29</v>
+      </c>
+      <c r="AR247">
+        <v>1.47</v>
+      </c>
+      <c r="AS247">
+        <v>1.49</v>
+      </c>
+      <c r="AT247">
+        <v>2.96</v>
+      </c>
+      <c r="AU247">
+        <v>3</v>
+      </c>
+      <c r="AV247">
+        <v>3</v>
+      </c>
+      <c r="AW247">
+        <v>1</v>
+      </c>
+      <c r="AX247">
+        <v>3</v>
+      </c>
+      <c r="AY247">
+        <v>4</v>
+      </c>
+      <c r="AZ247">
+        <v>6</v>
+      </c>
+      <c r="BA247">
+        <v>1</v>
+      </c>
+      <c r="BB247">
+        <v>6</v>
+      </c>
+      <c r="BC247">
+        <v>7</v>
+      </c>
+      <c r="BD247">
+        <v>1.95</v>
+      </c>
+      <c r="BE247">
+        <v>8</v>
+      </c>
+      <c r="BF247">
+        <v>2.05</v>
+      </c>
+      <c r="BG247">
+        <v>1.16</v>
+      </c>
+      <c r="BH247">
+        <v>4.8</v>
+      </c>
+      <c r="BI247">
+        <v>1.28</v>
+      </c>
+      <c r="BJ247">
+        <v>3.18</v>
+      </c>
+      <c r="BK247">
+        <v>1.52</v>
+      </c>
+      <c r="BL247">
+        <v>2.3</v>
+      </c>
+      <c r="BM247">
+        <v>2</v>
+      </c>
+      <c r="BN247">
+        <v>1.73</v>
+      </c>
+      <c r="BO247">
+        <v>2.4</v>
+      </c>
+      <c r="BP247">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="248" spans="1:68">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>7424534</v>
+      </c>
+      <c r="C248" t="s">
+        <v>68</v>
+      </c>
+      <c r="D248" t="s">
+        <v>69</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45417.41666666666</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248" t="s">
+        <v>84</v>
+      </c>
+      <c r="H248" t="s">
+        <v>78</v>
+      </c>
+      <c r="I248">
+        <v>3</v>
+      </c>
+      <c r="J248">
+        <v>1</v>
+      </c>
+      <c r="K248">
+        <v>4</v>
+      </c>
+      <c r="L248">
+        <v>3</v>
+      </c>
+      <c r="M248">
+        <v>1</v>
+      </c>
+      <c r="N248">
+        <v>4</v>
+      </c>
+      <c r="O248" t="s">
+        <v>257</v>
+      </c>
+      <c r="P248" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q248">
+        <v>2.75</v>
+      </c>
+      <c r="R248">
+        <v>2.1</v>
+      </c>
+      <c r="S248">
+        <v>4</v>
+      </c>
+      <c r="T248">
+        <v>1.4</v>
+      </c>
+      <c r="U248">
+        <v>2.75</v>
+      </c>
+      <c r="V248">
+        <v>3</v>
+      </c>
+      <c r="W248">
+        <v>1.36</v>
+      </c>
+      <c r="X248">
+        <v>8</v>
+      </c>
+      <c r="Y248">
+        <v>1.08</v>
+      </c>
+      <c r="Z248">
+        <v>2</v>
+      </c>
+      <c r="AA248">
+        <v>3.35</v>
+      </c>
+      <c r="AB248">
+        <v>3.49</v>
+      </c>
+      <c r="AC248">
+        <v>1.02</v>
+      </c>
+      <c r="AD248">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE248">
+        <v>1.23</v>
+      </c>
+      <c r="AF248">
+        <v>3.56</v>
+      </c>
+      <c r="AG248">
+        <v>1.78</v>
+      </c>
+      <c r="AH248">
+        <v>1.93</v>
+      </c>
+      <c r="AI248">
+        <v>1.8</v>
+      </c>
+      <c r="AJ248">
+        <v>1.95</v>
+      </c>
+      <c r="AK248">
+        <v>1.3</v>
+      </c>
+      <c r="AL248">
+        <v>1.25</v>
+      </c>
+      <c r="AM248">
+        <v>1.75</v>
+      </c>
+      <c r="AN248">
+        <v>1.23</v>
+      </c>
+      <c r="AO248">
+        <v>1.23</v>
+      </c>
+      <c r="AP248">
+        <v>1.29</v>
+      </c>
+      <c r="AQ248">
+        <v>1.19</v>
+      </c>
+      <c r="AR248">
+        <v>1.49</v>
+      </c>
+      <c r="AS248">
+        <v>1.17</v>
+      </c>
+      <c r="AT248">
+        <v>2.66</v>
+      </c>
+      <c r="AU248">
+        <v>7</v>
+      </c>
+      <c r="AV248">
+        <v>6</v>
+      </c>
+      <c r="AW248">
+        <v>7</v>
+      </c>
+      <c r="AX248">
+        <v>1</v>
+      </c>
+      <c r="AY248">
+        <v>14</v>
+      </c>
+      <c r="AZ248">
+        <v>7</v>
+      </c>
+      <c r="BA248">
+        <v>8</v>
+      </c>
+      <c r="BB248">
+        <v>1</v>
+      </c>
+      <c r="BC248">
+        <v>9</v>
+      </c>
+      <c r="BD248">
+        <v>1.44</v>
+      </c>
+      <c r="BE248">
+        <v>9.5</v>
+      </c>
+      <c r="BF248">
+        <v>2.9</v>
+      </c>
+      <c r="BG248">
+        <v>1.15</v>
+      </c>
+      <c r="BH248">
+        <v>4.75</v>
+      </c>
+      <c r="BI248">
+        <v>1.29</v>
+      </c>
+      <c r="BJ248">
+        <v>3.3</v>
+      </c>
+      <c r="BK248">
+        <v>1.5</v>
+      </c>
+      <c r="BL248">
+        <v>2.4</v>
+      </c>
+      <c r="BM248">
+        <v>1.8</v>
+      </c>
+      <c r="BN248">
+        <v>1.91</v>
+      </c>
+      <c r="BO248">
+        <v>2.2</v>
+      </c>
+      <c r="BP248">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="365">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -790,6 +790,9 @@
     <t>['20', '42', '44']</t>
   </si>
   <si>
+    <t>['33', '72']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -1103,6 +1106,9 @@
   </si>
   <si>
     <t>['36', '60']</t>
+  </si>
+  <si>
+    <t>['12', '24', '63', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP248"/>
+  <dimension ref="A1:BP249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1929,7 +1935,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -3037,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ8">
         <v>0.27</v>
@@ -3783,7 +3789,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q12">
         <v>5.25</v>
@@ -3864,7 +3870,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ12">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4195,7 +4201,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4401,7 +4407,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q15">
         <v>2.1</v>
@@ -4607,7 +4613,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4813,7 +4819,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -5019,7 +5025,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5097,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ18">
         <v>0.9399999999999999</v>
@@ -5225,7 +5231,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q19">
         <v>1.5</v>
@@ -5431,7 +5437,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q20">
         <v>3.3</v>
@@ -5637,7 +5643,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q21">
         <v>2.45</v>
@@ -6255,7 +6261,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6461,7 +6467,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q25">
         <v>1.44</v>
@@ -7079,7 +7085,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q28">
         <v>4.75</v>
@@ -7160,7 +7166,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ28">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7285,7 +7291,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q29">
         <v>4.75</v>
@@ -7697,7 +7703,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -8109,7 +8115,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -8315,7 +8321,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q34">
         <v>2.66</v>
@@ -8393,7 +8399,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ34">
         <v>1.13</v>
@@ -8727,7 +8733,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8933,7 +8939,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9014,7 +9020,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ37">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR37">
         <v>0.96</v>
@@ -10169,7 +10175,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10581,7 +10587,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10993,7 +10999,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q47">
         <v>5.5</v>
@@ -11689,7 +11695,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ50">
         <v>0.44</v>
@@ -11817,7 +11823,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q51">
         <v>2.98</v>
@@ -12435,7 +12441,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12516,7 +12522,7 @@
         <v>2</v>
       </c>
       <c r="AQ54">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -12641,7 +12647,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q55">
         <v>1.4</v>
@@ -12847,7 +12853,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q56">
         <v>2.95</v>
@@ -13053,7 +13059,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -14083,7 +14089,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14289,7 +14295,7 @@
         <v>95</v>
       </c>
       <c r="P63" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14779,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ65">
         <v>0.63</v>
@@ -14907,7 +14913,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -15113,7 +15119,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q67">
         <v>3.25</v>
@@ -15319,7 +15325,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15525,7 +15531,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15937,7 +15943,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q71">
         <v>1.67</v>
@@ -16143,7 +16149,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16224,7 +16230,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ72">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR72">
         <v>2.54</v>
@@ -16555,7 +16561,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q74">
         <v>2.85</v>
@@ -16761,7 +16767,7 @@
         <v>113</v>
       </c>
       <c r="P75" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q75">
         <v>2.7</v>
@@ -16967,7 +16973,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q76">
         <v>3.3</v>
@@ -18487,7 +18493,7 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ83">
         <v>0.93</v>
@@ -19027,7 +19033,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -19108,7 +19114,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ86">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR86">
         <v>1.46</v>
@@ -19233,7 +19239,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q87">
         <v>5.5</v>
@@ -19439,7 +19445,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -19645,7 +19651,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -20881,7 +20887,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21705,7 +21711,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21783,7 +21789,7 @@
         <v>0.6</v>
       </c>
       <c r="AP99">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ99">
         <v>0.63</v>
@@ -22323,7 +22329,7 @@
         <v>86</v>
       </c>
       <c r="P102" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q102">
         <v>1.67</v>
@@ -22529,7 +22535,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q103">
         <v>4.75</v>
@@ -22610,7 +22616,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ103">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR103">
         <v>1.39</v>
@@ -22735,7 +22741,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22941,7 +22947,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q105">
         <v>2.36</v>
@@ -23637,7 +23643,7 @@
         <v>0.29</v>
       </c>
       <c r="AP108">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ108">
         <v>0.8</v>
@@ -23971,7 +23977,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24383,7 +24389,7 @@
         <v>111</v>
       </c>
       <c r="P112" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q112">
         <v>2.05</v>
@@ -24589,7 +24595,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -25001,7 +25007,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q115">
         <v>3.83</v>
@@ -25619,7 +25625,7 @@
         <v>140</v>
       </c>
       <c r="P118" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q118">
         <v>2.05</v>
@@ -25825,7 +25831,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -25906,7 +25912,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ119">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR119">
         <v>2.07</v>
@@ -26031,7 +26037,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q120">
         <v>4.8</v>
@@ -26443,7 +26449,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -27551,7 +27557,7 @@
         <v>1.43</v>
       </c>
       <c r="AP127">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ127">
         <v>1.56</v>
@@ -27885,7 +27891,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q129">
         <v>2.85</v>
@@ -28091,7 +28097,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q130">
         <v>6.06</v>
@@ -28172,7 +28178,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ130">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR130">
         <v>1.25</v>
@@ -28297,7 +28303,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q131">
         <v>2.35</v>
@@ -28503,7 +28509,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28915,7 +28921,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q134">
         <v>1.91</v>
@@ -29121,7 +29127,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q135">
         <v>2.22</v>
@@ -29199,7 +29205,7 @@
         <v>1.25</v>
       </c>
       <c r="AP135">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ135">
         <v>0.9399999999999999</v>
@@ -29327,7 +29333,7 @@
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q136">
         <v>3.77</v>
@@ -29945,7 +29951,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q139">
         <v>1.95</v>
@@ -30151,7 +30157,7 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30769,7 +30775,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q143">
         <v>2.89</v>
@@ -31593,7 +31599,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31799,7 +31805,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -32211,7 +32217,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -32292,7 +32298,7 @@
         <v>1</v>
       </c>
       <c r="AQ150">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR150">
         <v>1.74</v>
@@ -32829,7 +32835,7 @@
         <v>164</v>
       </c>
       <c r="P153" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q153">
         <v>1.95</v>
@@ -32907,7 +32913,7 @@
         <v>0.88</v>
       </c>
       <c r="AP153">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ153">
         <v>1.13</v>
@@ -33241,7 +33247,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33447,7 +33453,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33653,7 +33659,7 @@
         <v>199</v>
       </c>
       <c r="P157" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q157">
         <v>1.62</v>
@@ -33859,7 +33865,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34065,7 +34071,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q159">
         <v>2.8</v>
@@ -34271,7 +34277,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -34683,7 +34689,7 @@
         <v>88</v>
       </c>
       <c r="P162" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q162">
         <v>2.8</v>
@@ -34889,7 +34895,7 @@
         <v>201</v>
       </c>
       <c r="P163" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q163">
         <v>2.16</v>
@@ -35095,7 +35101,7 @@
         <v>202</v>
       </c>
       <c r="P164" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q164">
         <v>2.9</v>
@@ -35301,7 +35307,7 @@
         <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q165">
         <v>4.1</v>
@@ -35507,7 +35513,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q166">
         <v>4.2</v>
@@ -35713,7 +35719,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -35919,7 +35925,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q168">
         <v>1.63</v>
@@ -36331,7 +36337,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36537,7 +36543,7 @@
         <v>207</v>
       </c>
       <c r="P171" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q171">
         <v>2.35</v>
@@ -36743,7 +36749,7 @@
         <v>208</v>
       </c>
       <c r="P172" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q172">
         <v>2.25</v>
@@ -37773,7 +37779,7 @@
         <v>173</v>
       </c>
       <c r="P177" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q177">
         <v>4.33</v>
@@ -37851,10 +37857,10 @@
         <v>2.3</v>
       </c>
       <c r="AP177">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ177">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR177">
         <v>1.76</v>
@@ -37979,7 +37985,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q178">
         <v>3.75</v>
@@ -38185,7 +38191,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q179">
         <v>1.84</v>
@@ -38391,7 +38397,7 @@
         <v>214</v>
       </c>
       <c r="P180" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q180">
         <v>2.7</v>
@@ -38803,7 +38809,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -39215,7 +39221,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q184">
         <v>4.2</v>
@@ -39705,7 +39711,7 @@
         <v>0.67</v>
       </c>
       <c r="AP186">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ186">
         <v>0.73</v>
@@ -40451,7 +40457,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q190">
         <v>2.21</v>
@@ -40863,7 +40869,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41150,7 +41156,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ193">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR193">
         <v>1.9</v>
@@ -41481,7 +41487,7 @@
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q195">
         <v>3.58</v>
@@ -41687,7 +41693,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q196">
         <v>2.49</v>
@@ -42099,7 +42105,7 @@
         <v>225</v>
       </c>
       <c r="P198" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q198">
         <v>3.88</v>
@@ -42305,7 +42311,7 @@
         <v>86</v>
       </c>
       <c r="P199" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q199">
         <v>4.13</v>
@@ -42717,7 +42723,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q201">
         <v>1.6</v>
@@ -43129,7 +43135,7 @@
         <v>200</v>
       </c>
       <c r="P203" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q203">
         <v>1.79</v>
@@ -43335,7 +43341,7 @@
         <v>86</v>
       </c>
       <c r="P204" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q204">
         <v>2.11</v>
@@ -43541,7 +43547,7 @@
         <v>229</v>
       </c>
       <c r="P205" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q205">
         <v>5.3</v>
@@ -43619,7 +43625,7 @@
         <v>2.33</v>
       </c>
       <c r="AP205">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ205">
         <v>2.27</v>
@@ -43747,7 +43753,7 @@
         <v>230</v>
       </c>
       <c r="P206" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q206">
         <v>2</v>
@@ -43953,7 +43959,7 @@
         <v>231</v>
       </c>
       <c r="P207" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q207">
         <v>2.2</v>
@@ -44446,7 +44452,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ209">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR209">
         <v>1.39</v>
@@ -44777,7 +44783,7 @@
         <v>233</v>
       </c>
       <c r="P211" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q211">
         <v>3.09</v>
@@ -45189,7 +45195,7 @@
         <v>235</v>
       </c>
       <c r="P213" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q213">
         <v>1.61</v>
@@ -45395,7 +45401,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q214">
         <v>2.8</v>
@@ -45807,7 +45813,7 @@
         <v>236</v>
       </c>
       <c r="P216" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q216">
         <v>2.85</v>
@@ -46219,7 +46225,7 @@
         <v>237</v>
       </c>
       <c r="P218" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q218">
         <v>2.25</v>
@@ -46425,7 +46431,7 @@
         <v>229</v>
       </c>
       <c r="P219" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q219">
         <v>5.25</v>
@@ -46506,7 +46512,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ219">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR219">
         <v>1.63</v>
@@ -46631,7 +46637,7 @@
         <v>238</v>
       </c>
       <c r="P220" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q220">
         <v>3.83</v>
@@ -47043,7 +47049,7 @@
         <v>240</v>
       </c>
       <c r="P222" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q222">
         <v>1.8</v>
@@ -47249,7 +47255,7 @@
         <v>241</v>
       </c>
       <c r="P223" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q223">
         <v>2.52</v>
@@ -47867,7 +47873,7 @@
         <v>242</v>
       </c>
       <c r="P226" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q226">
         <v>1.85</v>
@@ -48073,7 +48079,7 @@
         <v>243</v>
       </c>
       <c r="P227" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q227">
         <v>3.18</v>
@@ -48485,7 +48491,7 @@
         <v>244</v>
       </c>
       <c r="P229" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q229">
         <v>2.21</v>
@@ -48897,7 +48903,7 @@
         <v>245</v>
       </c>
       <c r="P231" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q231">
         <v>1.55</v>
@@ -49103,7 +49109,7 @@
         <v>243</v>
       </c>
       <c r="P232" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q232">
         <v>3.42</v>
@@ -49387,7 +49393,7 @@
         <v>2.07</v>
       </c>
       <c r="AP233">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ233">
         <v>2</v>
@@ -49515,7 +49521,7 @@
         <v>246</v>
       </c>
       <c r="P234" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q234">
         <v>2.4</v>
@@ -49721,7 +49727,7 @@
         <v>247</v>
       </c>
       <c r="P235" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q235">
         <v>6</v>
@@ -50133,7 +50139,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q237">
         <v>3.6</v>
@@ -50339,7 +50345,7 @@
         <v>137</v>
       </c>
       <c r="P238" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q238">
         <v>5.5</v>
@@ -50420,7 +50426,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ238">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR238">
         <v>1.58</v>
@@ -50751,7 +50757,7 @@
         <v>250</v>
       </c>
       <c r="P240" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q240">
         <v>2.25</v>
@@ -51163,7 +51169,7 @@
         <v>251</v>
       </c>
       <c r="P242" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q242">
         <v>3.09</v>
@@ -51256,22 +51262,22 @@
         <v>2.58</v>
       </c>
       <c r="AU242">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV242">
+        <v>6</v>
+      </c>
+      <c r="AW242">
+        <v>6</v>
+      </c>
+      <c r="AX242">
         <v>5</v>
       </c>
-      <c r="AW242">
-        <v>5</v>
-      </c>
-      <c r="AX242">
-        <v>3</v>
-      </c>
       <c r="AY242">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AZ242">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA242">
         <v>6</v>
@@ -51369,7 +51375,7 @@
         <v>252</v>
       </c>
       <c r="P243" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q243">
         <v>2.12</v>
@@ -51462,7 +51468,7 @@
         <v>2.87</v>
       </c>
       <c r="AU243">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV243">
         <v>3</v>
@@ -51471,13 +51477,13 @@
         <v>8</v>
       </c>
       <c r="AX243">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY243">
+        <v>12</v>
+      </c>
+      <c r="AZ243">
         <v>8</v>
-      </c>
-      <c r="AZ243">
-        <v>6</v>
       </c>
       <c r="BA243">
         <v>3</v>
@@ -51668,22 +51674,22 @@
         <v>2.25</v>
       </c>
       <c r="AU244">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX244">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY244">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ244">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA244">
         <v>8</v>
@@ -51874,10 +51880,10 @@
         <v>4.08</v>
       </c>
       <c r="AU245">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV245">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW245">
         <v>4</v>
@@ -51886,10 +51892,10 @@
         <v>4</v>
       </c>
       <c r="AY245">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ245">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA245">
         <v>2</v>
@@ -52080,31 +52086,31 @@
         <v>3.26</v>
       </c>
       <c r="AU246">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV246">
+        <v>6</v>
+      </c>
+      <c r="AW246">
+        <v>7</v>
+      </c>
+      <c r="AX246">
         <v>4</v>
       </c>
-      <c r="AW246">
-        <v>3</v>
-      </c>
-      <c r="AX246">
-        <v>3</v>
-      </c>
       <c r="AY246">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AZ246">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA246">
         <v>4</v>
       </c>
       <c r="BB246">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC246">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD246">
         <v>1.41</v>
@@ -52286,31 +52292,31 @@
         <v>2.96</v>
       </c>
       <c r="AU247">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV247">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW247">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX247">
         <v>3</v>
       </c>
       <c r="AY247">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AZ247">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA247">
         <v>1</v>
       </c>
       <c r="BB247">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC247">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD247">
         <v>1.95</v>
@@ -52492,22 +52498,22 @@
         <v>2.66</v>
       </c>
       <c r="AU248">
+        <v>9</v>
+      </c>
+      <c r="AV248">
         <v>7</v>
       </c>
-      <c r="AV248">
-        <v>6</v>
-      </c>
       <c r="AW248">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AX248">
         <v>1</v>
       </c>
       <c r="AY248">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ248">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA248">
         <v>8</v>
@@ -52556,6 +52562,212 @@
       </c>
       <c r="BP248">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:68">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>7424535</v>
+      </c>
+      <c r="C249" t="s">
+        <v>68</v>
+      </c>
+      <c r="D249" t="s">
+        <v>69</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45417.54166666666</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249" t="s">
+        <v>76</v>
+      </c>
+      <c r="H249" t="s">
+        <v>77</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249">
+        <v>2</v>
+      </c>
+      <c r="K249">
+        <v>3</v>
+      </c>
+      <c r="L249">
+        <v>2</v>
+      </c>
+      <c r="M249">
+        <v>4</v>
+      </c>
+      <c r="N249">
+        <v>6</v>
+      </c>
+      <c r="O249" t="s">
+        <v>258</v>
+      </c>
+      <c r="P249" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q249">
+        <v>5.5</v>
+      </c>
+      <c r="R249">
+        <v>2.4</v>
+      </c>
+      <c r="S249">
+        <v>2.05</v>
+      </c>
+      <c r="T249">
+        <v>1.3</v>
+      </c>
+      <c r="U249">
+        <v>3.4</v>
+      </c>
+      <c r="V249">
+        <v>2.5</v>
+      </c>
+      <c r="W249">
+        <v>1.5</v>
+      </c>
+      <c r="X249">
+        <v>6</v>
+      </c>
+      <c r="Y249">
+        <v>1.13</v>
+      </c>
+      <c r="Z249">
+        <v>5.2</v>
+      </c>
+      <c r="AA249">
+        <v>4</v>
+      </c>
+      <c r="AB249">
+        <v>1.48</v>
+      </c>
+      <c r="AC249">
+        <v>1.03</v>
+      </c>
+      <c r="AD249">
+        <v>11</v>
+      </c>
+      <c r="AE249">
+        <v>1.2</v>
+      </c>
+      <c r="AF249">
+        <v>4.38</v>
+      </c>
+      <c r="AG249">
+        <v>1.65</v>
+      </c>
+      <c r="AH249">
+        <v>2.15</v>
+      </c>
+      <c r="AI249">
+        <v>1.75</v>
+      </c>
+      <c r="AJ249">
+        <v>2</v>
+      </c>
+      <c r="AK249">
+        <v>2.38</v>
+      </c>
+      <c r="AL249">
+        <v>1.2</v>
+      </c>
+      <c r="AM249">
+        <v>1.14</v>
+      </c>
+      <c r="AN249">
+        <v>1.47</v>
+      </c>
+      <c r="AO249">
+        <v>2.33</v>
+      </c>
+      <c r="AP249">
+        <v>1.38</v>
+      </c>
+      <c r="AQ249">
+        <v>2.38</v>
+      </c>
+      <c r="AR249">
+        <v>1.71</v>
+      </c>
+      <c r="AS249">
+        <v>1.61</v>
+      </c>
+      <c r="AT249">
+        <v>3.32</v>
+      </c>
+      <c r="AU249">
+        <v>3</v>
+      </c>
+      <c r="AV249">
+        <v>6</v>
+      </c>
+      <c r="AW249">
+        <v>4</v>
+      </c>
+      <c r="AX249">
+        <v>2</v>
+      </c>
+      <c r="AY249">
+        <v>7</v>
+      </c>
+      <c r="AZ249">
+        <v>8</v>
+      </c>
+      <c r="BA249">
+        <v>1</v>
+      </c>
+      <c r="BB249">
+        <v>8</v>
+      </c>
+      <c r="BC249">
+        <v>9</v>
+      </c>
+      <c r="BD249">
+        <v>3.48</v>
+      </c>
+      <c r="BE249">
+        <v>9.5</v>
+      </c>
+      <c r="BF249">
+        <v>1.41</v>
+      </c>
+      <c r="BG249">
+        <v>1.2</v>
+      </c>
+      <c r="BH249">
+        <v>4</v>
+      </c>
+      <c r="BI249">
+        <v>1.29</v>
+      </c>
+      <c r="BJ249">
+        <v>3.14</v>
+      </c>
+      <c r="BK249">
+        <v>1.59</v>
+      </c>
+      <c r="BL249">
+        <v>2.31</v>
+      </c>
+      <c r="BM249">
+        <v>1.95</v>
+      </c>
+      <c r="BN249">
+        <v>1.85</v>
+      </c>
+      <c r="BO249">
+        <v>2.42</v>
+      </c>
+      <c r="BP249">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -52704,22 +52704,22 @@
         <v>3.32</v>
       </c>
       <c r="AU249">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV249">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AW249">
         <v>4</v>
       </c>
       <c r="AX249">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY249">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ249">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA249">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="368">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -793,6 +793,9 @@
     <t>['33', '72']</t>
   </si>
   <si>
+    <t>['16', '43', '90+3', '90+8']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -1109,6 +1112,12 @@
   </si>
   <si>
     <t>['12', '24', '63', '90+5']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['32', '70']</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP249"/>
+  <dimension ref="A1:BP252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1935,7 +1944,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -3249,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AQ9">
         <v>0.9399999999999999</v>
@@ -3789,7 +3798,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q12">
         <v>5.25</v>
@@ -4073,10 +4082,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4201,7 +4210,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4282,7 +4291,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ14">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4407,7 +4416,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q15">
         <v>2.1</v>
@@ -4613,7 +4622,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4819,7 +4828,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4897,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ17">
         <v>0.8</v>
@@ -5025,7 +5034,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5231,7 +5240,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q19">
         <v>1.5</v>
@@ -5309,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AQ19">
         <v>1.13</v>
@@ -5437,7 +5446,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q20">
         <v>3.3</v>
@@ -5518,7 +5527,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR20">
         <v>2.09</v>
@@ -5643,7 +5652,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q21">
         <v>2.45</v>
@@ -6261,7 +6270,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6339,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ24">
         <v>1.56</v>
@@ -6467,7 +6476,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q25">
         <v>1.44</v>
@@ -6751,7 +6760,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ26">
         <v>0.8</v>
@@ -7085,7 +7094,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q28">
         <v>4.75</v>
@@ -7291,7 +7300,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q29">
         <v>4.75</v>
@@ -7372,7 +7381,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ29">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR29">
         <v>1.51</v>
@@ -7578,7 +7587,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR30">
         <v>1.89</v>
@@ -7703,7 +7712,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -8115,7 +8124,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -8321,7 +8330,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q34">
         <v>2.66</v>
@@ -8402,7 +8411,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ34">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR34">
         <v>1.19</v>
@@ -8733,7 +8742,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8939,7 +8948,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9223,7 +9232,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ38">
         <v>0.9399999999999999</v>
@@ -10175,7 +10184,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10256,7 +10265,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ43">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR43">
         <v>1.45</v>
@@ -10459,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ44">
         <v>0.27</v>
@@ -10587,7 +10596,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10999,7 +11008,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q47">
         <v>5.5</v>
@@ -11080,7 +11089,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ47">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR47">
         <v>0.8100000000000001</v>
@@ -11283,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AQ48">
         <v>0.63</v>
@@ -11823,7 +11832,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q51">
         <v>2.98</v>
@@ -12107,10 +12116,10 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ52">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR52">
         <v>1.69</v>
@@ -12313,7 +12322,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ53">
         <v>0.9399999999999999</v>
@@ -12441,7 +12450,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12647,7 +12656,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q55">
         <v>1.4</v>
@@ -12853,7 +12862,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q56">
         <v>2.95</v>
@@ -13059,7 +13068,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -13964,7 +13973,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ61">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR61">
         <v>1.44</v>
@@ -14089,7 +14098,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14295,7 +14304,7 @@
         <v>95</v>
       </c>
       <c r="P63" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14579,10 +14588,10 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AQ64">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR64">
         <v>2.5</v>
@@ -14913,7 +14922,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -15119,7 +15128,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q67">
         <v>3.25</v>
@@ -15200,7 +15209,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ67">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR67">
         <v>1.28</v>
@@ -15325,7 +15334,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15403,7 +15412,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ68">
         <v>0.44</v>
@@ -15531,7 +15540,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15943,7 +15952,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q71">
         <v>1.67</v>
@@ -16021,7 +16030,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ71">
         <v>1.13</v>
@@ -16149,7 +16158,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16436,7 +16445,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ73">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR73">
         <v>1.12</v>
@@ -16561,7 +16570,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q74">
         <v>2.85</v>
@@ -16767,7 +16776,7 @@
         <v>113</v>
       </c>
       <c r="P75" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q75">
         <v>2.7</v>
@@ -16973,7 +16982,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q76">
         <v>3.3</v>
@@ -17257,7 +17266,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AQ77">
         <v>2</v>
@@ -17672,7 +17681,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ79">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR79">
         <v>1.14</v>
@@ -18702,7 +18711,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ84">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR84">
         <v>1.67</v>
@@ -18905,7 +18914,7 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ85">
         <v>1.13</v>
@@ -19033,7 +19042,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -19239,7 +19248,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q87">
         <v>5.5</v>
@@ -19320,7 +19329,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR87">
         <v>1.63</v>
@@ -19445,7 +19454,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -19523,7 +19532,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ88">
         <v>0.73</v>
@@ -19651,7 +19660,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -19732,7 +19741,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ89">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR89">
         <v>1.28</v>
@@ -20556,7 +20565,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ93">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR93">
         <v>2.29</v>
@@ -20759,7 +20768,7 @@
         <v>0.2</v>
       </c>
       <c r="AP94">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AQ94">
         <v>0.27</v>
@@ -20887,7 +20896,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21711,7 +21720,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -22201,7 +22210,7 @@
         <v>0.43</v>
       </c>
       <c r="AP101">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ101">
         <v>0.73</v>
@@ -22329,7 +22338,7 @@
         <v>86</v>
       </c>
       <c r="P102" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q102">
         <v>1.67</v>
@@ -22407,7 +22416,7 @@
         <v>0</v>
       </c>
       <c r="AP102">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ102">
         <v>0.63</v>
@@ -22535,7 +22544,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q103">
         <v>4.75</v>
@@ -22741,7 +22750,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22822,7 +22831,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ104">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR104">
         <v>1.81</v>
@@ -22947,7 +22956,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q105">
         <v>2.36</v>
@@ -23440,7 +23449,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ107">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR107">
         <v>1.03</v>
@@ -23849,7 +23858,7 @@
         <v>1.5</v>
       </c>
       <c r="AP109">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AQ109">
         <v>0.9399999999999999</v>
@@ -23977,7 +23986,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24389,7 +24398,7 @@
         <v>111</v>
       </c>
       <c r="P112" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q112">
         <v>2.05</v>
@@ -24595,7 +24604,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -25007,7 +25016,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q115">
         <v>3.83</v>
@@ -25625,7 +25634,7 @@
         <v>140</v>
       </c>
       <c r="P118" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q118">
         <v>2.05</v>
@@ -25703,10 +25712,10 @@
         <v>1.17</v>
       </c>
       <c r="AP118">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ118">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR118">
         <v>1.87</v>
@@ -25831,7 +25840,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -25909,7 +25918,7 @@
         <v>2</v>
       </c>
       <c r="AP119">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ119">
         <v>2.38</v>
@@ -26037,7 +26046,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q120">
         <v>4.8</v>
@@ -26118,7 +26127,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ120">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR120">
         <v>1.76</v>
@@ -26324,7 +26333,7 @@
         <v>2</v>
       </c>
       <c r="AQ121">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR121">
         <v>1.65</v>
@@ -26449,7 +26458,7 @@
         <v>86</v>
       </c>
       <c r="P122" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -27763,7 +27772,7 @@
         <v>0.63</v>
       </c>
       <c r="AP128">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AQ128">
         <v>0.44</v>
@@ -27891,7 +27900,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q129">
         <v>2.85</v>
@@ -27972,7 +27981,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ129">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR129">
         <v>1.69</v>
@@ -28097,7 +28106,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q130">
         <v>6.06</v>
@@ -28303,7 +28312,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q131">
         <v>2.35</v>
@@ -28509,7 +28518,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28793,7 +28802,7 @@
         <v>0.78</v>
       </c>
       <c r="AP133">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AQ133">
         <v>0.73</v>
@@ -28921,7 +28930,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q134">
         <v>1.91</v>
@@ -29127,7 +29136,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q135">
         <v>2.22</v>
@@ -29333,7 +29342,7 @@
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q136">
         <v>3.77</v>
@@ -29617,7 +29626,7 @@
         <v>0.13</v>
       </c>
       <c r="AP137">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ137">
         <v>0.27</v>
@@ -29826,7 +29835,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ138">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR138">
         <v>2.12</v>
@@ -29951,7 +29960,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q139">
         <v>1.95</v>
@@ -30157,7 +30166,7 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30775,7 +30784,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q143">
         <v>2.89</v>
@@ -30856,7 +30865,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ143">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR143">
         <v>1.58</v>
@@ -31599,7 +31608,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31805,7 +31814,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -31883,10 +31892,10 @@
         <v>2.5</v>
       </c>
       <c r="AP148">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ148">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR148">
         <v>2.08</v>
@@ -32089,7 +32098,7 @@
         <v>1.11</v>
       </c>
       <c r="AP149">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AQ149">
         <v>0.93</v>
@@ -32217,7 +32226,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -32835,7 +32844,7 @@
         <v>164</v>
       </c>
       <c r="P153" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q153">
         <v>1.95</v>
@@ -33119,10 +33128,10 @@
         <v>1.11</v>
       </c>
       <c r="AP154">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ154">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR154">
         <v>1.95</v>
@@ -33247,7 +33256,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33453,7 +33462,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33659,7 +33668,7 @@
         <v>199</v>
       </c>
       <c r="P157" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q157">
         <v>1.62</v>
@@ -33865,7 +33874,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33943,7 +33952,7 @@
         <v>1.78</v>
       </c>
       <c r="AP158">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ158">
         <v>2</v>
@@ -34071,7 +34080,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q159">
         <v>2.8</v>
@@ -34277,7 +34286,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -34358,7 +34367,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ160">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR160">
         <v>1.36</v>
@@ -34689,7 +34698,7 @@
         <v>88</v>
       </c>
       <c r="P162" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q162">
         <v>2.8</v>
@@ -34895,7 +34904,7 @@
         <v>201</v>
       </c>
       <c r="P163" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q163">
         <v>2.16</v>
@@ -35101,7 +35110,7 @@
         <v>202</v>
       </c>
       <c r="P164" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q164">
         <v>2.9</v>
@@ -35307,7 +35316,7 @@
         <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q165">
         <v>4.1</v>
@@ -35513,7 +35522,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q166">
         <v>4.2</v>
@@ -35594,7 +35603,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ166">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR166">
         <v>1.39</v>
@@ -35719,7 +35728,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -35800,7 +35809,7 @@
         <v>1</v>
       </c>
       <c r="AQ167">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR167">
         <v>1.63</v>
@@ -35925,7 +35934,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q168">
         <v>1.63</v>
@@ -36003,7 +36012,7 @@
         <v>0.67</v>
       </c>
       <c r="AP168">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AQ168">
         <v>0.63</v>
@@ -36337,7 +36346,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36543,7 +36552,7 @@
         <v>207</v>
       </c>
       <c r="P171" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q171">
         <v>2.35</v>
@@ -36749,7 +36758,7 @@
         <v>208</v>
       </c>
       <c r="P172" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q172">
         <v>2.25</v>
@@ -36827,7 +36836,7 @@
         <v>1.1</v>
       </c>
       <c r="AP172">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ172">
         <v>0.9399999999999999</v>
@@ -37036,7 +37045,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ173">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR173">
         <v>1.43</v>
@@ -37239,7 +37248,7 @@
         <v>0.45</v>
       </c>
       <c r="AP174">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ174">
         <v>0.44</v>
@@ -37779,7 +37788,7 @@
         <v>173</v>
       </c>
       <c r="P177" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q177">
         <v>4.33</v>
@@ -37985,7 +37994,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q178">
         <v>3.75</v>
@@ -38066,7 +38075,7 @@
         <v>1</v>
       </c>
       <c r="AQ178">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR178">
         <v>1.57</v>
@@ -38191,7 +38200,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q179">
         <v>1.84</v>
@@ -38397,7 +38406,7 @@
         <v>214</v>
       </c>
       <c r="P180" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q180">
         <v>2.7</v>
@@ -38809,7 +38818,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -39221,7 +39230,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q184">
         <v>4.2</v>
@@ -39505,10 +39514,10 @@
         <v>2.45</v>
       </c>
       <c r="AP185">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AQ185">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR185">
         <v>2.02</v>
@@ -39920,7 +39929,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ187">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR187">
         <v>1.62</v>
@@ -40457,7 +40466,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q190">
         <v>2.21</v>
@@ -40535,7 +40544,7 @@
         <v>1</v>
       </c>
       <c r="AP190">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ190">
         <v>0.9399999999999999</v>
@@ -40869,7 +40878,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41153,7 +41162,7 @@
         <v>2.36</v>
       </c>
       <c r="AP193">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ193">
         <v>2.38</v>
@@ -41487,7 +41496,7 @@
         <v>223</v>
       </c>
       <c r="P195" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q195">
         <v>3.58</v>
@@ -41693,7 +41702,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q196">
         <v>2.49</v>
@@ -41980,7 +41989,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ197">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR197">
         <v>1.4</v>
@@ -42105,7 +42114,7 @@
         <v>225</v>
       </c>
       <c r="P198" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q198">
         <v>3.88</v>
@@ -42311,7 +42320,7 @@
         <v>86</v>
       </c>
       <c r="P199" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q199">
         <v>4.13</v>
@@ -42723,7 +42732,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q201">
         <v>1.6</v>
@@ -42801,7 +42810,7 @@
         <v>0.67</v>
       </c>
       <c r="AP201">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AQ201">
         <v>0.8</v>
@@ -43135,7 +43144,7 @@
         <v>200</v>
       </c>
       <c r="P203" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q203">
         <v>1.79</v>
@@ -43213,7 +43222,7 @@
         <v>0.5</v>
       </c>
       <c r="AP203">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ203">
         <v>0.63</v>
@@ -43341,7 +43350,7 @@
         <v>86</v>
       </c>
       <c r="P204" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q204">
         <v>2.11</v>
@@ -43547,7 +43556,7 @@
         <v>229</v>
       </c>
       <c r="P205" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q205">
         <v>5.3</v>
@@ -43628,7 +43637,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ205">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR205">
         <v>1.72</v>
@@ -43753,7 +43762,7 @@
         <v>230</v>
       </c>
       <c r="P206" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q206">
         <v>2</v>
@@ -43959,7 +43968,7 @@
         <v>231</v>
       </c>
       <c r="P207" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q207">
         <v>2.2</v>
@@ -44037,7 +44046,7 @@
         <v>0.92</v>
       </c>
       <c r="AP207">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ207">
         <v>0.93</v>
@@ -44783,7 +44792,7 @@
         <v>233</v>
       </c>
       <c r="P211" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q211">
         <v>3.09</v>
@@ -45070,7 +45079,7 @@
         <v>2</v>
       </c>
       <c r="AQ212">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR212">
         <v>1.69</v>
@@ -45195,7 +45204,7 @@
         <v>235</v>
       </c>
       <c r="P213" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q213">
         <v>1.61</v>
@@ -45401,7 +45410,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q214">
         <v>2.8</v>
@@ -45813,7 +45822,7 @@
         <v>236</v>
       </c>
       <c r="P216" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q216">
         <v>2.85</v>
@@ -46097,10 +46106,10 @@
         <v>1.08</v>
       </c>
       <c r="AP217">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AQ217">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR217">
         <v>1.9</v>
@@ -46225,7 +46234,7 @@
         <v>237</v>
       </c>
       <c r="P218" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q218">
         <v>2.25</v>
@@ -46431,7 +46440,7 @@
         <v>229</v>
       </c>
       <c r="P219" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q219">
         <v>5.25</v>
@@ -46637,7 +46646,7 @@
         <v>238</v>
       </c>
       <c r="P220" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q220">
         <v>3.83</v>
@@ -46924,7 +46933,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ221">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR221">
         <v>1.5</v>
@@ -47049,7 +47058,7 @@
         <v>240</v>
       </c>
       <c r="P222" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q222">
         <v>1.8</v>
@@ -47127,7 +47136,7 @@
         <v>0.46</v>
       </c>
       <c r="AP222">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ222">
         <v>0.63</v>
@@ -47255,7 +47264,7 @@
         <v>241</v>
       </c>
       <c r="P223" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q223">
         <v>2.52</v>
@@ -47745,10 +47754,10 @@
         <v>2.38</v>
       </c>
       <c r="AP225">
+        <v>2.24</v>
+      </c>
+      <c r="AQ225">
         <v>2.19</v>
-      </c>
-      <c r="AQ225">
-        <v>2.27</v>
       </c>
       <c r="AR225">
         <v>1.93</v>
@@ -47873,7 +47882,7 @@
         <v>242</v>
       </c>
       <c r="P226" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q226">
         <v>1.85</v>
@@ -47951,7 +47960,7 @@
         <v>1.79</v>
       </c>
       <c r="AP226">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AQ226">
         <v>1.56</v>
@@ -48079,7 +48088,7 @@
         <v>243</v>
       </c>
       <c r="P227" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q227">
         <v>3.18</v>
@@ -48491,7 +48500,7 @@
         <v>244</v>
       </c>
       <c r="P229" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q229">
         <v>2.21</v>
@@ -48903,7 +48912,7 @@
         <v>245</v>
       </c>
       <c r="P231" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q231">
         <v>1.55</v>
@@ -49109,7 +49118,7 @@
         <v>243</v>
       </c>
       <c r="P232" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q232">
         <v>3.42</v>
@@ -49190,7 +49199,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ232">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR232">
         <v>1.2</v>
@@ -49521,7 +49530,7 @@
         <v>246</v>
       </c>
       <c r="P234" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q234">
         <v>2.4</v>
@@ -49599,7 +49608,7 @@
         <v>0.64</v>
       </c>
       <c r="AP234">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ234">
         <v>0.63</v>
@@ -49727,7 +49736,7 @@
         <v>247</v>
       </c>
       <c r="P235" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q235">
         <v>6</v>
@@ -49808,7 +49817,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ235">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR235">
         <v>1.5</v>
@@ -50011,7 +50020,7 @@
         <v>1</v>
       </c>
       <c r="AP236">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ236">
         <v>0.93</v>
@@ -50139,7 +50148,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q237">
         <v>3.6</v>
@@ -50220,7 +50229,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ237">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR237">
         <v>1.32</v>
@@ -50345,7 +50354,7 @@
         <v>137</v>
       </c>
       <c r="P238" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q238">
         <v>5.5</v>
@@ -50632,7 +50641,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ239">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR239">
         <v>1.56</v>
@@ -50757,7 +50766,7 @@
         <v>250</v>
       </c>
       <c r="P240" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q240">
         <v>2.25</v>
@@ -51169,7 +51178,7 @@
         <v>251</v>
       </c>
       <c r="P242" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q242">
         <v>3.09</v>
@@ -51375,7 +51384,7 @@
         <v>252</v>
       </c>
       <c r="P243" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q243">
         <v>2.12</v>
@@ -52071,10 +52080,10 @@
         <v>1.2</v>
       </c>
       <c r="AP246">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AQ246">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR246">
         <v>1.87</v>
@@ -52611,7 +52620,7 @@
         <v>258</v>
       </c>
       <c r="P249" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q249">
         <v>5.5</v>
@@ -52768,6 +52777,624 @@
       </c>
       <c r="BP249">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="250" spans="1:68">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>7424536</v>
+      </c>
+      <c r="C250" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45423.41666666666</v>
+      </c>
+      <c r="F250">
+        <v>2</v>
+      </c>
+      <c r="G250" t="s">
+        <v>80</v>
+      </c>
+      <c r="H250" t="s">
+        <v>74</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
+      </c>
+      <c r="K250">
+        <v>1</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
+        <v>1</v>
+      </c>
+      <c r="N250">
+        <v>1</v>
+      </c>
+      <c r="O250" t="s">
+        <v>86</v>
+      </c>
+      <c r="P250" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q250">
+        <v>2.36</v>
+      </c>
+      <c r="R250">
+        <v>2.47</v>
+      </c>
+      <c r="S250">
+        <v>4.4</v>
+      </c>
+      <c r="T250">
+        <v>1.3</v>
+      </c>
+      <c r="U250">
+        <v>3.34</v>
+      </c>
+      <c r="V250">
+        <v>2.45</v>
+      </c>
+      <c r="W250">
+        <v>1.55</v>
+      </c>
+      <c r="X250">
+        <v>5.55</v>
+      </c>
+      <c r="Y250">
+        <v>1.12</v>
+      </c>
+      <c r="Z250">
+        <v>1.8</v>
+      </c>
+      <c r="AA250">
+        <v>3.7</v>
+      </c>
+      <c r="AB250">
+        <v>3.6</v>
+      </c>
+      <c r="AC250">
+        <v>1.03</v>
+      </c>
+      <c r="AD250">
+        <v>17</v>
+      </c>
+      <c r="AE250">
+        <v>1.17</v>
+      </c>
+      <c r="AF250">
+        <v>4.25</v>
+      </c>
+      <c r="AG250">
+        <v>1.53</v>
+      </c>
+      <c r="AH250">
+        <v>2.38</v>
+      </c>
+      <c r="AI250">
+        <v>1.58</v>
+      </c>
+      <c r="AJ250">
+        <v>2.31</v>
+      </c>
+      <c r="AK250">
+        <v>1.27</v>
+      </c>
+      <c r="AL250">
+        <v>1.27</v>
+      </c>
+      <c r="AM250">
+        <v>1.9</v>
+      </c>
+      <c r="AN250">
+        <v>1.33</v>
+      </c>
+      <c r="AO250">
+        <v>1.13</v>
+      </c>
+      <c r="AP250">
+        <v>1.25</v>
+      </c>
+      <c r="AQ250">
+        <v>1.24</v>
+      </c>
+      <c r="AR250">
+        <v>1.95</v>
+      </c>
+      <c r="AS250">
+        <v>1.41</v>
+      </c>
+      <c r="AT250">
+        <v>3.36</v>
+      </c>
+      <c r="AU250">
+        <v>4</v>
+      </c>
+      <c r="AV250">
+        <v>4</v>
+      </c>
+      <c r="AW250">
+        <v>9</v>
+      </c>
+      <c r="AX250">
+        <v>3</v>
+      </c>
+      <c r="AY250">
+        <v>13</v>
+      </c>
+      <c r="AZ250">
+        <v>7</v>
+      </c>
+      <c r="BA250">
+        <v>10</v>
+      </c>
+      <c r="BB250">
+        <v>4</v>
+      </c>
+      <c r="BC250">
+        <v>14</v>
+      </c>
+      <c r="BD250">
+        <v>1.59</v>
+      </c>
+      <c r="BE250">
+        <v>9</v>
+      </c>
+      <c r="BF250">
+        <v>2.77</v>
+      </c>
+      <c r="BG250">
+        <v>1.08</v>
+      </c>
+      <c r="BH250">
+        <v>6.8</v>
+      </c>
+      <c r="BI250">
+        <v>1.18</v>
+      </c>
+      <c r="BJ250">
+        <v>4.5</v>
+      </c>
+      <c r="BK250">
+        <v>1.29</v>
+      </c>
+      <c r="BL250">
+        <v>3.14</v>
+      </c>
+      <c r="BM250">
+        <v>1.56</v>
+      </c>
+      <c r="BN250">
+        <v>2.37</v>
+      </c>
+      <c r="BO250">
+        <v>1.95</v>
+      </c>
+      <c r="BP250">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="251" spans="1:68">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>7424537</v>
+      </c>
+      <c r="C251" t="s">
+        <v>68</v>
+      </c>
+      <c r="D251" t="s">
+        <v>69</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45423.41666666666</v>
+      </c>
+      <c r="F251">
+        <v>2</v>
+      </c>
+      <c r="G251" t="s">
+        <v>83</v>
+      </c>
+      <c r="H251" t="s">
+        <v>76</v>
+      </c>
+      <c r="I251">
+        <v>2</v>
+      </c>
+      <c r="J251">
+        <v>1</v>
+      </c>
+      <c r="K251">
+        <v>3</v>
+      </c>
+      <c r="L251">
+        <v>4</v>
+      </c>
+      <c r="M251">
+        <v>2</v>
+      </c>
+      <c r="N251">
+        <v>6</v>
+      </c>
+      <c r="O251" t="s">
+        <v>259</v>
+      </c>
+      <c r="P251" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q251">
+        <v>1.8</v>
+      </c>
+      <c r="R251">
+        <v>2.4</v>
+      </c>
+      <c r="S251">
+        <v>7.25</v>
+      </c>
+      <c r="T251">
+        <v>1.32</v>
+      </c>
+      <c r="U251">
+        <v>3.15</v>
+      </c>
+      <c r="V251">
+        <v>2.45</v>
+      </c>
+      <c r="W251">
+        <v>1.48</v>
+      </c>
+      <c r="X251">
+        <v>5.5</v>
+      </c>
+      <c r="Y251">
+        <v>1.11</v>
+      </c>
+      <c r="Z251">
+        <v>1.33</v>
+      </c>
+      <c r="AA251">
+        <v>4.5</v>
+      </c>
+      <c r="AB251">
+        <v>8</v>
+      </c>
+      <c r="AC251">
+        <v>1.04</v>
+      </c>
+      <c r="AD251">
+        <v>15.75</v>
+      </c>
+      <c r="AE251">
+        <v>1.23</v>
+      </c>
+      <c r="AF251">
+        <v>4.2</v>
+      </c>
+      <c r="AG251">
+        <v>1.67</v>
+      </c>
+      <c r="AH251">
+        <v>2.1</v>
+      </c>
+      <c r="AI251">
+        <v>2</v>
+      </c>
+      <c r="AJ251">
+        <v>1.7</v>
+      </c>
+      <c r="AK251">
+        <v>1.1</v>
+      </c>
+      <c r="AL251">
+        <v>1.17</v>
+      </c>
+      <c r="AM251">
+        <v>3.1</v>
+      </c>
+      <c r="AN251">
+        <v>2.19</v>
+      </c>
+      <c r="AO251">
+        <v>1.27</v>
+      </c>
+      <c r="AP251">
+        <v>2.24</v>
+      </c>
+      <c r="AQ251">
+        <v>1.19</v>
+      </c>
+      <c r="AR251">
+        <v>1.87</v>
+      </c>
+      <c r="AS251">
+        <v>1.28</v>
+      </c>
+      <c r="AT251">
+        <v>3.15</v>
+      </c>
+      <c r="AU251">
+        <v>12</v>
+      </c>
+      <c r="AV251">
+        <v>4</v>
+      </c>
+      <c r="AW251">
+        <v>8</v>
+      </c>
+      <c r="AX251">
+        <v>4</v>
+      </c>
+      <c r="AY251">
+        <v>20</v>
+      </c>
+      <c r="AZ251">
+        <v>8</v>
+      </c>
+      <c r="BA251">
+        <v>5</v>
+      </c>
+      <c r="BB251">
+        <v>3</v>
+      </c>
+      <c r="BC251">
+        <v>8</v>
+      </c>
+      <c r="BD251">
+        <v>1.34</v>
+      </c>
+      <c r="BE251">
+        <v>9.5</v>
+      </c>
+      <c r="BF251">
+        <v>3.86</v>
+      </c>
+      <c r="BG251">
+        <v>1.21</v>
+      </c>
+      <c r="BH251">
+        <v>4.1</v>
+      </c>
+      <c r="BI251">
+        <v>1.36</v>
+      </c>
+      <c r="BJ251">
+        <v>2.79</v>
+      </c>
+      <c r="BK251">
+        <v>1.63</v>
+      </c>
+      <c r="BL251">
+        <v>2.09</v>
+      </c>
+      <c r="BM251">
+        <v>2.06</v>
+      </c>
+      <c r="BN251">
+        <v>1.68</v>
+      </c>
+      <c r="BO251">
+        <v>2.67</v>
+      </c>
+      <c r="BP251">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="252" spans="1:68">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>7424538</v>
+      </c>
+      <c r="C252" t="s">
+        <v>68</v>
+      </c>
+      <c r="D252" t="s">
+        <v>69</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45423.52083333334</v>
+      </c>
+      <c r="F252">
+        <v>2</v>
+      </c>
+      <c r="G252" t="s">
+        <v>77</v>
+      </c>
+      <c r="H252" t="s">
+        <v>73</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>0</v>
+      </c>
+      <c r="O252" t="s">
+        <v>86</v>
+      </c>
+      <c r="P252" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q252">
+        <v>2.88</v>
+      </c>
+      <c r="R252">
+        <v>2.13</v>
+      </c>
+      <c r="S252">
+        <v>3.5</v>
+      </c>
+      <c r="T252">
+        <v>1.37</v>
+      </c>
+      <c r="U252">
+        <v>2.95</v>
+      </c>
+      <c r="V252">
+        <v>2.63</v>
+      </c>
+      <c r="W252">
+        <v>1.45</v>
+      </c>
+      <c r="X252">
+        <v>6.45</v>
+      </c>
+      <c r="Y252">
+        <v>1.09</v>
+      </c>
+      <c r="Z252">
+        <v>2.24</v>
+      </c>
+      <c r="AA252">
+        <v>3.2</v>
+      </c>
+      <c r="AB252">
+        <v>2.83</v>
+      </c>
+      <c r="AC252">
+        <v>1.01</v>
+      </c>
+      <c r="AD252">
+        <v>9.6</v>
+      </c>
+      <c r="AE252">
+        <v>1.23</v>
+      </c>
+      <c r="AF252">
+        <v>3.56</v>
+      </c>
+      <c r="AG252">
+        <v>1.71</v>
+      </c>
+      <c r="AH252">
+        <v>1.9</v>
+      </c>
+      <c r="AI252">
+        <v>1.63</v>
+      </c>
+      <c r="AJ252">
+        <v>2.14</v>
+      </c>
+      <c r="AK252">
+        <v>1.38</v>
+      </c>
+      <c r="AL252">
+        <v>1.3</v>
+      </c>
+      <c r="AM252">
+        <v>1.57</v>
+      </c>
+      <c r="AN252">
+        <v>2.73</v>
+      </c>
+      <c r="AO252">
+        <v>2.27</v>
+      </c>
+      <c r="AP252">
+        <v>2.63</v>
+      </c>
+      <c r="AQ252">
+        <v>2.19</v>
+      </c>
+      <c r="AR252">
+        <v>1.96</v>
+      </c>
+      <c r="AS252">
+        <v>1.73</v>
+      </c>
+      <c r="AT252">
+        <v>3.69</v>
+      </c>
+      <c r="AU252">
+        <v>6</v>
+      </c>
+      <c r="AV252">
+        <v>7</v>
+      </c>
+      <c r="AW252">
+        <v>2</v>
+      </c>
+      <c r="AX252">
+        <v>5</v>
+      </c>
+      <c r="AY252">
+        <v>8</v>
+      </c>
+      <c r="AZ252">
+        <v>12</v>
+      </c>
+      <c r="BA252">
+        <v>3</v>
+      </c>
+      <c r="BB252">
+        <v>9</v>
+      </c>
+      <c r="BC252">
+        <v>12</v>
+      </c>
+      <c r="BD252">
+        <v>2.1</v>
+      </c>
+      <c r="BE252">
+        <v>8</v>
+      </c>
+      <c r="BF252">
+        <v>1.91</v>
+      </c>
+      <c r="BG252">
+        <v>1.16</v>
+      </c>
+      <c r="BH252">
+        <v>4.9</v>
+      </c>
+      <c r="BI252">
+        <v>1.27</v>
+      </c>
+      <c r="BJ252">
+        <v>3.28</v>
+      </c>
+      <c r="BK252">
+        <v>1.55</v>
+      </c>
+      <c r="BL252">
+        <v>2.4</v>
+      </c>
+      <c r="BM252">
+        <v>1.89</v>
+      </c>
+      <c r="BN252">
+        <v>1.91</v>
+      </c>
+      <c r="BO252">
+        <v>2.37</v>
+      </c>
+      <c r="BP252">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="376">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -805,6 +805,9 @@
     <t>['15', '45+1']</t>
   </si>
   <si>
+    <t>['30', '60']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -1500,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP257"/>
+  <dimension ref="A1:BP259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1965,7 +1968,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -2661,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ6">
         <v>0.75</v>
@@ -2870,7 +2873,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ7">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3279,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ9">
         <v>0.9399999999999999</v>
@@ -3819,7 +3822,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q12">
         <v>5.25</v>
@@ -4106,7 +4109,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4231,7 +4234,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4437,7 +4440,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q15">
         <v>2.1</v>
@@ -4643,7 +4646,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4721,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ16">
         <v>0.63</v>
@@ -4849,7 +4852,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -5055,7 +5058,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5261,7 +5264,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q19">
         <v>1.5</v>
@@ -5339,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ19">
         <v>1.13</v>
@@ -5467,7 +5470,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q20">
         <v>3.3</v>
@@ -5673,7 +5676,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q21">
         <v>2.45</v>
@@ -6291,7 +6294,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6372,7 +6375,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ24">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR24">
         <v>1.75</v>
@@ -6497,7 +6500,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q25">
         <v>1.44</v>
@@ -7115,7 +7118,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q28">
         <v>4.75</v>
@@ -7321,7 +7324,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q29">
         <v>4.75</v>
@@ -7399,7 +7402,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ29">
         <v>2.19</v>
@@ -7608,7 +7611,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ30">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR30">
         <v>1.89</v>
@@ -7733,7 +7736,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -8145,7 +8148,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -8351,7 +8354,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q34">
         <v>2.66</v>
@@ -8763,7 +8766,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8969,7 +8972,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9874,7 +9877,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ41">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR41">
         <v>2.82</v>
@@ -10205,7 +10208,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10286,7 +10289,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR43">
         <v>1.45</v>
@@ -10617,7 +10620,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -11029,7 +11032,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q47">
         <v>5.5</v>
@@ -11313,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ48">
         <v>0.63</v>
@@ -11853,7 +11856,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q51">
         <v>2.98</v>
@@ -12471,7 +12474,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12677,7 +12680,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q55">
         <v>1.4</v>
@@ -12883,7 +12886,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q56">
         <v>2.95</v>
@@ -13089,7 +13092,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -13167,7 +13170,7 @@
         <v>0.25</v>
       </c>
       <c r="AP57">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ57">
         <v>0.9399999999999999</v>
@@ -13582,7 +13585,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ59">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR59">
         <v>1.81</v>
@@ -14119,7 +14122,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14325,7 +14328,7 @@
         <v>95</v>
       </c>
       <c r="P63" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14609,10 +14612,10 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ64">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR64">
         <v>2.5</v>
@@ -14943,7 +14946,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -15149,7 +15152,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -15355,7 +15358,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15561,7 +15564,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15767,7 +15770,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q70">
         <v>1.67</v>
@@ -16179,7 +16182,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16385,7 +16388,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q73">
         <v>2.85</v>
@@ -16466,7 +16469,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ73">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR73">
         <v>1.65</v>
@@ -16591,7 +16594,7 @@
         <v>113</v>
       </c>
       <c r="P74" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q74">
         <v>2.7</v>
@@ -16878,7 +16881,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ75">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR75">
         <v>1.12</v>
@@ -17003,7 +17006,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q76">
         <v>3.3</v>
@@ -17287,7 +17290,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ77">
         <v>2</v>
@@ -17493,7 +17496,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ78">
         <v>0.9399999999999999</v>
@@ -19063,7 +19066,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -19269,7 +19272,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q87">
         <v>5.5</v>
@@ -19475,7 +19478,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -20299,7 +20302,7 @@
         <v>157</v>
       </c>
       <c r="P92" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20586,7 +20589,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ93">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR93">
         <v>2.29</v>
@@ -20789,7 +20792,7 @@
         <v>0.2</v>
       </c>
       <c r="AP94">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ94">
         <v>0.25</v>
@@ -20917,7 +20920,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -20998,7 +21001,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ95">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR95">
         <v>1.07</v>
@@ -21329,7 +21332,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -22359,7 +22362,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22437,7 +22440,7 @@
         <v>2.33</v>
       </c>
       <c r="AP102">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ102">
         <v>2.38</v>
@@ -22565,7 +22568,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q103">
         <v>1.67</v>
@@ -22771,7 +22774,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22977,7 +22980,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q105">
         <v>2.36</v>
@@ -23879,7 +23882,7 @@
         <v>1.5</v>
       </c>
       <c r="AP109">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ109">
         <v>0.9399999999999999</v>
@@ -24007,7 +24010,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24088,7 +24091,7 @@
         <v>1</v>
       </c>
       <c r="AQ110">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR110">
         <v>1.62</v>
@@ -24419,7 +24422,7 @@
         <v>111</v>
       </c>
       <c r="P112" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q112">
         <v>2.05</v>
@@ -24703,7 +24706,7 @@
         <v>1.17</v>
       </c>
       <c r="AP113">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ113">
         <v>1.13</v>
@@ -25037,7 +25040,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q115">
         <v>2.7</v>
@@ -25243,7 +25246,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q116">
         <v>3.83</v>
@@ -25655,7 +25658,7 @@
         <v>141</v>
       </c>
       <c r="P118" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q118">
         <v>2.05</v>
@@ -25736,7 +25739,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ118">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR118">
         <v>1.87</v>
@@ -25861,7 +25864,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -26067,7 +26070,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q120">
         <v>4.8</v>
@@ -26891,7 +26894,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q124">
         <v>3.5</v>
@@ -27590,7 +27593,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ127">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR127">
         <v>1.59</v>
@@ -27793,7 +27796,7 @@
         <v>0.63</v>
       </c>
       <c r="AP128">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ128">
         <v>0.47</v>
@@ -27921,7 +27924,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q129">
         <v>2.85</v>
@@ -28002,7 +28005,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ129">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR129">
         <v>1.69</v>
@@ -28127,7 +28130,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q130">
         <v>6.06</v>
@@ -28333,7 +28336,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q131">
         <v>2.35</v>
@@ -28539,7 +28542,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28617,7 +28620,7 @@
         <v>1.43</v>
       </c>
       <c r="AP132">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ132">
         <v>2</v>
@@ -28823,7 +28826,7 @@
         <v>0.78</v>
       </c>
       <c r="AP133">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ133">
         <v>0.75</v>
@@ -28951,7 +28954,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q134">
         <v>1.91</v>
@@ -29157,7 +29160,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q135">
         <v>2.22</v>
@@ -29363,7 +29366,7 @@
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q136">
         <v>3.77</v>
@@ -29444,7 +29447,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ136">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR136">
         <v>1.46</v>
@@ -29981,7 +29984,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q139">
         <v>1.95</v>
@@ -30059,7 +30062,7 @@
         <v>0.38</v>
       </c>
       <c r="AP139">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ139">
         <v>0.63</v>
@@ -30187,7 +30190,7 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -31217,7 +31220,7 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q145">
         <v>2.89</v>
@@ -31295,10 +31298,10 @@
         <v>1.38</v>
       </c>
       <c r="AP145">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ145">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR145">
         <v>1.58</v>
@@ -31629,7 +31632,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31835,7 +31838,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -32119,7 +32122,7 @@
         <v>1.11</v>
       </c>
       <c r="AP149">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ149">
         <v>1.06</v>
@@ -32247,7 +32250,7 @@
         <v>164</v>
       </c>
       <c r="P150" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q150">
         <v>1.95</v>
@@ -32534,7 +32537,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ151">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR151">
         <v>1.34</v>
@@ -32659,7 +32662,7 @@
         <v>86</v>
       </c>
       <c r="P152" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -33277,7 +33280,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33483,7 +33486,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q156">
         <v>3.25</v>
@@ -33689,7 +33692,7 @@
         <v>199</v>
       </c>
       <c r="P157" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q157">
         <v>1.62</v>
@@ -33895,7 +33898,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34101,7 +34104,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q159">
         <v>2.8</v>
@@ -34307,7 +34310,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -34513,7 +34516,7 @@
         <v>201</v>
       </c>
       <c r="P161" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q161">
         <v>2.9</v>
@@ -34925,7 +34928,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q163">
         <v>2.8</v>
@@ -35003,10 +35006,10 @@
         <v>1.3</v>
       </c>
       <c r="AP163">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ163">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR163">
         <v>1.54</v>
@@ -35131,7 +35134,7 @@
         <v>202</v>
       </c>
       <c r="P164" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q164">
         <v>2.16</v>
@@ -35337,7 +35340,7 @@
         <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q165">
         <v>4.1</v>
@@ -35543,7 +35546,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q166">
         <v>4.2</v>
@@ -35624,7 +35627,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ166">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR166">
         <v>1.39</v>
@@ -35749,7 +35752,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -35955,7 +35958,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q168">
         <v>1.63</v>
@@ -36033,7 +36036,7 @@
         <v>0.67</v>
       </c>
       <c r="AP168">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ168">
         <v>0.63</v>
@@ -36367,7 +36370,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36779,7 +36782,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q172">
         <v>2.35</v>
@@ -36985,7 +36988,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q173">
         <v>2.25</v>
@@ -37809,7 +37812,7 @@
         <v>173</v>
       </c>
       <c r="P177" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q177">
         <v>4.33</v>
@@ -38015,7 +38018,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q178">
         <v>1.84</v>
@@ -38093,7 +38096,7 @@
         <v>0.18</v>
       </c>
       <c r="AP178">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ178">
         <v>0.25</v>
@@ -38221,7 +38224,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q179">
         <v>3.75</v>
@@ -38302,7 +38305,7 @@
         <v>1</v>
       </c>
       <c r="AQ179">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR179">
         <v>1.57</v>
@@ -38633,7 +38636,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q181">
         <v>2.7</v>
@@ -38839,7 +38842,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -39251,7 +39254,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q184">
         <v>4.2</v>
@@ -39332,7 +39335,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ184">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR184">
         <v>1.44</v>
@@ -39535,7 +39538,7 @@
         <v>2.45</v>
       </c>
       <c r="AP185">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ185">
         <v>2.19</v>
@@ -40487,7 +40490,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q190">
         <v>2.21</v>
@@ -40899,7 +40902,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41311,7 +41314,7 @@
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q194">
         <v>2.49</v>
@@ -41389,7 +41392,7 @@
         <v>1.17</v>
       </c>
       <c r="AP194">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ194">
         <v>0.9399999999999999</v>
@@ -41723,7 +41726,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q196">
         <v>3.58</v>
@@ -42010,7 +42013,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ197">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR197">
         <v>1.4</v>
@@ -42135,7 +42138,7 @@
         <v>225</v>
       </c>
       <c r="P198" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q198">
         <v>3.88</v>
@@ -42341,7 +42344,7 @@
         <v>86</v>
       </c>
       <c r="P199" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q199">
         <v>4.13</v>
@@ -42422,7 +42425,7 @@
         <v>1</v>
       </c>
       <c r="AQ199">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR199">
         <v>1.14</v>
@@ -42753,7 +42756,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q201">
         <v>1.6</v>
@@ -42831,7 +42834,7 @@
         <v>0.67</v>
       </c>
       <c r="AP201">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ201">
         <v>0.9399999999999999</v>
@@ -42959,7 +42962,7 @@
         <v>200</v>
       </c>
       <c r="P202" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q202">
         <v>1.79</v>
@@ -43165,7 +43168,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q203">
         <v>2.11</v>
@@ -43577,7 +43580,7 @@
         <v>229</v>
       </c>
       <c r="P205" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q205">
         <v>5.3</v>
@@ -43783,7 +43786,7 @@
         <v>230</v>
       </c>
       <c r="P206" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q206">
         <v>2.2</v>
@@ -44195,7 +44198,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q208">
         <v>2</v>
@@ -44273,7 +44276,7 @@
         <v>0.46</v>
       </c>
       <c r="AP208">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ208">
         <v>0.47</v>
@@ -44813,7 +44816,7 @@
         <v>233</v>
       </c>
       <c r="P211" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q211">
         <v>3.09</v>
@@ -45100,7 +45103,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ212">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR212">
         <v>1.69</v>
@@ -45225,7 +45228,7 @@
         <v>235</v>
       </c>
       <c r="P213" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q213">
         <v>1.61</v>
@@ -45431,7 +45434,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q214">
         <v>2.8</v>
@@ -45843,7 +45846,7 @@
         <v>236</v>
       </c>
       <c r="P216" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q216">
         <v>2.85</v>
@@ -45924,7 +45927,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ216">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR216">
         <v>1.55</v>
@@ -46127,7 +46130,7 @@
         <v>1.08</v>
       </c>
       <c r="AP217">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ217">
         <v>1.24</v>
@@ -46255,7 +46258,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q218">
         <v>5.25</v>
@@ -46461,7 +46464,7 @@
         <v>237</v>
       </c>
       <c r="P219" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q219">
         <v>2.25</v>
@@ -46539,7 +46542,7 @@
         <v>0.85</v>
       </c>
       <c r="AP219">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ219">
         <v>1.06</v>
@@ -46667,7 +46670,7 @@
         <v>238</v>
       </c>
       <c r="P220" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q220">
         <v>3.83</v>
@@ -46954,7 +46957,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ221">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR221">
         <v>1.5</v>
@@ -47079,7 +47082,7 @@
         <v>240</v>
       </c>
       <c r="P222" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q222">
         <v>2.52</v>
@@ -47491,7 +47494,7 @@
         <v>241</v>
       </c>
       <c r="P224" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q224">
         <v>1.8</v>
@@ -47903,7 +47906,7 @@
         <v>242</v>
       </c>
       <c r="P226" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q226">
         <v>1.85</v>
@@ -47981,10 +47984,10 @@
         <v>1.79</v>
       </c>
       <c r="AP226">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ226">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR226">
         <v>1.93</v>
@@ -48109,7 +48112,7 @@
         <v>243</v>
       </c>
       <c r="P227" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q227">
         <v>3.18</v>
@@ -48521,7 +48524,7 @@
         <v>244</v>
       </c>
       <c r="P229" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q229">
         <v>2.21</v>
@@ -48933,7 +48936,7 @@
         <v>245</v>
       </c>
       <c r="P231" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q231">
         <v>1.55</v>
@@ -49139,7 +49142,7 @@
         <v>243</v>
       </c>
       <c r="P232" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q232">
         <v>3.42</v>
@@ -49551,7 +49554,7 @@
         <v>246</v>
       </c>
       <c r="P234" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q234">
         <v>6</v>
@@ -49757,7 +49760,7 @@
         <v>247</v>
       </c>
       <c r="P235" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q235">
         <v>2.4</v>
@@ -50169,7 +50172,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q237">
         <v>2.25</v>
@@ -50375,7 +50378,7 @@
         <v>138</v>
       </c>
       <c r="P238" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q238">
         <v>5.5</v>
@@ -50787,7 +50790,7 @@
         <v>250</v>
       </c>
       <c r="P240" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q240">
         <v>3.6</v>
@@ -50868,7 +50871,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ240">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR240">
         <v>1.32</v>
@@ -51405,7 +51408,7 @@
         <v>252</v>
       </c>
       <c r="P243" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q243">
         <v>3.09</v>
@@ -51611,7 +51614,7 @@
         <v>253</v>
       </c>
       <c r="P244" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q244">
         <v>2.12</v>
@@ -51898,7 +51901,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ245">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR245">
         <v>2.35</v>
@@ -52641,7 +52644,7 @@
         <v>258</v>
       </c>
       <c r="P249" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q249">
         <v>5.5</v>
@@ -52847,7 +52850,7 @@
         <v>86</v>
       </c>
       <c r="P250" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q250">
         <v>2.36</v>
@@ -53053,7 +53056,7 @@
         <v>259</v>
       </c>
       <c r="P251" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q251">
         <v>1.8</v>
@@ -53134,7 +53137,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ251">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR251">
         <v>1.87</v>
@@ -53337,7 +53340,7 @@
         <v>2.27</v>
       </c>
       <c r="AP252">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AQ252">
         <v>2.19</v>
@@ -53465,7 +53468,7 @@
         <v>98</v>
       </c>
       <c r="P253" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q253">
         <v>2.3</v>
@@ -53671,7 +53674,7 @@
         <v>260</v>
       </c>
       <c r="P254" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q254">
         <v>2.39</v>
@@ -54083,7 +54086,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q256">
         <v>2.61</v>
@@ -54289,7 +54292,7 @@
         <v>262</v>
       </c>
       <c r="P257" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q257">
         <v>2.7</v>
@@ -54446,6 +54449,418 @@
       </c>
       <c r="BP257">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="258" spans="1:68">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>7424544</v>
+      </c>
+      <c r="C258" t="s">
+        <v>68</v>
+      </c>
+      <c r="D258" t="s">
+        <v>69</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45426.5</v>
+      </c>
+      <c r="F258">
+        <v>3</v>
+      </c>
+      <c r="G258" t="s">
+        <v>74</v>
+      </c>
+      <c r="H258" t="s">
+        <v>76</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>1</v>
+      </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
+      <c r="L258">
+        <v>0</v>
+      </c>
+      <c r="M258">
+        <v>1</v>
+      </c>
+      <c r="N258">
+        <v>1</v>
+      </c>
+      <c r="O258" t="s">
+        <v>86</v>
+      </c>
+      <c r="P258" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q258">
+        <v>2.55</v>
+      </c>
+      <c r="R258">
+        <v>2.1</v>
+      </c>
+      <c r="S258">
+        <v>3.95</v>
+      </c>
+      <c r="T258">
+        <v>1.36</v>
+      </c>
+      <c r="U258">
+        <v>2.85</v>
+      </c>
+      <c r="V258">
+        <v>2.62</v>
+      </c>
+      <c r="W258">
+        <v>1.42</v>
+      </c>
+      <c r="X258">
+        <v>6</v>
+      </c>
+      <c r="Y258">
+        <v>1.1</v>
+      </c>
+      <c r="Z258">
+        <v>1.83</v>
+      </c>
+      <c r="AA258">
+        <v>3.5</v>
+      </c>
+      <c r="AB258">
+        <v>4.2</v>
+      </c>
+      <c r="AC258">
+        <v>1.05</v>
+      </c>
+      <c r="AD258">
+        <v>8.5</v>
+      </c>
+      <c r="AE258">
+        <v>1.25</v>
+      </c>
+      <c r="AF258">
+        <v>3.71</v>
+      </c>
+      <c r="AG258">
+        <v>1.8</v>
+      </c>
+      <c r="AH258">
+        <v>1.9</v>
+      </c>
+      <c r="AI258">
+        <v>1.68</v>
+      </c>
+      <c r="AJ258">
+        <v>2.05</v>
+      </c>
+      <c r="AK258">
+        <v>1.28</v>
+      </c>
+      <c r="AL258">
+        <v>1.25</v>
+      </c>
+      <c r="AM258">
+        <v>1.75</v>
+      </c>
+      <c r="AN258">
+        <v>1.73</v>
+      </c>
+      <c r="AO258">
+        <v>1.19</v>
+      </c>
+      <c r="AP258">
+        <v>1.63</v>
+      </c>
+      <c r="AQ258">
+        <v>1.29</v>
+      </c>
+      <c r="AR258">
+        <v>1.57</v>
+      </c>
+      <c r="AS258">
+        <v>1.28</v>
+      </c>
+      <c r="AT258">
+        <v>2.85</v>
+      </c>
+      <c r="AU258">
+        <v>2</v>
+      </c>
+      <c r="AV258">
+        <v>6</v>
+      </c>
+      <c r="AW258">
+        <v>2</v>
+      </c>
+      <c r="AX258">
+        <v>5</v>
+      </c>
+      <c r="AY258">
+        <v>4</v>
+      </c>
+      <c r="AZ258">
+        <v>11</v>
+      </c>
+      <c r="BA258">
+        <v>8</v>
+      </c>
+      <c r="BB258">
+        <v>5</v>
+      </c>
+      <c r="BC258">
+        <v>13</v>
+      </c>
+      <c r="BD258">
+        <v>1.55</v>
+      </c>
+      <c r="BE258">
+        <v>8.5</v>
+      </c>
+      <c r="BF258">
+        <v>2.91</v>
+      </c>
+      <c r="BG258">
+        <v>1.18</v>
+      </c>
+      <c r="BH258">
+        <v>4.33</v>
+      </c>
+      <c r="BI258">
+        <v>1.28</v>
+      </c>
+      <c r="BJ258">
+        <v>3.2</v>
+      </c>
+      <c r="BK258">
+        <v>1.55</v>
+      </c>
+      <c r="BL258">
+        <v>2.38</v>
+      </c>
+      <c r="BM258">
+        <v>1.92</v>
+      </c>
+      <c r="BN258">
+        <v>1.88</v>
+      </c>
+      <c r="BO258">
+        <v>2.4</v>
+      </c>
+      <c r="BP258">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="259" spans="1:68">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>7424545</v>
+      </c>
+      <c r="C259" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" t="s">
+        <v>69</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45426.60416666666</v>
+      </c>
+      <c r="F259">
+        <v>3</v>
+      </c>
+      <c r="G259" t="s">
+        <v>77</v>
+      </c>
+      <c r="H259" t="s">
+        <v>80</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
+      <c r="L259">
+        <v>2</v>
+      </c>
+      <c r="M259">
+        <v>1</v>
+      </c>
+      <c r="N259">
+        <v>3</v>
+      </c>
+      <c r="O259" t="s">
+        <v>263</v>
+      </c>
+      <c r="P259" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q259">
+        <v>1.73</v>
+      </c>
+      <c r="R259">
+        <v>2.7</v>
+      </c>
+      <c r="S259">
+        <v>5.75</v>
+      </c>
+      <c r="T259">
+        <v>1.22</v>
+      </c>
+      <c r="U259">
+        <v>3.9</v>
+      </c>
+      <c r="V259">
+        <v>2.05</v>
+      </c>
+      <c r="W259">
+        <v>1.7</v>
+      </c>
+      <c r="X259">
+        <v>4.35</v>
+      </c>
+      <c r="Y259">
+        <v>1.19</v>
+      </c>
+      <c r="Z259">
+        <v>1.3</v>
+      </c>
+      <c r="AA259">
+        <v>5.5</v>
+      </c>
+      <c r="AB259">
+        <v>8</v>
+      </c>
+      <c r="AC259">
+        <v>1.01</v>
+      </c>
+      <c r="AD259">
+        <v>28</v>
+      </c>
+      <c r="AE259">
+        <v>1.12</v>
+      </c>
+      <c r="AF259">
+        <v>5.84</v>
+      </c>
+      <c r="AG259">
+        <v>1.4</v>
+      </c>
+      <c r="AH259">
+        <v>2.75</v>
+      </c>
+      <c r="AI259">
+        <v>1.65</v>
+      </c>
+      <c r="AJ259">
+        <v>2.05</v>
+      </c>
+      <c r="AK259">
+        <v>1.05</v>
+      </c>
+      <c r="AL259">
+        <v>1.09</v>
+      </c>
+      <c r="AM259">
+        <v>3.3</v>
+      </c>
+      <c r="AN259">
+        <v>2.63</v>
+      </c>
+      <c r="AO259">
+        <v>1.56</v>
+      </c>
+      <c r="AP259">
+        <v>2.65</v>
+      </c>
+      <c r="AQ259">
+        <v>1.47</v>
+      </c>
+      <c r="AR259">
+        <v>1.92</v>
+      </c>
+      <c r="AS259">
+        <v>1.67</v>
+      </c>
+      <c r="AT259">
+        <v>3.59</v>
+      </c>
+      <c r="AU259">
+        <v>10</v>
+      </c>
+      <c r="AV259">
+        <v>4</v>
+      </c>
+      <c r="AW259">
+        <v>8</v>
+      </c>
+      <c r="AX259">
+        <v>5</v>
+      </c>
+      <c r="AY259">
+        <v>18</v>
+      </c>
+      <c r="AZ259">
+        <v>9</v>
+      </c>
+      <c r="BA259">
+        <v>11</v>
+      </c>
+      <c r="BB259">
+        <v>2</v>
+      </c>
+      <c r="BC259">
+        <v>13</v>
+      </c>
+      <c r="BD259">
+        <v>1.27</v>
+      </c>
+      <c r="BE259">
+        <v>11</v>
+      </c>
+      <c r="BF259">
+        <v>4.4</v>
+      </c>
+      <c r="BG259">
+        <v>1.13</v>
+      </c>
+      <c r="BH259">
+        <v>5</v>
+      </c>
+      <c r="BI259">
+        <v>1.29</v>
+      </c>
+      <c r="BJ259">
+        <v>3.4</v>
+      </c>
+      <c r="BK259">
+        <v>1.39</v>
+      </c>
+      <c r="BL259">
+        <v>2.67</v>
+      </c>
+      <c r="BM259">
+        <v>1.72</v>
+      </c>
+      <c r="BN259">
+        <v>2.07</v>
+      </c>
+      <c r="BO259">
+        <v>2.15</v>
+      </c>
+      <c r="BP259">
+        <v>1.68</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="381">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -808,6 +808,15 @@
     <t>['30', '60']</t>
   </si>
   <si>
+    <t>['5', '10', '90+8']</t>
+  </si>
+  <si>
+    <t>['64', '78', '87']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -1142,6 +1151,12 @@
   </si>
   <si>
     <t>['54', '90+3']</t>
+  </si>
+  <si>
+    <t>['47', '53', '89']</t>
+  </si>
+  <si>
+    <t>['52']</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP259"/>
+  <dimension ref="A1:BP263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1968,7 +1983,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -2255,7 +2270,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2458,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ5">
         <v>0.9399999999999999</v>
@@ -3079,7 +3094,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ8">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3697,7 +3712,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ11">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3822,7 +3837,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q12">
         <v>5.25</v>
@@ -3900,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ12">
         <v>2.38</v>
@@ -4234,7 +4249,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4440,7 +4455,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q15">
         <v>2.1</v>
@@ -4518,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ15">
         <v>1.06</v>
@@ -4646,7 +4661,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4852,7 +4867,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -5058,7 +5073,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5264,7 +5279,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q19">
         <v>1.5</v>
@@ -5345,7 +5360,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ19">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR19">
         <v>2.28</v>
@@ -5470,7 +5485,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q20">
         <v>3.3</v>
@@ -5676,7 +5691,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q21">
         <v>2.45</v>
@@ -5757,7 +5772,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ21">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6294,7 +6309,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6500,7 +6515,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q25">
         <v>1.44</v>
@@ -6578,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ25">
         <v>0.47</v>
@@ -6990,7 +7005,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ27">
         <v>0.63</v>
@@ -7118,7 +7133,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q28">
         <v>4.75</v>
@@ -7196,7 +7211,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ28">
         <v>2.38</v>
@@ -7324,7 +7339,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q29">
         <v>4.75</v>
@@ -7608,7 +7623,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ30">
         <v>1.29</v>
@@ -7736,7 +7751,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -8023,7 +8038,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR32">
         <v>1.5</v>
@@ -8148,7 +8163,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -8229,7 +8244,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR33">
         <v>1.17</v>
@@ -8354,7 +8369,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q34">
         <v>2.66</v>
@@ -8641,7 +8656,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ35">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR35">
         <v>1.57</v>
@@ -8766,7 +8781,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8972,7 +8987,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9874,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ41">
         <v>1.47</v>
@@ -10080,7 +10095,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ42">
         <v>1.06</v>
@@ -10208,7 +10223,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10495,7 +10510,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AR44">
         <v>1.56</v>
@@ -10620,7 +10635,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10698,7 +10713,7 @@
         <v>0.33</v>
       </c>
       <c r="AP45">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ45">
         <v>0.9399999999999999</v>
@@ -11032,7 +11047,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q47">
         <v>5.5</v>
@@ -11110,7 +11125,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ47">
         <v>2.19</v>
@@ -11319,7 +11334,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ48">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR48">
         <v>2.51</v>
@@ -11525,7 +11540,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ49">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR49">
         <v>1.07</v>
@@ -11856,7 +11871,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q51">
         <v>2.98</v>
@@ -12474,7 +12489,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12680,7 +12695,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q55">
         <v>1.4</v>
@@ -12758,10 +12773,10 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ55">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR55">
         <v>2.44</v>
@@ -12886,7 +12901,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q56">
         <v>2.95</v>
@@ -13092,7 +13107,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -13379,7 +13394,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ58">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AR58">
         <v>1.61</v>
@@ -13582,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ59">
         <v>1.47</v>
@@ -14122,7 +14137,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14200,10 +14215,10 @@
         <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ62">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR62">
         <v>1.34</v>
@@ -14328,7 +14343,7 @@
         <v>95</v>
       </c>
       <c r="P63" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14406,7 +14421,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ63">
         <v>0.63</v>
@@ -14821,7 +14836,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ65">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR65">
         <v>1.49</v>
@@ -14946,7 +14961,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -15152,7 +15167,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -15358,7 +15373,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15564,7 +15579,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15642,7 +15657,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ69">
         <v>0.9399999999999999</v>
@@ -15770,7 +15785,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q70">
         <v>1.67</v>
@@ -15851,7 +15866,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ70">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR70">
         <v>1.68</v>
@@ -16182,7 +16197,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16260,7 +16275,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ72">
         <v>2.38</v>
@@ -16388,7 +16403,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q73">
         <v>2.85</v>
@@ -16594,7 +16609,7 @@
         <v>113</v>
       </c>
       <c r="P74" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q74">
         <v>2.7</v>
@@ -16672,10 +16687,10 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ74">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AR74">
         <v>1.19</v>
@@ -16878,7 +16893,7 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ75">
         <v>1.29</v>
@@ -17006,7 +17021,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q76">
         <v>3.3</v>
@@ -17293,7 +17308,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ77">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR77">
         <v>2.36</v>
@@ -18529,7 +18544,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ83">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR83">
         <v>1.23</v>
@@ -18732,7 +18747,7 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ84">
         <v>0.47</v>
@@ -18941,7 +18956,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ85">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR85">
         <v>1.98</v>
@@ -19066,7 +19081,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -19272,7 +19287,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q87">
         <v>5.5</v>
@@ -19478,7 +19493,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -19765,7 +19780,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ89">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR89">
         <v>1.64</v>
@@ -20302,7 +20317,7 @@
         <v>157</v>
       </c>
       <c r="P92" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20380,7 +20395,7 @@
         <v>1.4</v>
       </c>
       <c r="AP92">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ92">
         <v>1.24</v>
@@ -20586,7 +20601,7 @@
         <v>1.4</v>
       </c>
       <c r="AP93">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ93">
         <v>1.29</v>
@@ -20795,7 +20810,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ94">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AR94">
         <v>2.14</v>
@@ -20920,7 +20935,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21204,7 +21219,7 @@
         <v>1.2</v>
       </c>
       <c r="AP96">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ96">
         <v>0.9399999999999999</v>
@@ -21332,7 +21347,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21825,7 +21840,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ99">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR99">
         <v>1.25</v>
@@ -22362,7 +22377,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22568,7 +22583,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q103">
         <v>1.67</v>
@@ -22649,7 +22664,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ103">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR103">
         <v>1.91</v>
@@ -22774,7 +22789,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22852,7 +22867,7 @@
         <v>2.33</v>
       </c>
       <c r="AP104">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ104">
         <v>2.19</v>
@@ -22980,7 +22995,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q105">
         <v>2.36</v>
@@ -23264,7 +23279,7 @@
         <v>1.17</v>
       </c>
       <c r="AP106">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ106">
         <v>0.9399999999999999</v>
@@ -24010,7 +24025,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24297,7 +24312,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ111">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AR111">
         <v>1.66</v>
@@ -24422,7 +24437,7 @@
         <v>111</v>
       </c>
       <c r="P112" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q112">
         <v>2.05</v>
@@ -24500,10 +24515,10 @@
         <v>1.2</v>
       </c>
       <c r="AP112">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ112">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR112">
         <v>2.19</v>
@@ -24709,7 +24724,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ113">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR113">
         <v>1.43</v>
@@ -25040,7 +25055,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q115">
         <v>2.7</v>
@@ -25246,7 +25261,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q116">
         <v>3.83</v>
@@ -25324,7 +25339,7 @@
         <v>0.75</v>
       </c>
       <c r="AP116">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ116">
         <v>0.75</v>
@@ -25530,10 +25545,10 @@
         <v>0.43</v>
       </c>
       <c r="AP117">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ117">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR117">
         <v>1.67</v>
@@ -25658,7 +25673,7 @@
         <v>141</v>
       </c>
       <c r="P118" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q118">
         <v>2.05</v>
@@ -25864,7 +25879,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -26070,7 +26085,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q120">
         <v>4.8</v>
@@ -26563,7 +26578,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ122">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR122">
         <v>1.51</v>
@@ -26894,7 +26909,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q124">
         <v>3.5</v>
@@ -27178,10 +27193,10 @@
         <v>0.14</v>
       </c>
       <c r="AP125">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ125">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AR125">
         <v>2.03</v>
@@ -27384,10 +27399,10 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ126">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR126">
         <v>1.32</v>
@@ -27924,7 +27939,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q129">
         <v>2.85</v>
@@ -28130,7 +28145,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q130">
         <v>6.06</v>
@@ -28336,7 +28351,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q131">
         <v>2.35</v>
@@ -28414,7 +28429,7 @@
         <v>1.25</v>
       </c>
       <c r="AP131">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ131">
         <v>1.06</v>
@@ -28542,7 +28557,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28623,7 +28638,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ132">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR132">
         <v>1.44</v>
@@ -28954,7 +28969,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q134">
         <v>1.91</v>
@@ -29160,7 +29175,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q135">
         <v>2.22</v>
@@ -29366,7 +29381,7 @@
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q136">
         <v>3.77</v>
@@ -29653,7 +29668,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ137">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AR137">
         <v>1.86</v>
@@ -29856,7 +29871,7 @@
         <v>1.25</v>
       </c>
       <c r="AP138">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ138">
         <v>1.24</v>
@@ -29984,7 +29999,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q139">
         <v>1.95</v>
@@ -30065,7 +30080,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ139">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR139">
         <v>1.46</v>
@@ -30190,7 +30205,7 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30474,7 +30489,7 @@
         <v>0.71</v>
       </c>
       <c r="AP141">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ141">
         <v>0.63</v>
@@ -30680,10 +30695,10 @@
         <v>0.44</v>
       </c>
       <c r="AP142">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ142">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR142">
         <v>1.47</v>
@@ -31092,7 +31107,7 @@
         <v>0.67</v>
       </c>
       <c r="AP144">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ144">
         <v>0.9399999999999999</v>
@@ -31220,7 +31235,7 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q145">
         <v>2.89</v>
@@ -31504,10 +31519,10 @@
         <v>0.11</v>
       </c>
       <c r="AP146">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ146">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AR146">
         <v>1.65</v>
@@ -31632,7 +31647,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31713,7 +31728,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ147">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR147">
         <v>1.6</v>
@@ -31838,7 +31853,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -32250,7 +32265,7 @@
         <v>164</v>
       </c>
       <c r="P150" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q150">
         <v>1.95</v>
@@ -32331,7 +32346,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ150">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR150">
         <v>1.65</v>
@@ -32662,7 +32677,7 @@
         <v>86</v>
       </c>
       <c r="P152" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -33280,7 +33295,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33486,7 +33501,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q156">
         <v>3.25</v>
@@ -33692,7 +33707,7 @@
         <v>199</v>
       </c>
       <c r="P157" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q157">
         <v>1.62</v>
@@ -33770,7 +33785,7 @@
         <v>0.7</v>
       </c>
       <c r="AP157">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ157">
         <v>0.75</v>
@@ -33898,7 +33913,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33979,7 +33994,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ158">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR158">
         <v>2.03</v>
@@ -34104,7 +34119,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q159">
         <v>2.8</v>
@@ -34185,7 +34200,7 @@
         <v>1</v>
       </c>
       <c r="AQ159">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR159">
         <v>1.63</v>
@@ -34310,7 +34325,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -34388,7 +34403,7 @@
         <v>2.56</v>
       </c>
       <c r="AP160">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ160">
         <v>2.19</v>
@@ -34516,7 +34531,7 @@
         <v>201</v>
       </c>
       <c r="P161" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q161">
         <v>2.9</v>
@@ -34928,7 +34943,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q163">
         <v>2.8</v>
@@ -35134,7 +35149,7 @@
         <v>202</v>
       </c>
       <c r="P164" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q164">
         <v>2.16</v>
@@ -35212,10 +35227,10 @@
         <v>0.2</v>
       </c>
       <c r="AP164">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ164">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AR164">
         <v>1.5</v>
@@ -35340,7 +35355,7 @@
         <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q165">
         <v>4.1</v>
@@ -35418,10 +35433,10 @@
         <v>1.9</v>
       </c>
       <c r="AP165">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ165">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR165">
         <v>1.62</v>
@@ -35546,7 +35561,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q166">
         <v>4.2</v>
@@ -35624,7 +35639,7 @@
         <v>1.56</v>
       </c>
       <c r="AP166">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ166">
         <v>1.29</v>
@@ -35752,7 +35767,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -35958,7 +35973,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q168">
         <v>1.63</v>
@@ -36370,7 +36385,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36782,7 +36797,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q172">
         <v>2.35</v>
@@ -36863,7 +36878,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ172">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR172">
         <v>1.31</v>
@@ -36988,7 +37003,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q173">
         <v>2.25</v>
@@ -37478,10 +37493,10 @@
         <v>1.3</v>
       </c>
       <c r="AP175">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ175">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR175">
         <v>2.25</v>
@@ -37812,7 +37827,7 @@
         <v>173</v>
       </c>
       <c r="P177" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q177">
         <v>4.33</v>
@@ -38018,7 +38033,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q178">
         <v>1.84</v>
@@ -38099,7 +38114,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ178">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AR178">
         <v>1.5</v>
@@ -38224,7 +38239,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q179">
         <v>3.75</v>
@@ -38508,7 +38523,7 @@
         <v>0.64</v>
       </c>
       <c r="AP180">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ180">
         <v>0.9399999999999999</v>
@@ -38636,7 +38651,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q181">
         <v>2.7</v>
@@ -38842,7 +38857,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -38923,7 +38938,7 @@
         <v>1</v>
       </c>
       <c r="AQ182">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR182">
         <v>1.18</v>
@@ -39254,7 +39269,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q184">
         <v>4.2</v>
@@ -39332,7 +39347,7 @@
         <v>1.45</v>
       </c>
       <c r="AP184">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ184">
         <v>1.47</v>
@@ -39953,7 +39968,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ187">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR187">
         <v>1.48</v>
@@ -40159,7 +40174,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ188">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR188">
         <v>1.67</v>
@@ -40362,7 +40377,7 @@
         <v>1.09</v>
       </c>
       <c r="AP189">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ189">
         <v>1.24</v>
@@ -40490,7 +40505,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q190">
         <v>2.21</v>
@@ -40774,7 +40789,7 @@
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ191">
         <v>1.06</v>
@@ -40902,7 +40917,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41314,7 +41329,7 @@
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q194">
         <v>2.49</v>
@@ -41601,7 +41616,7 @@
         <v>1</v>
       </c>
       <c r="AQ195">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AR195">
         <v>1.54</v>
@@ -41726,7 +41741,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q196">
         <v>3.58</v>
@@ -41804,7 +41819,7 @@
         <v>1.08</v>
       </c>
       <c r="AP196">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ196">
         <v>0.9399999999999999</v>
@@ -42138,7 +42153,7 @@
         <v>225</v>
       </c>
       <c r="P198" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q198">
         <v>3.88</v>
@@ -42216,10 +42231,10 @@
         <v>2.08</v>
       </c>
       <c r="AP198">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ198">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR198">
         <v>1.56</v>
@@ -42344,7 +42359,7 @@
         <v>86</v>
       </c>
       <c r="P199" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q199">
         <v>4.13</v>
@@ -42628,7 +42643,7 @@
         <v>0.55</v>
       </c>
       <c r="AP200">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ200">
         <v>0.63</v>
@@ -42756,7 +42771,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q201">
         <v>1.6</v>
@@ -42962,7 +42977,7 @@
         <v>200</v>
       </c>
       <c r="P202" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q202">
         <v>1.79</v>
@@ -43168,7 +43183,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q203">
         <v>2.11</v>
@@ -43249,7 +43264,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ203">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR203">
         <v>1.54</v>
@@ -43452,7 +43467,7 @@
         <v>0.85</v>
       </c>
       <c r="AP204">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ204">
         <v>0.75</v>
@@ -43580,7 +43595,7 @@
         <v>229</v>
       </c>
       <c r="P205" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q205">
         <v>5.3</v>
@@ -43786,7 +43801,7 @@
         <v>230</v>
       </c>
       <c r="P206" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q206">
         <v>2.2</v>
@@ -44073,7 +44088,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ207">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR207">
         <v>1.51</v>
@@ -44198,7 +44213,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q208">
         <v>2</v>
@@ -44691,7 +44706,7 @@
         <v>1</v>
       </c>
       <c r="AQ210">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR210">
         <v>1.6</v>
@@ -44816,7 +44831,7 @@
         <v>233</v>
       </c>
       <c r="P211" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q211">
         <v>3.09</v>
@@ -44894,7 +44909,7 @@
         <v>1.08</v>
       </c>
       <c r="AP211">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ211">
         <v>0.9399999999999999</v>
@@ -45228,7 +45243,7 @@
         <v>235</v>
       </c>
       <c r="P213" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q213">
         <v>1.61</v>
@@ -45306,7 +45321,7 @@
         <v>1.08</v>
       </c>
       <c r="AP213">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ213">
         <v>0.9399999999999999</v>
@@ -45434,7 +45449,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q214">
         <v>2.8</v>
@@ -45721,7 +45736,7 @@
         <v>1</v>
       </c>
       <c r="AQ215">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AR215">
         <v>1.15</v>
@@ -45846,7 +45861,7 @@
         <v>236</v>
       </c>
       <c r="P216" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q216">
         <v>2.85</v>
@@ -45924,7 +45939,7 @@
         <v>1.69</v>
       </c>
       <c r="AP216">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ216">
         <v>1.47</v>
@@ -46258,7 +46273,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q218">
         <v>5.25</v>
@@ -46336,7 +46351,7 @@
         <v>2.23</v>
       </c>
       <c r="AP218">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ218">
         <v>2.38</v>
@@ -46464,7 +46479,7 @@
         <v>237</v>
       </c>
       <c r="P219" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q219">
         <v>2.25</v>
@@ -46670,7 +46685,7 @@
         <v>238</v>
       </c>
       <c r="P220" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q220">
         <v>3.83</v>
@@ -47082,7 +47097,7 @@
         <v>240</v>
       </c>
       <c r="P222" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q222">
         <v>2.52</v>
@@ -47160,10 +47175,10 @@
         <v>1.23</v>
       </c>
       <c r="AP222">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ222">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR222">
         <v>1.47</v>
@@ -47494,7 +47509,7 @@
         <v>241</v>
       </c>
       <c r="P224" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q224">
         <v>1.8</v>
@@ -47575,7 +47590,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ224">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR224">
         <v>1.93</v>
@@ -47906,7 +47921,7 @@
         <v>242</v>
       </c>
       <c r="P226" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q226">
         <v>1.85</v>
@@ -48112,7 +48127,7 @@
         <v>243</v>
       </c>
       <c r="P227" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q227">
         <v>3.18</v>
@@ -48396,7 +48411,7 @@
         <v>0.43</v>
       </c>
       <c r="AP228">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ228">
         <v>0.47</v>
@@ -48524,7 +48539,7 @@
         <v>244</v>
       </c>
       <c r="P229" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q229">
         <v>2.21</v>
@@ -48605,7 +48620,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ229">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AR229">
         <v>1.46</v>
@@ -48936,7 +48951,7 @@
         <v>245</v>
       </c>
       <c r="P231" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q231">
         <v>1.55</v>
@@ -49014,7 +49029,7 @@
         <v>1</v>
       </c>
       <c r="AP231">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ231">
         <v>0.9399999999999999</v>
@@ -49142,7 +49157,7 @@
         <v>243</v>
       </c>
       <c r="P232" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q232">
         <v>3.42</v>
@@ -49429,7 +49444,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ233">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR233">
         <v>1.72</v>
@@ -49554,7 +49569,7 @@
         <v>246</v>
       </c>
       <c r="P234" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q234">
         <v>6</v>
@@ -49760,7 +49775,7 @@
         <v>247</v>
       </c>
       <c r="P235" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q235">
         <v>2.4</v>
@@ -50172,7 +50187,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q237">
         <v>2.25</v>
@@ -50250,10 +50265,10 @@
         <v>1.21</v>
       </c>
       <c r="AP237">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ237">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR237">
         <v>1.59</v>
@@ -50378,7 +50393,7 @@
         <v>138</v>
       </c>
       <c r="P238" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q238">
         <v>5.5</v>
@@ -50662,7 +50677,7 @@
         <v>1.21</v>
       </c>
       <c r="AP239">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ239">
         <v>1.24</v>
@@ -50790,7 +50805,7 @@
         <v>250</v>
       </c>
       <c r="P240" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q240">
         <v>3.6</v>
@@ -51074,10 +51089,10 @@
         <v>0.5</v>
       </c>
       <c r="AP241">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ241">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR241">
         <v>1.48</v>
@@ -51408,7 +51423,7 @@
         <v>252</v>
       </c>
       <c r="P243" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q243">
         <v>3.09</v>
@@ -51614,7 +51629,7 @@
         <v>253</v>
       </c>
       <c r="P244" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q244">
         <v>2.12</v>
@@ -51692,10 +51707,10 @@
         <v>0.67</v>
       </c>
       <c r="AP244">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ244">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AR244">
         <v>1.56</v>
@@ -51898,7 +51913,7 @@
         <v>1.67</v>
       </c>
       <c r="AP245">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ245">
         <v>1.47</v>
@@ -52644,7 +52659,7 @@
         <v>258</v>
       </c>
       <c r="P249" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q249">
         <v>5.5</v>
@@ -52850,7 +52865,7 @@
         <v>86</v>
       </c>
       <c r="P250" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q250">
         <v>2.36</v>
@@ -53056,7 +53071,7 @@
         <v>259</v>
       </c>
       <c r="P251" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q251">
         <v>1.8</v>
@@ -53468,7 +53483,7 @@
         <v>98</v>
       </c>
       <c r="P253" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q253">
         <v>2.3</v>
@@ -53674,7 +53689,7 @@
         <v>260</v>
       </c>
       <c r="P254" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q254">
         <v>2.39</v>
@@ -53755,7 +53770,7 @@
         <v>1</v>
       </c>
       <c r="AQ254">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AR254">
         <v>1.19</v>
@@ -53958,7 +53973,7 @@
         <v>0.73</v>
       </c>
       <c r="AP255">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ255">
         <v>0.75</v>
@@ -54086,7 +54101,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q256">
         <v>2.61</v>
@@ -54292,7 +54307,7 @@
         <v>262</v>
       </c>
       <c r="P257" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q257">
         <v>2.7</v>
@@ -54498,7 +54513,7 @@
         <v>86</v>
       </c>
       <c r="P258" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q258">
         <v>2.55</v>
@@ -54861,6 +54876,830 @@
       </c>
       <c r="BP259">
         <v>1.68</v>
+      </c>
+    </row>
+    <row r="260" spans="1:68">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>7424546</v>
+      </c>
+      <c r="C260" t="s">
+        <v>68</v>
+      </c>
+      <c r="D260" t="s">
+        <v>69</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45427.60416666666</v>
+      </c>
+      <c r="F260">
+        <v>3</v>
+      </c>
+      <c r="G260" t="s">
+        <v>73</v>
+      </c>
+      <c r="H260" t="s">
+        <v>83</v>
+      </c>
+      <c r="I260">
+        <v>2</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>2</v>
+      </c>
+      <c r="L260">
+        <v>3</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>3</v>
+      </c>
+      <c r="O260" t="s">
+        <v>264</v>
+      </c>
+      <c r="P260" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q260">
+        <v>1.93</v>
+      </c>
+      <c r="R260">
+        <v>2.38</v>
+      </c>
+      <c r="S260">
+        <v>5.5</v>
+      </c>
+      <c r="T260">
+        <v>1.3</v>
+      </c>
+      <c r="U260">
+        <v>3.2</v>
+      </c>
+      <c r="V260">
+        <v>2.45</v>
+      </c>
+      <c r="W260">
+        <v>1.48</v>
+      </c>
+      <c r="X260">
+        <v>6</v>
+      </c>
+      <c r="Y260">
+        <v>1.11</v>
+      </c>
+      <c r="Z260">
+        <v>1.5</v>
+      </c>
+      <c r="AA260">
+        <v>4.5</v>
+      </c>
+      <c r="AB260">
+        <v>6</v>
+      </c>
+      <c r="AC260">
+        <v>1.03</v>
+      </c>
+      <c r="AD260">
+        <v>10</v>
+      </c>
+      <c r="AE260">
+        <v>1.23</v>
+      </c>
+      <c r="AF260">
+        <v>4.14</v>
+      </c>
+      <c r="AG260">
+        <v>1.65</v>
+      </c>
+      <c r="AH260">
+        <v>2</v>
+      </c>
+      <c r="AI260">
+        <v>1.83</v>
+      </c>
+      <c r="AJ260">
+        <v>1.8</v>
+      </c>
+      <c r="AK260">
+        <v>1.07</v>
+      </c>
+      <c r="AL260">
+        <v>1.15</v>
+      </c>
+      <c r="AM260">
+        <v>2.7</v>
+      </c>
+      <c r="AN260">
+        <v>2.56</v>
+      </c>
+      <c r="AO260">
+        <v>2</v>
+      </c>
+      <c r="AP260">
+        <v>2.59</v>
+      </c>
+      <c r="AQ260">
+        <v>1.88</v>
+      </c>
+      <c r="AR260">
+        <v>2.33</v>
+      </c>
+      <c r="AS260">
+        <v>1.7</v>
+      </c>
+      <c r="AT260">
+        <v>4.03</v>
+      </c>
+      <c r="AU260">
+        <v>5</v>
+      </c>
+      <c r="AV260">
+        <v>3</v>
+      </c>
+      <c r="AW260">
+        <v>7</v>
+      </c>
+      <c r="AX260">
+        <v>3</v>
+      </c>
+      <c r="AY260">
+        <v>12</v>
+      </c>
+      <c r="AZ260">
+        <v>6</v>
+      </c>
+      <c r="BA260">
+        <v>7</v>
+      </c>
+      <c r="BB260">
+        <v>8</v>
+      </c>
+      <c r="BC260">
+        <v>15</v>
+      </c>
+      <c r="BD260">
+        <v>1.21</v>
+      </c>
+      <c r="BE260">
+        <v>11</v>
+      </c>
+      <c r="BF260">
+        <v>5.6</v>
+      </c>
+      <c r="BG260">
+        <v>1.15</v>
+      </c>
+      <c r="BH260">
+        <v>4.75</v>
+      </c>
+      <c r="BI260">
+        <v>1.25</v>
+      </c>
+      <c r="BJ260">
+        <v>3.42</v>
+      </c>
+      <c r="BK260">
+        <v>1.46</v>
+      </c>
+      <c r="BL260">
+        <v>2.45</v>
+      </c>
+      <c r="BM260">
+        <v>1.9</v>
+      </c>
+      <c r="BN260">
+        <v>1.9</v>
+      </c>
+      <c r="BO260">
+        <v>2.23</v>
+      </c>
+      <c r="BP260">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="261" spans="1:68">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>7424547</v>
+      </c>
+      <c r="C261" t="s">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>69</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45428.5</v>
+      </c>
+      <c r="F261">
+        <v>3</v>
+      </c>
+      <c r="G261" t="s">
+        <v>82</v>
+      </c>
+      <c r="H261" t="s">
+        <v>71</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>1</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+      <c r="M261">
+        <v>3</v>
+      </c>
+      <c r="N261">
+        <v>4</v>
+      </c>
+      <c r="O261" t="s">
+        <v>173</v>
+      </c>
+      <c r="P261" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q261">
+        <v>2.35</v>
+      </c>
+      <c r="R261">
+        <v>2.15</v>
+      </c>
+      <c r="S261">
+        <v>4.33</v>
+      </c>
+      <c r="T261">
+        <v>1.36</v>
+      </c>
+      <c r="U261">
+        <v>2.9</v>
+      </c>
+      <c r="V261">
+        <v>2.62</v>
+      </c>
+      <c r="W261">
+        <v>1.42</v>
+      </c>
+      <c r="X261">
+        <v>6</v>
+      </c>
+      <c r="Y261">
+        <v>1.1</v>
+      </c>
+      <c r="Z261">
+        <v>1.83</v>
+      </c>
+      <c r="AA261">
+        <v>3.7</v>
+      </c>
+      <c r="AB261">
+        <v>4.03</v>
+      </c>
+      <c r="AC261">
+        <v>1.04</v>
+      </c>
+      <c r="AD261">
+        <v>9</v>
+      </c>
+      <c r="AE261">
+        <v>1.25</v>
+      </c>
+      <c r="AF261">
+        <v>3.65</v>
+      </c>
+      <c r="AG261">
+        <v>1.8</v>
+      </c>
+      <c r="AH261">
+        <v>1.95</v>
+      </c>
+      <c r="AI261">
+        <v>1.7</v>
+      </c>
+      <c r="AJ261">
+        <v>1.95</v>
+      </c>
+      <c r="AK261">
+        <v>1.24</v>
+      </c>
+      <c r="AL261">
+        <v>1.28</v>
+      </c>
+      <c r="AM261">
+        <v>1.95</v>
+      </c>
+      <c r="AN261">
+        <v>1.31</v>
+      </c>
+      <c r="AO261">
+        <v>0.63</v>
+      </c>
+      <c r="AP261">
+        <v>1.24</v>
+      </c>
+      <c r="AQ261">
+        <v>0.76</v>
+      </c>
+      <c r="AR261">
+        <v>1.6</v>
+      </c>
+      <c r="AS261">
+        <v>1.31</v>
+      </c>
+      <c r="AT261">
+        <v>2.91</v>
+      </c>
+      <c r="AU261">
+        <v>4</v>
+      </c>
+      <c r="AV261">
+        <v>6</v>
+      </c>
+      <c r="AW261">
+        <v>4</v>
+      </c>
+      <c r="AX261">
+        <v>6</v>
+      </c>
+      <c r="AY261">
+        <v>8</v>
+      </c>
+      <c r="AZ261">
+        <v>12</v>
+      </c>
+      <c r="BA261">
+        <v>3</v>
+      </c>
+      <c r="BB261">
+        <v>0</v>
+      </c>
+      <c r="BC261">
+        <v>3</v>
+      </c>
+      <c r="BD261">
+        <v>1.51</v>
+      </c>
+      <c r="BE261">
+        <v>9.4</v>
+      </c>
+      <c r="BF261">
+        <v>2.97</v>
+      </c>
+      <c r="BG261">
+        <v>1.19</v>
+      </c>
+      <c r="BH261">
+        <v>4.4</v>
+      </c>
+      <c r="BI261">
+        <v>1.36</v>
+      </c>
+      <c r="BJ261">
+        <v>2.79</v>
+      </c>
+      <c r="BK261">
+        <v>1.68</v>
+      </c>
+      <c r="BL261">
+        <v>2.14</v>
+      </c>
+      <c r="BM261">
+        <v>2.09</v>
+      </c>
+      <c r="BN261">
+        <v>1.71</v>
+      </c>
+      <c r="BO261">
+        <v>2.38</v>
+      </c>
+      <c r="BP261">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="262" spans="1:68">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>7424548</v>
+      </c>
+      <c r="C262" t="s">
+        <v>68</v>
+      </c>
+      <c r="D262" t="s">
+        <v>69</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45428.5</v>
+      </c>
+      <c r="F262">
+        <v>3</v>
+      </c>
+      <c r="G262" t="s">
+        <v>85</v>
+      </c>
+      <c r="H262" t="s">
+        <v>70</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>3</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>3</v>
+      </c>
+      <c r="O262" t="s">
+        <v>265</v>
+      </c>
+      <c r="P262" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q262">
+        <v>2.38</v>
+      </c>
+      <c r="R262">
+        <v>2.15</v>
+      </c>
+      <c r="S262">
+        <v>4.33</v>
+      </c>
+      <c r="T262">
+        <v>1.38</v>
+      </c>
+      <c r="U262">
+        <v>2.8</v>
+      </c>
+      <c r="V262">
+        <v>2.75</v>
+      </c>
+      <c r="W262">
+        <v>1.4</v>
+      </c>
+      <c r="X262">
+        <v>6</v>
+      </c>
+      <c r="Y262">
+        <v>1.09</v>
+      </c>
+      <c r="Z262">
+        <v>1.9</v>
+      </c>
+      <c r="AA262">
+        <v>3.6</v>
+      </c>
+      <c r="AB262">
+        <v>3.83</v>
+      </c>
+      <c r="AC262">
+        <v>1.05</v>
+      </c>
+      <c r="AD262">
+        <v>8.5</v>
+      </c>
+      <c r="AE262">
+        <v>1.28</v>
+      </c>
+      <c r="AF262">
+        <v>3.48</v>
+      </c>
+      <c r="AG262">
+        <v>1.95</v>
+      </c>
+      <c r="AH262">
+        <v>1.75</v>
+      </c>
+      <c r="AI262">
+        <v>1.73</v>
+      </c>
+      <c r="AJ262">
+        <v>1.91</v>
+      </c>
+      <c r="AK262">
+        <v>1.18</v>
+      </c>
+      <c r="AL262">
+        <v>1.22</v>
+      </c>
+      <c r="AM262">
+        <v>1.95</v>
+      </c>
+      <c r="AN262">
+        <v>1.38</v>
+      </c>
+      <c r="AO262">
+        <v>1.13</v>
+      </c>
+      <c r="AP262">
+        <v>1.47</v>
+      </c>
+      <c r="AQ262">
+        <v>1.06</v>
+      </c>
+      <c r="AR262">
+        <v>1.56</v>
+      </c>
+      <c r="AS262">
+        <v>1.25</v>
+      </c>
+      <c r="AT262">
+        <v>2.81</v>
+      </c>
+      <c r="AU262">
+        <v>8</v>
+      </c>
+      <c r="AV262">
+        <v>6</v>
+      </c>
+      <c r="AW262">
+        <v>4</v>
+      </c>
+      <c r="AX262">
+        <v>3</v>
+      </c>
+      <c r="AY262">
+        <v>12</v>
+      </c>
+      <c r="AZ262">
+        <v>9</v>
+      </c>
+      <c r="BA262">
+        <v>4</v>
+      </c>
+      <c r="BB262">
+        <v>6</v>
+      </c>
+      <c r="BC262">
+        <v>10</v>
+      </c>
+      <c r="BD262">
+        <v>1.46</v>
+      </c>
+      <c r="BE262">
+        <v>9.9</v>
+      </c>
+      <c r="BF262">
+        <v>3.12</v>
+      </c>
+      <c r="BG262">
+        <v>1.17</v>
+      </c>
+      <c r="BH262">
+        <v>4.5</v>
+      </c>
+      <c r="BI262">
+        <v>1.3</v>
+      </c>
+      <c r="BJ262">
+        <v>3.2</v>
+      </c>
+      <c r="BK262">
+        <v>1.48</v>
+      </c>
+      <c r="BL262">
+        <v>2.56</v>
+      </c>
+      <c r="BM262">
+        <v>1.98</v>
+      </c>
+      <c r="BN262">
+        <v>1.82</v>
+      </c>
+      <c r="BO262">
+        <v>2.24</v>
+      </c>
+      <c r="BP262">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="263" spans="1:68">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>7424549</v>
+      </c>
+      <c r="C263" t="s">
+        <v>68</v>
+      </c>
+      <c r="D263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45428.5</v>
+      </c>
+      <c r="F263">
+        <v>3</v>
+      </c>
+      <c r="G263" t="s">
+        <v>79</v>
+      </c>
+      <c r="H263" t="s">
+        <v>81</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>1</v>
+      </c>
+      <c r="M263">
+        <v>1</v>
+      </c>
+      <c r="N263">
+        <v>2</v>
+      </c>
+      <c r="O263" t="s">
+        <v>266</v>
+      </c>
+      <c r="P263" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q263">
+        <v>2.53</v>
+      </c>
+      <c r="R263">
+        <v>2.1</v>
+      </c>
+      <c r="S263">
+        <v>3.33</v>
+      </c>
+      <c r="T263">
+        <v>1.36</v>
+      </c>
+      <c r="U263">
+        <v>2.9</v>
+      </c>
+      <c r="V263">
+        <v>2.55</v>
+      </c>
+      <c r="W263">
+        <v>1.45</v>
+      </c>
+      <c r="X263">
+        <v>6.4</v>
+      </c>
+      <c r="Y263">
+        <v>1.1</v>
+      </c>
+      <c r="Z263">
+        <v>2.11</v>
+      </c>
+      <c r="AA263">
+        <v>3.54</v>
+      </c>
+      <c r="AB263">
+        <v>3.24</v>
+      </c>
+      <c r="AC263">
+        <v>1.05</v>
+      </c>
+      <c r="AD263">
+        <v>8.5</v>
+      </c>
+      <c r="AE263">
+        <v>1.25</v>
+      </c>
+      <c r="AF263">
+        <v>3.65</v>
+      </c>
+      <c r="AG263">
+        <v>1.75</v>
+      </c>
+      <c r="AH263">
+        <v>1.95</v>
+      </c>
+      <c r="AI263">
+        <v>1.6</v>
+      </c>
+      <c r="AJ263">
+        <v>2.1</v>
+      </c>
+      <c r="AK263">
+        <v>1.25</v>
+      </c>
+      <c r="AL263">
+        <v>1.23</v>
+      </c>
+      <c r="AM263">
+        <v>1.59</v>
+      </c>
+      <c r="AN263">
+        <v>1.2</v>
+      </c>
+      <c r="AO263">
+        <v>0.25</v>
+      </c>
+      <c r="AP263">
+        <v>1.19</v>
+      </c>
+      <c r="AQ263">
+        <v>0.29</v>
+      </c>
+      <c r="AR263">
+        <v>1.54</v>
+      </c>
+      <c r="AS263">
+        <v>1.41</v>
+      </c>
+      <c r="AT263">
+        <v>2.95</v>
+      </c>
+      <c r="AU263">
+        <v>8</v>
+      </c>
+      <c r="AV263">
+        <v>6</v>
+      </c>
+      <c r="AW263">
+        <v>8</v>
+      </c>
+      <c r="AX263">
+        <v>7</v>
+      </c>
+      <c r="AY263">
+        <v>16</v>
+      </c>
+      <c r="AZ263">
+        <v>13</v>
+      </c>
+      <c r="BA263">
+        <v>6</v>
+      </c>
+      <c r="BB263">
+        <v>4</v>
+      </c>
+      <c r="BC263">
+        <v>10</v>
+      </c>
+      <c r="BD263">
+        <v>1.79</v>
+      </c>
+      <c r="BE263">
+        <v>9.4</v>
+      </c>
+      <c r="BF263">
+        <v>2.27</v>
+      </c>
+      <c r="BG263">
+        <v>1.15</v>
+      </c>
+      <c r="BH263">
+        <v>4.75</v>
+      </c>
+      <c r="BI263">
+        <v>1.22</v>
+      </c>
+      <c r="BJ263">
+        <v>3.65</v>
+      </c>
+      <c r="BK263">
+        <v>1.4</v>
+      </c>
+      <c r="BL263">
+        <v>2.64</v>
+      </c>
+      <c r="BM263">
+        <v>1.82</v>
+      </c>
+      <c r="BN263">
+        <v>1.98</v>
+      </c>
+      <c r="BO263">
+        <v>2.11</v>
+      </c>
+      <c r="BP263">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="385">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -817,6 +817,12 @@
     <t>['62']</t>
   </si>
   <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -1157,6 +1163,12 @@
   </si>
   <si>
     <t>['52']</t>
+  </si>
+  <si>
+    <t>['20', '23', '35', '50', '78']</t>
+  </si>
+  <si>
+    <t>['62', '71']</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP263"/>
+  <dimension ref="A1:BP266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1983,7 +1995,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -2679,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ6">
         <v>0.75</v>
@@ -2888,7 +2900,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ7">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3091,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ8">
         <v>0.29</v>
@@ -3837,7 +3849,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q12">
         <v>5.25</v>
@@ -3918,7 +3930,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ12">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4249,7 +4261,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4330,7 +4342,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ14">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4455,7 +4467,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q15">
         <v>2.1</v>
@@ -4661,7 +4673,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4739,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ16">
         <v>0.63</v>
@@ -4867,7 +4879,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -4945,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ17">
         <v>0.9399999999999999</v>
@@ -5073,7 +5085,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5151,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ18">
         <v>0.9399999999999999</v>
@@ -5279,7 +5291,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q19">
         <v>1.5</v>
@@ -5485,7 +5497,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q20">
         <v>3.3</v>
@@ -5691,7 +5703,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q21">
         <v>2.45</v>
@@ -6309,7 +6321,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6387,10 +6399,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ24">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR24">
         <v>1.75</v>
@@ -6515,7 +6527,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q25">
         <v>1.44</v>
@@ -7133,7 +7145,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q28">
         <v>4.75</v>
@@ -7214,7 +7226,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ28">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7339,7 +7351,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q29">
         <v>4.75</v>
@@ -7417,10 +7429,10 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ29">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR29">
         <v>1.51</v>
@@ -7751,7 +7763,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -8163,7 +8175,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -8369,7 +8381,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q34">
         <v>2.66</v>
@@ -8447,7 +8459,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ34">
         <v>1.24</v>
@@ -8781,7 +8793,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8987,7 +8999,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9068,7 +9080,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ37">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR37">
         <v>0.96</v>
@@ -9271,7 +9283,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ38">
         <v>0.9399999999999999</v>
@@ -9892,7 +9904,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ41">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR41">
         <v>2.82</v>
@@ -10223,7 +10235,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10635,7 +10647,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -11047,7 +11059,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q47">
         <v>5.5</v>
@@ -11128,7 +11140,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ47">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR47">
         <v>0.8100000000000001</v>
@@ -11743,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ50">
         <v>0.47</v>
@@ -11871,7 +11883,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q51">
         <v>2.98</v>
@@ -12361,7 +12373,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ53">
         <v>0.9399999999999999</v>
@@ -12489,7 +12501,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12570,7 +12582,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ54">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -12695,7 +12707,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q55">
         <v>1.4</v>
@@ -12901,7 +12913,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q56">
         <v>2.95</v>
@@ -13107,7 +13119,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -13185,7 +13197,7 @@
         <v>0.25</v>
       </c>
       <c r="AP57">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ57">
         <v>0.9399999999999999</v>
@@ -13600,7 +13612,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ59">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR59">
         <v>1.81</v>
@@ -14012,7 +14024,7 @@
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR61">
         <v>1.44</v>
@@ -14137,7 +14149,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14343,7 +14355,7 @@
         <v>95</v>
       </c>
       <c r="P63" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14833,7 +14845,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ65">
         <v>0.76</v>
@@ -14961,7 +14973,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -15167,7 +15179,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -15373,7 +15385,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15579,7 +15591,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15785,7 +15797,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q70">
         <v>1.67</v>
@@ -15863,7 +15875,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ70">
         <v>1.06</v>
@@ -16197,7 +16209,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16278,7 +16290,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ72">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR72">
         <v>2.54</v>
@@ -16403,7 +16415,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q73">
         <v>2.85</v>
@@ -16484,7 +16496,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ73">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR73">
         <v>1.65</v>
@@ -16609,7 +16621,7 @@
         <v>113</v>
       </c>
       <c r="P74" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q74">
         <v>2.7</v>
@@ -17021,7 +17033,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q76">
         <v>3.3</v>
@@ -17511,7 +17523,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ78">
         <v>0.9399999999999999</v>
@@ -17720,7 +17732,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ79">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR79">
         <v>1.14</v>
@@ -18129,7 +18141,7 @@
         <v>1.4</v>
       </c>
       <c r="AP81">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ81">
         <v>1.06</v>
@@ -19081,7 +19093,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -19162,7 +19174,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ86">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR86">
         <v>1.46</v>
@@ -19287,7 +19299,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q87">
         <v>5.5</v>
@@ -19368,7 +19380,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ87">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR87">
         <v>1.63</v>
@@ -19493,7 +19505,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -19571,7 +19583,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ88">
         <v>0.75</v>
@@ -20317,7 +20329,7 @@
         <v>157</v>
       </c>
       <c r="P92" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20935,7 +20947,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21016,7 +21028,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ95">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR95">
         <v>1.07</v>
@@ -21347,7 +21359,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21425,7 +21437,7 @@
         <v>0.6</v>
       </c>
       <c r="AP97">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ97">
         <v>0.63</v>
@@ -22377,7 +22389,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22455,10 +22467,10 @@
         <v>2.33</v>
       </c>
       <c r="AP102">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ102">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR102">
         <v>1.39</v>
@@ -22583,7 +22595,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q103">
         <v>1.67</v>
@@ -22661,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="AP103">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ103">
         <v>0.76</v>
@@ -22789,7 +22801,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22870,7 +22882,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ104">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR104">
         <v>1.81</v>
@@ -22995,7 +23007,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q105">
         <v>2.36</v>
@@ -23691,7 +23703,7 @@
         <v>0.29</v>
       </c>
       <c r="AP108">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ108">
         <v>0.9399999999999999</v>
@@ -24025,7 +24037,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24106,7 +24118,7 @@
         <v>1</v>
       </c>
       <c r="AQ110">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR110">
         <v>1.62</v>
@@ -24437,7 +24449,7 @@
         <v>111</v>
       </c>
       <c r="P112" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q112">
         <v>2.05</v>
@@ -24721,7 +24733,7 @@
         <v>1.17</v>
       </c>
       <c r="AP113">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ113">
         <v>1.06</v>
@@ -25055,7 +25067,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q115">
         <v>2.7</v>
@@ -25261,7 +25273,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q116">
         <v>3.83</v>
@@ -25673,7 +25685,7 @@
         <v>141</v>
       </c>
       <c r="P118" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q118">
         <v>2.05</v>
@@ -25751,7 +25763,7 @@
         <v>1.17</v>
       </c>
       <c r="AP118">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ118">
         <v>1.29</v>
@@ -25879,7 +25891,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -25960,7 +25972,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ119">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR119">
         <v>2.07</v>
@@ -26085,7 +26097,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q120">
         <v>4.8</v>
@@ -26166,7 +26178,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ120">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR120">
         <v>1.76</v>
@@ -26909,7 +26921,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q124">
         <v>3.5</v>
@@ -27605,10 +27617,10 @@
         <v>1.43</v>
       </c>
       <c r="AP127">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ127">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR127">
         <v>1.59</v>
@@ -27939,7 +27951,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q129">
         <v>2.85</v>
@@ -28145,7 +28157,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q130">
         <v>6.06</v>
@@ -28226,7 +28238,7 @@
         <v>1</v>
       </c>
       <c r="AQ130">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR130">
         <v>1.25</v>
@@ -28351,7 +28363,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q131">
         <v>2.35</v>
@@ -28557,7 +28569,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28635,7 +28647,7 @@
         <v>1.43</v>
       </c>
       <c r="AP132">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ132">
         <v>1.88</v>
@@ -28969,7 +28981,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q134">
         <v>1.91</v>
@@ -29175,7 +29187,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q135">
         <v>2.22</v>
@@ -29253,7 +29265,7 @@
         <v>1.25</v>
       </c>
       <c r="AP135">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ135">
         <v>0.9399999999999999</v>
@@ -29381,7 +29393,7 @@
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q136">
         <v>3.77</v>
@@ -29462,7 +29474,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ136">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR136">
         <v>1.46</v>
@@ -29665,7 +29677,7 @@
         <v>0.13</v>
       </c>
       <c r="AP137">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ137">
         <v>0.29</v>
@@ -29999,7 +30011,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q139">
         <v>1.95</v>
@@ -30077,7 +30089,7 @@
         <v>0.38</v>
       </c>
       <c r="AP139">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ139">
         <v>0.76</v>
@@ -30205,7 +30217,7 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -31235,7 +31247,7 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q145">
         <v>2.89</v>
@@ -31313,7 +31325,7 @@
         <v>1.38</v>
       </c>
       <c r="AP145">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ145">
         <v>1.29</v>
@@ -31647,7 +31659,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31853,7 +31865,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -31934,7 +31946,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ148">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR148">
         <v>2.08</v>
@@ -32265,7 +32277,7 @@
         <v>164</v>
       </c>
       <c r="P150" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q150">
         <v>1.95</v>
@@ -32343,7 +32355,7 @@
         <v>0.88</v>
       </c>
       <c r="AP150">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ150">
         <v>1.06</v>
@@ -32552,7 +32564,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ151">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR151">
         <v>1.34</v>
@@ -32677,7 +32689,7 @@
         <v>86</v>
       </c>
       <c r="P152" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -32758,7 +32770,7 @@
         <v>1</v>
       </c>
       <c r="AQ152">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR152">
         <v>1.74</v>
@@ -33167,7 +33179,7 @@
         <v>1.11</v>
       </c>
       <c r="AP154">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ154">
         <v>1.24</v>
@@ -33295,7 +33307,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33501,7 +33513,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q156">
         <v>3.25</v>
@@ -33707,7 +33719,7 @@
         <v>199</v>
       </c>
       <c r="P157" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q157">
         <v>1.62</v>
@@ -33913,7 +33925,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34119,7 +34131,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q159">
         <v>2.8</v>
@@ -34325,7 +34337,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -34406,7 +34418,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ160">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR160">
         <v>1.36</v>
@@ -34531,7 +34543,7 @@
         <v>201</v>
       </c>
       <c r="P161" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q161">
         <v>2.9</v>
@@ -34943,7 +34955,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q163">
         <v>2.8</v>
@@ -35021,10 +35033,10 @@
         <v>1.3</v>
       </c>
       <c r="AP163">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ163">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR163">
         <v>1.54</v>
@@ -35149,7 +35161,7 @@
         <v>202</v>
       </c>
       <c r="P164" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q164">
         <v>2.16</v>
@@ -35355,7 +35367,7 @@
         <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q165">
         <v>4.1</v>
@@ -35561,7 +35573,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q166">
         <v>4.2</v>
@@ -35767,7 +35779,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -35848,7 +35860,7 @@
         <v>1</v>
       </c>
       <c r="AQ167">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR167">
         <v>1.63</v>
@@ -35973,7 +35985,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q168">
         <v>1.63</v>
@@ -36385,7 +36397,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36797,7 +36809,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q172">
         <v>2.35</v>
@@ -37003,7 +37015,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q173">
         <v>2.25</v>
@@ -37287,7 +37299,7 @@
         <v>0.45</v>
       </c>
       <c r="AP174">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ174">
         <v>0.47</v>
@@ -37827,7 +37839,7 @@
         <v>173</v>
       </c>
       <c r="P177" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q177">
         <v>4.33</v>
@@ -37905,10 +37917,10 @@
         <v>2.3</v>
       </c>
       <c r="AP177">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ177">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR177">
         <v>1.76</v>
@@ -38033,7 +38045,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q178">
         <v>1.84</v>
@@ -38111,7 +38123,7 @@
         <v>0.18</v>
       </c>
       <c r="AP178">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ178">
         <v>0.29</v>
@@ -38239,7 +38251,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q179">
         <v>3.75</v>
@@ -38651,7 +38663,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q181">
         <v>2.7</v>
@@ -38857,7 +38869,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -39269,7 +39281,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q184">
         <v>4.2</v>
@@ -39350,7 +39362,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ184">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR184">
         <v>1.44</v>
@@ -39556,7 +39568,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ185">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR185">
         <v>2.02</v>
@@ -39759,7 +39771,7 @@
         <v>0.67</v>
       </c>
       <c r="AP186">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ186">
         <v>0.75</v>
@@ -40505,7 +40517,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q190">
         <v>2.21</v>
@@ -40917,7 +40929,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41201,10 +41213,10 @@
         <v>2.36</v>
       </c>
       <c r="AP193">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ193">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR193">
         <v>1.9</v>
@@ -41329,7 +41341,7 @@
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q194">
         <v>2.49</v>
@@ -41407,7 +41419,7 @@
         <v>1.17</v>
       </c>
       <c r="AP194">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ194">
         <v>0.9399999999999999</v>
@@ -41741,7 +41753,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q196">
         <v>3.58</v>
@@ -42153,7 +42165,7 @@
         <v>225</v>
       </c>
       <c r="P198" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q198">
         <v>3.88</v>
@@ -42359,7 +42371,7 @@
         <v>86</v>
       </c>
       <c r="P199" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q199">
         <v>4.13</v>
@@ -42440,7 +42452,7 @@
         <v>1</v>
       </c>
       <c r="AQ199">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR199">
         <v>1.14</v>
@@ -42771,7 +42783,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q201">
         <v>1.6</v>
@@ -42977,7 +42989,7 @@
         <v>200</v>
       </c>
       <c r="P202" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q202">
         <v>1.79</v>
@@ -43055,7 +43067,7 @@
         <v>0.5</v>
       </c>
       <c r="AP202">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ202">
         <v>0.63</v>
@@ -43183,7 +43195,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q203">
         <v>2.11</v>
@@ -43595,7 +43607,7 @@
         <v>229</v>
       </c>
       <c r="P205" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q205">
         <v>5.3</v>
@@ -43673,10 +43685,10 @@
         <v>2.33</v>
       </c>
       <c r="AP205">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ205">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR205">
         <v>1.72</v>
@@ -43801,7 +43813,7 @@
         <v>230</v>
       </c>
       <c r="P206" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q206">
         <v>2.2</v>
@@ -44213,7 +44225,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q208">
         <v>2</v>
@@ -44291,7 +44303,7 @@
         <v>0.46</v>
       </c>
       <c r="AP208">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ208">
         <v>0.47</v>
@@ -44500,7 +44512,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ209">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR209">
         <v>1.39</v>
@@ -44831,7 +44843,7 @@
         <v>233</v>
       </c>
       <c r="P211" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q211">
         <v>3.09</v>
@@ -45243,7 +45255,7 @@
         <v>235</v>
       </c>
       <c r="P213" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q213">
         <v>1.61</v>
@@ -45449,7 +45461,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q214">
         <v>2.8</v>
@@ -45861,7 +45873,7 @@
         <v>236</v>
       </c>
       <c r="P216" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q216">
         <v>2.85</v>
@@ -45942,7 +45954,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ216">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR216">
         <v>1.55</v>
@@ -46273,7 +46285,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q218">
         <v>5.25</v>
@@ -46354,7 +46366,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ218">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR218">
         <v>1.63</v>
@@ -46479,7 +46491,7 @@
         <v>237</v>
       </c>
       <c r="P219" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q219">
         <v>2.25</v>
@@ -46557,7 +46569,7 @@
         <v>0.85</v>
       </c>
       <c r="AP219">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ219">
         <v>1.06</v>
@@ -46685,7 +46697,7 @@
         <v>238</v>
       </c>
       <c r="P220" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q220">
         <v>3.83</v>
@@ -47097,7 +47109,7 @@
         <v>240</v>
       </c>
       <c r="P222" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q222">
         <v>2.52</v>
@@ -47509,7 +47521,7 @@
         <v>241</v>
       </c>
       <c r="P224" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q224">
         <v>1.8</v>
@@ -47793,10 +47805,10 @@
         <v>2.38</v>
       </c>
       <c r="AP225">
+        <v>2.17</v>
+      </c>
+      <c r="AQ225">
         <v>2.24</v>
-      </c>
-      <c r="AQ225">
-        <v>2.19</v>
       </c>
       <c r="AR225">
         <v>1.93</v>
@@ -47921,7 +47933,7 @@
         <v>242</v>
       </c>
       <c r="P226" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q226">
         <v>1.85</v>
@@ -48002,7 +48014,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ226">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR226">
         <v>1.93</v>
@@ -48127,7 +48139,7 @@
         <v>243</v>
       </c>
       <c r="P227" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q227">
         <v>3.18</v>
@@ -48539,7 +48551,7 @@
         <v>244</v>
       </c>
       <c r="P229" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q229">
         <v>2.21</v>
@@ -48951,7 +48963,7 @@
         <v>245</v>
       </c>
       <c r="P231" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q231">
         <v>1.55</v>
@@ -49157,7 +49169,7 @@
         <v>243</v>
       </c>
       <c r="P232" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q232">
         <v>3.42</v>
@@ -49441,7 +49453,7 @@
         <v>2.07</v>
       </c>
       <c r="AP233">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ233">
         <v>1.88</v>
@@ -49569,7 +49581,7 @@
         <v>246</v>
       </c>
       <c r="P234" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q234">
         <v>6</v>
@@ -49650,7 +49662,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ234">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR234">
         <v>1.5</v>
@@ -49775,7 +49787,7 @@
         <v>247</v>
       </c>
       <c r="P235" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q235">
         <v>2.4</v>
@@ -50059,7 +50071,7 @@
         <v>1</v>
       </c>
       <c r="AP236">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ236">
         <v>1.06</v>
@@ -50187,7 +50199,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q237">
         <v>2.25</v>
@@ -50393,7 +50405,7 @@
         <v>138</v>
       </c>
       <c r="P238" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q238">
         <v>5.5</v>
@@ -50474,7 +50486,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ238">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR238">
         <v>1.58</v>
@@ -50805,7 +50817,7 @@
         <v>250</v>
       </c>
       <c r="P240" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q240">
         <v>3.6</v>
@@ -51423,7 +51435,7 @@
         <v>252</v>
       </c>
       <c r="P243" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q243">
         <v>3.09</v>
@@ -51629,7 +51641,7 @@
         <v>253</v>
       </c>
       <c r="P244" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q244">
         <v>2.12</v>
@@ -51916,7 +51928,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ245">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR245">
         <v>2.35</v>
@@ -52119,7 +52131,7 @@
         <v>1.2</v>
       </c>
       <c r="AP246">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ246">
         <v>1.24</v>
@@ -52659,7 +52671,7 @@
         <v>258</v>
       </c>
       <c r="P249" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q249">
         <v>5.5</v>
@@ -52737,10 +52749,10 @@
         <v>2.33</v>
       </c>
       <c r="AP249">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ249">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR249">
         <v>1.71</v>
@@ -52865,7 +52877,7 @@
         <v>86</v>
       </c>
       <c r="P250" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q250">
         <v>2.36</v>
@@ -53071,7 +53083,7 @@
         <v>259</v>
       </c>
       <c r="P251" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q251">
         <v>1.8</v>
@@ -53149,7 +53161,7 @@
         <v>1.27</v>
       </c>
       <c r="AP251">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ251">
         <v>1.29</v>
@@ -53358,7 +53370,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ252">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR252">
         <v>1.96</v>
@@ -53483,7 +53495,7 @@
         <v>98</v>
       </c>
       <c r="P253" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q253">
         <v>2.3</v>
@@ -53689,7 +53701,7 @@
         <v>260</v>
       </c>
       <c r="P254" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q254">
         <v>2.39</v>
@@ -54101,7 +54113,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q256">
         <v>2.61</v>
@@ -54307,7 +54319,7 @@
         <v>262</v>
       </c>
       <c r="P257" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q257">
         <v>2.7</v>
@@ -54513,7 +54525,7 @@
         <v>86</v>
       </c>
       <c r="P258" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q258">
         <v>2.55</v>
@@ -54591,7 +54603,7 @@
         <v>1.19</v>
       </c>
       <c r="AP258">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ258">
         <v>1.29</v>
@@ -54800,7 +54812,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ259">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR259">
         <v>1.92</v>
@@ -55131,7 +55143,7 @@
         <v>173</v>
       </c>
       <c r="P261" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q261">
         <v>2.35</v>
@@ -55543,7 +55555,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q263">
         <v>2.53</v>
@@ -55700,6 +55712,624 @@
       </c>
       <c r="BP263">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="264" spans="1:68">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>7424550</v>
+      </c>
+      <c r="C264" t="s">
+        <v>68</v>
+      </c>
+      <c r="D264" t="s">
+        <v>69</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45430.5</v>
+      </c>
+      <c r="F264">
+        <v>4</v>
+      </c>
+      <c r="G264" t="s">
+        <v>74</v>
+      </c>
+      <c r="H264" t="s">
+        <v>77</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>3</v>
+      </c>
+      <c r="K264">
+        <v>3</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264">
+        <v>5</v>
+      </c>
+      <c r="N264">
+        <v>5</v>
+      </c>
+      <c r="O264" t="s">
+        <v>86</v>
+      </c>
+      <c r="P264" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q264">
+        <v>5.6</v>
+      </c>
+      <c r="R264">
+        <v>2.55</v>
+      </c>
+      <c r="S264">
+        <v>1.9</v>
+      </c>
+      <c r="T264">
+        <v>1.24</v>
+      </c>
+      <c r="U264">
+        <v>3.65</v>
+      </c>
+      <c r="V264">
+        <v>2.35</v>
+      </c>
+      <c r="W264">
+        <v>1.53</v>
+      </c>
+      <c r="X264">
+        <v>4.5</v>
+      </c>
+      <c r="Y264">
+        <v>1.17</v>
+      </c>
+      <c r="Z264">
+        <v>5.5</v>
+      </c>
+      <c r="AA264">
+        <v>4.33</v>
+      </c>
+      <c r="AB264">
+        <v>1.44</v>
+      </c>
+      <c r="AC264">
+        <v>1.02</v>
+      </c>
+      <c r="AD264">
+        <v>16</v>
+      </c>
+      <c r="AE264">
+        <v>1.17</v>
+      </c>
+      <c r="AF264">
+        <v>4.9</v>
+      </c>
+      <c r="AG264">
+        <v>1.57</v>
+      </c>
+      <c r="AH264">
+        <v>2.25</v>
+      </c>
+      <c r="AI264">
+        <v>1.72</v>
+      </c>
+      <c r="AJ264">
+        <v>2.02</v>
+      </c>
+      <c r="AK264">
+        <v>2.6</v>
+      </c>
+      <c r="AL264">
+        <v>1.17</v>
+      </c>
+      <c r="AM264">
+        <v>1.09</v>
+      </c>
+      <c r="AN264">
+        <v>1.63</v>
+      </c>
+      <c r="AO264">
+        <v>2.38</v>
+      </c>
+      <c r="AP264">
+        <v>1.53</v>
+      </c>
+      <c r="AQ264">
+        <v>2.41</v>
+      </c>
+      <c r="AR264">
+        <v>1.54</v>
+      </c>
+      <c r="AS264">
+        <v>1.64</v>
+      </c>
+      <c r="AT264">
+        <v>3.18</v>
+      </c>
+      <c r="AU264">
+        <v>3</v>
+      </c>
+      <c r="AV264">
+        <v>6</v>
+      </c>
+      <c r="AW264">
+        <v>2</v>
+      </c>
+      <c r="AX264">
+        <v>4</v>
+      </c>
+      <c r="AY264">
+        <v>5</v>
+      </c>
+      <c r="AZ264">
+        <v>10</v>
+      </c>
+      <c r="BA264">
+        <v>3</v>
+      </c>
+      <c r="BB264">
+        <v>4</v>
+      </c>
+      <c r="BC264">
+        <v>7</v>
+      </c>
+      <c r="BD264">
+        <v>3</v>
+      </c>
+      <c r="BE264">
+        <v>9.5</v>
+      </c>
+      <c r="BF264">
+        <v>1.44</v>
+      </c>
+      <c r="BG264">
+        <v>1.11</v>
+      </c>
+      <c r="BH264">
+        <v>5.5</v>
+      </c>
+      <c r="BI264">
+        <v>1.22</v>
+      </c>
+      <c r="BJ264">
+        <v>3.8</v>
+      </c>
+      <c r="BK264">
+        <v>1.3</v>
+      </c>
+      <c r="BL264">
+        <v>3.25</v>
+      </c>
+      <c r="BM264">
+        <v>1.58</v>
+      </c>
+      <c r="BN264">
+        <v>2.3</v>
+      </c>
+      <c r="BO264">
+        <v>1.93</v>
+      </c>
+      <c r="BP264">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="265" spans="1:68">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>7424551</v>
+      </c>
+      <c r="C265" t="s">
+        <v>68</v>
+      </c>
+      <c r="D265" t="s">
+        <v>69</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45430.5</v>
+      </c>
+      <c r="F265">
+        <v>4</v>
+      </c>
+      <c r="G265" t="s">
+        <v>76</v>
+      </c>
+      <c r="H265" t="s">
+        <v>73</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>1</v>
+      </c>
+      <c r="M265">
+        <v>2</v>
+      </c>
+      <c r="N265">
+        <v>3</v>
+      </c>
+      <c r="O265" t="s">
+        <v>267</v>
+      </c>
+      <c r="P265" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q265">
+        <v>5.5</v>
+      </c>
+      <c r="R265">
+        <v>2.38</v>
+      </c>
+      <c r="S265">
+        <v>1.91</v>
+      </c>
+      <c r="T265">
+        <v>1.33</v>
+      </c>
+      <c r="U265">
+        <v>3.25</v>
+      </c>
+      <c r="V265">
+        <v>2.38</v>
+      </c>
+      <c r="W265">
+        <v>1.53</v>
+      </c>
+      <c r="X265">
+        <v>5.5</v>
+      </c>
+      <c r="Y265">
+        <v>1.12</v>
+      </c>
+      <c r="Z265">
+        <v>5.75</v>
+      </c>
+      <c r="AA265">
+        <v>4.2</v>
+      </c>
+      <c r="AB265">
+        <v>1.44</v>
+      </c>
+      <c r="AC265">
+        <v>1.02</v>
+      </c>
+      <c r="AD265">
+        <v>10</v>
+      </c>
+      <c r="AE265">
+        <v>1.25</v>
+      </c>
+      <c r="AF265">
+        <v>3.6</v>
+      </c>
+      <c r="AG265">
+        <v>1.73</v>
+      </c>
+      <c r="AH265">
+        <v>2</v>
+      </c>
+      <c r="AI265">
+        <v>1.91</v>
+      </c>
+      <c r="AJ265">
+        <v>1.8</v>
+      </c>
+      <c r="AK265">
+        <v>2.8</v>
+      </c>
+      <c r="AL265">
+        <v>1.22</v>
+      </c>
+      <c r="AM265">
+        <v>1.05</v>
+      </c>
+      <c r="AN265">
+        <v>1.38</v>
+      </c>
+      <c r="AO265">
+        <v>2.19</v>
+      </c>
+      <c r="AP265">
+        <v>1.29</v>
+      </c>
+      <c r="AQ265">
+        <v>2.24</v>
+      </c>
+      <c r="AR265">
+        <v>1.68</v>
+      </c>
+      <c r="AS265">
+        <v>1.73</v>
+      </c>
+      <c r="AT265">
+        <v>3.41</v>
+      </c>
+      <c r="AU265">
+        <v>2</v>
+      </c>
+      <c r="AV265">
+        <v>5</v>
+      </c>
+      <c r="AW265">
+        <v>1</v>
+      </c>
+      <c r="AX265">
+        <v>7</v>
+      </c>
+      <c r="AY265">
+        <v>3</v>
+      </c>
+      <c r="AZ265">
+        <v>12</v>
+      </c>
+      <c r="BA265">
+        <v>0</v>
+      </c>
+      <c r="BB265">
+        <v>6</v>
+      </c>
+      <c r="BC265">
+        <v>6</v>
+      </c>
+      <c r="BD265">
+        <v>4.11</v>
+      </c>
+      <c r="BE265">
+        <v>10</v>
+      </c>
+      <c r="BF265">
+        <v>1.31</v>
+      </c>
+      <c r="BG265">
+        <v>1.18</v>
+      </c>
+      <c r="BH265">
+        <v>4.33</v>
+      </c>
+      <c r="BI265">
+        <v>1.28</v>
+      </c>
+      <c r="BJ265">
+        <v>3.2</v>
+      </c>
+      <c r="BK265">
+        <v>1.57</v>
+      </c>
+      <c r="BL265">
+        <v>2.34</v>
+      </c>
+      <c r="BM265">
+        <v>1.92</v>
+      </c>
+      <c r="BN265">
+        <v>1.88</v>
+      </c>
+      <c r="BO265">
+        <v>2.38</v>
+      </c>
+      <c r="BP265">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="266" spans="1:68">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>7424552</v>
+      </c>
+      <c r="C266" t="s">
+        <v>68</v>
+      </c>
+      <c r="D266" t="s">
+        <v>69</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45430.5</v>
+      </c>
+      <c r="F266">
+        <v>4</v>
+      </c>
+      <c r="G266" t="s">
+        <v>83</v>
+      </c>
+      <c r="H266" t="s">
+        <v>80</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>1</v>
+      </c>
+      <c r="M266">
+        <v>1</v>
+      </c>
+      <c r="N266">
+        <v>2</v>
+      </c>
+      <c r="O266" t="s">
+        <v>268</v>
+      </c>
+      <c r="P266" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q266">
+        <v>2.1</v>
+      </c>
+      <c r="R266">
+        <v>2.4</v>
+      </c>
+      <c r="S266">
+        <v>4.33</v>
+      </c>
+      <c r="T266">
+        <v>1.29</v>
+      </c>
+      <c r="U266">
+        <v>3.5</v>
+      </c>
+      <c r="V266">
+        <v>2.3</v>
+      </c>
+      <c r="W266">
+        <v>1.57</v>
+      </c>
+      <c r="X266">
+        <v>4.75</v>
+      </c>
+      <c r="Y266">
+        <v>1.15</v>
+      </c>
+      <c r="Z266">
+        <v>1.65</v>
+      </c>
+      <c r="AA266">
+        <v>3.9</v>
+      </c>
+      <c r="AB266">
+        <v>3.9</v>
+      </c>
+      <c r="AC266">
+        <v>1.03</v>
+      </c>
+      <c r="AD266">
+        <v>12</v>
+      </c>
+      <c r="AE266">
+        <v>1.18</v>
+      </c>
+      <c r="AF266">
+        <v>4.33</v>
+      </c>
+      <c r="AG266">
+        <v>1.57</v>
+      </c>
+      <c r="AH266">
+        <v>2.25</v>
+      </c>
+      <c r="AI266">
+        <v>1.62</v>
+      </c>
+      <c r="AJ266">
+        <v>2.2</v>
+      </c>
+      <c r="AK266">
+        <v>1.2</v>
+      </c>
+      <c r="AL266">
+        <v>1.25</v>
+      </c>
+      <c r="AM266">
+        <v>2.05</v>
+      </c>
+      <c r="AN266">
+        <v>2.24</v>
+      </c>
+      <c r="AO266">
+        <v>1.47</v>
+      </c>
+      <c r="AP266">
+        <v>2.17</v>
+      </c>
+      <c r="AQ266">
+        <v>1.44</v>
+      </c>
+      <c r="AR266">
+        <v>1.91</v>
+      </c>
+      <c r="AS266">
+        <v>1.64</v>
+      </c>
+      <c r="AT266">
+        <v>3.55</v>
+      </c>
+      <c r="AU266">
+        <v>2</v>
+      </c>
+      <c r="AV266">
+        <v>2</v>
+      </c>
+      <c r="AW266">
+        <v>2</v>
+      </c>
+      <c r="AX266">
+        <v>5</v>
+      </c>
+      <c r="AY266">
+        <v>4</v>
+      </c>
+      <c r="AZ266">
+        <v>7</v>
+      </c>
+      <c r="BA266">
+        <v>2</v>
+      </c>
+      <c r="BB266">
+        <v>8</v>
+      </c>
+      <c r="BC266">
+        <v>10</v>
+      </c>
+      <c r="BD266">
+        <v>1.44</v>
+      </c>
+      <c r="BE266">
+        <v>9.5</v>
+      </c>
+      <c r="BF266">
+        <v>3</v>
+      </c>
+      <c r="BG266">
+        <v>1.13</v>
+      </c>
+      <c r="BH266">
+        <v>5</v>
+      </c>
+      <c r="BI266">
+        <v>1.21</v>
+      </c>
+      <c r="BJ266">
+        <v>4.2</v>
+      </c>
+      <c r="BK266">
+        <v>1.38</v>
+      </c>
+      <c r="BL266">
+        <v>2.9</v>
+      </c>
+      <c r="BM266">
+        <v>1.68</v>
+      </c>
+      <c r="BN266">
+        <v>2.13</v>
+      </c>
+      <c r="BO266">
+        <v>2.08</v>
+      </c>
+      <c r="BP266">
+        <v>1.72</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -55857,19 +55857,19 @@
         <v>3</v>
       </c>
       <c r="AV264">
+        <v>10</v>
+      </c>
+      <c r="AW264">
         <v>6</v>
       </c>
-      <c r="AW264">
-        <v>2</v>
-      </c>
       <c r="AX264">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AY264">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ264">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BA264">
         <v>3</v>
@@ -56063,28 +56063,28 @@
         <v>2</v>
       </c>
       <c r="AV265">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW265">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX265">
+        <v>13</v>
+      </c>
+      <c r="AY265">
+        <v>8</v>
+      </c>
+      <c r="AZ265">
+        <v>19</v>
+      </c>
+      <c r="BA265">
+        <v>2</v>
+      </c>
+      <c r="BB265">
         <v>7</v>
       </c>
-      <c r="AY265">
-        <v>3</v>
-      </c>
-      <c r="AZ265">
-        <v>12</v>
-      </c>
-      <c r="BA265">
-        <v>0</v>
-      </c>
-      <c r="BB265">
-        <v>6</v>
-      </c>
       <c r="BC265">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD265">
         <v>4.11</v>
@@ -56266,31 +56266,31 @@
         <v>3.55</v>
       </c>
       <c r="AU266">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV266">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW266">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX266">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY266">
+        <v>8</v>
+      </c>
+      <c r="AZ266">
+        <v>13</v>
+      </c>
+      <c r="BA266">
         <v>4</v>
-      </c>
-      <c r="AZ266">
-        <v>7</v>
-      </c>
-      <c r="BA266">
-        <v>2</v>
       </c>
       <c r="BB266">
         <v>8</v>
       </c>
       <c r="BC266">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD266">
         <v>1.44</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="390">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -829,6 +829,12 @@
     <t>['33', '43', '51', '54']</t>
   </si>
   <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['50', '60']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -923,9 +929,6 @@
   </si>
   <si>
     <t>['11', '29', '78']</t>
-  </si>
-  <si>
-    <t>['45+2']</t>
   </si>
   <si>
     <t>['14', '47']</t>
@@ -1542,7 +1545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP270"/>
+  <dimension ref="A1:BP274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2007,7 +2010,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -2085,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ3">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -3118,7 +3121,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ8">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3861,7 +3864,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q12">
         <v>5.25</v>
@@ -4273,7 +4276,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4479,7 +4482,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q15">
         <v>2.1</v>
@@ -4557,10 +4560,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ15">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4685,7 +4688,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4891,7 +4894,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -5097,7 +5100,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5303,7 +5306,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q19">
         <v>1.5</v>
@@ -5384,7 +5387,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ19">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR19">
         <v>2.28</v>
@@ -5509,7 +5512,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q20">
         <v>3.3</v>
@@ -5587,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ20">
         <v>1.24</v>
@@ -5715,7 +5718,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q21">
         <v>2.45</v>
@@ -5793,10 +5796,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ21">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6333,7 +6336,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6539,7 +6542,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q25">
         <v>1.44</v>
@@ -6620,7 +6623,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ25">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR25">
         <v>1.72</v>
@@ -7157,7 +7160,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q28">
         <v>4.75</v>
@@ -7235,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28">
         <v>2.41</v>
@@ -7363,7 +7366,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q29">
         <v>4.75</v>
@@ -7647,7 +7650,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ30">
         <v>1.29</v>
@@ -7775,7 +7778,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7856,7 +7859,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ31">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.82</v>
@@ -8187,7 +8190,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -8393,7 +8396,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q34">
         <v>2.66</v>
@@ -8680,7 +8683,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ35">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR35">
         <v>1.57</v>
@@ -8805,7 +8808,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8883,7 +8886,7 @@
         <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ36">
         <v>0.76</v>
@@ -9011,7 +9014,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9501,10 +9504,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ39">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR39">
         <v>1.69</v>
@@ -10122,7 +10125,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ42">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.31</v>
@@ -10247,7 +10250,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10534,7 +10537,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AR44">
         <v>1.56</v>
@@ -10659,7 +10662,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10737,7 +10740,7 @@
         <v>0.33</v>
       </c>
       <c r="AP45">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ45">
         <v>1.06</v>
@@ -11071,7 +11074,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q47">
         <v>5.5</v>
@@ -11149,7 +11152,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ47">
         <v>2.24</v>
@@ -11564,7 +11567,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ49">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR49">
         <v>1.07</v>
@@ -11770,7 +11773,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ50">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR50">
         <v>1.29</v>
@@ -11895,7 +11898,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q51">
         <v>2.98</v>
@@ -12513,7 +12516,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12719,7 +12722,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q55">
         <v>1.4</v>
@@ -12925,7 +12928,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q56">
         <v>2.95</v>
@@ -13003,7 +13006,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ56">
         <v>0.9399999999999999</v>
@@ -13131,7 +13134,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -13418,7 +13421,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ58">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AR58">
         <v>1.61</v>
@@ -13621,7 +13624,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ59">
         <v>1.44</v>
@@ -13827,10 +13830,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ60">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.7</v>
@@ -14161,7 +14164,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14367,7 +14370,7 @@
         <v>95</v>
       </c>
       <c r="P63" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14445,7 +14448,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ63">
         <v>0.63</v>
@@ -14985,7 +14988,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -15066,7 +15069,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ66">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.56</v>
@@ -15191,7 +15194,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -15272,7 +15275,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ67">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR67">
         <v>1.77</v>
@@ -15397,7 +15400,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15603,7 +15606,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15681,7 +15684,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ69">
         <v>0.9399999999999999</v>
@@ -15809,7 +15812,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q70">
         <v>1.67</v>
@@ -15890,7 +15893,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ70">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR70">
         <v>1.68</v>
@@ -16093,7 +16096,7 @@
         <v>0.6</v>
       </c>
       <c r="AP71">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ71">
         <v>0.76</v>
@@ -16221,7 +16224,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16427,7 +16430,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q73">
         <v>2.85</v>
@@ -16633,7 +16636,7 @@
         <v>113</v>
       </c>
       <c r="P74" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="Q74">
         <v>2.7</v>
@@ -16714,7 +16717,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ74">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AR74">
         <v>1.19</v>
@@ -16917,7 +16920,7 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ75">
         <v>1.29</v>
@@ -17045,7 +17048,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q76">
         <v>3.3</v>
@@ -17123,7 +17126,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ76">
         <v>0.63</v>
@@ -18156,7 +18159,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ81">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.56</v>
@@ -18771,10 +18774,10 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ84">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR84">
         <v>1.81</v>
@@ -18980,7 +18983,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ85">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR85">
         <v>1.98</v>
@@ -19105,7 +19108,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -19183,7 +19186,7 @@
         <v>2.2</v>
       </c>
       <c r="AP86">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ86">
         <v>2.41</v>
@@ -19311,7 +19314,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q87">
         <v>5.5</v>
@@ -19517,7 +19520,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -20213,7 +20216,7 @@
         <v>0.33</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ91">
         <v>1.06</v>
@@ -20341,7 +20344,7 @@
         <v>157</v>
       </c>
       <c r="P92" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20834,7 +20837,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ94">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AR94">
         <v>2.14</v>
@@ -20959,7 +20962,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21243,7 +21246,7 @@
         <v>1.2</v>
       </c>
       <c r="AP96">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ96">
         <v>1.06</v>
@@ -21371,7 +21374,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21655,10 +21658,10 @@
         <v>1.17</v>
       </c>
       <c r="AP98">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ98">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.47</v>
@@ -21864,7 +21867,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ99">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR99">
         <v>1.25</v>
@@ -22070,7 +22073,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ100">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR100">
         <v>1.67</v>
@@ -22401,7 +22404,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22607,7 +22610,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q103">
         <v>1.67</v>
@@ -22813,7 +22816,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22891,7 +22894,7 @@
         <v>2.33</v>
       </c>
       <c r="AP104">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ104">
         <v>2.24</v>
@@ -23019,7 +23022,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="Q105">
         <v>2.36</v>
@@ -23100,7 +23103,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ105">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR105">
         <v>1.26</v>
@@ -23303,7 +23306,7 @@
         <v>1.17</v>
       </c>
       <c r="AP106">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ106">
         <v>0.9399999999999999</v>
@@ -24049,7 +24052,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24127,7 +24130,7 @@
         <v>1.17</v>
       </c>
       <c r="AP110">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ110">
         <v>1.44</v>
@@ -24336,7 +24339,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ111">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AR111">
         <v>1.66</v>
@@ -24461,7 +24464,7 @@
         <v>111</v>
       </c>
       <c r="P112" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q112">
         <v>2.05</v>
@@ -24748,7 +24751,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ113">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR113">
         <v>1.43</v>
@@ -24951,7 +24954,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ114">
         <v>0.63</v>
@@ -25079,7 +25082,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q115">
         <v>2.7</v>
@@ -25160,7 +25163,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ115">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR115">
         <v>1.2</v>
@@ -25285,7 +25288,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q116">
         <v>3.83</v>
@@ -25569,7 +25572,7 @@
         <v>0.43</v>
       </c>
       <c r="AP117">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ117">
         <v>0.72</v>
@@ -25697,7 +25700,7 @@
         <v>141</v>
       </c>
       <c r="P118" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q118">
         <v>2.05</v>
@@ -25903,7 +25906,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -26109,7 +26112,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q120">
         <v>4.8</v>
@@ -26599,7 +26602,7 @@
         <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ122">
         <v>1.88</v>
@@ -26933,7 +26936,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q124">
         <v>3.5</v>
@@ -27011,7 +27014,7 @@
         <v>1.14</v>
       </c>
       <c r="AP124">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ124">
         <v>0.9399999999999999</v>
@@ -27220,7 +27223,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ125">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AR125">
         <v>2.03</v>
@@ -27423,10 +27426,10 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ126">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR126">
         <v>1.32</v>
@@ -27838,7 +27841,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ128">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR128">
         <v>2.1</v>
@@ -27963,7 +27966,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q129">
         <v>2.85</v>
@@ -28169,7 +28172,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q130">
         <v>6.06</v>
@@ -28375,7 +28378,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q131">
         <v>2.35</v>
@@ -28453,10 +28456,10 @@
         <v>1.25</v>
       </c>
       <c r="AP131">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ131">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR131">
         <v>1.48</v>
@@ -28581,7 +28584,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28993,7 +28996,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q134">
         <v>1.91</v>
@@ -29074,7 +29077,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ134">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR134">
         <v>1.67</v>
@@ -29199,7 +29202,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q135">
         <v>2.22</v>
@@ -29405,7 +29408,7 @@
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q136">
         <v>3.77</v>
@@ -29483,7 +29486,7 @@
         <v>1.25</v>
       </c>
       <c r="AP136">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ136">
         <v>1.44</v>
@@ -29692,7 +29695,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ137">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AR137">
         <v>1.86</v>
@@ -30023,7 +30026,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q139">
         <v>1.95</v>
@@ -30229,7 +30232,7 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30513,7 +30516,7 @@
         <v>0.71</v>
       </c>
       <c r="AP141">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ141">
         <v>0.63</v>
@@ -30719,7 +30722,7 @@
         <v>0.44</v>
       </c>
       <c r="AP142">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ142">
         <v>0.72</v>
@@ -31259,7 +31262,7 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q145">
         <v>2.89</v>
@@ -31543,10 +31546,10 @@
         <v>0.11</v>
       </c>
       <c r="AP146">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ146">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AR146">
         <v>1.65</v>
@@ -31671,7 +31674,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31877,7 +31880,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -32164,7 +32167,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ149">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR149">
         <v>2.03</v>
@@ -32289,7 +32292,7 @@
         <v>164</v>
       </c>
       <c r="P150" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q150">
         <v>1.95</v>
@@ -32370,7 +32373,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ150">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR150">
         <v>1.65</v>
@@ -32701,7 +32704,7 @@
         <v>86</v>
       </c>
       <c r="P152" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -32779,7 +32782,7 @@
         <v>2.22</v>
       </c>
       <c r="AP152">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ152">
         <v>2.41</v>
@@ -33319,7 +33322,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33400,7 +33403,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ155">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR155">
         <v>1.16</v>
@@ -33525,7 +33528,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q156">
         <v>3.25</v>
@@ -33603,7 +33606,7 @@
         <v>1.11</v>
       </c>
       <c r="AP156">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ156">
         <v>1.06</v>
@@ -33731,7 +33734,7 @@
         <v>199</v>
       </c>
       <c r="P157" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q157">
         <v>1.62</v>
@@ -33937,7 +33940,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34143,7 +34146,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q159">
         <v>2.8</v>
@@ -34221,10 +34224,10 @@
         <v>1.11</v>
       </c>
       <c r="AP159">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ159">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR159">
         <v>1.63</v>
@@ -34349,7 +34352,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -34555,7 +34558,7 @@
         <v>201</v>
       </c>
       <c r="P161" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q161">
         <v>2.9</v>
@@ -34636,7 +34639,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ161">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR161">
         <v>1.21</v>
@@ -34967,7 +34970,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q163">
         <v>2.8</v>
@@ -35173,7 +35176,7 @@
         <v>202</v>
       </c>
       <c r="P164" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q164">
         <v>2.16</v>
@@ -35251,10 +35254,10 @@
         <v>0.2</v>
       </c>
       <c r="AP164">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ164">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AR164">
         <v>1.5</v>
@@ -35379,7 +35382,7 @@
         <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q165">
         <v>4.1</v>
@@ -35457,7 +35460,7 @@
         <v>1.9</v>
       </c>
       <c r="AP165">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ165">
         <v>1.88</v>
@@ -35585,7 +35588,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q166">
         <v>4.2</v>
@@ -35791,7 +35794,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -35869,7 +35872,7 @@
         <v>2.4</v>
       </c>
       <c r="AP167">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ167">
         <v>2.24</v>
@@ -35997,7 +36000,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q168">
         <v>1.63</v>
@@ -36409,7 +36412,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36693,7 +36696,7 @@
         <v>1.1</v>
       </c>
       <c r="AP171">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ171">
         <v>1.24</v>
@@ -36821,7 +36824,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q172">
         <v>2.35</v>
@@ -37027,7 +37030,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q173">
         <v>2.25</v>
@@ -37314,7 +37317,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ174">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR174">
         <v>1.87</v>
@@ -37520,7 +37523,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ175">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR175">
         <v>2.25</v>
@@ -37851,7 +37854,7 @@
         <v>173</v>
       </c>
       <c r="P177" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q177">
         <v>4.33</v>
@@ -38057,7 +38060,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q178">
         <v>1.84</v>
@@ -38138,7 +38141,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ178">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AR178">
         <v>1.5</v>
@@ -38263,7 +38266,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q179">
         <v>3.75</v>
@@ -38341,7 +38344,7 @@
         <v>1.4</v>
       </c>
       <c r="AP179">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ179">
         <v>1.29</v>
@@ -38547,7 +38550,7 @@
         <v>0.64</v>
       </c>
       <c r="AP180">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ180">
         <v>1.06</v>
@@ -38675,7 +38678,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q181">
         <v>2.7</v>
@@ -38881,7 +38884,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -39293,7 +39296,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q184">
         <v>4.2</v>
@@ -39989,10 +39992,10 @@
         <v>1.18</v>
       </c>
       <c r="AP187">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ187">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR187">
         <v>1.48</v>
@@ -40401,7 +40404,7 @@
         <v>1.09</v>
       </c>
       <c r="AP189">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ189">
         <v>1.24</v>
@@ -40529,7 +40532,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q190">
         <v>2.21</v>
@@ -40816,7 +40819,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ191">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR191">
         <v>2.37</v>
@@ -40941,7 +40944,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41022,7 +41025,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ192">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR192">
         <v>1.4</v>
@@ -41353,7 +41356,7 @@
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q194">
         <v>2.49</v>
@@ -41637,10 +41640,10 @@
         <v>0.17</v>
       </c>
       <c r="AP195">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ195">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AR195">
         <v>1.54</v>
@@ -41765,7 +41768,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q196">
         <v>3.58</v>
@@ -42177,7 +42180,7 @@
         <v>225</v>
       </c>
       <c r="P198" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q198">
         <v>3.88</v>
@@ -42255,7 +42258,7 @@
         <v>2.08</v>
       </c>
       <c r="AP198">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ198">
         <v>1.88</v>
@@ -42383,7 +42386,7 @@
         <v>86</v>
       </c>
       <c r="P199" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q199">
         <v>4.13</v>
@@ -42795,7 +42798,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q201">
         <v>1.6</v>
@@ -43001,7 +43004,7 @@
         <v>200</v>
       </c>
       <c r="P202" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q202">
         <v>1.79</v>
@@ -43207,7 +43210,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q203">
         <v>2.11</v>
@@ -43288,7 +43291,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ203">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR203">
         <v>1.54</v>
@@ -43491,7 +43494,7 @@
         <v>0.85</v>
       </c>
       <c r="AP204">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ204">
         <v>0.76</v>
@@ -43619,7 +43622,7 @@
         <v>229</v>
       </c>
       <c r="P205" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q205">
         <v>5.3</v>
@@ -43825,7 +43828,7 @@
         <v>230</v>
       </c>
       <c r="P206" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q206">
         <v>2.2</v>
@@ -43906,7 +43909,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ206">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR206">
         <v>1.93</v>
@@ -44109,7 +44112,7 @@
         <v>0.5</v>
       </c>
       <c r="AP207">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ207">
         <v>0.72</v>
@@ -44237,7 +44240,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q208">
         <v>2</v>
@@ -44318,7 +44321,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ208">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR208">
         <v>1.59</v>
@@ -44727,7 +44730,7 @@
         <v>2.15</v>
       </c>
       <c r="AP210">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ210">
         <v>1.88</v>
@@ -44855,7 +44858,7 @@
         <v>233</v>
       </c>
       <c r="P211" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q211">
         <v>3.09</v>
@@ -45267,7 +45270,7 @@
         <v>235</v>
       </c>
       <c r="P213" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q213">
         <v>1.61</v>
@@ -45473,7 +45476,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q214">
         <v>2.8</v>
@@ -45760,7 +45763,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ215">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AR215">
         <v>1.15</v>
@@ -45885,7 +45888,7 @@
         <v>236</v>
       </c>
       <c r="P216" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q216">
         <v>2.85</v>
@@ -45963,7 +45966,7 @@
         <v>1.69</v>
       </c>
       <c r="AP216">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ216">
         <v>1.44</v>
@@ -46297,7 +46300,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q218">
         <v>5.25</v>
@@ -46375,7 +46378,7 @@
         <v>2.23</v>
       </c>
       <c r="AP218">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ218">
         <v>2.41</v>
@@ -46503,7 +46506,7 @@
         <v>237</v>
       </c>
       <c r="P219" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q219">
         <v>2.25</v>
@@ -46584,7 +46587,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ219">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR219">
         <v>1.58</v>
@@ -46709,7 +46712,7 @@
         <v>238</v>
       </c>
       <c r="P220" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q220">
         <v>3.83</v>
@@ -46993,7 +46996,7 @@
         <v>1.38</v>
       </c>
       <c r="AP221">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ221">
         <v>1.29</v>
@@ -47121,7 +47124,7 @@
         <v>240</v>
       </c>
       <c r="P222" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q222">
         <v>2.52</v>
@@ -47202,7 +47205,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ222">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR222">
         <v>1.47</v>
@@ -47533,7 +47536,7 @@
         <v>241</v>
       </c>
       <c r="P224" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q224">
         <v>1.8</v>
@@ -47945,7 +47948,7 @@
         <v>242</v>
       </c>
       <c r="P226" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q226">
         <v>1.85</v>
@@ -48151,7 +48154,7 @@
         <v>243</v>
       </c>
       <c r="P227" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q227">
         <v>3.18</v>
@@ -48229,7 +48232,7 @@
         <v>1</v>
       </c>
       <c r="AP227">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ227">
         <v>1.06</v>
@@ -48435,10 +48438,10 @@
         <v>0.43</v>
       </c>
       <c r="AP228">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ228">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR228">
         <v>1.56</v>
@@ -48563,7 +48566,7 @@
         <v>244</v>
       </c>
       <c r="P229" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q229">
         <v>2.21</v>
@@ -48644,7 +48647,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ229">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AR229">
         <v>1.46</v>
@@ -48975,7 +48978,7 @@
         <v>245</v>
       </c>
       <c r="P231" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q231">
         <v>1.55</v>
@@ -49181,7 +49184,7 @@
         <v>243</v>
       </c>
       <c r="P232" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q232">
         <v>3.42</v>
@@ -49593,7 +49596,7 @@
         <v>246</v>
       </c>
       <c r="P234" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q234">
         <v>6</v>
@@ -49671,7 +49674,7 @@
         <v>2.21</v>
       </c>
       <c r="AP234">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ234">
         <v>2.24</v>
@@ -49799,7 +49802,7 @@
         <v>247</v>
       </c>
       <c r="P235" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q235">
         <v>2.4</v>
@@ -50086,7 +50089,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ236">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR236">
         <v>1.88</v>
@@ -50211,7 +50214,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q237">
         <v>2.25</v>
@@ -50289,10 +50292,10 @@
         <v>1.21</v>
       </c>
       <c r="AP237">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ237">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR237">
         <v>1.59</v>
@@ -50417,7 +50420,7 @@
         <v>138</v>
       </c>
       <c r="P238" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q238">
         <v>5.5</v>
@@ -50701,7 +50704,7 @@
         <v>1.21</v>
       </c>
       <c r="AP239">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ239">
         <v>1.24</v>
@@ -50829,7 +50832,7 @@
         <v>250</v>
       </c>
       <c r="P240" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q240">
         <v>3.6</v>
@@ -51322,7 +51325,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ242">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR242">
         <v>1.19</v>
@@ -51447,7 +51450,7 @@
         <v>252</v>
       </c>
       <c r="P243" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q243">
         <v>3.09</v>
@@ -51653,7 +51656,7 @@
         <v>253</v>
       </c>
       <c r="P244" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q244">
         <v>2.12</v>
@@ -51731,7 +51734,7 @@
         <v>0.67</v>
       </c>
       <c r="AP244">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ244">
         <v>0.72</v>
@@ -52349,7 +52352,7 @@
         <v>1.33</v>
       </c>
       <c r="AP247">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AQ247">
         <v>1.25</v>
@@ -52555,7 +52558,7 @@
         <v>1.23</v>
       </c>
       <c r="AP248">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AQ248">
         <v>1.16</v>
@@ -52683,7 +52686,7 @@
         <v>258</v>
       </c>
       <c r="P249" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q249">
         <v>5.5</v>
@@ -52889,7 +52892,7 @@
         <v>86</v>
       </c>
       <c r="P250" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q250">
         <v>2.36</v>
@@ -53095,7 +53098,7 @@
         <v>259</v>
       </c>
       <c r="P251" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q251">
         <v>1.8</v>
@@ -53507,7 +53510,7 @@
         <v>98</v>
       </c>
       <c r="P253" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q253">
         <v>2.3</v>
@@ -53588,7 +53591,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ253">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AR253">
         <v>1.66</v>
@@ -53713,7 +53716,7 @@
         <v>260</v>
       </c>
       <c r="P254" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q254">
         <v>2.39</v>
@@ -53794,7 +53797,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ254">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AR254">
         <v>1.19</v>
@@ -53997,7 +54000,7 @@
         <v>0.73</v>
       </c>
       <c r="AP255">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ255">
         <v>0.76</v>
@@ -54125,7 +54128,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q256">
         <v>2.61</v>
@@ -54206,7 +54209,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ256">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR256">
         <v>1.53</v>
@@ -54331,7 +54334,7 @@
         <v>262</v>
       </c>
       <c r="P257" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q257">
         <v>2.7</v>
@@ -54409,10 +54412,10 @@
         <v>0.44</v>
       </c>
       <c r="AP257">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AQ257">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR257">
         <v>1.59</v>
@@ -54537,7 +54540,7 @@
         <v>86</v>
       </c>
       <c r="P258" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q258">
         <v>2.55</v>
@@ -55155,7 +55158,7 @@
         <v>173</v>
       </c>
       <c r="P261" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q261">
         <v>2.35</v>
@@ -55233,7 +55236,7 @@
         <v>0.63</v>
       </c>
       <c r="AP261">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ261">
         <v>0.72</v>
@@ -55439,10 +55442,10 @@
         <v>1.13</v>
       </c>
       <c r="AP262">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ262">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR262">
         <v>1.56</v>
@@ -55567,7 +55570,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q263">
         <v>2.53</v>
@@ -55648,7 +55651,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ263">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AR263">
         <v>1.54</v>
@@ -55773,7 +55776,7 @@
         <v>86</v>
       </c>
       <c r="P264" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q264">
         <v>5.6</v>
@@ -55979,7 +55982,7 @@
         <v>267</v>
       </c>
       <c r="P265" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q265">
         <v>5.5</v>
@@ -56469,10 +56472,10 @@
         <v>1.34</v>
       </c>
       <c r="AP267">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AQ267">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR267">
         <v>1.46</v>
@@ -56597,7 +56600,7 @@
         <v>269</v>
       </c>
       <c r="P268" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q268">
         <v>2.65</v>
@@ -56803,7 +56806,7 @@
         <v>141</v>
       </c>
       <c r="P269" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q269">
         <v>2.42</v>
@@ -57166,6 +57169,830 @@
       </c>
       <c r="BP270">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7424556</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45437.54166666666</v>
+      </c>
+      <c r="F271">
+        <v>5</v>
+      </c>
+      <c r="G271" t="s">
+        <v>82</v>
+      </c>
+      <c r="H271" t="s">
+        <v>70</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+      <c r="M271">
+        <v>1</v>
+      </c>
+      <c r="N271">
+        <v>1</v>
+      </c>
+      <c r="O271" t="s">
+        <v>86</v>
+      </c>
+      <c r="P271" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q271">
+        <v>2.29</v>
+      </c>
+      <c r="R271">
+        <v>2.25</v>
+      </c>
+      <c r="S271">
+        <v>4.5</v>
+      </c>
+      <c r="T271">
+        <v>1.33</v>
+      </c>
+      <c r="U271">
+        <v>3.14</v>
+      </c>
+      <c r="V271">
+        <v>2.57</v>
+      </c>
+      <c r="W271">
+        <v>1.47</v>
+      </c>
+      <c r="X271">
+        <v>6.15</v>
+      </c>
+      <c r="Y271">
+        <v>1.1</v>
+      </c>
+      <c r="Z271">
+        <v>1.73</v>
+      </c>
+      <c r="AA271">
+        <v>3.8</v>
+      </c>
+      <c r="AB271">
+        <v>4</v>
+      </c>
+      <c r="AC271">
+        <v>1.01</v>
+      </c>
+      <c r="AD271">
+        <v>10.5</v>
+      </c>
+      <c r="AE271">
+        <v>1.21</v>
+      </c>
+      <c r="AF271">
+        <v>3.74</v>
+      </c>
+      <c r="AG271">
+        <v>1.6</v>
+      </c>
+      <c r="AH271">
+        <v>2.19</v>
+      </c>
+      <c r="AI271">
+        <v>1.68</v>
+      </c>
+      <c r="AJ271">
+        <v>2.06</v>
+      </c>
+      <c r="AK271">
+        <v>1.25</v>
+      </c>
+      <c r="AL271">
+        <v>1.28</v>
+      </c>
+      <c r="AM271">
+        <v>1.9</v>
+      </c>
+      <c r="AN271">
+        <v>1.24</v>
+      </c>
+      <c r="AO271">
+        <v>1.06</v>
+      </c>
+      <c r="AP271">
+        <v>1.17</v>
+      </c>
+      <c r="AQ271">
+        <v>1.18</v>
+      </c>
+      <c r="AR271">
+        <v>1.59</v>
+      </c>
+      <c r="AS271">
+        <v>1.26</v>
+      </c>
+      <c r="AT271">
+        <v>2.85</v>
+      </c>
+      <c r="AU271">
+        <v>2</v>
+      </c>
+      <c r="AV271">
+        <v>5</v>
+      </c>
+      <c r="AW271">
+        <v>9</v>
+      </c>
+      <c r="AX271">
+        <v>9</v>
+      </c>
+      <c r="AY271">
+        <v>11</v>
+      </c>
+      <c r="AZ271">
+        <v>14</v>
+      </c>
+      <c r="BA271">
+        <v>6</v>
+      </c>
+      <c r="BB271">
+        <v>4</v>
+      </c>
+      <c r="BC271">
+        <v>10</v>
+      </c>
+      <c r="BD271">
+        <v>1.41</v>
+      </c>
+      <c r="BE271">
+        <v>9.5</v>
+      </c>
+      <c r="BF271">
+        <v>3.48</v>
+      </c>
+      <c r="BG271">
+        <v>1.15</v>
+      </c>
+      <c r="BH271">
+        <v>4.75</v>
+      </c>
+      <c r="BI271">
+        <v>1.22</v>
+      </c>
+      <c r="BJ271">
+        <v>3.64</v>
+      </c>
+      <c r="BK271">
+        <v>1.42</v>
+      </c>
+      <c r="BL271">
+        <v>2.57</v>
+      </c>
+      <c r="BM271">
+        <v>1.88</v>
+      </c>
+      <c r="BN271">
+        <v>1.92</v>
+      </c>
+      <c r="BO271">
+        <v>2.14</v>
+      </c>
+      <c r="BP271">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7424557</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45437.54166666666</v>
+      </c>
+      <c r="F272">
+        <v>5</v>
+      </c>
+      <c r="G272" t="s">
+        <v>85</v>
+      </c>
+      <c r="H272" t="s">
+        <v>79</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>1</v>
+      </c>
+      <c r="L272">
+        <v>1</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272">
+        <v>1</v>
+      </c>
+      <c r="O272" t="s">
+        <v>271</v>
+      </c>
+      <c r="P272" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q272">
+        <v>3</v>
+      </c>
+      <c r="R272">
+        <v>2.15</v>
+      </c>
+      <c r="S272">
+        <v>3.3</v>
+      </c>
+      <c r="T272">
+        <v>1.36</v>
+      </c>
+      <c r="U272">
+        <v>2.88</v>
+      </c>
+      <c r="V272">
+        <v>2.62</v>
+      </c>
+      <c r="W272">
+        <v>1.42</v>
+      </c>
+      <c r="X272">
+        <v>6</v>
+      </c>
+      <c r="Y272">
+        <v>1.09</v>
+      </c>
+      <c r="Z272">
+        <v>3.1</v>
+      </c>
+      <c r="AA272">
+        <v>3.5</v>
+      </c>
+      <c r="AB272">
+        <v>2.1</v>
+      </c>
+      <c r="AC272">
+        <v>1.02</v>
+      </c>
+      <c r="AD272">
+        <v>10</v>
+      </c>
+      <c r="AE272">
+        <v>1.25</v>
+      </c>
+      <c r="AF272">
+        <v>3.6</v>
+      </c>
+      <c r="AG272">
+        <v>1.78</v>
+      </c>
+      <c r="AH272">
+        <v>1.93</v>
+      </c>
+      <c r="AI272">
+        <v>1.65</v>
+      </c>
+      <c r="AJ272">
+        <v>2.1</v>
+      </c>
+      <c r="AK272">
+        <v>1.48</v>
+      </c>
+      <c r="AL272">
+        <v>1.28</v>
+      </c>
+      <c r="AM272">
+        <v>1.55</v>
+      </c>
+      <c r="AN272">
+        <v>1.47</v>
+      </c>
+      <c r="AO272">
+        <v>0.47</v>
+      </c>
+      <c r="AP272">
+        <v>1.56</v>
+      </c>
+      <c r="AQ272">
+        <v>0.44</v>
+      </c>
+      <c r="AR272">
+        <v>1.57</v>
+      </c>
+      <c r="AS272">
+        <v>1.12</v>
+      </c>
+      <c r="AT272">
+        <v>2.69</v>
+      </c>
+      <c r="AU272">
+        <v>4</v>
+      </c>
+      <c r="AV272">
+        <v>5</v>
+      </c>
+      <c r="AW272">
+        <v>5</v>
+      </c>
+      <c r="AX272">
+        <v>13</v>
+      </c>
+      <c r="AY272">
+        <v>9</v>
+      </c>
+      <c r="AZ272">
+        <v>18</v>
+      </c>
+      <c r="BA272">
+        <v>2</v>
+      </c>
+      <c r="BB272">
+        <v>5</v>
+      </c>
+      <c r="BC272">
+        <v>7</v>
+      </c>
+      <c r="BD272">
+        <v>2</v>
+      </c>
+      <c r="BE272">
+        <v>8</v>
+      </c>
+      <c r="BF272">
+        <v>2.05</v>
+      </c>
+      <c r="BG272">
+        <v>1.18</v>
+      </c>
+      <c r="BH272">
+        <v>4.33</v>
+      </c>
+      <c r="BI272">
+        <v>1.29</v>
+      </c>
+      <c r="BJ272">
+        <v>3.14</v>
+      </c>
+      <c r="BK272">
+        <v>1.53</v>
+      </c>
+      <c r="BL272">
+        <v>2.28</v>
+      </c>
+      <c r="BM272">
+        <v>1.89</v>
+      </c>
+      <c r="BN272">
+        <v>1.81</v>
+      </c>
+      <c r="BO272">
+        <v>2.42</v>
+      </c>
+      <c r="BP272">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7424558</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45437.54166666666</v>
+      </c>
+      <c r="F273">
+        <v>5</v>
+      </c>
+      <c r="G273" t="s">
+        <v>71</v>
+      </c>
+      <c r="H273" t="s">
+        <v>81</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
+      <c r="L273">
+        <v>1</v>
+      </c>
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273">
+        <v>1</v>
+      </c>
+      <c r="O273" t="s">
+        <v>213</v>
+      </c>
+      <c r="P273" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q273">
+        <v>2.55</v>
+      </c>
+      <c r="R273">
+        <v>2.2</v>
+      </c>
+      <c r="S273">
+        <v>3.8</v>
+      </c>
+      <c r="T273">
+        <v>1.35</v>
+      </c>
+      <c r="U273">
+        <v>3</v>
+      </c>
+      <c r="V273">
+        <v>2.6</v>
+      </c>
+      <c r="W273">
+        <v>1.45</v>
+      </c>
+      <c r="X273">
+        <v>5.75</v>
+      </c>
+      <c r="Y273">
+        <v>1.1</v>
+      </c>
+      <c r="Z273">
+        <v>2.25</v>
+      </c>
+      <c r="AA273">
+        <v>2.88</v>
+      </c>
+      <c r="AB273">
+        <v>3.4</v>
+      </c>
+      <c r="AC273">
+        <v>1.05</v>
+      </c>
+      <c r="AD273">
+        <v>13</v>
+      </c>
+      <c r="AE273">
+        <v>1.25</v>
+      </c>
+      <c r="AF273">
+        <v>3.95</v>
+      </c>
+      <c r="AG273">
+        <v>1.77</v>
+      </c>
+      <c r="AH273">
+        <v>1.94</v>
+      </c>
+      <c r="AI273">
+        <v>1.65</v>
+      </c>
+      <c r="AJ273">
+        <v>2.1</v>
+      </c>
+      <c r="AK273">
+        <v>1.32</v>
+      </c>
+      <c r="AL273">
+        <v>1.32</v>
+      </c>
+      <c r="AM273">
+        <v>1.72</v>
+      </c>
+      <c r="AN273">
+        <v>1</v>
+      </c>
+      <c r="AO273">
+        <v>0.29</v>
+      </c>
+      <c r="AP273">
+        <v>1.12</v>
+      </c>
+      <c r="AQ273">
+        <v>0.28</v>
+      </c>
+      <c r="AR273">
+        <v>1.6</v>
+      </c>
+      <c r="AS273">
+        <v>1.43</v>
+      </c>
+      <c r="AT273">
+        <v>3.03</v>
+      </c>
+      <c r="AU273">
+        <v>8</v>
+      </c>
+      <c r="AV273">
+        <v>6</v>
+      </c>
+      <c r="AW273">
+        <v>8</v>
+      </c>
+      <c r="AX273">
+        <v>8</v>
+      </c>
+      <c r="AY273">
+        <v>16</v>
+      </c>
+      <c r="AZ273">
+        <v>14</v>
+      </c>
+      <c r="BA273">
+        <v>14</v>
+      </c>
+      <c r="BB273">
+        <v>7</v>
+      </c>
+      <c r="BC273">
+        <v>21</v>
+      </c>
+      <c r="BD273">
+        <v>1.91</v>
+      </c>
+      <c r="BE273">
+        <v>8.5</v>
+      </c>
+      <c r="BF273">
+        <v>2.2</v>
+      </c>
+      <c r="BG273">
+        <v>1.17</v>
+      </c>
+      <c r="BH273">
+        <v>4.5</v>
+      </c>
+      <c r="BI273">
+        <v>1.26</v>
+      </c>
+      <c r="BJ273">
+        <v>3.34</v>
+      </c>
+      <c r="BK273">
+        <v>1.48</v>
+      </c>
+      <c r="BL273">
+        <v>2.4</v>
+      </c>
+      <c r="BM273">
+        <v>1.92</v>
+      </c>
+      <c r="BN273">
+        <v>1.88</v>
+      </c>
+      <c r="BO273">
+        <v>2.3</v>
+      </c>
+      <c r="BP273">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7433196</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45437.54166666666</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274" t="s">
+        <v>84</v>
+      </c>
+      <c r="H274" t="s">
+        <v>72</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>2</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274">
+        <v>2</v>
+      </c>
+      <c r="O274" t="s">
+        <v>272</v>
+      </c>
+      <c r="P274" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q274">
+        <v>2.64</v>
+      </c>
+      <c r="R274">
+        <v>2.23</v>
+      </c>
+      <c r="S274">
+        <v>4.39</v>
+      </c>
+      <c r="T274">
+        <v>1.41</v>
+      </c>
+      <c r="U274">
+        <v>2.99</v>
+      </c>
+      <c r="V274">
+        <v>3.03</v>
+      </c>
+      <c r="W274">
+        <v>1.4</v>
+      </c>
+      <c r="X274">
+        <v>6.75</v>
+      </c>
+      <c r="Y274">
+        <v>1.07</v>
+      </c>
+      <c r="Z274">
+        <v>1.95</v>
+      </c>
+      <c r="AA274">
+        <v>3.3</v>
+      </c>
+      <c r="AB274">
+        <v>3.6</v>
+      </c>
+      <c r="AC274">
+        <v>1.06</v>
+      </c>
+      <c r="AD274">
+        <v>11</v>
+      </c>
+      <c r="AE274">
+        <v>1.34</v>
+      </c>
+      <c r="AF274">
+        <v>3.32</v>
+      </c>
+      <c r="AG274">
+        <v>1.96</v>
+      </c>
+      <c r="AH274">
+        <v>1.75</v>
+      </c>
+      <c r="AI274">
+        <v>1.85</v>
+      </c>
+      <c r="AJ274">
+        <v>1.88</v>
+      </c>
+      <c r="AK274">
+        <v>1.3</v>
+      </c>
+      <c r="AL274">
+        <v>1.3</v>
+      </c>
+      <c r="AM274">
+        <v>1.8</v>
+      </c>
+      <c r="AN274">
+        <v>1.39</v>
+      </c>
+      <c r="AO274">
+        <v>1.27</v>
+      </c>
+      <c r="AP274">
+        <v>1.44</v>
+      </c>
+      <c r="AQ274">
+        <v>1.24</v>
+      </c>
+      <c r="AR274">
+        <v>1.55</v>
+      </c>
+      <c r="AS274">
+        <v>1.34</v>
+      </c>
+      <c r="AT274">
+        <v>2.89</v>
+      </c>
+      <c r="AU274">
+        <v>6</v>
+      </c>
+      <c r="AV274">
+        <v>6</v>
+      </c>
+      <c r="AW274">
+        <v>6</v>
+      </c>
+      <c r="AX274">
+        <v>12</v>
+      </c>
+      <c r="AY274">
+        <v>12</v>
+      </c>
+      <c r="AZ274">
+        <v>18</v>
+      </c>
+      <c r="BA274">
+        <v>5</v>
+      </c>
+      <c r="BB274">
+        <v>10</v>
+      </c>
+      <c r="BC274">
+        <v>15</v>
+      </c>
+      <c r="BD274">
+        <v>1.55</v>
+      </c>
+      <c r="BE274">
+        <v>8.5</v>
+      </c>
+      <c r="BF274">
+        <v>2.91</v>
+      </c>
+      <c r="BG274">
+        <v>1.2</v>
+      </c>
+      <c r="BH274">
+        <v>4</v>
+      </c>
+      <c r="BI274">
+        <v>1.3</v>
+      </c>
+      <c r="BJ274">
+        <v>3.08</v>
+      </c>
+      <c r="BK274">
+        <v>1.53</v>
+      </c>
+      <c r="BL274">
+        <v>2.27</v>
+      </c>
+      <c r="BM274">
+        <v>1.92</v>
+      </c>
+      <c r="BN274">
+        <v>1.79</v>
+      </c>
+      <c r="BO274">
+        <v>2.45</v>
+      </c>
+      <c r="BP274">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="393">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -835,6 +835,15 @@
     <t>['50', '60']</t>
   </si>
   <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['16', '27', '78', '89']</t>
+  </si>
+  <si>
+    <t>['28', '30', '36', '50', '71', '78']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -1021,9 +1030,6 @@
     <t>['24', '75', '76']</t>
   </si>
   <si>
-    <t>['45+1']</t>
-  </si>
-  <si>
     <t>['86']</t>
   </si>
   <si>
@@ -1184,6 +1190,9 @@
   </si>
   <si>
     <t>['13', '74']</t>
+  </si>
+  <si>
+    <t>['71']</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP274"/>
+  <dimension ref="A1:BP277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2010,7 +2019,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -2297,7 +2306,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ4">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2500,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AQ5">
         <v>1.06</v>
@@ -3324,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ9">
         <v>0.9399999999999999</v>
@@ -3864,7 +3873,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q12">
         <v>5.25</v>
@@ -4148,10 +4157,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ13">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4276,7 +4285,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4482,7 +4491,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q15">
         <v>2.1</v>
@@ -4688,7 +4697,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4894,7 +4903,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -5100,7 +5109,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5306,7 +5315,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q19">
         <v>1.5</v>
@@ -5384,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ19">
         <v>1.18</v>
@@ -5512,7 +5521,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q20">
         <v>3.3</v>
@@ -5593,7 +5602,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ20">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR20">
         <v>2.09</v>
@@ -5718,7 +5727,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q21">
         <v>2.45</v>
@@ -6336,7 +6345,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6542,7 +6551,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q25">
         <v>1.44</v>
@@ -6620,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AQ25">
         <v>0.44</v>
@@ -6826,7 +6835,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ26">
         <v>1.06</v>
@@ -7160,7 +7169,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q28">
         <v>4.75</v>
@@ -7366,7 +7375,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q29">
         <v>4.75</v>
@@ -7653,7 +7662,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ30">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR30">
         <v>1.89</v>
@@ -7778,7 +7787,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -8190,7 +8199,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -8271,7 +8280,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ33">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR33">
         <v>1.17</v>
@@ -8396,7 +8405,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q34">
         <v>2.66</v>
@@ -8477,7 +8486,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ34">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR34">
         <v>1.19</v>
@@ -8808,7 +8817,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -9014,7 +9023,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9916,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AQ41">
         <v>1.44</v>
@@ -10250,7 +10259,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10331,7 +10340,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ43">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR43">
         <v>1.45</v>
@@ -10534,7 +10543,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ44">
         <v>0.28</v>
@@ -10662,7 +10671,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -11074,7 +11083,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q47">
         <v>5.5</v>
@@ -11358,7 +11367,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ48">
         <v>0.72</v>
@@ -11898,7 +11907,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q51">
         <v>2.98</v>
@@ -12182,10 +12191,10 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ52">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR52">
         <v>1.69</v>
@@ -12516,7 +12525,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12722,7 +12731,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q55">
         <v>1.4</v>
@@ -12800,7 +12809,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AQ55">
         <v>0.72</v>
@@ -12928,7 +12937,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q56">
         <v>2.95</v>
@@ -13134,7 +13143,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -14164,7 +14173,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14245,7 +14254,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ62">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR62">
         <v>1.34</v>
@@ -14370,7 +14379,7 @@
         <v>95</v>
       </c>
       <c r="P63" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14654,10 +14663,10 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ64">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR64">
         <v>2.5</v>
@@ -14988,7 +14997,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -15194,7 +15203,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -15272,7 +15281,7 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ67">
         <v>0.44</v>
@@ -15400,7 +15409,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15481,7 +15490,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ68">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR68">
         <v>1.28</v>
@@ -15606,7 +15615,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15812,7 +15821,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q70">
         <v>1.67</v>
@@ -16224,7 +16233,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16302,7 +16311,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AQ72">
         <v>2.41</v>
@@ -16430,7 +16439,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q73">
         <v>2.85</v>
@@ -16923,7 +16932,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ75">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR75">
         <v>1.12</v>
@@ -17048,7 +17057,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q76">
         <v>3.3</v>
@@ -17332,10 +17341,10 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ77">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR77">
         <v>2.36</v>
@@ -18365,7 +18374,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ82">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR82">
         <v>1.67</v>
@@ -18980,7 +18989,7 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ85">
         <v>1.18</v>
@@ -19108,7 +19117,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -19314,7 +19323,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q87">
         <v>5.5</v>
@@ -19520,7 +19529,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q88">
         <v>1.8</v>
@@ -19807,7 +19816,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ89">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR89">
         <v>1.64</v>
@@ -20344,7 +20353,7 @@
         <v>157</v>
       </c>
       <c r="P92" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20425,7 +20434,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ92">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR92">
         <v>1.28</v>
@@ -20628,10 +20637,10 @@
         <v>1.4</v>
       </c>
       <c r="AP93">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AQ93">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR93">
         <v>2.29</v>
@@ -20834,7 +20843,7 @@
         <v>0.2</v>
       </c>
       <c r="AP94">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ94">
         <v>0.28</v>
@@ -20962,7 +20971,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21374,7 +21383,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -22276,7 +22285,7 @@
         <v>0.43</v>
       </c>
       <c r="AP101">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ101">
         <v>0.76</v>
@@ -22404,7 +22413,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22610,7 +22619,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q103">
         <v>1.67</v>
@@ -22816,7 +22825,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -23515,7 +23524,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ107">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR107">
         <v>1.03</v>
@@ -23924,7 +23933,7 @@
         <v>1.5</v>
       </c>
       <c r="AP109">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ109">
         <v>1.06</v>
@@ -24052,7 +24061,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24464,7 +24473,7 @@
         <v>111</v>
       </c>
       <c r="P112" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q112">
         <v>2.05</v>
@@ -24542,10 +24551,10 @@
         <v>1.2</v>
       </c>
       <c r="AP112">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AQ112">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR112">
         <v>2.19</v>
@@ -25082,7 +25091,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q115">
         <v>2.7</v>
@@ -25288,7 +25297,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q116">
         <v>3.83</v>
@@ -25700,7 +25709,7 @@
         <v>141</v>
       </c>
       <c r="P118" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q118">
         <v>2.05</v>
@@ -25781,7 +25790,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ118">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR118">
         <v>1.87</v>
@@ -25906,7 +25915,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -25984,7 +25993,7 @@
         <v>2</v>
       </c>
       <c r="AP119">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ119">
         <v>2.41</v>
@@ -26112,7 +26121,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q120">
         <v>4.8</v>
@@ -26399,7 +26408,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ121">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR121">
         <v>1.65</v>
@@ -26605,7 +26614,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ122">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR122">
         <v>1.51</v>
@@ -26936,7 +26945,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q124">
         <v>3.5</v>
@@ -27220,7 +27229,7 @@
         <v>0.14</v>
       </c>
       <c r="AP125">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AQ125">
         <v>0.28</v>
@@ -27838,7 +27847,7 @@
         <v>0.63</v>
       </c>
       <c r="AP128">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ128">
         <v>0.44</v>
@@ -27966,7 +27975,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q129">
         <v>2.85</v>
@@ -28047,7 +28056,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ129">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR129">
         <v>1.69</v>
@@ -28172,7 +28181,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q130">
         <v>6.06</v>
@@ -28378,7 +28387,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q131">
         <v>2.35</v>
@@ -28584,7 +28593,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28665,7 +28674,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ132">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR132">
         <v>1.44</v>
@@ -28868,7 +28877,7 @@
         <v>0.78</v>
       </c>
       <c r="AP133">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ133">
         <v>0.76</v>
@@ -28996,7 +29005,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q134">
         <v>1.91</v>
@@ -29202,7 +29211,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q135">
         <v>2.22</v>
@@ -29408,7 +29417,7 @@
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q136">
         <v>3.77</v>
@@ -29898,10 +29907,10 @@
         <v>1.25</v>
       </c>
       <c r="AP138">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AQ138">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR138">
         <v>2.12</v>
@@ -30026,7 +30035,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q139">
         <v>1.95</v>
@@ -30232,7 +30241,7 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -31262,7 +31271,7 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q145">
         <v>2.89</v>
@@ -31343,7 +31352,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ145">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR145">
         <v>1.58</v>
@@ -31674,7 +31683,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31755,7 +31764,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ147">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR147">
         <v>1.6</v>
@@ -31880,7 +31889,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -31958,7 +31967,7 @@
         <v>2.5</v>
       </c>
       <c r="AP148">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ148">
         <v>2.24</v>
@@ -32164,7 +32173,7 @@
         <v>1.11</v>
       </c>
       <c r="AP149">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ149">
         <v>1</v>
@@ -32292,7 +32301,7 @@
         <v>164</v>
       </c>
       <c r="P150" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q150">
         <v>1.95</v>
@@ -32704,7 +32713,7 @@
         <v>86</v>
       </c>
       <c r="P152" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -33197,7 +33206,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ154">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR154">
         <v>1.95</v>
@@ -33322,7 +33331,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33528,7 +33537,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q156">
         <v>3.25</v>
@@ -33734,7 +33743,7 @@
         <v>199</v>
       </c>
       <c r="P157" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q157">
         <v>1.62</v>
@@ -33812,7 +33821,7 @@
         <v>0.7</v>
       </c>
       <c r="AP157">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AQ157">
         <v>0.76</v>
@@ -33940,7 +33949,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34018,10 +34027,10 @@
         <v>1.78</v>
       </c>
       <c r="AP158">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ158">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR158">
         <v>2.03</v>
@@ -34146,7 +34155,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q159">
         <v>2.8</v>
@@ -34352,7 +34361,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>335</v>
+        <v>273</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -34558,7 +34567,7 @@
         <v>201</v>
       </c>
       <c r="P161" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q161">
         <v>2.9</v>
@@ -34970,7 +34979,7 @@
         <v>88</v>
       </c>
       <c r="P163" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q163">
         <v>2.8</v>
@@ -35176,7 +35185,7 @@
         <v>202</v>
       </c>
       <c r="P164" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q164">
         <v>2.16</v>
@@ -35382,7 +35391,7 @@
         <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q165">
         <v>4.1</v>
@@ -35463,7 +35472,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ165">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR165">
         <v>1.62</v>
@@ -35588,7 +35597,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q166">
         <v>4.2</v>
@@ -35669,7 +35678,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ166">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR166">
         <v>1.39</v>
@@ -35794,7 +35803,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -36000,7 +36009,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q168">
         <v>1.63</v>
@@ -36078,7 +36087,7 @@
         <v>0.67</v>
       </c>
       <c r="AP168">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ168">
         <v>0.63</v>
@@ -36412,7 +36421,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36699,7 +36708,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ171">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR171">
         <v>1.43</v>
@@ -36824,7 +36833,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q172">
         <v>2.35</v>
@@ -37030,7 +37039,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q173">
         <v>2.25</v>
@@ -37108,7 +37117,7 @@
         <v>1.1</v>
       </c>
       <c r="AP173">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ173">
         <v>1.06</v>
@@ -37520,7 +37529,7 @@
         <v>1.3</v>
       </c>
       <c r="AP175">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AQ175">
         <v>1.18</v>
@@ -37854,7 +37863,7 @@
         <v>173</v>
       </c>
       <c r="P177" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q177">
         <v>4.33</v>
@@ -38060,7 +38069,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q178">
         <v>1.84</v>
@@ -38266,7 +38275,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q179">
         <v>3.75</v>
@@ -38347,7 +38356,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ179">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR179">
         <v>1.57</v>
@@ -38678,7 +38687,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q181">
         <v>2.7</v>
@@ -38884,7 +38893,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -38965,7 +38974,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ182">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR182">
         <v>1.18</v>
@@ -39296,7 +39305,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q184">
         <v>4.2</v>
@@ -39580,7 +39589,7 @@
         <v>2.45</v>
       </c>
       <c r="AP185">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ185">
         <v>2.24</v>
@@ -40407,7 +40416,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ189">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR189">
         <v>1.62</v>
@@ -40532,7 +40541,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q190">
         <v>2.21</v>
@@ -40610,7 +40619,7 @@
         <v>1</v>
       </c>
       <c r="AP190">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ190">
         <v>0.9399999999999999</v>
@@ -40816,7 +40825,7 @@
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AQ191">
         <v>1</v>
@@ -40944,7 +40953,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41356,7 +41365,7 @@
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q194">
         <v>2.49</v>
@@ -41768,7 +41777,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q196">
         <v>3.58</v>
@@ -42055,7 +42064,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ197">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR197">
         <v>1.4</v>
@@ -42180,7 +42189,7 @@
         <v>225</v>
       </c>
       <c r="P198" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q198">
         <v>3.88</v>
@@ -42261,7 +42270,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ198">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR198">
         <v>1.56</v>
@@ -42386,7 +42395,7 @@
         <v>86</v>
       </c>
       <c r="P199" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q199">
         <v>4.13</v>
@@ -42670,7 +42679,7 @@
         <v>0.55</v>
       </c>
       <c r="AP200">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AQ200">
         <v>0.63</v>
@@ -42798,7 +42807,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q201">
         <v>1.6</v>
@@ -42876,7 +42885,7 @@
         <v>0.67</v>
       </c>
       <c r="AP201">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ201">
         <v>1.06</v>
@@ -43004,7 +43013,7 @@
         <v>200</v>
       </c>
       <c r="P202" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q202">
         <v>1.79</v>
@@ -43210,7 +43219,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q203">
         <v>2.11</v>
@@ -43622,7 +43631,7 @@
         <v>229</v>
       </c>
       <c r="P205" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q205">
         <v>5.3</v>
@@ -43828,7 +43837,7 @@
         <v>230</v>
       </c>
       <c r="P206" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q206">
         <v>2.2</v>
@@ -43906,7 +43915,7 @@
         <v>0.92</v>
       </c>
       <c r="AP206">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ206">
         <v>1</v>
@@ -44240,7 +44249,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q208">
         <v>2</v>
@@ -44733,7 +44742,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ210">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR210">
         <v>1.6</v>
@@ -44858,7 +44867,7 @@
         <v>233</v>
       </c>
       <c r="P211" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q211">
         <v>3.09</v>
@@ -45145,7 +45154,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ212">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR212">
         <v>1.69</v>
@@ -45270,7 +45279,7 @@
         <v>235</v>
       </c>
       <c r="P213" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q213">
         <v>1.61</v>
@@ -45348,7 +45357,7 @@
         <v>1.08</v>
       </c>
       <c r="AP213">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AQ213">
         <v>1.06</v>
@@ -45476,7 +45485,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q214">
         <v>2.8</v>
@@ -45888,7 +45897,7 @@
         <v>236</v>
       </c>
       <c r="P216" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q216">
         <v>2.85</v>
@@ -46172,10 +46181,10 @@
         <v>1.08</v>
       </c>
       <c r="AP217">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ217">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR217">
         <v>1.9</v>
@@ -46300,7 +46309,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q218">
         <v>5.25</v>
@@ -46506,7 +46515,7 @@
         <v>237</v>
       </c>
       <c r="P219" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q219">
         <v>2.25</v>
@@ -46712,7 +46721,7 @@
         <v>238</v>
       </c>
       <c r="P220" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q220">
         <v>3.83</v>
@@ -46999,7 +47008,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ221">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR221">
         <v>1.5</v>
@@ -47124,7 +47133,7 @@
         <v>240</v>
       </c>
       <c r="P222" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q222">
         <v>2.52</v>
@@ -47536,7 +47545,7 @@
         <v>241</v>
       </c>
       <c r="P224" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q224">
         <v>1.8</v>
@@ -47614,7 +47623,7 @@
         <v>0.46</v>
       </c>
       <c r="AP224">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ224">
         <v>0.72</v>
@@ -47948,7 +47957,7 @@
         <v>242</v>
       </c>
       <c r="P226" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q226">
         <v>1.85</v>
@@ -48026,7 +48035,7 @@
         <v>1.79</v>
       </c>
       <c r="AP226">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ226">
         <v>1.44</v>
@@ -48154,7 +48163,7 @@
         <v>243</v>
       </c>
       <c r="P227" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q227">
         <v>3.18</v>
@@ -48566,7 +48575,7 @@
         <v>244</v>
       </c>
       <c r="P229" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q229">
         <v>2.21</v>
@@ -48978,7 +48987,7 @@
         <v>245</v>
       </c>
       <c r="P231" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q231">
         <v>1.55</v>
@@ -49056,7 +49065,7 @@
         <v>1</v>
       </c>
       <c r="AP231">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AQ231">
         <v>0.9399999999999999</v>
@@ -49184,7 +49193,7 @@
         <v>243</v>
       </c>
       <c r="P232" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q232">
         <v>3.42</v>
@@ -49265,7 +49274,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ232">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR232">
         <v>1.2</v>
@@ -49471,7 +49480,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ233">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR233">
         <v>1.72</v>
@@ -49596,7 +49605,7 @@
         <v>246</v>
       </c>
       <c r="P234" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q234">
         <v>6</v>
@@ -49802,7 +49811,7 @@
         <v>247</v>
       </c>
       <c r="P235" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q235">
         <v>2.4</v>
@@ -49880,7 +49889,7 @@
         <v>0.64</v>
       </c>
       <c r="AP235">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ235">
         <v>0.63</v>
@@ -50214,7 +50223,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q237">
         <v>2.25</v>
@@ -50420,7 +50429,7 @@
         <v>138</v>
       </c>
       <c r="P238" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q238">
         <v>5.5</v>
@@ -50707,7 +50716,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ239">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR239">
         <v>1.56</v>
@@ -50832,7 +50841,7 @@
         <v>250</v>
       </c>
       <c r="P240" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q240">
         <v>3.6</v>
@@ -50913,7 +50922,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ240">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR240">
         <v>1.32</v>
@@ -51450,7 +51459,7 @@
         <v>252</v>
       </c>
       <c r="P243" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q243">
         <v>3.09</v>
@@ -51656,7 +51665,7 @@
         <v>253</v>
       </c>
       <c r="P244" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q244">
         <v>2.12</v>
@@ -51940,7 +51949,7 @@
         <v>1.67</v>
       </c>
       <c r="AP245">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AQ245">
         <v>1.44</v>
@@ -52149,7 +52158,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ246">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR246">
         <v>1.87</v>
@@ -52686,7 +52695,7 @@
         <v>258</v>
       </c>
       <c r="P249" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q249">
         <v>5.5</v>
@@ -52892,7 +52901,7 @@
         <v>86</v>
       </c>
       <c r="P250" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q250">
         <v>2.36</v>
@@ -52970,10 +52979,10 @@
         <v>1.13</v>
       </c>
       <c r="AP250">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ250">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR250">
         <v>1.95</v>
@@ -53098,7 +53107,7 @@
         <v>259</v>
       </c>
       <c r="P251" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q251">
         <v>1.8</v>
@@ -53179,7 +53188,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ251">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR251">
         <v>1.87</v>
@@ -53382,7 +53391,7 @@
         <v>2.27</v>
       </c>
       <c r="AP252">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ252">
         <v>2.24</v>
@@ -53510,7 +53519,7 @@
         <v>98</v>
       </c>
       <c r="P253" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q253">
         <v>2.3</v>
@@ -53716,7 +53725,7 @@
         <v>260</v>
       </c>
       <c r="P254" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q254">
         <v>2.39</v>
@@ -54128,7 +54137,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q256">
         <v>2.61</v>
@@ -54334,7 +54343,7 @@
         <v>262</v>
       </c>
       <c r="P257" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q257">
         <v>2.7</v>
@@ -54540,7 +54549,7 @@
         <v>86</v>
       </c>
       <c r="P258" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q258">
         <v>2.55</v>
@@ -54621,7 +54630,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ258">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR258">
         <v>1.57</v>
@@ -54824,7 +54833,7 @@
         <v>1.56</v>
       </c>
       <c r="AP259">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AQ259">
         <v>1.44</v>
@@ -55030,10 +55039,10 @@
         <v>2</v>
       </c>
       <c r="AP260">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AQ260">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR260">
         <v>2.33</v>
@@ -55158,7 +55167,7 @@
         <v>173</v>
       </c>
       <c r="P261" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q261">
         <v>2.35</v>
@@ -55570,7 +55579,7 @@
         <v>266</v>
       </c>
       <c r="P263" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q263">
         <v>2.53</v>
@@ -55776,7 +55785,7 @@
         <v>86</v>
       </c>
       <c r="P264" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q264">
         <v>5.6</v>
@@ -55982,7 +55991,7 @@
         <v>267</v>
       </c>
       <c r="P265" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q265">
         <v>5.5</v>
@@ -56600,7 +56609,7 @@
         <v>269</v>
       </c>
       <c r="P268" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q268">
         <v>2.65</v>
@@ -56806,7 +56815,7 @@
         <v>141</v>
       </c>
       <c r="P269" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q269">
         <v>2.42</v>
@@ -57993,6 +58002,624 @@
       </c>
       <c r="BP274">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7424559</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45438.45833333334</v>
+      </c>
+      <c r="F275">
+        <v>5</v>
+      </c>
+      <c r="G275" t="s">
+        <v>77</v>
+      </c>
+      <c r="H275" t="s">
+        <v>83</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>1</v>
+      </c>
+      <c r="L275">
+        <v>1</v>
+      </c>
+      <c r="M275">
+        <v>1</v>
+      </c>
+      <c r="N275">
+        <v>2</v>
+      </c>
+      <c r="O275" t="s">
+        <v>273</v>
+      </c>
+      <c r="P275" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q275">
+        <v>1.89</v>
+      </c>
+      <c r="R275">
+        <v>2.49</v>
+      </c>
+      <c r="S275">
+        <v>5.7</v>
+      </c>
+      <c r="T275">
+        <v>1.28</v>
+      </c>
+      <c r="U275">
+        <v>3.48</v>
+      </c>
+      <c r="V275">
+        <v>2.29</v>
+      </c>
+      <c r="W275">
+        <v>1.58</v>
+      </c>
+      <c r="X275">
+        <v>5.2</v>
+      </c>
+      <c r="Y275">
+        <v>1.14</v>
+      </c>
+      <c r="Z275">
+        <v>1.57</v>
+      </c>
+      <c r="AA275">
+        <v>4.2</v>
+      </c>
+      <c r="AB275">
+        <v>4.9</v>
+      </c>
+      <c r="AC275">
+        <v>1.02</v>
+      </c>
+      <c r="AD275">
+        <v>12</v>
+      </c>
+      <c r="AE275">
+        <v>1.14</v>
+      </c>
+      <c r="AF275">
+        <v>4.55</v>
+      </c>
+      <c r="AG275">
+        <v>1.55</v>
+      </c>
+      <c r="AH275">
+        <v>2.3</v>
+      </c>
+      <c r="AI275">
+        <v>1.71</v>
+      </c>
+      <c r="AJ275">
+        <v>2.02</v>
+      </c>
+      <c r="AK275">
+        <v>1.1</v>
+      </c>
+      <c r="AL275">
+        <v>1.17</v>
+      </c>
+      <c r="AM275">
+        <v>2.71</v>
+      </c>
+      <c r="AN275">
+        <v>2.65</v>
+      </c>
+      <c r="AO275">
+        <v>1.88</v>
+      </c>
+      <c r="AP275">
+        <v>2.56</v>
+      </c>
+      <c r="AQ275">
+        <v>1.82</v>
+      </c>
+      <c r="AR275">
+        <v>1.94</v>
+      </c>
+      <c r="AS275">
+        <v>1.65</v>
+      </c>
+      <c r="AT275">
+        <v>3.59</v>
+      </c>
+      <c r="AU275">
+        <v>7</v>
+      </c>
+      <c r="AV275">
+        <v>8</v>
+      </c>
+      <c r="AW275">
+        <v>10</v>
+      </c>
+      <c r="AX275">
+        <v>8</v>
+      </c>
+      <c r="AY275">
+        <v>17</v>
+      </c>
+      <c r="AZ275">
+        <v>16</v>
+      </c>
+      <c r="BA275">
+        <v>6</v>
+      </c>
+      <c r="BB275">
+        <v>3</v>
+      </c>
+      <c r="BC275">
+        <v>9</v>
+      </c>
+      <c r="BD275">
+        <v>1.26</v>
+      </c>
+      <c r="BE275">
+        <v>10</v>
+      </c>
+      <c r="BF275">
+        <v>4.5</v>
+      </c>
+      <c r="BG275">
+        <v>1.11</v>
+      </c>
+      <c r="BH275">
+        <v>5.9</v>
+      </c>
+      <c r="BI275">
+        <v>1.23</v>
+      </c>
+      <c r="BJ275">
+        <v>3.9</v>
+      </c>
+      <c r="BK275">
+        <v>1.37</v>
+      </c>
+      <c r="BL275">
+        <v>2.75</v>
+      </c>
+      <c r="BM275">
+        <v>1.95</v>
+      </c>
+      <c r="BN275">
+        <v>1.85</v>
+      </c>
+      <c r="BO275">
+        <v>2.04</v>
+      </c>
+      <c r="BP275">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7424560</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45438.45833333334</v>
+      </c>
+      <c r="F276">
+        <v>5</v>
+      </c>
+      <c r="G276" t="s">
+        <v>73</v>
+      </c>
+      <c r="H276" t="s">
+        <v>74</v>
+      </c>
+      <c r="I276">
+        <v>2</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>2</v>
+      </c>
+      <c r="L276">
+        <v>4</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276">
+        <v>4</v>
+      </c>
+      <c r="O276" t="s">
+        <v>274</v>
+      </c>
+      <c r="P276" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q276">
+        <v>1.49</v>
+      </c>
+      <c r="R276">
+        <v>3.04</v>
+      </c>
+      <c r="S276">
+        <v>9.5</v>
+      </c>
+      <c r="T276">
+        <v>1.21</v>
+      </c>
+      <c r="U276">
+        <v>4.15</v>
+      </c>
+      <c r="V276">
+        <v>2</v>
+      </c>
+      <c r="W276">
+        <v>1.76</v>
+      </c>
+      <c r="X276">
+        <v>4.15</v>
+      </c>
+      <c r="Y276">
+        <v>1.21</v>
+      </c>
+      <c r="Z276">
+        <v>1.2</v>
+      </c>
+      <c r="AA276">
+        <v>6.75</v>
+      </c>
+      <c r="AB276">
+        <v>10</v>
+      </c>
+      <c r="AC276">
+        <v>1.01</v>
+      </c>
+      <c r="AD276">
+        <v>33</v>
+      </c>
+      <c r="AE276">
+        <v>1.08</v>
+      </c>
+      <c r="AF276">
+        <v>5.95</v>
+      </c>
+      <c r="AG276">
+        <v>1.36</v>
+      </c>
+      <c r="AH276">
+        <v>3.1</v>
+      </c>
+      <c r="AI276">
+        <v>1.99</v>
+      </c>
+      <c r="AJ276">
+        <v>1.73</v>
+      </c>
+      <c r="AK276">
+        <v>1.01</v>
+      </c>
+      <c r="AL276">
+        <v>1.07</v>
+      </c>
+      <c r="AM276">
+        <v>5</v>
+      </c>
+      <c r="AN276">
+        <v>2.59</v>
+      </c>
+      <c r="AO276">
+        <v>1.24</v>
+      </c>
+      <c r="AP276">
+        <v>2.61</v>
+      </c>
+      <c r="AQ276">
+        <v>1.17</v>
+      </c>
+      <c r="AR276">
+        <v>2.29</v>
+      </c>
+      <c r="AS276">
+        <v>1.39</v>
+      </c>
+      <c r="AT276">
+        <v>3.68</v>
+      </c>
+      <c r="AU276">
+        <v>14</v>
+      </c>
+      <c r="AV276">
+        <v>2</v>
+      </c>
+      <c r="AW276">
+        <v>20</v>
+      </c>
+      <c r="AX276">
+        <v>2</v>
+      </c>
+      <c r="AY276">
+        <v>34</v>
+      </c>
+      <c r="AZ276">
+        <v>4</v>
+      </c>
+      <c r="BA276">
+        <v>11</v>
+      </c>
+      <c r="BB276">
+        <v>3</v>
+      </c>
+      <c r="BC276">
+        <v>14</v>
+      </c>
+      <c r="BD276">
+        <v>1.07</v>
+      </c>
+      <c r="BE276">
+        <v>15</v>
+      </c>
+      <c r="BF276">
+        <v>10</v>
+      </c>
+      <c r="BG276">
+        <v>1.09</v>
+      </c>
+      <c r="BH276">
+        <v>6.5</v>
+      </c>
+      <c r="BI276">
+        <v>1.2</v>
+      </c>
+      <c r="BJ276">
+        <v>4.3</v>
+      </c>
+      <c r="BK276">
+        <v>1.32</v>
+      </c>
+      <c r="BL276">
+        <v>2.98</v>
+      </c>
+      <c r="BM276">
+        <v>1.82</v>
+      </c>
+      <c r="BN276">
+        <v>1.98</v>
+      </c>
+      <c r="BO276">
+        <v>1.92</v>
+      </c>
+      <c r="BP276">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7424561</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45438.45833333334</v>
+      </c>
+      <c r="F277">
+        <v>5</v>
+      </c>
+      <c r="G277" t="s">
+        <v>80</v>
+      </c>
+      <c r="H277" t="s">
+        <v>76</v>
+      </c>
+      <c r="I277">
+        <v>3</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>3</v>
+      </c>
+      <c r="L277">
+        <v>6</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277">
+        <v>6</v>
+      </c>
+      <c r="O277" t="s">
+        <v>275</v>
+      </c>
+      <c r="P277" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q277">
+        <v>2.19</v>
+      </c>
+      <c r="R277">
+        <v>2.38</v>
+      </c>
+      <c r="S277">
+        <v>4.4</v>
+      </c>
+      <c r="T277">
+        <v>1.28</v>
+      </c>
+      <c r="U277">
+        <v>3.48</v>
+      </c>
+      <c r="V277">
+        <v>2.31</v>
+      </c>
+      <c r="W277">
+        <v>1.57</v>
+      </c>
+      <c r="X277">
+        <v>5.3</v>
+      </c>
+      <c r="Y277">
+        <v>1.14</v>
+      </c>
+      <c r="Z277">
+        <v>1.67</v>
+      </c>
+      <c r="AA277">
+        <v>3.9</v>
+      </c>
+      <c r="AB277">
+        <v>4.2</v>
+      </c>
+      <c r="AC277">
+        <v>1.02</v>
+      </c>
+      <c r="AD277">
+        <v>12</v>
+      </c>
+      <c r="AE277">
+        <v>1.15</v>
+      </c>
+      <c r="AF277">
+        <v>4.5</v>
+      </c>
+      <c r="AG277">
+        <v>1.57</v>
+      </c>
+      <c r="AH277">
+        <v>2.25</v>
+      </c>
+      <c r="AI277">
+        <v>1.57</v>
+      </c>
+      <c r="AJ277">
+        <v>2.25</v>
+      </c>
+      <c r="AK277">
+        <v>1.19</v>
+      </c>
+      <c r="AL277">
+        <v>1.22</v>
+      </c>
+      <c r="AM277">
+        <v>2.1</v>
+      </c>
+      <c r="AN277">
+        <v>1.25</v>
+      </c>
+      <c r="AO277">
+        <v>1.29</v>
+      </c>
+      <c r="AP277">
+        <v>1.35</v>
+      </c>
+      <c r="AQ277">
+        <v>1.22</v>
+      </c>
+      <c r="AR277">
+        <v>1.95</v>
+      </c>
+      <c r="AS277">
+        <v>1.3</v>
+      </c>
+      <c r="AT277">
+        <v>3.25</v>
+      </c>
+      <c r="AU277">
+        <v>14</v>
+      </c>
+      <c r="AV277">
+        <v>2</v>
+      </c>
+      <c r="AW277">
+        <v>6</v>
+      </c>
+      <c r="AX277">
+        <v>2</v>
+      </c>
+      <c r="AY277">
+        <v>20</v>
+      </c>
+      <c r="AZ277">
+        <v>4</v>
+      </c>
+      <c r="BA277">
+        <v>9</v>
+      </c>
+      <c r="BB277">
+        <v>4</v>
+      </c>
+      <c r="BC277">
+        <v>13</v>
+      </c>
+      <c r="BD277">
+        <v>1.45</v>
+      </c>
+      <c r="BE277">
+        <v>9</v>
+      </c>
+      <c r="BF277">
+        <v>3.28</v>
+      </c>
+      <c r="BG277">
+        <v>1.16</v>
+      </c>
+      <c r="BH277">
+        <v>4.7</v>
+      </c>
+      <c r="BI277">
+        <v>1.32</v>
+      </c>
+      <c r="BJ277">
+        <v>3.2</v>
+      </c>
+      <c r="BK277">
+        <v>1.56</v>
+      </c>
+      <c r="BL277">
+        <v>2.38</v>
+      </c>
+      <c r="BM277">
+        <v>1.92</v>
+      </c>
+      <c r="BN277">
+        <v>1.88</v>
+      </c>
+      <c r="BO277">
+        <v>2.43</v>
+      </c>
+      <c r="BP277">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -58144,22 +58144,22 @@
         <v>3.59</v>
       </c>
       <c r="AU275">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV275">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AW275">
+        <v>4</v>
+      </c>
+      <c r="AX275">
+        <v>6</v>
+      </c>
+      <c r="AY275">
         <v>10</v>
       </c>
-      <c r="AX275">
-        <v>8</v>
-      </c>
-      <c r="AY275">
-        <v>17</v>
-      </c>
       <c r="AZ275">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA275">
         <v>6</v>
@@ -58350,22 +58350,22 @@
         <v>3.68</v>
       </c>
       <c r="AU276">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV276">
         <v>2</v>
       </c>
       <c r="AW276">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AX276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY276">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AZ276">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA276">
         <v>11</v>
@@ -58556,7 +58556,7 @@
         <v>3.25</v>
       </c>
       <c r="AU277">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AV277">
         <v>2</v>
@@ -58568,7 +58568,7 @@
         <v>2</v>
       </c>
       <c r="AY277">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AZ277">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -58144,22 +58144,22 @@
         <v>3.59</v>
       </c>
       <c r="AU275">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV275">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW275">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX275">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY275">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ275">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA275">
         <v>6</v>
@@ -58350,22 +58350,22 @@
         <v>3.68</v>
       </c>
       <c r="AU276">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV276">
         <v>2</v>
       </c>
       <c r="AW276">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AX276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY276">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ276">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA276">
         <v>11</v>
@@ -58556,7 +58556,7 @@
         <v>3.25</v>
       </c>
       <c r="AU277">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AV277">
         <v>2</v>
@@ -58568,7 +58568,7 @@
         <v>2</v>
       </c>
       <c r="AY277">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AZ277">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="393">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -829,16 +829,19 @@
     <t>['32', '36']</t>
   </si>
   <si>
-    <t>['45+2']</t>
+    <t>['50', '60']</t>
   </si>
   <si>
-    <t>['28', '30', '36', '50', '71', '78']</t>
+    <t>['45+2']</t>
   </si>
   <si>
     <t>['45+1']</t>
   </si>
   <si>
     <t>['16', '27', '78', '89']</t>
+  </si>
+  <si>
+    <t>['28', '30', '36', '50', '71', '78']</t>
   </si>
   <si>
     <t>['48']</t>
@@ -1551,7 +1554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP276"/>
+  <dimension ref="A1:BP277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2016,7 +2019,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q3">
         <v>3.1</v>
@@ -3870,7 +3873,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q12">
         <v>5.25</v>
@@ -4282,7 +4285,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4488,7 +4491,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q15">
         <v>2.1</v>
@@ -4569,7 +4572,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ15">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4694,7 +4697,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4900,7 +4903,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q17">
         <v>1.75</v>
@@ -5106,7 +5109,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q18">
         <v>2.5</v>
@@ -5312,7 +5315,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q19">
         <v>1.5</v>
@@ -5518,7 +5521,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q20">
         <v>3.3</v>
@@ -5724,7 +5727,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q21">
         <v>2.45</v>
@@ -5802,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ21">
         <v>0.28</v>
@@ -6342,7 +6345,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6548,7 +6551,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q25">
         <v>1.44</v>
@@ -7166,7 +7169,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q28">
         <v>4.75</v>
@@ -7372,7 +7375,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q29">
         <v>4.75</v>
@@ -7784,7 +7787,7 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7865,7 +7868,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ31">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.82</v>
@@ -8196,7 +8199,7 @@
         <v>109</v>
       </c>
       <c r="P33" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q33">
         <v>4.33</v>
@@ -8402,7 +8405,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q34">
         <v>2.66</v>
@@ -8814,7 +8817,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -9020,7 +9023,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9510,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ39">
         <v>0.44</v>
@@ -10131,7 +10134,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ42">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.31</v>
@@ -10256,7 +10259,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10668,7 +10671,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -11080,7 +11083,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q47">
         <v>5.5</v>
@@ -11904,7 +11907,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q51">
         <v>2.98</v>
@@ -12522,7 +12525,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12728,7 +12731,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q55">
         <v>1.4</v>
@@ -12934,7 +12937,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q56">
         <v>2.95</v>
@@ -13012,7 +13015,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ56">
         <v>0.9399999999999999</v>
@@ -13140,7 +13143,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q57">
         <v>2.38</v>
@@ -13839,7 +13842,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ60">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.7</v>
@@ -14170,7 +14173,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14376,7 +14379,7 @@
         <v>95</v>
       </c>
       <c r="P63" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14994,7 +14997,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -15075,7 +15078,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ66">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.56</v>
@@ -15200,7 +15203,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -15406,7 +15409,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q68">
         <v>3.25</v>
@@ -15612,7 +15615,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q69">
         <v>2.75</v>
@@ -15818,7 +15821,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q70">
         <v>1.67</v>
@@ -16102,7 +16105,7 @@
         <v>0.6</v>
       </c>
       <c r="AP71">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ71">
         <v>0.76</v>
@@ -16230,7 +16233,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16436,7 +16439,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q73">
         <v>2.85</v>
@@ -16642,7 +16645,7 @@
         <v>113</v>
       </c>
       <c r="P74" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q74">
         <v>2.7</v>
@@ -17054,7 +17057,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q76">
         <v>3.3</v>
@@ -18165,7 +18168,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ81">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.56</v>
@@ -19114,7 +19117,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -19192,7 +19195,7 @@
         <v>2.2</v>
       </c>
       <c r="AP86">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ86">
         <v>2.41</v>
@@ -19320,7 +19323,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q87">
         <v>1.8</v>
@@ -19526,7 +19529,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q88">
         <v>5.5</v>
@@ -19732,7 +19735,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -20968,7 +20971,7 @@
         <v>86</v>
       </c>
       <c r="P95" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -21380,7 +21383,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21664,10 +21667,10 @@
         <v>1.17</v>
       </c>
       <c r="AP98">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ98">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.47</v>
@@ -22410,7 +22413,7 @@
         <v>86</v>
       </c>
       <c r="P102" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q102">
         <v>1.67</v>
@@ -22616,7 +22619,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q103">
         <v>4.75</v>
@@ -22822,7 +22825,7 @@
         <v>86</v>
       </c>
       <c r="P104" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -23028,7 +23031,7 @@
         <v>86</v>
       </c>
       <c r="P105" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q105">
         <v>2.36</v>
@@ -24058,7 +24061,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24470,7 +24473,7 @@
         <v>111</v>
       </c>
       <c r="P112" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q112">
         <v>2.05</v>
@@ -24676,7 +24679,7 @@
         <v>168</v>
       </c>
       <c r="P113" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q113">
         <v>3.83</v>
@@ -24960,7 +24963,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ114">
         <v>0.63</v>
@@ -25088,7 +25091,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q115">
         <v>2.7</v>
@@ -25169,7 +25172,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ115">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR115">
         <v>1.2</v>
@@ -25706,7 +25709,7 @@
         <v>141</v>
       </c>
       <c r="P118" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q118">
         <v>2.05</v>
@@ -25912,7 +25915,7 @@
         <v>86</v>
       </c>
       <c r="P119" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -26118,7 +26121,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q120">
         <v>4.8</v>
@@ -26324,7 +26327,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26608,7 +26611,7 @@
         <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ122">
         <v>1.82</v>
@@ -27972,7 +27975,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q129">
         <v>2.85</v>
@@ -28178,7 +28181,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q130">
         <v>6.06</v>
@@ -28384,7 +28387,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q131">
         <v>3.7</v>
@@ -28590,7 +28593,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q132">
         <v>2.35</v>
@@ -28671,7 +28674,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ132">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR132">
         <v>1.48</v>
@@ -29002,7 +29005,7 @@
         <v>183</v>
       </c>
       <c r="P134" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q134">
         <v>1.91</v>
@@ -29208,7 +29211,7 @@
         <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q135">
         <v>2.22</v>
@@ -29414,7 +29417,7 @@
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q136">
         <v>3.77</v>
@@ -29492,7 +29495,7 @@
         <v>1.25</v>
       </c>
       <c r="AP136">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ136">
         <v>1.44</v>
@@ -30032,7 +30035,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q139">
         <v>1.95</v>
@@ -30238,7 +30241,7 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -31268,7 +31271,7 @@
         <v>86</v>
       </c>
       <c r="P145" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q145">
         <v>2.89</v>
@@ -31680,7 +31683,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31886,7 +31889,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -32173,7 +32176,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ149">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR149">
         <v>2.03</v>
@@ -32298,7 +32301,7 @@
         <v>164</v>
       </c>
       <c r="P150" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q150">
         <v>1.95</v>
@@ -32710,7 +32713,7 @@
         <v>86</v>
       </c>
       <c r="P152" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -33328,7 +33331,7 @@
         <v>197</v>
       </c>
       <c r="P155" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33534,7 +33537,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q156">
         <v>3.25</v>
@@ -33612,7 +33615,7 @@
         <v>1.11</v>
       </c>
       <c r="AP156">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ156">
         <v>1.06</v>
@@ -33740,7 +33743,7 @@
         <v>199</v>
       </c>
       <c r="P157" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q157">
         <v>1.62</v>
@@ -33946,7 +33949,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34152,7 +34155,7 @@
         <v>86</v>
       </c>
       <c r="P159" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q159">
         <v>2.8</v>
@@ -34770,7 +34773,7 @@
         <v>88</v>
       </c>
       <c r="P162" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q162">
         <v>2.8</v>
@@ -34976,7 +34979,7 @@
         <v>201</v>
       </c>
       <c r="P163" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q163">
         <v>2.16</v>
@@ -35182,7 +35185,7 @@
         <v>202</v>
       </c>
       <c r="P164" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q164">
         <v>2.9</v>
@@ -35263,7 +35266,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ164">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR164">
         <v>1.21</v>
@@ -35388,7 +35391,7 @@
         <v>86</v>
       </c>
       <c r="P165" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q165">
         <v>4.1</v>
@@ -35594,7 +35597,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q166">
         <v>4.2</v>
@@ -35800,7 +35803,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q167">
         <v>8</v>
@@ -36006,7 +36009,7 @@
         <v>204</v>
       </c>
       <c r="P168" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q168">
         <v>1.63</v>
@@ -36496,7 +36499,7 @@
         <v>1.1</v>
       </c>
       <c r="AP170">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ170">
         <v>1.17</v>
@@ -36624,7 +36627,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q171">
         <v>2.65</v>
@@ -36830,7 +36833,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q172">
         <v>2.35</v>
@@ -37036,7 +37039,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q173">
         <v>2.25</v>
@@ -37860,7 +37863,7 @@
         <v>172</v>
       </c>
       <c r="P177" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q177">
         <v>4.33</v>
@@ -38066,7 +38069,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q178">
         <v>3.75</v>
@@ -38478,7 +38481,7 @@
         <v>213</v>
       </c>
       <c r="P180" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q180">
         <v>1.84</v>
@@ -38684,7 +38687,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q181">
         <v>2.7</v>
@@ -38890,7 +38893,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -39302,7 +39305,7 @@
         <v>86</v>
       </c>
       <c r="P184" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q184">
         <v>4.2</v>
@@ -39998,7 +40001,7 @@
         <v>1.18</v>
       </c>
       <c r="AP187">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ187">
         <v>1.18</v>
@@ -40538,7 +40541,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q190">
         <v>2.21</v>
@@ -40825,7 +40828,7 @@
         <v>2.61</v>
       </c>
       <c r="AQ191">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR191">
         <v>2.37</v>
@@ -40950,7 +40953,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41362,7 +41365,7 @@
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q194">
         <v>2.49</v>
@@ -41774,7 +41777,7 @@
         <v>224</v>
       </c>
       <c r="P196" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q196">
         <v>3.58</v>
@@ -42186,7 +42189,7 @@
         <v>225</v>
       </c>
       <c r="P198" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q198">
         <v>3.88</v>
@@ -42392,7 +42395,7 @@
         <v>86</v>
       </c>
       <c r="P199" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q199">
         <v>4.13</v>
@@ -42804,7 +42807,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q201">
         <v>1.6</v>
@@ -43010,7 +43013,7 @@
         <v>200</v>
       </c>
       <c r="P202" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q202">
         <v>1.79</v>
@@ -43216,7 +43219,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q203">
         <v>2.11</v>
@@ -43628,7 +43631,7 @@
         <v>229</v>
       </c>
       <c r="P205" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q205">
         <v>5.3</v>
@@ -43834,7 +43837,7 @@
         <v>230</v>
       </c>
       <c r="P206" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q206">
         <v>2.2</v>
@@ -43915,7 +43918,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ206">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR206">
         <v>1.93</v>
@@ -44118,7 +44121,7 @@
         <v>0.5</v>
       </c>
       <c r="AP207">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ207">
         <v>0.72</v>
@@ -44246,7 +44249,7 @@
         <v>232</v>
       </c>
       <c r="P208" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q208">
         <v>2</v>
@@ -44864,7 +44867,7 @@
         <v>233</v>
       </c>
       <c r="P211" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q211">
         <v>3.09</v>
@@ -45276,7 +45279,7 @@
         <v>235</v>
       </c>
       <c r="P213" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q213">
         <v>1.61</v>
@@ -45482,7 +45485,7 @@
         <v>86</v>
       </c>
       <c r="P214" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q214">
         <v>2.8</v>
@@ -45894,7 +45897,7 @@
         <v>236</v>
       </c>
       <c r="P216" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q216">
         <v>2.85</v>
@@ -46306,7 +46309,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q218">
         <v>5.25</v>
@@ -46512,7 +46515,7 @@
         <v>237</v>
       </c>
       <c r="P219" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q219">
         <v>2.25</v>
@@ -46593,7 +46596,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ219">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR219">
         <v>1.58</v>
@@ -46718,7 +46721,7 @@
         <v>238</v>
       </c>
       <c r="P220" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q220">
         <v>3.83</v>
@@ -47002,7 +47005,7 @@
         <v>1.38</v>
       </c>
       <c r="AP221">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ221">
         <v>1.22</v>
@@ -47130,7 +47133,7 @@
         <v>240</v>
       </c>
       <c r="P222" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q222">
         <v>2.52</v>
@@ -47542,7 +47545,7 @@
         <v>241</v>
       </c>
       <c r="P224" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q224">
         <v>1.8</v>
@@ -47954,7 +47957,7 @@
         <v>242</v>
       </c>
       <c r="P226" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q226">
         <v>1.85</v>
@@ -48160,7 +48163,7 @@
         <v>243</v>
       </c>
       <c r="P227" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q227">
         <v>3.18</v>
@@ -48572,7 +48575,7 @@
         <v>244</v>
       </c>
       <c r="P229" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q229">
         <v>2.21</v>
@@ -48984,7 +48987,7 @@
         <v>245</v>
       </c>
       <c r="P231" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q231">
         <v>1.55</v>
@@ -49190,7 +49193,7 @@
         <v>243</v>
       </c>
       <c r="P232" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q232">
         <v>3.42</v>
@@ -49602,7 +49605,7 @@
         <v>246</v>
       </c>
       <c r="P234" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q234">
         <v>6</v>
@@ -49680,7 +49683,7 @@
         <v>2.21</v>
       </c>
       <c r="AP234">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ234">
         <v>2.24</v>
@@ -49808,7 +49811,7 @@
         <v>247</v>
       </c>
       <c r="P235" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q235">
         <v>2.4</v>
@@ -50095,7 +50098,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ236">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR236">
         <v>1.88</v>
@@ -50220,7 +50223,7 @@
         <v>249</v>
       </c>
       <c r="P237" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q237">
         <v>2.25</v>
@@ -50426,7 +50429,7 @@
         <v>138</v>
       </c>
       <c r="P238" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q238">
         <v>5.5</v>
@@ -50838,7 +50841,7 @@
         <v>250</v>
       </c>
       <c r="P240" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q240">
         <v>3.6</v>
@@ -51456,7 +51459,7 @@
         <v>252</v>
       </c>
       <c r="P243" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q243">
         <v>3.09</v>
@@ -51662,7 +51665,7 @@
         <v>253</v>
       </c>
       <c r="P244" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q244">
         <v>2.12</v>
@@ -52358,7 +52361,7 @@
         <v>1.33</v>
       </c>
       <c r="AP247">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AQ247">
         <v>1.25</v>
@@ -52564,7 +52567,7 @@
         <v>1.23</v>
       </c>
       <c r="AP248">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AQ248">
         <v>1.16</v>
@@ -52692,7 +52695,7 @@
         <v>258</v>
       </c>
       <c r="P249" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q249">
         <v>5.5</v>
@@ -52898,7 +52901,7 @@
         <v>86</v>
       </c>
       <c r="P250" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q250">
         <v>2.36</v>
@@ -53104,7 +53107,7 @@
         <v>259</v>
       </c>
       <c r="P251" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q251">
         <v>1.8</v>
@@ -53516,7 +53519,7 @@
         <v>260</v>
       </c>
       <c r="P253" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q253">
         <v>2.39</v>
@@ -53928,7 +53931,7 @@
         <v>98</v>
       </c>
       <c r="P255" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q255">
         <v>2.3</v>
@@ -54009,7 +54012,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ255">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AR255">
         <v>1.66</v>
@@ -54134,7 +54137,7 @@
         <v>261</v>
       </c>
       <c r="P256" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q256">
         <v>2.61</v>
@@ -54215,7 +54218,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ256">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR256">
         <v>1.53</v>
@@ -54340,7 +54343,7 @@
         <v>262</v>
       </c>
       <c r="P257" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q257">
         <v>2.7</v>
@@ -54546,7 +54549,7 @@
         <v>86</v>
       </c>
       <c r="P258" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q258">
         <v>2.55</v>
@@ -55164,7 +55167,7 @@
         <v>265</v>
       </c>
       <c r="P261" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q261">
         <v>2.53</v>
@@ -55370,7 +55373,7 @@
         <v>172</v>
       </c>
       <c r="P262" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q262">
         <v>2.35</v>
@@ -55782,7 +55785,7 @@
         <v>86</v>
       </c>
       <c r="P264" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q264">
         <v>5.6</v>
@@ -55988,7 +55991,7 @@
         <v>267</v>
       </c>
       <c r="P265" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q265">
         <v>5.5</v>
@@ -56478,10 +56481,10 @@
         <v>1.34</v>
       </c>
       <c r="AP267">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AQ267">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AR267">
         <v>1.46</v>
@@ -56812,7 +56815,7 @@
         <v>270</v>
       </c>
       <c r="P269" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q269">
         <v>2.65</v>
@@ -57018,7 +57021,7 @@
         <v>141</v>
       </c>
       <c r="P270" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q270">
         <v>2.42</v>
@@ -57182,7 +57185,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>7424556</v>
+        <v>7424558</v>
       </c>
       <c r="C271" t="s">
         <v>68</v>
@@ -57197,190 +57200,190 @@
         <v>5</v>
       </c>
       <c r="G271" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H271" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J271">
         <v>0</v>
       </c>
       <c r="K271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N271">
         <v>1</v>
       </c>
       <c r="O271" t="s">
+        <v>212</v>
+      </c>
+      <c r="P271" t="s">
         <v>86</v>
       </c>
-      <c r="P271" t="s">
-        <v>151</v>
-      </c>
       <c r="Q271">
-        <v>2.29</v>
+        <v>2.55</v>
       </c>
       <c r="R271">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S271">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="T271">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="U271">
-        <v>3.14</v>
+        <v>3</v>
       </c>
       <c r="V271">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="W271">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X271">
-        <v>6.15</v>
+        <v>5.75</v>
       </c>
       <c r="Y271">
         <v>1.1</v>
       </c>
       <c r="Z271">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="AA271">
-        <v>3.8</v>
+        <v>2.88</v>
       </c>
       <c r="AB271">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AC271">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD271">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AE271">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AF271">
-        <v>3.74</v>
+        <v>3.95</v>
       </c>
       <c r="AG271">
+        <v>1.77</v>
+      </c>
+      <c r="AH271">
+        <v>1.94</v>
+      </c>
+      <c r="AI271">
+        <v>1.65</v>
+      </c>
+      <c r="AJ271">
+        <v>2.1</v>
+      </c>
+      <c r="AK271">
+        <v>1.32</v>
+      </c>
+      <c r="AL271">
+        <v>1.32</v>
+      </c>
+      <c r="AM271">
+        <v>1.72</v>
+      </c>
+      <c r="AN271">
+        <v>1</v>
+      </c>
+      <c r="AO271">
+        <v>0.29</v>
+      </c>
+      <c r="AP271">
+        <v>1.12</v>
+      </c>
+      <c r="AQ271">
+        <v>0.28</v>
+      </c>
+      <c r="AR271">
         <v>1.6</v>
       </c>
-      <c r="AH271">
-        <v>2.19</v>
-      </c>
-      <c r="AI271">
-        <v>1.68</v>
-      </c>
-      <c r="AJ271">
-        <v>2.06</v>
-      </c>
-      <c r="AK271">
-        <v>1.25</v>
-      </c>
-      <c r="AL271">
-        <v>1.28</v>
-      </c>
-      <c r="AM271">
-        <v>1.9</v>
-      </c>
-      <c r="AN271">
-        <v>1.24</v>
-      </c>
-      <c r="AO271">
-        <v>1.06</v>
-      </c>
-      <c r="AP271">
-        <v>1.17</v>
-      </c>
-      <c r="AQ271">
-        <v>1.18</v>
-      </c>
-      <c r="AR271">
-        <v>1.59</v>
-      </c>
       <c r="AS271">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="AT271">
-        <v>2.85</v>
+        <v>3.03</v>
       </c>
       <c r="AU271">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV271">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW271">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX271">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY271">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ271">
         <v>14</v>
       </c>
       <c r="BA271">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BB271">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC271">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="BD271">
-        <v>1.41</v>
+        <v>1.91</v>
       </c>
       <c r="BE271">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF271">
-        <v>3.48</v>
+        <v>2.2</v>
       </c>
       <c r="BG271">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="BH271">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="BI271">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="BJ271">
-        <v>3.64</v>
+        <v>3.34</v>
       </c>
       <c r="BK271">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="BL271">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="BM271">
+        <v>1.92</v>
+      </c>
+      <c r="BN271">
         <v>1.88</v>
       </c>
-      <c r="BN271">
-        <v>1.92</v>
-      </c>
       <c r="BO271">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="BP271">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="272" spans="1:68">
@@ -57388,7 +57391,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>7424557</v>
+        <v>7433196</v>
       </c>
       <c r="C272" t="s">
         <v>68</v>
@@ -57400,31 +57403,31 @@
         <v>45437.54166666666</v>
       </c>
       <c r="F272">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G272" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H272" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J272">
         <v>0</v>
       </c>
       <c r="K272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M272">
         <v>0</v>
       </c>
       <c r="N272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O272" t="s">
         <v>271</v>
@@ -57433,160 +57436,160 @@
         <v>86</v>
       </c>
       <c r="Q272">
+        <v>2.64</v>
+      </c>
+      <c r="R272">
+        <v>2.23</v>
+      </c>
+      <c r="S272">
+        <v>4.39</v>
+      </c>
+      <c r="T272">
+        <v>1.41</v>
+      </c>
+      <c r="U272">
+        <v>2.99</v>
+      </c>
+      <c r="V272">
+        <v>3.03</v>
+      </c>
+      <c r="W272">
+        <v>1.4</v>
+      </c>
+      <c r="X272">
+        <v>6.75</v>
+      </c>
+      <c r="Y272">
+        <v>1.07</v>
+      </c>
+      <c r="Z272">
+        <v>1.95</v>
+      </c>
+      <c r="AA272">
+        <v>3.3</v>
+      </c>
+      <c r="AB272">
+        <v>3.6</v>
+      </c>
+      <c r="AC272">
+        <v>1.06</v>
+      </c>
+      <c r="AD272">
+        <v>11</v>
+      </c>
+      <c r="AE272">
+        <v>1.34</v>
+      </c>
+      <c r="AF272">
+        <v>3.32</v>
+      </c>
+      <c r="AG272">
+        <v>1.96</v>
+      </c>
+      <c r="AH272">
+        <v>1.75</v>
+      </c>
+      <c r="AI272">
+        <v>1.85</v>
+      </c>
+      <c r="AJ272">
+        <v>1.88</v>
+      </c>
+      <c r="AK272">
+        <v>1.3</v>
+      </c>
+      <c r="AL272">
+        <v>1.3</v>
+      </c>
+      <c r="AM272">
+        <v>1.8</v>
+      </c>
+      <c r="AN272">
+        <v>1.39</v>
+      </c>
+      <c r="AO272">
+        <v>1.27</v>
+      </c>
+      <c r="AP272">
+        <v>1.44</v>
+      </c>
+      <c r="AQ272">
+        <v>1.24</v>
+      </c>
+      <c r="AR272">
+        <v>1.55</v>
+      </c>
+      <c r="AS272">
+        <v>1.34</v>
+      </c>
+      <c r="AT272">
+        <v>2.89</v>
+      </c>
+      <c r="AU272">
         <v>3</v>
-      </c>
-      <c r="R272">
-        <v>2.15</v>
-      </c>
-      <c r="S272">
-        <v>3.3</v>
-      </c>
-      <c r="T272">
-        <v>1.36</v>
-      </c>
-      <c r="U272">
-        <v>2.88</v>
-      </c>
-      <c r="V272">
-        <v>2.62</v>
-      </c>
-      <c r="W272">
-        <v>1.42</v>
-      </c>
-      <c r="X272">
-        <v>6</v>
-      </c>
-      <c r="Y272">
-        <v>1.09</v>
-      </c>
-      <c r="Z272">
-        <v>3.1</v>
-      </c>
-      <c r="AA272">
-        <v>3.5</v>
-      </c>
-      <c r="AB272">
-        <v>2.1</v>
-      </c>
-      <c r="AC272">
-        <v>1.02</v>
-      </c>
-      <c r="AD272">
-        <v>10</v>
-      </c>
-      <c r="AE272">
-        <v>1.25</v>
-      </c>
-      <c r="AF272">
-        <v>3.6</v>
-      </c>
-      <c r="AG272">
-        <v>1.78</v>
-      </c>
-      <c r="AH272">
-        <v>1.93</v>
-      </c>
-      <c r="AI272">
-        <v>1.65</v>
-      </c>
-      <c r="AJ272">
-        <v>2.1</v>
-      </c>
-      <c r="AK272">
-        <v>1.48</v>
-      </c>
-      <c r="AL272">
-        <v>1.28</v>
-      </c>
-      <c r="AM272">
-        <v>1.55</v>
-      </c>
-      <c r="AN272">
-        <v>1.47</v>
-      </c>
-      <c r="AO272">
-        <v>0.47</v>
-      </c>
-      <c r="AP272">
-        <v>1.56</v>
-      </c>
-      <c r="AQ272">
-        <v>0.44</v>
-      </c>
-      <c r="AR272">
-        <v>1.57</v>
-      </c>
-      <c r="AS272">
-        <v>1.12</v>
-      </c>
-      <c r="AT272">
-        <v>2.69</v>
-      </c>
-      <c r="AU272">
-        <v>4</v>
       </c>
       <c r="AV272">
         <v>5</v>
       </c>
       <c r="AW272">
+        <v>3</v>
+      </c>
+      <c r="AX272">
         <v>5</v>
       </c>
-      <c r="AX272">
-        <v>13</v>
-      </c>
       <c r="AY272">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AZ272">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="BA272">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB272">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BC272">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BD272">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="BE272">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF272">
-        <v>2.05</v>
+        <v>2.91</v>
       </c>
       <c r="BG272">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BH272">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="BI272">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="BJ272">
-        <v>3.14</v>
+        <v>3.08</v>
       </c>
       <c r="BK272">
         <v>1.53</v>
       </c>
       <c r="BL272">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="BM272">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="BN272">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="BO272">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="BP272">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="273" spans="1:68">
@@ -57594,7 +57597,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>7424558</v>
+        <v>7424556</v>
       </c>
       <c r="C273" t="s">
         <v>68</v>
@@ -57609,190 +57612,190 @@
         <v>5</v>
       </c>
       <c r="G273" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H273" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273">
         <v>0</v>
       </c>
       <c r="K273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N273">
         <v>1</v>
       </c>
       <c r="O273" t="s">
-        <v>212</v>
+        <v>86</v>
       </c>
       <c r="P273" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="Q273">
-        <v>2.55</v>
+        <v>2.29</v>
       </c>
       <c r="R273">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S273">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="T273">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="U273">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="V273">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="W273">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X273">
-        <v>5.75</v>
+        <v>6.15</v>
       </c>
       <c r="Y273">
         <v>1.1</v>
       </c>
       <c r="Z273">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="AA273">
-        <v>2.88</v>
+        <v>3.8</v>
       </c>
       <c r="AB273">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AC273">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD273">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AE273">
+        <v>1.21</v>
+      </c>
+      <c r="AF273">
+        <v>3.74</v>
+      </c>
+      <c r="AG273">
+        <v>1.6</v>
+      </c>
+      <c r="AH273">
+        <v>2.19</v>
+      </c>
+      <c r="AI273">
+        <v>1.68</v>
+      </c>
+      <c r="AJ273">
+        <v>2.06</v>
+      </c>
+      <c r="AK273">
         <v>1.25</v>
       </c>
-      <c r="AF273">
-        <v>3.95</v>
-      </c>
-      <c r="AG273">
-        <v>1.77</v>
-      </c>
-      <c r="AH273">
-        <v>1.94</v>
-      </c>
-      <c r="AI273">
-        <v>1.65</v>
-      </c>
-      <c r="AJ273">
-        <v>2.1</v>
-      </c>
-      <c r="AK273">
-        <v>1.32</v>
-      </c>
       <c r="AL273">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AM273">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="AN273">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AO273">
-        <v>0.29</v>
+        <v>1.06</v>
       </c>
       <c r="AP273">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AQ273">
-        <v>0.28</v>
+        <v>1.18</v>
       </c>
       <c r="AR273">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="AS273">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="AT273">
-        <v>3.03</v>
+        <v>2.85</v>
       </c>
       <c r="AU273">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AV273">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW273">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX273">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY273">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ273">
         <v>14</v>
       </c>
       <c r="BA273">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BB273">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC273">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="BD273">
-        <v>1.91</v>
+        <v>1.41</v>
       </c>
       <c r="BE273">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF273">
-        <v>2.2</v>
+        <v>3.48</v>
       </c>
       <c r="BG273">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="BH273">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="BI273">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="BJ273">
-        <v>3.34</v>
+        <v>3.64</v>
       </c>
       <c r="BK273">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="BL273">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="BM273">
+        <v>1.88</v>
+      </c>
+      <c r="BN273">
         <v>1.92</v>
       </c>
-      <c r="BN273">
-        <v>1.88</v>
-      </c>
       <c r="BO273">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="BP273">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="274" spans="1:68">
@@ -57800,7 +57803,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>7424561</v>
+        <v>7424557</v>
       </c>
       <c r="C274" t="s">
         <v>68</v>
@@ -57809,34 +57812,34 @@
         <v>69</v>
       </c>
       <c r="E274" s="2">
-        <v>45438.45833333334</v>
+        <v>45437.54166666666</v>
       </c>
       <c r="F274">
         <v>5</v>
       </c>
       <c r="G274" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H274" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I274">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J274">
         <v>0</v>
       </c>
       <c r="K274">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L274">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M274">
         <v>0</v>
       </c>
       <c r="N274">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O274" t="s">
         <v>272</v>
@@ -57845,160 +57848,160 @@
         <v>86</v>
       </c>
       <c r="Q274">
-        <v>2.19</v>
+        <v>3</v>
       </c>
       <c r="R274">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="S274">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="T274">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="U274">
-        <v>3.48</v>
+        <v>2.88</v>
       </c>
       <c r="V274">
-        <v>2.31</v>
+        <v>2.62</v>
       </c>
       <c r="W274">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="X274">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="Y274">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="Z274">
-        <v>1.67</v>
+        <v>3.1</v>
       </c>
       <c r="AA274">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="AB274">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="AC274">
         <v>1.02</v>
       </c>
       <c r="AD274">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE274">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AF274">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="AG274">
+        <v>1.78</v>
+      </c>
+      <c r="AH274">
+        <v>1.93</v>
+      </c>
+      <c r="AI274">
+        <v>1.65</v>
+      </c>
+      <c r="AJ274">
+        <v>2.1</v>
+      </c>
+      <c r="AK274">
+        <v>1.48</v>
+      </c>
+      <c r="AL274">
+        <v>1.28</v>
+      </c>
+      <c r="AM274">
+        <v>1.55</v>
+      </c>
+      <c r="AN274">
+        <v>1.47</v>
+      </c>
+      <c r="AO274">
+        <v>0.47</v>
+      </c>
+      <c r="AP274">
+        <v>1.56</v>
+      </c>
+      <c r="AQ274">
+        <v>0.44</v>
+      </c>
+      <c r="AR274">
         <v>1.57</v>
       </c>
-      <c r="AH274">
-        <v>2.25</v>
-      </c>
-      <c r="AI274">
-        <v>1.57</v>
-      </c>
-      <c r="AJ274">
-        <v>2.25</v>
-      </c>
-      <c r="AK274">
-        <v>1.19</v>
-      </c>
-      <c r="AL274">
-        <v>1.22</v>
-      </c>
-      <c r="AM274">
-        <v>2.1</v>
-      </c>
-      <c r="AN274">
-        <v>1.25</v>
-      </c>
-      <c r="AO274">
+      <c r="AS274">
+        <v>1.12</v>
+      </c>
+      <c r="AT274">
+        <v>2.69</v>
+      </c>
+      <c r="AU274">
+        <v>4</v>
+      </c>
+      <c r="AV274">
+        <v>5</v>
+      </c>
+      <c r="AW274">
+        <v>5</v>
+      </c>
+      <c r="AX274">
+        <v>13</v>
+      </c>
+      <c r="AY274">
+        <v>9</v>
+      </c>
+      <c r="AZ274">
+        <v>18</v>
+      </c>
+      <c r="BA274">
+        <v>2</v>
+      </c>
+      <c r="BB274">
+        <v>5</v>
+      </c>
+      <c r="BC274">
+        <v>7</v>
+      </c>
+      <c r="BD274">
+        <v>2</v>
+      </c>
+      <c r="BE274">
+        <v>8</v>
+      </c>
+      <c r="BF274">
+        <v>2.05</v>
+      </c>
+      <c r="BG274">
+        <v>1.18</v>
+      </c>
+      <c r="BH274">
+        <v>4.33</v>
+      </c>
+      <c r="BI274">
         <v>1.29</v>
       </c>
-      <c r="AP274">
-        <v>1.35</v>
-      </c>
-      <c r="AQ274">
-        <v>1.22</v>
-      </c>
-      <c r="AR274">
-        <v>1.95</v>
-      </c>
-      <c r="AS274">
-        <v>1.3</v>
-      </c>
-      <c r="AT274">
-        <v>3.25</v>
-      </c>
-      <c r="AU274">
-        <v>14</v>
-      </c>
-      <c r="AV274">
-        <v>2</v>
-      </c>
-      <c r="AW274">
-        <v>6</v>
-      </c>
-      <c r="AX274">
-        <v>2</v>
-      </c>
-      <c r="AY274">
-        <v>20</v>
-      </c>
-      <c r="AZ274">
-        <v>4</v>
-      </c>
-      <c r="BA274">
-        <v>9</v>
-      </c>
-      <c r="BB274">
-        <v>4</v>
-      </c>
-      <c r="BC274">
-        <v>13</v>
-      </c>
-      <c r="BD274">
-        <v>1.45</v>
-      </c>
-      <c r="BE274">
-        <v>9</v>
-      </c>
-      <c r="BF274">
-        <v>3.28</v>
-      </c>
-      <c r="BG274">
-        <v>1.16</v>
-      </c>
-      <c r="BH274">
-        <v>4.7</v>
-      </c>
-      <c r="BI274">
-        <v>1.32</v>
-      </c>
       <c r="BJ274">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="BK274">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="BL274">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="BM274">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="BN274">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="BO274">
-        <v>2.43</v>
+        <v>2.42</v>
       </c>
       <c r="BP274">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="275" spans="1:68">
@@ -58048,7 +58051,7 @@
         <v>273</v>
       </c>
       <c r="P275" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q275">
         <v>1.89</v>
@@ -58411,6 +58414,212 @@
       </c>
       <c r="BP276">
         <v>1.79</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7424561</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45438.45833333334</v>
+      </c>
+      <c r="F277">
+        <v>5</v>
+      </c>
+      <c r="G277" t="s">
+        <v>80</v>
+      </c>
+      <c r="H277" t="s">
+        <v>76</v>
+      </c>
+      <c r="I277">
+        <v>3</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>3</v>
+      </c>
+      <c r="L277">
+        <v>6</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277">
+        <v>6</v>
+      </c>
+      <c r="O277" t="s">
+        <v>275</v>
+      </c>
+      <c r="P277" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q277">
+        <v>2.19</v>
+      </c>
+      <c r="R277">
+        <v>2.38</v>
+      </c>
+      <c r="S277">
+        <v>4.4</v>
+      </c>
+      <c r="T277">
+        <v>1.28</v>
+      </c>
+      <c r="U277">
+        <v>3.48</v>
+      </c>
+      <c r="V277">
+        <v>2.31</v>
+      </c>
+      <c r="W277">
+        <v>1.57</v>
+      </c>
+      <c r="X277">
+        <v>5.3</v>
+      </c>
+      <c r="Y277">
+        <v>1.14</v>
+      </c>
+      <c r="Z277">
+        <v>1.67</v>
+      </c>
+      <c r="AA277">
+        <v>3.9</v>
+      </c>
+      <c r="AB277">
+        <v>4.2</v>
+      </c>
+      <c r="AC277">
+        <v>1.02</v>
+      </c>
+      <c r="AD277">
+        <v>12</v>
+      </c>
+      <c r="AE277">
+        <v>1.15</v>
+      </c>
+      <c r="AF277">
+        <v>4.5</v>
+      </c>
+      <c r="AG277">
+        <v>1.57</v>
+      </c>
+      <c r="AH277">
+        <v>2.25</v>
+      </c>
+      <c r="AI277">
+        <v>1.57</v>
+      </c>
+      <c r="AJ277">
+        <v>2.25</v>
+      </c>
+      <c r="AK277">
+        <v>1.19</v>
+      </c>
+      <c r="AL277">
+        <v>1.22</v>
+      </c>
+      <c r="AM277">
+        <v>2.1</v>
+      </c>
+      <c r="AN277">
+        <v>1.25</v>
+      </c>
+      <c r="AO277">
+        <v>1.29</v>
+      </c>
+      <c r="AP277">
+        <v>1.35</v>
+      </c>
+      <c r="AQ277">
+        <v>1.22</v>
+      </c>
+      <c r="AR277">
+        <v>1.95</v>
+      </c>
+      <c r="AS277">
+        <v>1.3</v>
+      </c>
+      <c r="AT277">
+        <v>3.25</v>
+      </c>
+      <c r="AU277">
+        <v>14</v>
+      </c>
+      <c r="AV277">
+        <v>2</v>
+      </c>
+      <c r="AW277">
+        <v>6</v>
+      </c>
+      <c r="AX277">
+        <v>2</v>
+      </c>
+      <c r="AY277">
+        <v>20</v>
+      </c>
+      <c r="AZ277">
+        <v>4</v>
+      </c>
+      <c r="BA277">
+        <v>9</v>
+      </c>
+      <c r="BB277">
+        <v>4</v>
+      </c>
+      <c r="BC277">
+        <v>13</v>
+      </c>
+      <c r="BD277">
+        <v>1.45</v>
+      </c>
+      <c r="BE277">
+        <v>9</v>
+      </c>
+      <c r="BF277">
+        <v>3.28</v>
+      </c>
+      <c r="BG277">
+        <v>1.16</v>
+      </c>
+      <c r="BH277">
+        <v>4.7</v>
+      </c>
+      <c r="BI277">
+        <v>1.32</v>
+      </c>
+      <c r="BJ277">
+        <v>3.2</v>
+      </c>
+      <c r="BK277">
+        <v>1.56</v>
+      </c>
+      <c r="BL277">
+        <v>2.38</v>
+      </c>
+      <c r="BM277">
+        <v>1.92</v>
+      </c>
+      <c r="BN277">
+        <v>1.88</v>
+      </c>
+      <c r="BO277">
+        <v>2.43</v>
+      </c>
+      <c r="BP277">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -58765,22 +58765,22 @@
         <v>2.89</v>
       </c>
       <c r="AU278">
+        <v>8</v>
+      </c>
+      <c r="AV278">
+        <v>4</v>
+      </c>
+      <c r="AW278">
+        <v>7</v>
+      </c>
+      <c r="AX278">
         <v>3</v>
       </c>
-      <c r="AV278">
-        <v>3</v>
-      </c>
-      <c r="AW278">
-        <v>6</v>
-      </c>
-      <c r="AX278">
-        <v>2</v>
-      </c>
       <c r="AY278">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ278">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA278">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -52370,13 +52370,13 @@
         <v>1.25</v>
       </c>
       <c r="AR247">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AS247">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="AT247">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="AU247">
         <v>5</v>
@@ -52576,13 +52576,13 @@
         <v>1.16</v>
       </c>
       <c r="AR248">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="AS248">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="AT248">
-        <v>2.66</v>
+        <v>2.77</v>
       </c>
       <c r="AU248">
         <v>9</v>
@@ -54018,13 +54018,13 @@
         <v>1.24</v>
       </c>
       <c r="AR255">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="AS255">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AT255">
-        <v>3.03</v>
+        <v>2.97</v>
       </c>
       <c r="AU255">
         <v>4</v>
@@ -54224,13 +54224,13 @@
         <v>1.4</v>
       </c>
       <c r="AR256">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AS256">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="AT256">
-        <v>2.89</v>
+        <v>2.81</v>
       </c>
       <c r="AU256">
         <v>7</v>
@@ -56490,13 +56490,13 @@
         <v>1.4</v>
       </c>
       <c r="AR267">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="AS267">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AT267">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="AU267">
         <v>5</v>
@@ -57520,13 +57520,13 @@
         <v>1.24</v>
       </c>
       <c r="AR272">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="AS272">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="AT272">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="AU272">
         <v>3</v>
@@ -58756,10 +58756,10 @@
         <v>1.4</v>
       </c>
       <c r="AR278">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AS278">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AT278">
         <v>2.89</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ2">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2100,10 +2100,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ3">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2306,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2512,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ5">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ6">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ7">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ8">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ9">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3542,10 +3542,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ10">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR10">
         <v>1.83</v>
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ11">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR11">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>7</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ12">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR12">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>2</v>
@@ -4157,22 +4157,22 @@
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ13">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR13">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>3</v>
@@ -4363,22 +4363,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ14">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR14">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>4</v>
@@ -4566,25 +4566,25 @@
         <v>2.3</v>
       </c>
       <c r="AN15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ15">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>6</v>
@@ -4775,22 +4775,22 @@
         <v>3</v>
       </c>
       <c r="AO16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ16">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR16">
         <v>1.39</v>
       </c>
       <c r="AS16">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>3.26</v>
+        <v>1.39</v>
       </c>
       <c r="AU16">
         <v>6</v>
@@ -4984,19 +4984,19 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ17">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR17">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AS17">
         <v>0.8</v>
       </c>
       <c r="AT17">
-        <v>2.01</v>
+        <v>0.8</v>
       </c>
       <c r="AU17">
         <v>6</v>
@@ -5184,25 +5184,25 @@
         <v>1.85</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO18">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ18">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR18">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="AS18">
-        <v>1.34</v>
+        <v>0.87</v>
       </c>
       <c r="AT18">
-        <v>2.41</v>
+        <v>1.99</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5393,22 +5393,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ19">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR19">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="AS19">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>3.64</v>
+        <v>2.28</v>
       </c>
       <c r="AU19">
         <v>14</v>
@@ -5596,25 +5596,25 @@
         <v>1.4</v>
       </c>
       <c r="AN20">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ20">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR20">
-        <v>1.59</v>
+        <v>2.09</v>
       </c>
       <c r="AS20">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AT20">
-        <v>3.1</v>
+        <v>2.09</v>
       </c>
       <c r="AU20">
         <v>3</v>
@@ -5802,25 +5802,25 @@
         <v>1.87</v>
       </c>
       <c r="AN21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO21">
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ21">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR21">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AT21">
-        <v>2.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU21">
         <v>8</v>
@@ -6014,19 +6014,19 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ22">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR22">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AS22">
         <v>1.31</v>
       </c>
       <c r="AT22">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AU22">
         <v>4</v>
@@ -6214,25 +6214,25 @@
         <v>1.75</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO23">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ23">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR23">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="AS23">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="AT23">
-        <v>3.29</v>
+        <v>3.49</v>
       </c>
       <c r="AU23">
         <v>3</v>
@@ -6420,25 +6420,25 @@
         <v>2.45</v>
       </c>
       <c r="AN24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ24">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR24">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="AS24">
-        <v>1.36</v>
+        <v>1.59</v>
       </c>
       <c r="AT24">
-        <v>2.84</v>
+        <v>3.34</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -6632,19 +6632,19 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ25">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR25">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="AS25">
-        <v>1.03</v>
+        <v>1.37</v>
       </c>
       <c r="AT25">
-        <v>2.66</v>
+        <v>3.09</v>
       </c>
       <c r="AU25">
         <v>18</v>
@@ -6832,25 +6832,25 @@
         <v>1.9</v>
       </c>
       <c r="AN26">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AO26">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ26">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR26">
-        <v>1.41</v>
+        <v>1.14</v>
       </c>
       <c r="AS26">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="AT26">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="AU26">
         <v>6</v>
@@ -7041,22 +7041,22 @@
         <v>0</v>
       </c>
       <c r="AO27">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP27">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR27">
-        <v>0.9399999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="AS27">
-        <v>1.45</v>
+        <v>1.19</v>
       </c>
       <c r="AT27">
-        <v>2.39</v>
+        <v>1.89</v>
       </c>
       <c r="AU27">
         <v>7</v>
@@ -7244,25 +7244,25 @@
         <v>1.15</v>
       </c>
       <c r="AN28">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO28">
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR28">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="AT28">
-        <v>3.71</v>
+        <v>2</v>
       </c>
       <c r="AU28">
         <v>3</v>
@@ -7450,25 +7450,25 @@
         <v>1.16</v>
       </c>
       <c r="AN29">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO29">
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ29">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR29">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AS29">
-        <v>2.39</v>
+        <v>1.53</v>
       </c>
       <c r="AT29">
-        <v>3.93</v>
+        <v>3.04</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -7656,25 +7656,25 @@
         <v>1.5</v>
       </c>
       <c r="AN30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO30">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ30">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR30">
-        <v>1.62</v>
+        <v>1.89</v>
       </c>
       <c r="AS30">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="AT30">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="AU30">
         <v>6</v>
@@ -7862,25 +7862,25 @@
         <v>2.3</v>
       </c>
       <c r="AN31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO31">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ31">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR31">
-        <v>1.19</v>
+        <v>1.82</v>
       </c>
       <c r="AS31">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AT31">
-        <v>2.19</v>
+        <v>2.9</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -8068,25 +8068,25 @@
         <v>1.9</v>
       </c>
       <c r="AN32">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ32">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR32">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="AS32">
-        <v>1.66</v>
+        <v>1.09</v>
       </c>
       <c r="AT32">
-        <v>2.98</v>
+        <v>2.59</v>
       </c>
       <c r="AU32">
         <v>3</v>
@@ -8277,22 +8277,22 @@
         <v>0</v>
       </c>
       <c r="AO33">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR33">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="AS33">
-        <v>1.55</v>
+        <v>1.21</v>
       </c>
       <c r="AT33">
-        <v>2.87</v>
+        <v>2.38</v>
       </c>
       <c r="AU33">
         <v>3</v>
@@ -8480,25 +8480,25 @@
         <v>1.72</v>
       </c>
       <c r="AN34">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO34">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ34">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR34">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AS34">
-        <v>1.31</v>
+        <v>1.59</v>
       </c>
       <c r="AT34">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8686,25 +8686,25 @@
         <v>1.95</v>
       </c>
       <c r="AN35">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ35">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR35">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AS35">
-        <v>1.32</v>
+        <v>0.95</v>
       </c>
       <c r="AT35">
-        <v>2.82</v>
+        <v>2.52</v>
       </c>
       <c r="AU35">
         <v>6</v>
@@ -8892,25 +8892,25 @@
         <v>1.58</v>
       </c>
       <c r="AN36">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO36">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ36">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR36">
-        <v>1.62</v>
+        <v>1.94</v>
       </c>
       <c r="AS36">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="AT36">
-        <v>2.85</v>
+        <v>3.31</v>
       </c>
       <c r="AU36">
         <v>3</v>
@@ -9098,25 +9098,25 @@
         <v>1.15</v>
       </c>
       <c r="AN37">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO37">
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ37">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR37">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="AS37">
-        <v>2.24</v>
+        <v>1.97</v>
       </c>
       <c r="AT37">
-        <v>3.29</v>
+        <v>2.93</v>
       </c>
       <c r="AU37">
         <v>4</v>
@@ -9304,25 +9304,25 @@
         <v>2.25</v>
       </c>
       <c r="AN38">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO38">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ38">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR38">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AS38">
-        <v>1.3</v>
+        <v>0.87</v>
       </c>
       <c r="AT38">
-        <v>3.06</v>
+        <v>2.59</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9510,25 +9510,25 @@
         <v>1.88</v>
       </c>
       <c r="AN39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO39">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ39">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR39">
-        <v>1.14</v>
+        <v>1.69</v>
       </c>
       <c r="AS39">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="AT39">
-        <v>2.33</v>
+        <v>2.75</v>
       </c>
       <c r="AU39">
         <v>4</v>
@@ -9719,22 +9719,22 @@
         <v>0</v>
       </c>
       <c r="AO40">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP40">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ40">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR40">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AS40">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="AT40">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="AU40">
         <v>7</v>
@@ -9925,22 +9925,22 @@
         <v>3</v>
       </c>
       <c r="AO41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ41">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR41">
-        <v>2.23</v>
+        <v>2.82</v>
       </c>
       <c r="AS41">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="AT41">
-        <v>3.78</v>
+        <v>4.36</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -10128,25 +10128,25 @@
         <v>1.72</v>
       </c>
       <c r="AN42">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AO42">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ42">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR42">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="AS42">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AT42">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -10334,25 +10334,25 @@
         <v>1.33</v>
       </c>
       <c r="AN43">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AO43">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ43">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR43">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="AS43">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AT43">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="AU43">
         <v>5</v>
@@ -10540,25 +10540,25 @@
         <v>2.3</v>
       </c>
       <c r="AN44">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AO44">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AP44">
+        <v>1.35</v>
+      </c>
+      <c r="AQ44">
+        <v>0.28</v>
+      </c>
+      <c r="AR44">
+        <v>1.56</v>
+      </c>
+      <c r="AS44">
         <v>1.4</v>
       </c>
-      <c r="AQ44">
-        <v>0.83</v>
-      </c>
-      <c r="AR44">
-        <v>1.38</v>
-      </c>
-      <c r="AS44">
-        <v>1.34</v>
-      </c>
       <c r="AT44">
-        <v>2.72</v>
+        <v>2.96</v>
       </c>
       <c r="AU44">
         <v>6</v>
@@ -10746,25 +10746,25 @@
         <v>2.1</v>
       </c>
       <c r="AN45">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AO45">
-        <v>1.4</v>
+        <v>0.33</v>
       </c>
       <c r="AP45">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ45">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR45">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="AS45">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="AT45">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU45">
         <v>7</v>
@@ -10952,25 +10952,25 @@
         <v>1.8</v>
       </c>
       <c r="AN46">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AO46">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ46">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR46">
-        <v>1.25</v>
+        <v>1.72</v>
       </c>
       <c r="AS46">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AT46">
-        <v>2.74</v>
+        <v>3.15</v>
       </c>
       <c r="AU46">
         <v>5</v>
@@ -11158,25 +11158,25 @@
         <v>1.06</v>
       </c>
       <c r="AN47">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO47">
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ47">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR47">
-        <v>1.21</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS47">
-        <v>2.12</v>
+        <v>1.64</v>
       </c>
       <c r="AT47">
-        <v>3.33</v>
+        <v>2.45</v>
       </c>
       <c r="AU47">
         <v>2</v>
@@ -11364,25 +11364,25 @@
         <v>4.75</v>
       </c>
       <c r="AN48">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AO48">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ48">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR48">
-        <v>1.9</v>
+        <v>2.51</v>
       </c>
       <c r="AS48">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="AT48">
-        <v>3.43</v>
+        <v>3.8</v>
       </c>
       <c r="AU48">
         <v>12</v>
@@ -11570,25 +11570,25 @@
         <v>1.6</v>
       </c>
       <c r="AN49">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO49">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ49">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR49">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="AS49">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="AT49">
-        <v>2.5</v>
+        <v>2.08</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11776,25 +11776,25 @@
         <v>2.55</v>
       </c>
       <c r="AN50">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AO50">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ50">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR50">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AS50">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AT50">
-        <v>2.55</v>
+        <v>2.44</v>
       </c>
       <c r="AU50">
         <v>7</v>
@@ -11982,25 +11982,25 @@
         <v>1.5</v>
       </c>
       <c r="AN51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO51">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ51">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR51">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AS51">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT51">
-        <v>2.5</v>
+        <v>2.61</v>
       </c>
       <c r="AU51">
         <v>6</v>
@@ -12188,25 +12188,25 @@
         <v>1.78</v>
       </c>
       <c r="AN52">
+        <v>2.33</v>
+      </c>
+      <c r="AO52">
+        <v>2</v>
+      </c>
+      <c r="AP52">
+        <v>1.35</v>
+      </c>
+      <c r="AQ52">
         <v>1.17</v>
       </c>
-      <c r="AO52">
-        <v>1.6</v>
-      </c>
-      <c r="AP52">
-        <v>1.4</v>
-      </c>
-      <c r="AQ52">
-        <v>1.39</v>
-      </c>
       <c r="AR52">
+        <v>1.69</v>
+      </c>
+      <c r="AS52">
         <v>1.47</v>
       </c>
-      <c r="AS52">
-        <v>1.32</v>
-      </c>
       <c r="AT52">
-        <v>2.79</v>
+        <v>3.16</v>
       </c>
       <c r="AU52">
         <v>7</v>
@@ -12394,25 +12394,25 @@
         <v>2.7</v>
       </c>
       <c r="AN53">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO53">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ53">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR53">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="AS53">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AT53">
-        <v>3.31</v>
+        <v>3.03</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12600,25 +12600,25 @@
         <v>1.18</v>
       </c>
       <c r="AN54">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO54">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ54">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR54">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AS54">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT54">
-        <v>3.45</v>
+        <v>3.03</v>
       </c>
       <c r="AU54">
         <v>7</v>
@@ -12806,25 +12806,25 @@
         <v>6.75</v>
       </c>
       <c r="AN55">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="AO55">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ55">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR55">
-        <v>1.97</v>
+        <v>2.44</v>
       </c>
       <c r="AS55">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="AT55">
-        <v>3.43</v>
+        <v>3.66</v>
       </c>
       <c r="AU55">
         <v>13</v>
@@ -13012,25 +13012,25 @@
         <v>1.5</v>
       </c>
       <c r="AN56">
-        <v>1.17</v>
+        <v>3</v>
       </c>
       <c r="AO56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ56">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR56">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="AS56">
-        <v>1.27</v>
+        <v>0.93</v>
       </c>
       <c r="AT56">
-        <v>2.44</v>
+        <v>2.37</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -13221,22 +13221,22 @@
         <v>1.33</v>
       </c>
       <c r="AO57">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AP57">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ57">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR57">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AS57">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="AT57">
-        <v>2.58</v>
+        <v>2.26</v>
       </c>
       <c r="AU57">
         <v>6</v>
@@ -13424,25 +13424,25 @@
         <v>2.45</v>
       </c>
       <c r="AN58">
-        <v>2.14</v>
+        <v>3</v>
       </c>
       <c r="AO58">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR58">
-        <v>1.26</v>
+        <v>1.61</v>
       </c>
       <c r="AS58">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AT58">
-        <v>2.57</v>
+        <v>2.97</v>
       </c>
       <c r="AU58">
         <v>7</v>
@@ -13630,25 +13630,25 @@
         <v>1.55</v>
       </c>
       <c r="AN59">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AO59">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ59">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR59">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AS59">
-        <v>1.55</v>
+        <v>1.26</v>
       </c>
       <c r="AT59">
-        <v>3.11</v>
+        <v>3.07</v>
       </c>
       <c r="AU59">
         <v>5</v>
@@ -13836,25 +13836,25 @@
         <v>1.68</v>
       </c>
       <c r="AN60">
-        <v>0.57</v>
+        <v>1.33</v>
       </c>
       <c r="AO60">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ60">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR60">
-        <v>1.38</v>
+        <v>1.7</v>
       </c>
       <c r="AS60">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AT60">
-        <v>2.6</v>
+        <v>3.03</v>
       </c>
       <c r="AU60">
         <v>3</v>
@@ -14045,22 +14045,22 @@
         <v>1</v>
       </c>
       <c r="AO61">
-        <v>2.71</v>
+        <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ61">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR61">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AS61">
-        <v>2.09</v>
+        <v>1.51</v>
       </c>
       <c r="AT61">
-        <v>3.37</v>
+        <v>2.95</v>
       </c>
       <c r="AU61">
         <v>2</v>
@@ -14248,25 +14248,25 @@
         <v>1.14</v>
       </c>
       <c r="AN62">
-        <v>0.57</v>
+        <v>1.33</v>
       </c>
       <c r="AO62">
-        <v>2.17</v>
+        <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ62">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR62">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="AS62">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT62">
-        <v>2.93</v>
+        <v>3.15</v>
       </c>
       <c r="AU62">
         <v>3</v>
@@ -14454,25 +14454,25 @@
         <v>1.68</v>
       </c>
       <c r="AN63">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AO63">
-        <v>1.14</v>
+        <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ63">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR63">
-        <v>1.26</v>
+        <v>0.9</v>
       </c>
       <c r="AS63">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AT63">
-        <v>2.74</v>
+        <v>2.26</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14660,25 +14660,25 @@
         <v>2.95</v>
       </c>
       <c r="AN64">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="AO64">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ64">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR64">
-        <v>2.03</v>
+        <v>2.5</v>
       </c>
       <c r="AS64">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AT64">
-        <v>3.45</v>
+        <v>3.83</v>
       </c>
       <c r="AU64">
         <v>10</v>
@@ -14869,22 +14869,22 @@
         <v>1.75</v>
       </c>
       <c r="AO65">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ65">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR65">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="AS65">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="AT65">
-        <v>2.78</v>
+        <v>2.63</v>
       </c>
       <c r="AU65">
         <v>6</v>
@@ -15072,25 +15072,25 @@
         <v>1.95</v>
       </c>
       <c r="AN66">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AO66">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ66">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR66">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AS66">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AT66">
-        <v>2.78</v>
+        <v>2.83</v>
       </c>
       <c r="AU66">
         <v>8</v>
@@ -15278,25 +15278,25 @@
         <v>2.45</v>
       </c>
       <c r="AN67">
-        <v>1.38</v>
+        <v>2.5</v>
       </c>
       <c r="AO67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP67">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ67">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR67">
-        <v>1.52</v>
+        <v>1.77</v>
       </c>
       <c r="AS67">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AT67">
-        <v>2.67</v>
+        <v>2.87</v>
       </c>
       <c r="AU67">
         <v>12</v>
@@ -15484,25 +15484,25 @@
         <v>1.44</v>
       </c>
       <c r="AN68">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO68">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ68">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR68">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AS68">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT68">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="AU68">
         <v>2</v>
@@ -15690,25 +15690,25 @@
         <v>1.5</v>
       </c>
       <c r="AN69">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO69">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ69">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR69">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="AS69">
-        <v>1.32</v>
+        <v>0.99</v>
       </c>
       <c r="AT69">
-        <v>2.84</v>
+        <v>2.67</v>
       </c>
       <c r="AU69">
         <v>11</v>
@@ -15896,25 +15896,25 @@
         <v>4.25</v>
       </c>
       <c r="AN70">
-        <v>2.29</v>
+        <v>2.5</v>
       </c>
       <c r="AO70">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ70">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR70">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="AS70">
-        <v>1.21</v>
+        <v>1.07</v>
       </c>
       <c r="AT70">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="AU70">
         <v>9</v>
@@ -16102,25 +16102,25 @@
         <v>1.57</v>
       </c>
       <c r="AN71">
-        <v>0.88</v>
+        <v>2</v>
       </c>
       <c r="AO71">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AP71">
+        <v>1.82</v>
+      </c>
+      <c r="AQ71">
+        <v>0.76</v>
+      </c>
+      <c r="AR71">
+        <v>1.43</v>
+      </c>
+      <c r="AS71">
         <v>1.4</v>
       </c>
-      <c r="AQ71">
-        <v>1.17</v>
-      </c>
-      <c r="AR71">
-        <v>1.2</v>
-      </c>
-      <c r="AS71">
-        <v>1.29</v>
-      </c>
       <c r="AT71">
-        <v>2.49</v>
+        <v>2.83</v>
       </c>
       <c r="AU71">
         <v>7</v>
@@ -16308,22 +16308,22 @@
         <v>1.91</v>
       </c>
       <c r="AN72">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AO72">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ72">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR72">
-        <v>2.19</v>
+        <v>2.54</v>
       </c>
       <c r="AS72">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="AT72">
         <v>4.21</v>
@@ -16514,25 +16514,25 @@
         <v>1.6</v>
       </c>
       <c r="AN73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO73">
-        <v>1.56</v>
+        <v>0.25</v>
       </c>
       <c r="AP73">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ73">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR73">
-        <v>1.29</v>
+        <v>1.65</v>
       </c>
       <c r="AS73">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="AT73">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="AU73">
         <v>6</v>
@@ -16720,25 +16720,25 @@
         <v>1.66</v>
       </c>
       <c r="AN74">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="AO74">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP74">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ74">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR74">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="AS74">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AT74">
-        <v>2.39</v>
+        <v>2.58</v>
       </c>
       <c r="AU74">
         <v>5</v>
@@ -16926,25 +16926,25 @@
         <v>1.42</v>
       </c>
       <c r="AN75">
-        <v>0.5600000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AO75">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ75">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR75">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="AS75">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AT75">
-        <v>2.73</v>
+        <v>2.42</v>
       </c>
       <c r="AU75">
         <v>9</v>
@@ -17132,25 +17132,25 @@
         <v>1.42</v>
       </c>
       <c r="AN76">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="AO76">
-        <v>1.11</v>
+        <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR76">
-        <v>1.37</v>
+        <v>1.65</v>
       </c>
       <c r="AS76">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT76">
-        <v>2.98</v>
+        <v>3.23</v>
       </c>
       <c r="AU76">
         <v>8</v>
@@ -17338,25 +17338,25 @@
         <v>1.9</v>
       </c>
       <c r="AN77">
+        <v>3</v>
+      </c>
+      <c r="AO77">
+        <v>2</v>
+      </c>
+      <c r="AP77">
         <v>2.56</v>
       </c>
-      <c r="AO77">
-        <v>2.38</v>
-      </c>
-      <c r="AP77">
-        <v>2.49</v>
-      </c>
       <c r="AQ77">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR77">
-        <v>1.91</v>
+        <v>2.36</v>
       </c>
       <c r="AS77">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="AT77">
-        <v>3.83</v>
+        <v>4.42</v>
       </c>
       <c r="AU77">
         <v>4</v>
@@ -17547,22 +17547,22 @@
         <v>1.75</v>
       </c>
       <c r="AO78">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ78">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR78">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="AS78">
-        <v>1.61</v>
+        <v>1.36</v>
       </c>
       <c r="AT78">
-        <v>3.06</v>
+        <v>2.68</v>
       </c>
       <c r="AU78">
         <v>6</v>
@@ -17750,25 +17750,25 @@
         <v>1.02</v>
       </c>
       <c r="AN79">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AO79">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="AP79">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ79">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR79">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AS79">
-        <v>2.09</v>
+        <v>1.85</v>
       </c>
       <c r="AT79">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="AU79">
         <v>3</v>
@@ -17956,25 +17956,25 @@
         <v>1.57</v>
       </c>
       <c r="AN80">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AO80">
+        <v>0.2</v>
+      </c>
+      <c r="AP80">
         <v>1.11</v>
       </c>
-      <c r="AP80">
-        <v>1.14</v>
-      </c>
       <c r="AQ80">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR80">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AS80">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="AT80">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="AU80">
         <v>3</v>
@@ -18162,25 +18162,25 @@
         <v>2.5</v>
       </c>
       <c r="AN81">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AO81">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AP81">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ81">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR81">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="AS81">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AT81">
-        <v>2.49</v>
+        <v>2.76</v>
       </c>
       <c r="AU81">
         <v>6</v>
@@ -18368,25 +18368,25 @@
         <v>1.68</v>
       </c>
       <c r="AN82">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AO82">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AP82">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ82">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR82">
-        <v>1.34</v>
+        <v>1.67</v>
       </c>
       <c r="AS82">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AT82">
-        <v>2.81</v>
+        <v>3.24</v>
       </c>
       <c r="AU82">
         <v>8</v>
@@ -18574,25 +18574,25 @@
         <v>2.5</v>
       </c>
       <c r="AN83">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AO83">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ83">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR83">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AS83">
-        <v>1.15</v>
+        <v>1.02</v>
       </c>
       <c r="AT83">
-        <v>2.71</v>
+        <v>2.83</v>
       </c>
       <c r="AU83">
         <v>7</v>
@@ -18780,25 +18780,25 @@
         <v>1.87</v>
       </c>
       <c r="AN84">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="AO84">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AP84">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ84">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR84">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="AS84">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="AT84">
-        <v>2.74</v>
+        <v>2.37</v>
       </c>
       <c r="AU84">
         <v>4</v>
@@ -18986,25 +18986,25 @@
         <v>2.6</v>
       </c>
       <c r="AN85">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="AO85">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ85">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR85">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="AS85">
-        <v>1.18</v>
+        <v>1.03</v>
       </c>
       <c r="AT85">
-        <v>2.85</v>
+        <v>3.01</v>
       </c>
       <c r="AU85">
         <v>7</v>
@@ -19192,25 +19192,25 @@
         <v>1.11</v>
       </c>
       <c r="AN86">
-        <v>1.1</v>
+        <v>2.25</v>
       </c>
       <c r="AO86">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AP86">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ86">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR86">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="AS86">
-        <v>1.84</v>
+        <v>1.55</v>
       </c>
       <c r="AT86">
-        <v>3.09</v>
+        <v>3.01</v>
       </c>
       <c r="AU86">
         <v>6</v>
@@ -19398,25 +19398,25 @@
         <v>3.1</v>
       </c>
       <c r="AN87">
-        <v>2.11</v>
+        <v>2.6</v>
       </c>
       <c r="AO87">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ87">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR87">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="AS87">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AT87">
-        <v>3.14</v>
+        <v>3.19</v>
       </c>
       <c r="AU87">
         <v>8</v>
@@ -19604,25 +19604,25 @@
         <v>1.12</v>
       </c>
       <c r="AN88">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AO88">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AP88">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ88">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR88">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AS88">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="AT88">
-        <v>3.68</v>
+        <v>3.47</v>
       </c>
       <c r="AU88">
         <v>8</v>
@@ -19810,25 +19810,25 @@
         <v>1.3</v>
       </c>
       <c r="AN89">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="AO89">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ89">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR89">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="AS89">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AT89">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="AU89">
         <v>8</v>
@@ -20016,25 +20016,25 @@
         <v>1.42</v>
       </c>
       <c r="AN90">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AO90">
-        <v>1.91</v>
+        <v>1.2</v>
       </c>
       <c r="AP90">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ90">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR90">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AS90">
-        <v>1.37</v>
+        <v>1</v>
       </c>
       <c r="AT90">
-        <v>2.54</v>
+        <v>2.28</v>
       </c>
       <c r="AU90">
         <v>4</v>
@@ -20222,25 +20222,25 @@
         <v>1.63</v>
       </c>
       <c r="AN91">
-        <v>0.64</v>
+        <v>1.4</v>
       </c>
       <c r="AO91">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP91">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ91">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR91">
-        <v>1.37</v>
+        <v>1.63</v>
       </c>
       <c r="AS91">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="AT91">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="AU91">
         <v>6</v>
@@ -20428,25 +20428,25 @@
         <v>1.2</v>
       </c>
       <c r="AN92">
-        <v>0.91</v>
+        <v>1.17</v>
       </c>
       <c r="AO92">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="AP92">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ92">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR92">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AS92">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="AT92">
-        <v>3.48</v>
+        <v>3.41</v>
       </c>
       <c r="AU92">
         <v>7</v>
@@ -20634,22 +20634,22 @@
         <v>3.6</v>
       </c>
       <c r="AN93">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="AO93">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="AP93">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ93">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR93">
-        <v>2.04</v>
+        <v>2.29</v>
       </c>
       <c r="AS93">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="AT93">
         <v>3.44</v>
@@ -20840,25 +20840,25 @@
         <v>4.5</v>
       </c>
       <c r="AN94">
-        <v>2.64</v>
+        <v>3</v>
       </c>
       <c r="AO94">
-        <v>0.91</v>
+        <v>0.2</v>
       </c>
       <c r="AP94">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ94">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR94">
-        <v>1.79</v>
+        <v>2.14</v>
       </c>
       <c r="AS94">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="AT94">
-        <v>3.14</v>
+        <v>3.62</v>
       </c>
       <c r="AU94">
         <v>10</v>
@@ -21046,25 +21046,25 @@
         <v>1.3</v>
       </c>
       <c r="AN95">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AO95">
-        <v>1.64</v>
+        <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ95">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR95">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AS95">
-        <v>1.73</v>
+        <v>1.35</v>
       </c>
       <c r="AT95">
-        <v>2.85</v>
+        <v>2.42</v>
       </c>
       <c r="AU95">
         <v>2</v>
@@ -21252,25 +21252,25 @@
         <v>1.46</v>
       </c>
       <c r="AN96">
-        <v>0.73</v>
+        <v>1.25</v>
       </c>
       <c r="AO96">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AP96">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ96">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR96">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AS96">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="AT96">
-        <v>2.9</v>
+        <v>2.59</v>
       </c>
       <c r="AU96">
         <v>6</v>
@@ -21458,25 +21458,25 @@
         <v>2.05</v>
       </c>
       <c r="AN97">
-        <v>1.67</v>
+        <v>2.17</v>
       </c>
       <c r="AO97">
-        <v>1.08</v>
+        <v>0.6</v>
       </c>
       <c r="AP97">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ97">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR97">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AS97">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AT97">
-        <v>2.97</v>
+        <v>3.21</v>
       </c>
       <c r="AU97">
         <v>5</v>
@@ -21664,25 +21664,25 @@
         <v>1.87</v>
       </c>
       <c r="AN98">
-        <v>0.92</v>
+        <v>1.8</v>
       </c>
       <c r="AO98">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AP98">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ98">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR98">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="AS98">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="AT98">
-        <v>2.37</v>
+        <v>2.63</v>
       </c>
       <c r="AU98">
         <v>6</v>
@@ -21870,25 +21870,25 @@
         <v>2.55</v>
       </c>
       <c r="AN99">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="AO99">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AP99">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ99">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR99">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="AS99">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="AT99">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="AU99">
         <v>6</v>
@@ -22076,25 +22076,25 @@
         <v>1.87</v>
       </c>
       <c r="AN100">
-        <v>0.83</v>
+        <v>1.5</v>
       </c>
       <c r="AO100">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ100">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR100">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AS100">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="AT100">
-        <v>2.49</v>
+        <v>2.29</v>
       </c>
       <c r="AU100">
         <v>2</v>
@@ -22282,25 +22282,25 @@
         <v>2.25</v>
       </c>
       <c r="AN101">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="AO101">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="AP101">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ101">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR101">
-        <v>1.71</v>
+        <v>2.05</v>
       </c>
       <c r="AS101">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AT101">
-        <v>3.06</v>
+        <v>3.39</v>
       </c>
       <c r="AU101">
         <v>6</v>
@@ -22488,25 +22488,25 @@
         <v>3.4</v>
       </c>
       <c r="AN102">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AO102">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ102">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR102">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="AS102">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="AT102">
-        <v>3.23</v>
+        <v>3.06</v>
       </c>
       <c r="AU102">
         <v>2</v>
@@ -22694,25 +22694,25 @@
         <v>1.17</v>
       </c>
       <c r="AN103">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AO103">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP103">
+        <v>1.61</v>
+      </c>
+      <c r="AQ103">
+        <v>2.41</v>
+      </c>
+      <c r="AR103">
         <v>1.39</v>
       </c>
-      <c r="AQ103">
-        <v>2.49</v>
-      </c>
-      <c r="AR103">
-        <v>1.52</v>
-      </c>
       <c r="AS103">
-        <v>1.82</v>
+        <v>1.49</v>
       </c>
       <c r="AT103">
-        <v>3.34</v>
+        <v>2.88</v>
       </c>
       <c r="AU103">
         <v>8</v>
@@ -22900,25 +22900,25 @@
         <v>1.12</v>
       </c>
       <c r="AN104">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AO104">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AP104">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ104">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR104">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AS104">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="AT104">
-        <v>3.51</v>
+        <v>3.64</v>
       </c>
       <c r="AU104">
         <v>3</v>
@@ -23106,25 +23106,25 @@
         <v>1.9</v>
       </c>
       <c r="AN105">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AO105">
-        <v>0.54</v>
+        <v>0.29</v>
       </c>
       <c r="AP105">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ105">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR105">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AS105">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT105">
-        <v>2.31</v>
+        <v>2.2</v>
       </c>
       <c r="AU105">
         <v>3</v>
@@ -23312,25 +23312,25 @@
         <v>1.57</v>
       </c>
       <c r="AN106">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AO106">
-        <v>1.77</v>
+        <v>1.17</v>
       </c>
       <c r="AP106">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ106">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR106">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AS106">
-        <v>1.43</v>
+        <v>1.04</v>
       </c>
       <c r="AT106">
-        <v>2.79</v>
+        <v>2.41</v>
       </c>
       <c r="AU106">
         <v>2</v>
@@ -23521,19 +23521,19 @@
         <v>1</v>
       </c>
       <c r="AO107">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="AP107">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ107">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR107">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="AS107">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="AT107">
         <v>2.65</v>
@@ -23724,25 +23724,25 @@
         <v>2.38</v>
       </c>
       <c r="AN108">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AO108">
-        <v>1.08</v>
+        <v>0.29</v>
       </c>
       <c r="AP108">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ108">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR108">
-        <v>1.37</v>
+        <v>1.63</v>
       </c>
       <c r="AS108">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AT108">
-        <v>2.67</v>
+        <v>2.78</v>
       </c>
       <c r="AU108">
         <v>4</v>
@@ -23930,25 +23930,25 @@
         <v>3.5</v>
       </c>
       <c r="AN109">
-        <v>2.46</v>
+        <v>3</v>
       </c>
       <c r="AO109">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AP109">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ109">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR109">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="AS109">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="AT109">
-        <v>3.33</v>
+        <v>3.32</v>
       </c>
       <c r="AU109">
         <v>7</v>
@@ -24136,25 +24136,25 @@
         <v>1.3</v>
       </c>
       <c r="AN110">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO110">
+        <v>1.17</v>
+      </c>
+      <c r="AP110">
+        <v>1.12</v>
+      </c>
+      <c r="AQ110">
+        <v>1.44</v>
+      </c>
+      <c r="AR110">
         <v>1.62</v>
       </c>
-      <c r="AP110">
-        <v>0.91</v>
-      </c>
-      <c r="AQ110">
-        <v>1.4</v>
-      </c>
-      <c r="AR110">
-        <v>1.42</v>
-      </c>
       <c r="AS110">
-        <v>1.75</v>
+        <v>1.37</v>
       </c>
       <c r="AT110">
-        <v>3.17</v>
+        <v>2.99</v>
       </c>
       <c r="AU110">
         <v>10</v>
@@ -24342,25 +24342,25 @@
         <v>2.3</v>
       </c>
       <c r="AN111">
-        <v>1.08</v>
+        <v>1.43</v>
       </c>
       <c r="AO111">
-        <v>0.77</v>
+        <v>0.17</v>
       </c>
       <c r="AP111">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ111">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR111">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AS111">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AT111">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="AU111">
         <v>6</v>
@@ -24548,25 +24548,25 @@
         <v>2.45</v>
       </c>
       <c r="AN112">
-        <v>2.54</v>
+        <v>2.67</v>
       </c>
       <c r="AO112">
-        <v>1.83</v>
+        <v>1.2</v>
       </c>
       <c r="AP112">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ112">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR112">
-        <v>1.99</v>
+        <v>2.19</v>
       </c>
       <c r="AS112">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT112">
-        <v>3.82</v>
+        <v>3.96</v>
       </c>
       <c r="AU112">
         <v>3</v>
@@ -24754,25 +24754,25 @@
         <v>1.38</v>
       </c>
       <c r="AN113">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AO113">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AP113">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ113">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR113">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="AS113">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AT113">
-        <v>2.48</v>
+        <v>2.71</v>
       </c>
       <c r="AU113">
         <v>4</v>
@@ -24960,25 +24960,25 @@
         <v>1.47</v>
       </c>
       <c r="AN114">
-        <v>1.07</v>
+        <v>2</v>
       </c>
       <c r="AO114">
-        <v>1.21</v>
+        <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ114">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR114">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="AS114">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AT114">
-        <v>2.87</v>
+        <v>3.04</v>
       </c>
       <c r="AU114">
         <v>7</v>
@@ -25166,25 +25166,25 @@
         <v>1.75</v>
       </c>
       <c r="AN115">
-        <v>0.71</v>
+        <v>1.29</v>
       </c>
       <c r="AO115">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AP115">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ115">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR115">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AS115">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT115">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AU115">
         <v>6</v>
@@ -25372,25 +25372,25 @@
         <v>2.65</v>
       </c>
       <c r="AN116">
-        <v>1.77</v>
+        <v>2.17</v>
       </c>
       <c r="AO116">
-        <v>0.93</v>
+        <v>1.17</v>
       </c>
       <c r="AP116">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ116">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR116">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AS116">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT116">
-        <v>2.64</v>
+        <v>2.51</v>
       </c>
       <c r="AU116">
         <v>5</v>
@@ -25578,25 +25578,25 @@
         <v>2.1</v>
       </c>
       <c r="AN117">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AO117">
-        <v>0.93</v>
+        <v>0.43</v>
       </c>
       <c r="AP117">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ117">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR117">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AS117">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AT117">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="AU117">
         <v>6</v>
@@ -25784,25 +25784,25 @@
         <v>2.4</v>
       </c>
       <c r="AN118">
-        <v>1.92</v>
+        <v>2.29</v>
       </c>
       <c r="AO118">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="AP118">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ118">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR118">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="AS118">
-        <v>1.36</v>
+        <v>1.07</v>
       </c>
       <c r="AT118">
-        <v>3.14</v>
+        <v>2.94</v>
       </c>
       <c r="AU118">
         <v>7</v>
@@ -25990,25 +25990,25 @@
         <v>1.2</v>
       </c>
       <c r="AN119">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO119">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AP119">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ119">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR119">
-        <v>1.81</v>
+        <v>2.07</v>
       </c>
       <c r="AS119">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AT119">
-        <v>3.69</v>
+        <v>3.73</v>
       </c>
       <c r="AU119">
         <v>7</v>
@@ -26196,25 +26196,25 @@
         <v>1.2</v>
       </c>
       <c r="AN120">
-        <v>1.71</v>
+        <v>2.29</v>
       </c>
       <c r="AO120">
-        <v>2.36</v>
+        <v>2.43</v>
       </c>
       <c r="AP120">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ120">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR120">
-        <v>1.42</v>
+        <v>1.76</v>
       </c>
       <c r="AS120">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="AT120">
-        <v>3.34</v>
+        <v>3.58</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -26402,25 +26402,25 @@
         <v>1.33</v>
       </c>
       <c r="AN121">
-        <v>0.87</v>
+        <v>1.43</v>
       </c>
       <c r="AO121">
-        <v>1.6</v>
+        <v>1.14</v>
       </c>
       <c r="AP121">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ121">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR121">
-        <v>1.45</v>
+        <v>1.69</v>
       </c>
       <c r="AS121">
-        <v>1.41</v>
+        <v>1.09</v>
       </c>
       <c r="AT121">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="AU121">
         <v>6</v>
@@ -26608,25 +26608,25 @@
         <v>1.2</v>
       </c>
       <c r="AN122">
-        <v>1.07</v>
+        <v>1.86</v>
       </c>
       <c r="AO122">
-        <v>1.79</v>
+        <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ122">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR122">
-        <v>1.29</v>
+        <v>1.51</v>
       </c>
       <c r="AS122">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AT122">
-        <v>3.07</v>
+        <v>3.18</v>
       </c>
       <c r="AU122">
         <v>5</v>
@@ -26814,25 +26814,25 @@
         <v>1.47</v>
       </c>
       <c r="AN123">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AO123">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AP123">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ123">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR123">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="AS123">
-        <v>1.46</v>
+        <v>1.17</v>
       </c>
       <c r="AT123">
-        <v>2.59</v>
+        <v>2.22</v>
       </c>
       <c r="AU123">
         <v>8</v>
@@ -27020,25 +27020,25 @@
         <v>1.63</v>
       </c>
       <c r="AN124">
-        <v>1.2</v>
+        <v>1.63</v>
       </c>
       <c r="AO124">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="AP124">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ124">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR124">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AS124">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AT124">
-        <v>3.04</v>
+        <v>3.14</v>
       </c>
       <c r="AU124">
         <v>8</v>
@@ -27226,25 +27226,25 @@
         <v>5</v>
       </c>
       <c r="AN125">
-        <v>2.4</v>
+        <v>2.29</v>
       </c>
       <c r="AO125">
-        <v>0.67</v>
+        <v>0.14</v>
       </c>
       <c r="AP125">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ125">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR125">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="AS125">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AT125">
-        <v>3.25</v>
+        <v>3.37</v>
       </c>
       <c r="AU125">
         <v>10</v>
@@ -27432,25 +27432,25 @@
         <v>1.95</v>
       </c>
       <c r="AN126">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AO126">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ126">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR126">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AS126">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT126">
-        <v>2.57</v>
+        <v>2.44</v>
       </c>
       <c r="AU126">
         <v>12</v>
@@ -27638,25 +27638,25 @@
         <v>1.63</v>
       </c>
       <c r="AN127">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AO127">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AP127">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ127">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR127">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AS127">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="AT127">
-        <v>3.21</v>
+        <v>3.14</v>
       </c>
       <c r="AU127">
         <v>7</v>
@@ -27844,25 +27844,25 @@
         <v>4.75</v>
       </c>
       <c r="AN128">
-        <v>2.53</v>
+        <v>3</v>
       </c>
       <c r="AO128">
-        <v>0.73</v>
+        <v>0.63</v>
       </c>
       <c r="AP128">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ128">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR128">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AS128">
-        <v>1.17</v>
+        <v>0.98</v>
       </c>
       <c r="AT128">
-        <v>2.97</v>
+        <v>3.08</v>
       </c>
       <c r="AU128">
         <v>8</v>
@@ -28050,25 +28050,25 @@
         <v>1.63</v>
       </c>
       <c r="AN129">
+        <v>2</v>
+      </c>
+      <c r="AO129">
+        <v>1.43</v>
+      </c>
+      <c r="AP129">
+        <v>1.38</v>
+      </c>
+      <c r="AQ129">
+        <v>1.22</v>
+      </c>
+      <c r="AR129">
         <v>1.69</v>
       </c>
-      <c r="AO129">
-        <v>1.75</v>
-      </c>
-      <c r="AP129">
-        <v>1.16</v>
-      </c>
-      <c r="AQ129">
-        <v>1.26</v>
-      </c>
-      <c r="AR129">
-        <v>1.44</v>
-      </c>
       <c r="AS129">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="AT129">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="AU129">
         <v>3</v>
@@ -28256,25 +28256,25 @@
         <v>1.13</v>
       </c>
       <c r="AN130">
-        <v>0.8100000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AO130">
-        <v>2.56</v>
+        <v>2.13</v>
       </c>
       <c r="AP130">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ130">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR130">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AS130">
-        <v>1.82</v>
+        <v>1.54</v>
       </c>
       <c r="AT130">
-        <v>3.03</v>
+        <v>2.79</v>
       </c>
       <c r="AU130">
         <v>5</v>
@@ -28462,25 +28462,25 @@
         <v>1.35</v>
       </c>
       <c r="AN131">
-        <v>1.73</v>
+        <v>2.29</v>
       </c>
       <c r="AO131">
-        <v>1.73</v>
+        <v>1.43</v>
       </c>
       <c r="AP131">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ131">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR131">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="AS131">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT131">
-        <v>3.27</v>
+        <v>3.14</v>
       </c>
       <c r="AU131">
         <v>5</v>
@@ -28668,25 +28668,25 @@
         <v>2</v>
       </c>
       <c r="AN132">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AO132">
         <v>1.25</v>
       </c>
       <c r="AP132">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ132">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR132">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AS132">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AT132">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="AU132">
         <v>5</v>
@@ -28874,25 +28874,25 @@
         <v>4.6</v>
       </c>
       <c r="AN133">
-        <v>2.59</v>
+        <v>3</v>
       </c>
       <c r="AO133">
-        <v>1.12</v>
+        <v>0.78</v>
       </c>
       <c r="AP133">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ133">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR133">
-        <v>1.85</v>
+        <v>2.09</v>
       </c>
       <c r="AS133">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT133">
-        <v>3.3</v>
+        <v>3.51</v>
       </c>
       <c r="AU133">
         <v>6</v>
@@ -29080,25 +29080,25 @@
         <v>2.6</v>
       </c>
       <c r="AN134">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="AO134">
-        <v>0.6899999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP134">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ134">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR134">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AS134">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="AT134">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="AU134">
         <v>9</v>
@@ -29286,25 +29286,25 @@
         <v>2.18</v>
       </c>
       <c r="AN135">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO135">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AP135">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ135">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR135">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="AS135">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="AT135">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="AU135">
         <v>8</v>
@@ -29492,25 +29492,25 @@
         <v>1.38</v>
       </c>
       <c r="AN136">
-        <v>1.06</v>
+        <v>1.75</v>
       </c>
       <c r="AO136">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP136">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ136">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR136">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="AS136">
-        <v>1.78</v>
+        <v>1.49</v>
       </c>
       <c r="AT136">
-        <v>3.06</v>
+        <v>2.95</v>
       </c>
       <c r="AU136">
         <v>4</v>
@@ -29698,25 +29698,25 @@
         <v>4.3</v>
       </c>
       <c r="AN137">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="AO137">
-        <v>0.63</v>
+        <v>0.13</v>
       </c>
       <c r="AP137">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ137">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR137">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="AS137">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AT137">
-        <v>3.11</v>
+        <v>3.16</v>
       </c>
       <c r="AU137">
         <v>14</v>
@@ -29904,25 +29904,25 @@
         <v>3.4</v>
       </c>
       <c r="AN138">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="AO138">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="AP138">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ138">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR138">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="AS138">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AT138">
-        <v>3.47</v>
+        <v>3.65</v>
       </c>
       <c r="AU138">
         <v>12</v>
@@ -30110,25 +30110,25 @@
         <v>2.6</v>
       </c>
       <c r="AN139">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="AO139">
-        <v>0.8100000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="AP139">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ139">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR139">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AS139">
-        <v>1.49</v>
+        <v>1.23</v>
       </c>
       <c r="AT139">
-        <v>2.97</v>
+        <v>2.69</v>
       </c>
       <c r="AU139">
         <v>10</v>
@@ -30316,25 +30316,25 @@
         <v>1.65</v>
       </c>
       <c r="AN140">
-        <v>0.59</v>
+        <v>1.13</v>
       </c>
       <c r="AO140">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AP140">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ140">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR140">
         <v>1.33</v>
       </c>
       <c r="AS140">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="AT140">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="AU140">
         <v>2</v>
@@ -30522,25 +30522,25 @@
         <v>1.62</v>
       </c>
       <c r="AN141">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="AO141">
-        <v>1.41</v>
+        <v>0.71</v>
       </c>
       <c r="AP141">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ141">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR141">
-        <v>1.47</v>
+        <v>1.72</v>
       </c>
       <c r="AS141">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="AT141">
-        <v>3.06</v>
+        <v>3.2</v>
       </c>
       <c r="AU141">
         <v>2</v>
@@ -30728,25 +30728,25 @@
         <v>1.9</v>
       </c>
       <c r="AN142">
-        <v>1.06</v>
+        <v>1.5</v>
       </c>
       <c r="AO142">
-        <v>0.82</v>
+        <v>0.44</v>
       </c>
       <c r="AP142">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ142">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR142">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AS142">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="AT142">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AU142">
         <v>6</v>
@@ -30934,25 +30934,25 @@
         <v>1.42</v>
       </c>
       <c r="AN143">
-        <v>0.76</v>
+        <v>0.67</v>
       </c>
       <c r="AO143">
-        <v>1.39</v>
+        <v>0.75</v>
       </c>
       <c r="AP143">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ143">
+        <v>0.63</v>
+      </c>
+      <c r="AR143">
         <v>1.25</v>
       </c>
-      <c r="AR143">
-        <v>1.21</v>
-      </c>
       <c r="AS143">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="AT143">
-        <v>2.77</v>
+        <v>2.66</v>
       </c>
       <c r="AU143">
         <v>3</v>
@@ -31140,25 +31140,25 @@
         <v>1.52</v>
       </c>
       <c r="AN144">
-        <v>0.65</v>
+        <v>0.86</v>
       </c>
       <c r="AO144">
-        <v>1.11</v>
+        <v>0.67</v>
       </c>
       <c r="AP144">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ144">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR144">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="AS144">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT144">
-        <v>2.51</v>
+        <v>2.62</v>
       </c>
       <c r="AU144">
         <v>5</v>
@@ -31346,25 +31346,25 @@
         <v>1.59</v>
       </c>
       <c r="AN145">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="AO145">
-        <v>1.78</v>
+        <v>1.38</v>
       </c>
       <c r="AP145">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ145">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR145">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AS145">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="AT145">
-        <v>2.99</v>
+        <v>2.78</v>
       </c>
       <c r="AU145">
         <v>0</v>
@@ -31552,25 +31552,25 @@
         <v>2.25</v>
       </c>
       <c r="AN146">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AO146">
-        <v>0.5600000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="AP146">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ146">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR146">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AS146">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AT146">
-        <v>2.79</v>
+        <v>2.98</v>
       </c>
       <c r="AU146">
         <v>2</v>
@@ -31758,25 +31758,25 @@
         <v>1.3</v>
       </c>
       <c r="AN147">
-        <v>1.65</v>
+        <v>1.89</v>
       </c>
       <c r="AO147">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="AP147">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ147">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR147">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="AS147">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="AT147">
-        <v>3.25</v>
+        <v>3.32</v>
       </c>
       <c r="AU147">
         <v>7</v>
@@ -31964,25 +31964,25 @@
         <v>1.15</v>
       </c>
       <c r="AN148">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="AO148">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AP148">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ148">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR148">
-        <v>1.81</v>
+        <v>2.08</v>
       </c>
       <c r="AS148">
-        <v>2.01</v>
+        <v>1.82</v>
       </c>
       <c r="AT148">
-        <v>3.82</v>
+        <v>3.9</v>
       </c>
       <c r="AU148">
         <v>8</v>
@@ -32170,25 +32170,25 @@
         <v>4.2</v>
       </c>
       <c r="AN149">
-        <v>2.61</v>
+        <v>3</v>
       </c>
       <c r="AO149">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AP149">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ149">
+        <v>1</v>
+      </c>
+      <c r="AR149">
+        <v>2.03</v>
+      </c>
+      <c r="AS149">
         <v>1.24</v>
       </c>
-      <c r="AR149">
-        <v>1.83</v>
-      </c>
-      <c r="AS149">
-        <v>1.2</v>
-      </c>
       <c r="AT149">
-        <v>3.03</v>
+        <v>3.27</v>
       </c>
       <c r="AU149">
         <v>8</v>
@@ -32376,25 +32376,25 @@
         <v>2.75</v>
       </c>
       <c r="AN150">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
       <c r="AO150">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="AP150">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ150">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR150">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="AS150">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AT150">
-        <v>2.65</v>
+        <v>2.82</v>
       </c>
       <c r="AU150">
         <v>10</v>
@@ -32582,25 +32582,25 @@
         <v>1.33</v>
       </c>
       <c r="AN151">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AO151">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AP151">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ151">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR151">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AS151">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AT151">
-        <v>3.17</v>
+        <v>2.91</v>
       </c>
       <c r="AU151">
         <v>7</v>
@@ -32788,25 +32788,25 @@
         <v>1.06</v>
       </c>
       <c r="AN152">
-        <v>0.83</v>
+        <v>1.25</v>
       </c>
       <c r="AO152">
-        <v>2.63</v>
+        <v>2.22</v>
       </c>
       <c r="AP152">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ152">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR152">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="AS152">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="AT152">
-        <v>3.33</v>
+        <v>3.37</v>
       </c>
       <c r="AU152">
         <v>0</v>
@@ -32994,25 +32994,25 @@
         <v>1.58</v>
       </c>
       <c r="AN153">
-        <v>1.32</v>
+        <v>1.9</v>
       </c>
       <c r="AO153">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AP153">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ153">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR153">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="AS153">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="AT153">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="AU153">
         <v>8</v>
@@ -33200,25 +33200,25 @@
         <v>2.45</v>
       </c>
       <c r="AN154">
-        <v>1.94</v>
+        <v>2.11</v>
       </c>
       <c r="AO154">
-        <v>1.42</v>
+        <v>1.11</v>
       </c>
       <c r="AP154">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ154">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR154">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="AS154">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AT154">
-        <v>3.34</v>
+        <v>3.45</v>
       </c>
       <c r="AU154">
         <v>3</v>
@@ -33406,25 +33406,25 @@
         <v>1.98</v>
       </c>
       <c r="AN155">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AO155">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="AP155">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ155">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR155">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AS155">
-        <v>1.18</v>
+        <v>1.03</v>
       </c>
       <c r="AT155">
-        <v>2.4</v>
+        <v>2.19</v>
       </c>
       <c r="AU155">
         <v>6</v>
@@ -33612,25 +33612,25 @@
         <v>1.5</v>
       </c>
       <c r="AN156">
-        <v>1.05</v>
+        <v>1.56</v>
       </c>
       <c r="AO156">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AP156">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ156">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR156">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="AS156">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="AT156">
-        <v>2.81</v>
+        <v>2.66</v>
       </c>
       <c r="AU156">
         <v>6</v>
@@ -33818,25 +33818,25 @@
         <v>4.2</v>
       </c>
       <c r="AN157">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="AO157">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="AP157">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ157">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR157">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="AS157">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AT157">
-        <v>3.49</v>
+        <v>3.57</v>
       </c>
       <c r="AU157">
         <v>6</v>
@@ -34024,25 +34024,25 @@
         <v>1.47</v>
       </c>
       <c r="AN158">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="AO158">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="AP158">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ158">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR158">
-        <v>1.79</v>
+        <v>2.03</v>
       </c>
       <c r="AS158">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="AT158">
-        <v>3.58</v>
+        <v>3.72</v>
       </c>
       <c r="AU158">
         <v>3</v>
@@ -34230,25 +34230,25 @@
         <v>1.69</v>
       </c>
       <c r="AN159">
-        <v>0.79</v>
+        <v>1.11</v>
       </c>
       <c r="AO159">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AP159">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ159">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR159">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="AS159">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT159">
-        <v>2.65</v>
+        <v>2.81</v>
       </c>
       <c r="AU159">
         <v>4</v>
@@ -34436,25 +34436,25 @@
         <v>1.01</v>
       </c>
       <c r="AN160">
-        <v>0.74</v>
+        <v>1.13</v>
       </c>
       <c r="AO160">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AP160">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ160">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR160">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="AS160">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT160">
-        <v>3.26</v>
+        <v>3.28</v>
       </c>
       <c r="AU160">
         <v>6</v>
@@ -34642,25 +34642,25 @@
         <v>2</v>
       </c>
       <c r="AN161">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="AO161">
-        <v>1.05</v>
+        <v>0.6</v>
       </c>
       <c r="AP161">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ161">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR161">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AS161">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT161">
-        <v>2.78</v>
+        <v>2.93</v>
       </c>
       <c r="AU161">
         <v>3</v>
@@ -34848,25 +34848,25 @@
         <v>1.58</v>
       </c>
       <c r="AN162">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AO162">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AP162">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ162">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR162">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="AS162">
-        <v>1.76</v>
+        <v>1.56</v>
       </c>
       <c r="AT162">
-        <v>3.28</v>
+        <v>3.1</v>
       </c>
       <c r="AU162">
         <v>2</v>
@@ -35054,25 +35054,25 @@
         <v>2.25</v>
       </c>
       <c r="AN163">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="AO163">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="AP163">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ163">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR163">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AS163">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AT163">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="AU163">
         <v>9</v>
@@ -35260,22 +35260,22 @@
         <v>1.6</v>
       </c>
       <c r="AN164">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AO164">
+        <v>1</v>
+      </c>
+      <c r="AP164">
+        <v>1.11</v>
+      </c>
+      <c r="AQ164">
+        <v>1</v>
+      </c>
+      <c r="AR164">
         <v>1.21</v>
       </c>
-      <c r="AP164">
-        <v>1.14</v>
-      </c>
-      <c r="AQ164">
-        <v>1.24</v>
-      </c>
-      <c r="AR164">
-        <v>1.22</v>
-      </c>
       <c r="AS164">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AT164">
         <v>2.47</v>
@@ -35466,25 +35466,25 @@
         <v>1.27</v>
       </c>
       <c r="AN165">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AO165">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AP165">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ165">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR165">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="AS165">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="AT165">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="AU165">
         <v>4</v>
@@ -35672,25 +35672,25 @@
         <v>1.25</v>
       </c>
       <c r="AN166">
-        <v>0.75</v>
+        <v>1.11</v>
       </c>
       <c r="AO166">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AP166">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ166">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR166">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AS166">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AT166">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="AU166">
         <v>5</v>
@@ -35878,25 +35878,25 @@
         <v>1.03</v>
       </c>
       <c r="AN167">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO167">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="AP167">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ167">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR167">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="AS167">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="AT167">
-        <v>3.54</v>
+        <v>3.53</v>
       </c>
       <c r="AU167">
         <v>2</v>
@@ -36084,22 +36084,22 @@
         <v>4.05</v>
       </c>
       <c r="AN168">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="AO168">
-        <v>1.4</v>
+        <v>0.67</v>
       </c>
       <c r="AP168">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ168">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR168">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="AS168">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AT168">
         <v>3.39</v>
@@ -36290,25 +36290,25 @@
         <v>1.35</v>
       </c>
       <c r="AN169">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="AO169">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AP169">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ169">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR169">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AS169">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AT169">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AU169">
         <v>6</v>
@@ -36496,25 +36496,25 @@
         <v>1.48</v>
       </c>
       <c r="AN170">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AO170">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AP170">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ170">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR170">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AS170">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AT170">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="AU170">
         <v>7</v>
@@ -36702,25 +36702,25 @@
         <v>1.75</v>
       </c>
       <c r="AN171">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO171">
-        <v>1.1</v>
+        <v>0.64</v>
       </c>
       <c r="AP171">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ171">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR171">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="AS171">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="AT171">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
       <c r="AU171">
         <v>5</v>
@@ -36908,25 +36908,25 @@
         <v>2</v>
       </c>
       <c r="AN172">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="AO172">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="AP172">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ172">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR172">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AS172">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT172">
-        <v>2.76</v>
+        <v>2.61</v>
       </c>
       <c r="AU172">
         <v>7</v>
@@ -37114,25 +37114,25 @@
         <v>1.95</v>
       </c>
       <c r="AN173">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AO173">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AP173">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ173">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR173">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="AS173">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="AT173">
-        <v>3.27</v>
+        <v>3.23</v>
       </c>
       <c r="AU173">
         <v>4</v>
@@ -37323,22 +37323,22 @@
         <v>2</v>
       </c>
       <c r="AO174">
-        <v>0.86</v>
+        <v>0.45</v>
       </c>
       <c r="AP174">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ174">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR174">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="AS174">
-        <v>1.22</v>
+        <v>1.03</v>
       </c>
       <c r="AT174">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="AU174">
         <v>10</v>
@@ -37526,25 +37526,25 @@
         <v>5.75</v>
       </c>
       <c r="AN175">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AO175">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AP175">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ175">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR175">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="AS175">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AT175">
-        <v>3.26</v>
+        <v>3.49</v>
       </c>
       <c r="AU175">
         <v>16</v>
@@ -37732,25 +37732,25 @@
         <v>1.33</v>
       </c>
       <c r="AN176">
-        <v>0.67</v>
+        <v>1.2</v>
       </c>
       <c r="AO176">
-        <v>1.38</v>
+        <v>1.1</v>
       </c>
       <c r="AP176">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ176">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR176">
         <v>1.39</v>
       </c>
       <c r="AS176">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="AT176">
-        <v>2.76</v>
+        <v>2.57</v>
       </c>
       <c r="AU176">
         <v>6</v>
@@ -37938,25 +37938,25 @@
         <v>1.28</v>
       </c>
       <c r="AN177">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="AO177">
-        <v>2.67</v>
+        <v>2.3</v>
       </c>
       <c r="AP177">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ177">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR177">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
       <c r="AS177">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="AT177">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="AU177">
         <v>6</v>
@@ -38144,25 +38144,25 @@
         <v>1.3</v>
       </c>
       <c r="AN178">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AO178">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="AP178">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ178">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR178">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AS178">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="AT178">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="AU178">
         <v>3</v>
@@ -38350,25 +38350,25 @@
         <v>1.91</v>
       </c>
       <c r="AN179">
-        <v>1.09</v>
+        <v>1.6</v>
       </c>
       <c r="AO179">
-        <v>1.05</v>
+        <v>0.64</v>
       </c>
       <c r="AP179">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ179">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR179">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="AS179">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="AT179">
-        <v>2.89</v>
+        <v>2.93</v>
       </c>
       <c r="AU179">
         <v>7</v>
@@ -38556,25 +38556,25 @@
         <v>2.83</v>
       </c>
       <c r="AN180">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="AO180">
-        <v>0.77</v>
+        <v>0.18</v>
       </c>
       <c r="AP180">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ180">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR180">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AS180">
         <v>1.39</v>
       </c>
       <c r="AT180">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AU180">
         <v>7</v>
@@ -38762,22 +38762,22 @@
         <v>1.72</v>
       </c>
       <c r="AN181">
-        <v>1.32</v>
+        <v>1.64</v>
       </c>
       <c r="AO181">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AP181">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ181">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR181">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AS181">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="AT181">
         <v>2.83</v>
@@ -38968,25 +38968,25 @@
         <v>1.13</v>
       </c>
       <c r="AN182">
-        <v>1.05</v>
+        <v>0.91</v>
       </c>
       <c r="AO182">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AP182">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ182">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR182">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AS182">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="AT182">
-        <v>2.97</v>
+        <v>2.84</v>
       </c>
       <c r="AU182">
         <v>2</v>
@@ -39174,25 +39174,25 @@
         <v>1.57</v>
       </c>
       <c r="AN183">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="AO183">
-        <v>1.32</v>
+        <v>0.6</v>
       </c>
       <c r="AP183">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ183">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR183">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AS183">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="AT183">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="AU183">
         <v>6</v>
@@ -39380,25 +39380,25 @@
         <v>1.22</v>
       </c>
       <c r="AN184">
-        <v>0.82</v>
+        <v>1.3</v>
       </c>
       <c r="AO184">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="AP184">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ184">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR184">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="AS184">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="AT184">
-        <v>3.01</v>
+        <v>3.1</v>
       </c>
       <c r="AU184">
         <v>0</v>
@@ -39586,25 +39586,25 @@
         <v>1.55</v>
       </c>
       <c r="AN185">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="AO185">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="AP185">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ185">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR185">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="AS185">
-        <v>2.12</v>
+        <v>1.87</v>
       </c>
       <c r="AT185">
-        <v>3.95</v>
+        <v>3.89</v>
       </c>
       <c r="AU185">
         <v>2</v>
@@ -39792,25 +39792,25 @@
         <v>1.85</v>
       </c>
       <c r="AN186">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AO186">
-        <v>1.09</v>
+        <v>0.67</v>
       </c>
       <c r="AP186">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ186">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR186">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="AS186">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="AT186">
-        <v>2.99</v>
+        <v>3.12</v>
       </c>
       <c r="AU186">
         <v>4</v>
@@ -39998,25 +39998,25 @@
         <v>1.75</v>
       </c>
       <c r="AN187">
-        <v>1.04</v>
+        <v>1.45</v>
       </c>
       <c r="AO187">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AP187">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ187">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR187">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AS187">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AT187">
-        <v>2.59</v>
+        <v>2.67</v>
       </c>
       <c r="AU187">
         <v>8</v>
@@ -40204,22 +40204,22 @@
         <v>2.5</v>
       </c>
       <c r="AN188">
-        <v>1.26</v>
+        <v>1.92</v>
       </c>
       <c r="AO188">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="AP188">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ188">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR188">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="AS188">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AT188">
         <v>2.99</v>
@@ -40410,25 +40410,25 @@
         <v>1.62</v>
       </c>
       <c r="AN189">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AO189">
-        <v>1.39</v>
+        <v>1.09</v>
       </c>
       <c r="AP189">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ189">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR189">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="AS189">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AT189">
-        <v>2.96</v>
+        <v>3.09</v>
       </c>
       <c r="AU189">
         <v>7</v>
@@ -40616,25 +40616,25 @@
         <v>1.85</v>
       </c>
       <c r="AN190">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AO190">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AP190">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ190">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR190">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="AS190">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="AT190">
-        <v>3.18</v>
+        <v>3.15</v>
       </c>
       <c r="AU190">
         <v>9</v>
@@ -40822,25 +40822,25 @@
         <v>5</v>
       </c>
       <c r="AN191">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="AO191">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="AP191">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ191">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR191">
-        <v>2.07</v>
+        <v>2.37</v>
       </c>
       <c r="AS191">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AT191">
-        <v>3.44</v>
+        <v>3.71</v>
       </c>
       <c r="AU191">
         <v>7</v>
@@ -41028,25 +41028,25 @@
         <v>1.85</v>
       </c>
       <c r="AN192">
-        <v>0.74</v>
+        <v>1.36</v>
       </c>
       <c r="AO192">
-        <v>0.78</v>
+        <v>0.42</v>
       </c>
       <c r="AP192">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ192">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR192">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AS192">
-        <v>1.21</v>
+        <v>1.03</v>
       </c>
       <c r="AT192">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="AU192">
         <v>4</v>
@@ -41237,22 +41237,22 @@
         <v>2.09</v>
       </c>
       <c r="AO193">
-        <v>2.61</v>
+        <v>2.36</v>
       </c>
       <c r="AP193">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ193">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR193">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="AS193">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="AT193">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="AU193">
         <v>9</v>
@@ -41440,25 +41440,25 @@
         <v>1.83</v>
       </c>
       <c r="AN194">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="AO194">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AP194">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ194">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR194">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="AS194">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AT194">
-        <v>2.83</v>
+        <v>2.72</v>
       </c>
       <c r="AU194">
         <v>10</v>
@@ -41646,25 +41646,25 @@
         <v>1.64</v>
       </c>
       <c r="AN195">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AO195">
-        <v>0.75</v>
+        <v>0.17</v>
       </c>
       <c r="AP195">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ195">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR195">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="AS195">
         <v>1.38</v>
       </c>
       <c r="AT195">
-        <v>2.79</v>
+        <v>2.92</v>
       </c>
       <c r="AU195">
         <v>9</v>
@@ -41852,22 +41852,22 @@
         <v>1.33</v>
       </c>
       <c r="AN196">
-        <v>0.79</v>
+        <v>1.18</v>
       </c>
       <c r="AO196">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AP196">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ196">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR196">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="AS196">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="AT196">
         <v>2.69</v>
@@ -42058,25 +42058,25 @@
         <v>1.41</v>
       </c>
       <c r="AN197">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AO197">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AP197">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ197">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR197">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AS197">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
       <c r="AT197">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="AU197">
         <v>5</v>
@@ -42264,25 +42264,25 @@
         <v>1.33</v>
       </c>
       <c r="AN198">
-        <v>1.17</v>
+        <v>1.55</v>
       </c>
       <c r="AO198">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AP198">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ198">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR198">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AS198">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AT198">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="AU198">
         <v>3</v>
@@ -42470,25 +42470,25 @@
         <v>1.27</v>
       </c>
       <c r="AN199">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="AO199">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="AP199">
+        <v>1.11</v>
+      </c>
+      <c r="AQ199">
+        <v>1.44</v>
+      </c>
+      <c r="AR199">
         <v>1.14</v>
       </c>
-      <c r="AQ199">
-        <v>1.4</v>
-      </c>
-      <c r="AR199">
-        <v>1.17</v>
-      </c>
       <c r="AS199">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT199">
-        <v>2.97</v>
+        <v>2.81</v>
       </c>
       <c r="AU199">
         <v>4</v>
@@ -42676,25 +42676,25 @@
         <v>4.8</v>
       </c>
       <c r="AN200">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="AO200">
-        <v>1.33</v>
+        <v>0.55</v>
       </c>
       <c r="AP200">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ200">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR200">
-        <v>2.07</v>
+        <v>2.34</v>
       </c>
       <c r="AS200">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="AT200">
-        <v>3.64</v>
+        <v>3.77</v>
       </c>
       <c r="AU200">
         <v>8</v>
@@ -42882,25 +42882,25 @@
         <v>4</v>
       </c>
       <c r="AN201">
-        <v>2.5</v>
+        <v>2.83</v>
       </c>
       <c r="AO201">
-        <v>1.13</v>
+        <v>0.67</v>
       </c>
       <c r="AP201">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ201">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR201">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="AS201">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AT201">
-        <v>3.2</v>
+        <v>3.31</v>
       </c>
       <c r="AU201">
         <v>6</v>
@@ -43088,25 +43088,25 @@
         <v>3.05</v>
       </c>
       <c r="AN202">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="AO202">
-        <v>1.28</v>
+        <v>0.5</v>
       </c>
       <c r="AP202">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ202">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR202">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AS202">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="AT202">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="AU202">
         <v>7</v>
@@ -43294,25 +43294,25 @@
         <v>2.3</v>
       </c>
       <c r="AN203">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="AO203">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AP203">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ203">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR203">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="AS203">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="AT203">
-        <v>2.52</v>
+        <v>2.73</v>
       </c>
       <c r="AU203">
         <v>6</v>
@@ -43500,25 +43500,25 @@
         <v>1.72</v>
       </c>
       <c r="AN204">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AO204">
-        <v>1.12</v>
+        <v>0.85</v>
       </c>
       <c r="AP204">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ204">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR204">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="AS204">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT204">
-        <v>2.89</v>
+        <v>2.98</v>
       </c>
       <c r="AU204">
         <v>7</v>
@@ -43706,25 +43706,25 @@
         <v>1.16</v>
       </c>
       <c r="AN205">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="AO205">
-        <v>2.48</v>
+        <v>2.33</v>
       </c>
       <c r="AP205">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ205">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR205">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="AS205">
-        <v>2.06</v>
+        <v>1.79</v>
       </c>
       <c r="AT205">
-        <v>3.56</v>
+        <v>3.51</v>
       </c>
       <c r="AU205">
         <v>6</v>
@@ -43912,25 +43912,25 @@
         <v>2.3</v>
       </c>
       <c r="AN206">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="AO206">
-        <v>1.28</v>
+        <v>0.92</v>
       </c>
       <c r="AP206">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ206">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR206">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="AS206">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="AT206">
-        <v>3.19</v>
+        <v>3.25</v>
       </c>
       <c r="AU206">
         <v>9</v>
@@ -44118,25 +44118,25 @@
         <v>2.1</v>
       </c>
       <c r="AN207">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="AO207">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="AP207">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ207">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR207">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="AS207">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AT207">
-        <v>2.89</v>
+        <v>2.79</v>
       </c>
       <c r="AU207">
         <v>5</v>
@@ -44324,25 +44324,25 @@
         <v>2.6</v>
       </c>
       <c r="AN208">
-        <v>1.44</v>
+        <v>1.77</v>
       </c>
       <c r="AO208">
-        <v>0.8</v>
+        <v>0.46</v>
       </c>
       <c r="AP208">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ208">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR208">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AS208">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="AT208">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="AU208">
         <v>5</v>
@@ -44530,25 +44530,25 @@
         <v>1.01</v>
       </c>
       <c r="AN209">
-        <v>0.72</v>
+        <v>1.33</v>
       </c>
       <c r="AO209">
-        <v>2.52</v>
+        <v>2.17</v>
       </c>
       <c r="AP209">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ209">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR209">
         <v>1.39</v>
       </c>
       <c r="AS209">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="AT209">
-        <v>3.13</v>
+        <v>2.96</v>
       </c>
       <c r="AU209">
         <v>2</v>
@@ -44736,25 +44736,25 @@
         <v>1.2</v>
       </c>
       <c r="AN210">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AO210">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AP210">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ210">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR210">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AS210">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT210">
-        <v>3.28</v>
+        <v>3.35</v>
       </c>
       <c r="AU210">
         <v>5</v>
@@ -44942,25 +44942,25 @@
         <v>1.48</v>
       </c>
       <c r="AN211">
-        <v>0.77</v>
+        <v>1.17</v>
       </c>
       <c r="AO211">
-        <v>1.27</v>
+        <v>1.08</v>
       </c>
       <c r="AP211">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ211">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR211">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="AS211">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="AT211">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="AU211">
         <v>10</v>
@@ -45148,25 +45148,25 @@
         <v>1.57</v>
       </c>
       <c r="AN212">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="AO212">
         <v>1.5</v>
       </c>
       <c r="AP212">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ212">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR212">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AS212">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="AT212">
-        <v>3.08</v>
+        <v>2.96</v>
       </c>
       <c r="AU212">
         <v>7</v>
@@ -45354,25 +45354,25 @@
         <v>4</v>
       </c>
       <c r="AN213">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="AO213">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="AP213">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ213">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR213">
-        <v>2.05</v>
+        <v>2.31</v>
       </c>
       <c r="AS213">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="AT213">
-        <v>3.51</v>
+        <v>3.6</v>
       </c>
       <c r="AU213">
         <v>7</v>
@@ -45560,25 +45560,25 @@
         <v>1.66</v>
       </c>
       <c r="AN214">
-        <v>1.23</v>
+        <v>1.62</v>
       </c>
       <c r="AO214">
-        <v>1.15</v>
+        <v>0.62</v>
       </c>
       <c r="AP214">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ214">
+        <v>1</v>
+      </c>
+      <c r="AR214">
+        <v>1.41</v>
+      </c>
+      <c r="AS214">
         <v>1.4</v>
       </c>
-      <c r="AR214">
-        <v>1.4</v>
-      </c>
-      <c r="AS214">
-        <v>1.45</v>
-      </c>
       <c r="AT214">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
       <c r="AU214">
         <v>6</v>
@@ -45766,25 +45766,25 @@
         <v>1.8</v>
       </c>
       <c r="AN215">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AO215">
-        <v>0.6899999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="AP215">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ215">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR215">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AS215">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="AT215">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="AU215">
         <v>5</v>
@@ -45972,22 +45972,22 @@
         <v>1.37</v>
       </c>
       <c r="AN216">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="AO216">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AP216">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ216">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR216">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AS216">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AT216">
         <v>3.27</v>
@@ -46178,25 +46178,25 @@
         <v>3.3</v>
       </c>
       <c r="AN217">
-        <v>2.54</v>
+        <v>2.85</v>
       </c>
       <c r="AO217">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="AP217">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ217">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR217">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="AS217">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT217">
-        <v>3.24</v>
+        <v>3.31</v>
       </c>
       <c r="AU217">
         <v>8</v>
@@ -46384,22 +46384,22 @@
         <v>1.17</v>
       </c>
       <c r="AN218">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="AO218">
-        <v>2.48</v>
+        <v>2.23</v>
       </c>
       <c r="AP218">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ218">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR218">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AS218">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="AT218">
         <v>3.2</v>
@@ -46590,25 +46590,25 @@
         <v>2</v>
       </c>
       <c r="AN219">
-        <v>1.48</v>
+        <v>1.86</v>
       </c>
       <c r="AO219">
-        <v>1.19</v>
+        <v>0.85</v>
       </c>
       <c r="AP219">
+        <v>1.61</v>
+      </c>
+      <c r="AQ219">
+        <v>1</v>
+      </c>
+      <c r="AR219">
+        <v>1.58</v>
+      </c>
+      <c r="AS219">
         <v>1.39</v>
       </c>
-      <c r="AQ219">
-        <v>1.24</v>
-      </c>
-      <c r="AR219">
-        <v>1.47</v>
-      </c>
-      <c r="AS219">
-        <v>1.42</v>
-      </c>
       <c r="AT219">
-        <v>2.89</v>
+        <v>2.97</v>
       </c>
       <c r="AU219">
         <v>6</v>
@@ -46796,25 +46796,25 @@
         <v>1.36</v>
       </c>
       <c r="AN220">
-        <v>0.7</v>
+        <v>1.23</v>
       </c>
       <c r="AO220">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP220">
         <v>1.41</v>
       </c>
-      <c r="AP220">
-        <v>0.83</v>
-      </c>
       <c r="AQ220">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR220">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AS220">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AT220">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="AU220">
         <v>4</v>
@@ -47002,25 +47002,25 @@
         <v>1.57</v>
       </c>
       <c r="AN221">
+        <v>1.69</v>
+      </c>
+      <c r="AO221">
+        <v>1.38</v>
+      </c>
+      <c r="AP221">
+        <v>1.82</v>
+      </c>
+      <c r="AQ221">
         <v>1.22</v>
       </c>
-      <c r="AO221">
-        <v>1.44</v>
-      </c>
-      <c r="AP221">
-        <v>1.4</v>
-      </c>
-      <c r="AQ221">
-        <v>1.26</v>
-      </c>
       <c r="AR221">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AS221">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
       <c r="AT221">
-        <v>2.91</v>
+        <v>2.73</v>
       </c>
       <c r="AU221">
         <v>5</v>
@@ -47208,25 +47208,25 @@
         <v>1.88</v>
       </c>
       <c r="AN222">
-        <v>0.85</v>
+        <v>1.31</v>
       </c>
       <c r="AO222">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="AP222">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ222">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR222">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AS222">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AT222">
-        <v>2.5</v>
+        <v>2.69</v>
       </c>
       <c r="AU222">
         <v>5</v>
@@ -47414,25 +47414,25 @@
         <v>1.62</v>
       </c>
       <c r="AN223">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="AO223">
-        <v>1.04</v>
+        <v>0.79</v>
       </c>
       <c r="AP223">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ223">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR223">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AS223">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="AT223">
-        <v>2.83</v>
+        <v>2.91</v>
       </c>
       <c r="AU223">
         <v>7</v>
@@ -47620,25 +47620,25 @@
         <v>3.2</v>
       </c>
       <c r="AN224">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AO224">
-        <v>0.74</v>
+        <v>0.46</v>
       </c>
       <c r="AP224">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ224">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR224">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="AS224">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AT224">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="AU224">
         <v>5</v>
@@ -47826,25 +47826,25 @@
         <v>1.11</v>
       </c>
       <c r="AN225">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="AO225">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="AP225">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ225">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR225">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="AS225">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="AT225">
-        <v>3.89</v>
+        <v>3.71</v>
       </c>
       <c r="AU225">
         <v>3</v>
@@ -48032,25 +48032,25 @@
         <v>2.8</v>
       </c>
       <c r="AN226">
-        <v>2.5</v>
+        <v>2.71</v>
       </c>
       <c r="AO226">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="AP226">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ226">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR226">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="AS226">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="AT226">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
       <c r="AU226">
         <v>12</v>
@@ -48238,25 +48238,25 @@
         <v>1.42</v>
       </c>
       <c r="AN227">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO227">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AP227">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ227">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR227">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="AS227">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AT227">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
       <c r="AU227">
         <v>6</v>
@@ -48444,25 +48444,25 @@
         <v>2</v>
       </c>
       <c r="AN228">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AO228">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="AP228">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ228">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR228">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="AS228">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="AT228">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="AU228">
         <v>3</v>
@@ -48650,25 +48650,25 @@
         <v>2.1</v>
       </c>
       <c r="AN229">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO229">
-        <v>0.79</v>
+        <v>0.21</v>
       </c>
       <c r="AP229">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ229">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR229">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="AS229">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AT229">
-        <v>2.76</v>
+        <v>2.83</v>
       </c>
       <c r="AU229">
         <v>7</v>
@@ -48856,25 +48856,25 @@
         <v>1.88</v>
       </c>
       <c r="AN230">
-        <v>1.36</v>
+        <v>2.07</v>
       </c>
       <c r="AO230">
-        <v>1.29</v>
+        <v>0.79</v>
       </c>
       <c r="AP230">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ230">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR230">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AS230">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="AT230">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="AU230">
         <v>3</v>
@@ -49062,25 +49062,25 @@
         <v>4.9</v>
       </c>
       <c r="AN231">
-        <v>2.43</v>
+        <v>2.64</v>
       </c>
       <c r="AO231">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AP231">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ231">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR231">
-        <v>2.02</v>
+        <v>2.29</v>
       </c>
       <c r="AS231">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AT231">
-        <v>3.42</v>
+        <v>3.51</v>
       </c>
       <c r="AU231">
         <v>10</v>
@@ -49268,25 +49268,25 @@
         <v>1.45</v>
       </c>
       <c r="AN232">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="AO232">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="AP232">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ232">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR232">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AS232">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="AT232">
-        <v>2.69</v>
+        <v>2.56</v>
       </c>
       <c r="AU232">
         <v>3</v>
@@ -49474,25 +49474,25 @@
         <v>1.25</v>
       </c>
       <c r="AN233">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AO233">
         <v>2.07</v>
       </c>
       <c r="AP233">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ233">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR233">
-        <v>1.46</v>
+        <v>1.72</v>
       </c>
       <c r="AS233">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT233">
-        <v>3.28</v>
+        <v>3.47</v>
       </c>
       <c r="AU233">
         <v>5</v>
@@ -49680,25 +49680,25 @@
         <v>1.03</v>
       </c>
       <c r="AN234">
-        <v>1.28</v>
+        <v>1.79</v>
       </c>
       <c r="AO234">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AP234">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ234">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR234">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AS234">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
       <c r="AT234">
-        <v>3.49</v>
+        <v>3.25</v>
       </c>
       <c r="AU234">
         <v>4</v>
@@ -49886,22 +49886,22 @@
         <v>1.9</v>
       </c>
       <c r="AN235">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="AO235">
-        <v>1.34</v>
+        <v>0.64</v>
       </c>
       <c r="AP235">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ235">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR235">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="AS235">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="AT235">
         <v>3.37</v>
@@ -50092,25 +50092,25 @@
         <v>3.2</v>
       </c>
       <c r="AN236">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="AO236">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AP236">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ236">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR236">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="AS236">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT236">
-        <v>3.22</v>
+        <v>3.26</v>
       </c>
       <c r="AU236">
         <v>7</v>
@@ -50298,25 +50298,25 @@
         <v>1.99</v>
       </c>
       <c r="AN237">
-        <v>1.1</v>
+        <v>1.21</v>
       </c>
       <c r="AO237">
-        <v>0.97</v>
+        <v>1.21</v>
       </c>
       <c r="AP237">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ237">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR237">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="AS237">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AT237">
-        <v>2.62</v>
+        <v>2.83</v>
       </c>
       <c r="AU237">
         <v>7</v>
@@ -50504,25 +50504,25 @@
         <v>1.16</v>
       </c>
       <c r="AN238">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="AO238">
-        <v>2.52</v>
+        <v>2.29</v>
       </c>
       <c r="AP238">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ238">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR238">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AS238">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="AT238">
-        <v>3.16</v>
+        <v>3.18</v>
       </c>
       <c r="AU238">
         <v>3</v>
@@ -50710,25 +50710,25 @@
         <v>1.53</v>
       </c>
       <c r="AN239">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AO239">
-        <v>1.48</v>
+        <v>1.21</v>
       </c>
       <c r="AP239">
+        <v>1.56</v>
+      </c>
+      <c r="AQ239">
         <v>1.17</v>
       </c>
-      <c r="AQ239">
-        <v>1.39</v>
-      </c>
       <c r="AR239">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AS239">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AT239">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="AU239">
         <v>5</v>
@@ -50916,25 +50916,25 @@
         <v>1.36</v>
       </c>
       <c r="AN240">
-        <v>0.79</v>
+        <v>1.36</v>
       </c>
       <c r="AO240">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AP240">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ240">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR240">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AS240">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
       <c r="AT240">
-        <v>2.82</v>
+        <v>2.53</v>
       </c>
       <c r="AU240">
         <v>6</v>
@@ -51122,25 +51122,25 @@
         <v>1.75</v>
       </c>
       <c r="AN241">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="AO241">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="AP241">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ241">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR241">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="AS241">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT241">
-        <v>2.73</v>
+        <v>2.8</v>
       </c>
       <c r="AU241">
         <v>7</v>
@@ -51328,25 +51328,25 @@
         <v>1.82</v>
       </c>
       <c r="AN242">
-        <v>0.93</v>
+        <v>0.73</v>
       </c>
       <c r="AO242">
-        <v>0.83</v>
+        <v>0.47</v>
       </c>
       <c r="AP242">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ242">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR242">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AS242">
-        <v>1.3</v>
+        <v>1.06</v>
       </c>
       <c r="AT242">
-        <v>2.52</v>
+        <v>2.25</v>
       </c>
       <c r="AU242">
         <v>4</v>
@@ -51534,25 +51534,25 @@
         <v>1.5</v>
       </c>
       <c r="AN243">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AO243">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP243">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ243">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR243">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AS243">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="AT243">
-        <v>2.78</v>
+        <v>2.58</v>
       </c>
       <c r="AU243">
         <v>5</v>
@@ -51740,25 +51740,25 @@
         <v>2.25</v>
       </c>
       <c r="AN244">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AO244">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AP244">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ244">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR244">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AS244">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AT244">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU244">
         <v>4</v>
@@ -51946,25 +51946,25 @@
         <v>3.15</v>
       </c>
       <c r="AN245">
-        <v>2.4</v>
+        <v>2.53</v>
       </c>
       <c r="AO245">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP245">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ245">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR245">
-        <v>2.04</v>
+        <v>2.35</v>
       </c>
       <c r="AS245">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="AT245">
-        <v>3.88</v>
+        <v>4.08</v>
       </c>
       <c r="AU245">
         <v>10</v>
@@ -52152,25 +52152,25 @@
         <v>2.5</v>
       </c>
       <c r="AN246">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AO246">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AP246">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ246">
+        <v>1.17</v>
+      </c>
+      <c r="AR246">
+        <v>1.87</v>
+      </c>
+      <c r="AS246">
         <v>1.39</v>
       </c>
-      <c r="AR246">
-        <v>1.79</v>
-      </c>
-      <c r="AS246">
-        <v>1.48</v>
-      </c>
       <c r="AT246">
-        <v>3.27</v>
+        <v>3.26</v>
       </c>
       <c r="AU246">
         <v>6</v>
@@ -52770,25 +52770,25 @@
         <v>1.14</v>
       </c>
       <c r="AN249">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AO249">
-        <v>2.53</v>
+        <v>2.33</v>
       </c>
       <c r="AP249">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ249">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR249">
-        <v>1.49</v>
+        <v>1.71</v>
       </c>
       <c r="AS249">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="AT249">
-        <v>3.27</v>
+        <v>3.32</v>
       </c>
       <c r="AU249">
         <v>5</v>
@@ -52976,25 +52976,25 @@
         <v>1.9</v>
       </c>
       <c r="AN250">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AO250">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="AP250">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ250">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR250">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AS250">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AT250">
-        <v>3.29</v>
+        <v>3.36</v>
       </c>
       <c r="AU250">
         <v>4</v>
@@ -53182,25 +53182,25 @@
         <v>3.1</v>
       </c>
       <c r="AN251">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="AO251">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AP251">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ251">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR251">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AS251">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="AT251">
-        <v>3.27</v>
+        <v>3.15</v>
       </c>
       <c r="AU251">
         <v>12</v>
@@ -53388,25 +53388,25 @@
         <v>1.57</v>
       </c>
       <c r="AN252">
-        <v>2.55</v>
+        <v>2.73</v>
       </c>
       <c r="AO252">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="AP252">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ252">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR252">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="AS252">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="AT252">
-        <v>3.83</v>
+        <v>3.69</v>
       </c>
       <c r="AU252">
         <v>6</v>
@@ -53594,25 +53594,25 @@
         <v>1.85</v>
       </c>
       <c r="AN253">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO253">
-        <v>0.87</v>
+        <v>0.27</v>
       </c>
       <c r="AP253">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ253">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR253">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AS253">
         <v>1.37</v>
       </c>
       <c r="AT253">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="AU253">
         <v>6</v>
@@ -53800,25 +53800,25 @@
         <v>1.67</v>
       </c>
       <c r="AN254">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AO254">
-        <v>1.06</v>
+        <v>0.73</v>
       </c>
       <c r="AP254">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ254">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR254">
-        <v>1.42</v>
+        <v>1.59</v>
       </c>
       <c r="AS254">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="AT254">
-        <v>2.87</v>
+        <v>2.93</v>
       </c>
       <c r="AU254">
         <v>7</v>
@@ -54418,25 +54418,25 @@
         <v>1.69</v>
       </c>
       <c r="AN257">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AO257">
-        <v>0.8100000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="AP257">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ257">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR257">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="AS257">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="AT257">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="AU257">
         <v>4</v>
@@ -54624,25 +54624,25 @@
         <v>1.75</v>
       </c>
       <c r="AN258">
-        <v>1.47</v>
+        <v>1.73</v>
       </c>
       <c r="AO258">
+        <v>1.19</v>
+      </c>
+      <c r="AP258">
+        <v>1.61</v>
+      </c>
+      <c r="AQ258">
+        <v>1.22</v>
+      </c>
+      <c r="AR258">
+        <v>1.57</v>
+      </c>
+      <c r="AS258">
         <v>1.28</v>
       </c>
-      <c r="AP258">
-        <v>1.39</v>
-      </c>
-      <c r="AQ258">
-        <v>1.26</v>
-      </c>
-      <c r="AR258">
-        <v>1.48</v>
-      </c>
-      <c r="AS258">
-        <v>1.48</v>
-      </c>
       <c r="AT258">
-        <v>2.96</v>
+        <v>2.85</v>
       </c>
       <c r="AU258">
         <v>2</v>
@@ -54830,22 +54830,22 @@
         <v>3.3</v>
       </c>
       <c r="AN259">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AO259">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="AP259">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ259">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR259">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="AS259">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="AT259">
         <v>3.59</v>
@@ -55036,25 +55036,25 @@
         <v>2.7</v>
       </c>
       <c r="AN260">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="AO260">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AP260">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ260">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR260">
-        <v>2.03</v>
+        <v>2.33</v>
       </c>
       <c r="AS260">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="AT260">
-        <v>3.84</v>
+        <v>4.03</v>
       </c>
       <c r="AU260">
         <v>5</v>
@@ -55242,25 +55242,25 @@
         <v>1.59</v>
       </c>
       <c r="AN261">
-        <v>0.8100000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="AO261">
-        <v>0.84</v>
+        <v>0.25</v>
       </c>
       <c r="AP261">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ261">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR261">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="AS261">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AT261">
-        <v>2.71</v>
+        <v>2.95</v>
       </c>
       <c r="AU261">
         <v>8</v>
@@ -55448,25 +55448,25 @@
         <v>1.95</v>
       </c>
       <c r="AN262">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AO262">
-        <v>0.8100000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="AP262">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ262">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR262">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AS262">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AT262">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="AU262">
         <v>4</v>
@@ -55654,25 +55654,25 @@
         <v>1.95</v>
       </c>
       <c r="AN263">
-        <v>1.06</v>
+        <v>1.38</v>
       </c>
       <c r="AO263">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="AP263">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ263">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR263">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AS263">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AT263">
-        <v>2.68</v>
+        <v>2.81</v>
       </c>
       <c r="AU263">
         <v>8</v>
@@ -55860,25 +55860,25 @@
         <v>1.09</v>
       </c>
       <c r="AN264">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="AO264">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="AP264">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ264">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR264">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="AS264">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="AT264">
-        <v>3.26</v>
+        <v>3.18</v>
       </c>
       <c r="AU264">
         <v>3</v>
@@ -56066,25 +56066,25 @@
         <v>1.05</v>
       </c>
       <c r="AN265">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AO265">
-        <v>2.39</v>
+        <v>2.19</v>
       </c>
       <c r="AP265">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ265">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR265">
-        <v>1.48</v>
+        <v>1.68</v>
       </c>
       <c r="AS265">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="AT265">
-        <v>3.5</v>
+        <v>3.41</v>
       </c>
       <c r="AU265">
         <v>2</v>
@@ -56272,25 +56272,25 @@
         <v>2.05</v>
       </c>
       <c r="AN266">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="AO266">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AP266">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ266">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR266">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="AS266">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="AT266">
-        <v>3.58</v>
+        <v>3.55</v>
       </c>
       <c r="AU266">
         <v>4</v>
@@ -56684,25 +56684,25 @@
         <v>1.77</v>
       </c>
       <c r="AN268">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AO268">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
       <c r="AP268">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ268">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR268">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AS268">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AT268">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="AU268">
         <v>7</v>
@@ -56890,25 +56890,25 @@
         <v>1.67</v>
       </c>
       <c r="AN269">
-        <v>0.85</v>
+        <v>1.44</v>
       </c>
       <c r="AO269">
-        <v>1.12</v>
+        <v>0.75</v>
       </c>
       <c r="AP269">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ269">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR269">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AS269">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="AT269">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
       <c r="AU269">
         <v>8</v>
@@ -57096,25 +57096,25 @@
         <v>1.86</v>
       </c>
       <c r="AN270">
-        <v>0.82</v>
+        <v>1.19</v>
       </c>
       <c r="AO270">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP270">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ270">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR270">
-        <v>1.34</v>
+        <v>1.57</v>
       </c>
       <c r="AS270">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="AT270">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="AU270">
         <v>8</v>
@@ -57302,25 +57302,25 @@
         <v>1.72</v>
       </c>
       <c r="AN271">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AO271">
-        <v>0.85</v>
+        <v>0.29</v>
       </c>
       <c r="AP271">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ271">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR271">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AS271">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="AT271">
-        <v>2.87</v>
+        <v>3.03</v>
       </c>
       <c r="AU271">
         <v>8</v>
@@ -57714,25 +57714,25 @@
         <v>1.9</v>
       </c>
       <c r="AN273">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AO273">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AP273">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ273">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR273">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="AS273">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AT273">
-        <v>2.68</v>
+        <v>2.85</v>
       </c>
       <c r="AU273">
         <v>2</v>
@@ -57920,25 +57920,25 @@
         <v>1.55</v>
       </c>
       <c r="AN274">
+        <v>1.47</v>
+      </c>
+      <c r="AO274">
+        <v>0.47</v>
+      </c>
+      <c r="AP274">
+        <v>1.56</v>
+      </c>
+      <c r="AQ274">
+        <v>0.44</v>
+      </c>
+      <c r="AR274">
+        <v>1.57</v>
+      </c>
+      <c r="AS274">
         <v>1.12</v>
       </c>
-      <c r="AO274">
-        <v>0.79</v>
-      </c>
-      <c r="AP274">
-        <v>1.17</v>
-      </c>
-      <c r="AQ274">
-        <v>0.77</v>
-      </c>
-      <c r="AR274">
-        <v>1.47</v>
-      </c>
-      <c r="AS274">
-        <v>1.36</v>
-      </c>
       <c r="AT274">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AU274">
         <v>4</v>
@@ -58126,25 +58126,25 @@
         <v>2.71</v>
       </c>
       <c r="AN275">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="AO275">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="AP275">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ275">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR275">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="AS275">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="AT275">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="AU275">
         <v>7</v>
@@ -58332,25 +58332,25 @@
         <v>5</v>
       </c>
       <c r="AN276">
-        <v>2.41</v>
+        <v>2.59</v>
       </c>
       <c r="AO276">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="AP276">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ276">
+        <v>1.17</v>
+      </c>
+      <c r="AR276">
+        <v>2.29</v>
+      </c>
+      <c r="AS276">
         <v>1.39</v>
       </c>
-      <c r="AR276">
-        <v>2.02</v>
-      </c>
-      <c r="AS276">
-        <v>1.46</v>
-      </c>
       <c r="AT276">
-        <v>3.48</v>
+        <v>3.68</v>
       </c>
       <c r="AU276">
         <v>14</v>
@@ -58538,22 +58538,22 @@
         <v>2.1</v>
       </c>
       <c r="AN277">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AO277">
         <v>1.29</v>
       </c>
       <c r="AP277">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ277">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR277">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="AS277">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="AT277">
         <v>3.25</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -51328,25 +51328,25 @@
         <v>1.82</v>
       </c>
       <c r="AN242">
-        <v>0.73</v>
+        <v>0.93</v>
       </c>
       <c r="AO242">
-        <v>0.47</v>
+        <v>0.83</v>
       </c>
       <c r="AP242">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AQ242">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="AR242">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AS242">
-        <v>1.06</v>
+        <v>1.3</v>
       </c>
       <c r="AT242">
-        <v>2.25</v>
+        <v>2.52</v>
       </c>
       <c r="AU242">
         <v>4</v>
@@ -51534,25 +51534,25 @@
         <v>1.5</v>
       </c>
       <c r="AN243">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="AO243">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AP243">
-        <v>1.41</v>
+        <v>0.83</v>
       </c>
       <c r="AQ243">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AR243">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AS243">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="AT243">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="AU243">
         <v>5</v>
@@ -51740,25 +51740,25 @@
         <v>2.25</v>
       </c>
       <c r="AN244">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AO244">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AP244">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="AQ244">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="AR244">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="AS244">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="AT244">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="AU244">
         <v>4</v>
@@ -51946,25 +51946,25 @@
         <v>3.15</v>
       </c>
       <c r="AN245">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AO245">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP245">
-        <v>2.61</v>
+        <v>2.43</v>
       </c>
       <c r="AQ245">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR245">
-        <v>2.35</v>
+        <v>2.04</v>
       </c>
       <c r="AS245">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="AT245">
-        <v>4.08</v>
+        <v>3.88</v>
       </c>
       <c r="AU245">
         <v>10</v>
@@ -52152,25 +52152,25 @@
         <v>2.5</v>
       </c>
       <c r="AN246">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="AO246">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AP246">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ246">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="AR246">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="AS246">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="AT246">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="AU246">
         <v>6</v>
@@ -52770,25 +52770,25 @@
         <v>1.14</v>
       </c>
       <c r="AN249">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AO249">
-        <v>2.33</v>
+        <v>2.53</v>
       </c>
       <c r="AP249">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ249">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="AR249">
-        <v>1.71</v>
+        <v>1.49</v>
       </c>
       <c r="AS249">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="AT249">
-        <v>3.32</v>
+        <v>3.27</v>
       </c>
       <c r="AU249">
         <v>5</v>
@@ -52976,25 +52976,25 @@
         <v>1.9</v>
       </c>
       <c r="AN250">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AO250">
-        <v>1.13</v>
+        <v>1.42</v>
       </c>
       <c r="AP250">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ250">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="AR250">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AS250">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="AT250">
-        <v>3.36</v>
+        <v>3.29</v>
       </c>
       <c r="AU250">
         <v>4</v>
@@ -53182,25 +53182,25 @@
         <v>3.1</v>
       </c>
       <c r="AN251">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="AO251">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AP251">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ251">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AR251">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="AS251">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AT251">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
       <c r="AU251">
         <v>12</v>
@@ -53388,25 +53388,25 @@
         <v>1.57</v>
       </c>
       <c r="AN252">
-        <v>2.73</v>
+        <v>2.55</v>
       </c>
       <c r="AO252">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="AP252">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AQ252">
-        <v>2.24</v>
+        <v>2.43</v>
       </c>
       <c r="AR252">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="AS252">
-        <v>1.73</v>
+        <v>2.04</v>
       </c>
       <c r="AT252">
-        <v>3.69</v>
+        <v>3.83</v>
       </c>
       <c r="AU252">
         <v>6</v>
@@ -53594,25 +53594,25 @@
         <v>1.85</v>
       </c>
       <c r="AN253">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO253">
-        <v>0.27</v>
+        <v>0.87</v>
       </c>
       <c r="AP253">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AQ253">
-        <v>0.28</v>
+        <v>0.83</v>
       </c>
       <c r="AR253">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AS253">
         <v>1.37</v>
       </c>
       <c r="AT253">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AU253">
         <v>6</v>
@@ -53800,25 +53800,25 @@
         <v>1.67</v>
       </c>
       <c r="AN254">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AO254">
-        <v>0.73</v>
+        <v>1.06</v>
       </c>
       <c r="AP254">
+        <v>1.11</v>
+      </c>
+      <c r="AQ254">
         <v>1.17</v>
       </c>
-      <c r="AQ254">
-        <v>0.76</v>
-      </c>
       <c r="AR254">
-        <v>1.59</v>
+        <v>1.42</v>
       </c>
       <c r="AS254">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="AT254">
-        <v>2.93</v>
+        <v>2.87</v>
       </c>
       <c r="AU254">
         <v>7</v>
@@ -54418,25 +54418,25 @@
         <v>1.69</v>
       </c>
       <c r="AN257">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO257">
-        <v>0.44</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP257">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
       <c r="AQ257">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="AR257">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="AS257">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="AT257">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="AU257">
         <v>4</v>
@@ -54624,25 +54624,25 @@
         <v>1.75</v>
       </c>
       <c r="AN258">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="AO258">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="AP258">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="AQ258">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AR258">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="AS258">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AT258">
-        <v>2.85</v>
+        <v>2.96</v>
       </c>
       <c r="AU258">
         <v>2</v>
@@ -54830,22 +54830,22 @@
         <v>3.3</v>
       </c>
       <c r="AN259">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AO259">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="AP259">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AQ259">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR259">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="AS259">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="AT259">
         <v>3.59</v>
@@ -55036,25 +55036,25 @@
         <v>2.7</v>
       </c>
       <c r="AN260">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="AO260">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AP260">
-        <v>2.61</v>
+        <v>2.43</v>
       </c>
       <c r="AQ260">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AR260">
-        <v>2.33</v>
+        <v>2.03</v>
       </c>
       <c r="AS260">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="AT260">
-        <v>4.03</v>
+        <v>3.84</v>
       </c>
       <c r="AU260">
         <v>5</v>
@@ -55242,25 +55242,25 @@
         <v>1.59</v>
       </c>
       <c r="AN261">
-        <v>1.2</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO261">
-        <v>0.25</v>
+        <v>0.84</v>
       </c>
       <c r="AP261">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
       <c r="AQ261">
-        <v>0.28</v>
+        <v>0.83</v>
       </c>
       <c r="AR261">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="AS261">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT261">
-        <v>2.95</v>
+        <v>2.71</v>
       </c>
       <c r="AU261">
         <v>8</v>
@@ -55448,25 +55448,25 @@
         <v>1.95</v>
       </c>
       <c r="AN262">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AO262">
-        <v>0.63</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP262">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ262">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="AR262">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AS262">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="AT262">
-        <v>2.91</v>
+        <v>2.88</v>
       </c>
       <c r="AU262">
         <v>4</v>
@@ -55654,25 +55654,25 @@
         <v>1.95</v>
       </c>
       <c r="AN263">
-        <v>1.38</v>
+        <v>1.06</v>
       </c>
       <c r="AO263">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AP263">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="AQ263">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AR263">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="AS263">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT263">
-        <v>2.81</v>
+        <v>2.68</v>
       </c>
       <c r="AU263">
         <v>8</v>
@@ -55860,25 +55860,25 @@
         <v>1.09</v>
       </c>
       <c r="AN264">
-        <v>1.63</v>
+        <v>1.42</v>
       </c>
       <c r="AO264">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="AP264">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="AQ264">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="AR264">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="AS264">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="AT264">
-        <v>3.18</v>
+        <v>3.26</v>
       </c>
       <c r="AU264">
         <v>3</v>
@@ -56066,25 +56066,25 @@
         <v>1.05</v>
       </c>
       <c r="AN265">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AO265">
-        <v>2.19</v>
+        <v>2.39</v>
       </c>
       <c r="AP265">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ265">
-        <v>2.24</v>
+        <v>2.43</v>
       </c>
       <c r="AR265">
-        <v>1.68</v>
+        <v>1.48</v>
       </c>
       <c r="AS265">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="AT265">
-        <v>3.41</v>
+        <v>3.5</v>
       </c>
       <c r="AU265">
         <v>2</v>
@@ -56272,25 +56272,25 @@
         <v>2.05</v>
       </c>
       <c r="AN266">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="AO266">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="AP266">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ266">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR266">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="AS266">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="AT266">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="AU266">
         <v>4</v>
@@ -56684,25 +56684,25 @@
         <v>1.77</v>
       </c>
       <c r="AN268">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="AO268">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="AP268">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AQ268">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="AR268">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AS268">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT268">
-        <v>2.54</v>
+        <v>2.7</v>
       </c>
       <c r="AU268">
         <v>7</v>
@@ -56890,25 +56890,25 @@
         <v>1.67</v>
       </c>
       <c r="AN269">
-        <v>1.44</v>
+        <v>0.85</v>
       </c>
       <c r="AO269">
-        <v>0.75</v>
+        <v>1.12</v>
       </c>
       <c r="AP269">
-        <v>1.41</v>
+        <v>0.83</v>
       </c>
       <c r="AQ269">
-        <v>0.76</v>
+        <v>1.17</v>
       </c>
       <c r="AR269">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AS269">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="AT269">
-        <v>2.71</v>
+        <v>2.85</v>
       </c>
       <c r="AU269">
         <v>8</v>
@@ -57096,25 +57096,25 @@
         <v>1.86</v>
       </c>
       <c r="AN270">
-        <v>1.19</v>
+        <v>0.82</v>
       </c>
       <c r="AO270">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AP270">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
       <c r="AQ270">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AR270">
-        <v>1.57</v>
+        <v>1.34</v>
       </c>
       <c r="AS270">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="AT270">
-        <v>2.83</v>
+        <v>2.77</v>
       </c>
       <c r="AU270">
         <v>8</v>
@@ -57302,25 +57302,25 @@
         <v>1.72</v>
       </c>
       <c r="AN271">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AO271">
-        <v>0.29</v>
+        <v>0.85</v>
       </c>
       <c r="AP271">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
       <c r="AQ271">
-        <v>0.28</v>
+        <v>0.83</v>
       </c>
       <c r="AR271">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AS271">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AT271">
-        <v>3.03</v>
+        <v>2.87</v>
       </c>
       <c r="AU271">
         <v>8</v>
@@ -57714,25 +57714,25 @@
         <v>1.9</v>
       </c>
       <c r="AN273">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AO273">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AP273">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ273">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AR273">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="AS273">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AT273">
-        <v>2.85</v>
+        <v>2.68</v>
       </c>
       <c r="AU273">
         <v>2</v>
@@ -57920,25 +57920,25 @@
         <v>1.55</v>
       </c>
       <c r="AN274">
+        <v>1.12</v>
+      </c>
+      <c r="AO274">
+        <v>0.79</v>
+      </c>
+      <c r="AP274">
+        <v>1.17</v>
+      </c>
+      <c r="AQ274">
+        <v>0.77</v>
+      </c>
+      <c r="AR274">
         <v>1.47</v>
       </c>
-      <c r="AO274">
-        <v>0.47</v>
-      </c>
-      <c r="AP274">
-        <v>1.56</v>
-      </c>
-      <c r="AQ274">
-        <v>0.44</v>
-      </c>
-      <c r="AR274">
-        <v>1.57</v>
-      </c>
       <c r="AS274">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
       <c r="AT274">
-        <v>2.69</v>
+        <v>2.83</v>
       </c>
       <c r="AU274">
         <v>4</v>
@@ -58126,25 +58126,25 @@
         <v>2.71</v>
       </c>
       <c r="AN275">
-        <v>2.65</v>
+        <v>2.53</v>
       </c>
       <c r="AO275">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="AP275">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AQ275">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AR275">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="AS275">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="AT275">
-        <v>3.59</v>
+        <v>3.58</v>
       </c>
       <c r="AU275">
         <v>7</v>
@@ -58332,25 +58332,25 @@
         <v>5</v>
       </c>
       <c r="AN276">
-        <v>2.59</v>
+        <v>2.41</v>
       </c>
       <c r="AO276">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="AP276">
-        <v>2.61</v>
+        <v>2.43</v>
       </c>
       <c r="AQ276">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="AR276">
-        <v>2.29</v>
+        <v>2.02</v>
       </c>
       <c r="AS276">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AT276">
-        <v>3.68</v>
+        <v>3.48</v>
       </c>
       <c r="AU276">
         <v>14</v>
@@ -58538,22 +58538,22 @@
         <v>2.1</v>
       </c>
       <c r="AN277">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AO277">
         <v>1.29</v>
       </c>
       <c r="AP277">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ277">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AR277">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="AS277">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="AT277">
         <v>3.25</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -51328,25 +51328,25 @@
         <v>1.82</v>
       </c>
       <c r="AN242">
-        <v>0.93</v>
+        <v>0.73</v>
       </c>
       <c r="AO242">
-        <v>0.83</v>
+        <v>0.47</v>
       </c>
       <c r="AP242">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ242">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR242">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AS242">
-        <v>1.3</v>
+        <v>1.06</v>
       </c>
       <c r="AT242">
-        <v>2.52</v>
+        <v>2.25</v>
       </c>
       <c r="AU242">
         <v>4</v>
@@ -51534,25 +51534,25 @@
         <v>1.5</v>
       </c>
       <c r="AN243">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AO243">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP243">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ243">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR243">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AS243">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="AT243">
-        <v>2.78</v>
+        <v>2.58</v>
       </c>
       <c r="AU243">
         <v>5</v>
@@ -51740,25 +51740,25 @@
         <v>2.25</v>
       </c>
       <c r="AN244">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AO244">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AP244">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ244">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR244">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AS244">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AT244">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU244">
         <v>4</v>
@@ -51946,25 +51946,25 @@
         <v>3.15</v>
       </c>
       <c r="AN245">
-        <v>2.4</v>
+        <v>2.53</v>
       </c>
       <c r="AO245">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP245">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ245">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR245">
-        <v>2.04</v>
+        <v>2.35</v>
       </c>
       <c r="AS245">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="AT245">
-        <v>3.88</v>
+        <v>4.08</v>
       </c>
       <c r="AU245">
         <v>10</v>
@@ -52152,25 +52152,25 @@
         <v>2.5</v>
       </c>
       <c r="AN246">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AO246">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AP246">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ246">
+        <v>1.17</v>
+      </c>
+      <c r="AR246">
+        <v>1.87</v>
+      </c>
+      <c r="AS246">
         <v>1.39</v>
       </c>
-      <c r="AR246">
-        <v>1.79</v>
-      </c>
-      <c r="AS246">
-        <v>1.48</v>
-      </c>
       <c r="AT246">
-        <v>3.27</v>
+        <v>3.26</v>
       </c>
       <c r="AU246">
         <v>6</v>
@@ -52770,25 +52770,25 @@
         <v>1.14</v>
       </c>
       <c r="AN249">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AO249">
-        <v>2.53</v>
+        <v>2.33</v>
       </c>
       <c r="AP249">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ249">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR249">
-        <v>1.49</v>
+        <v>1.71</v>
       </c>
       <c r="AS249">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="AT249">
-        <v>3.27</v>
+        <v>3.32</v>
       </c>
       <c r="AU249">
         <v>5</v>
@@ -52976,25 +52976,25 @@
         <v>1.9</v>
       </c>
       <c r="AN250">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AO250">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="AP250">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ250">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR250">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AS250">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AT250">
-        <v>3.29</v>
+        <v>3.36</v>
       </c>
       <c r="AU250">
         <v>4</v>
@@ -53182,25 +53182,25 @@
         <v>3.1</v>
       </c>
       <c r="AN251">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="AO251">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AP251">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ251">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR251">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AS251">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="AT251">
-        <v>3.27</v>
+        <v>3.15</v>
       </c>
       <c r="AU251">
         <v>12</v>
@@ -53388,25 +53388,25 @@
         <v>1.57</v>
       </c>
       <c r="AN252">
-        <v>2.55</v>
+        <v>2.73</v>
       </c>
       <c r="AO252">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="AP252">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ252">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR252">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="AS252">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="AT252">
-        <v>3.83</v>
+        <v>3.69</v>
       </c>
       <c r="AU252">
         <v>6</v>
@@ -53594,25 +53594,25 @@
         <v>1.85</v>
       </c>
       <c r="AN253">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO253">
-        <v>0.87</v>
+        <v>0.27</v>
       </c>
       <c r="AP253">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ253">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR253">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AS253">
         <v>1.37</v>
       </c>
       <c r="AT253">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="AU253">
         <v>6</v>
@@ -53800,25 +53800,25 @@
         <v>1.67</v>
       </c>
       <c r="AN254">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AO254">
-        <v>1.06</v>
+        <v>0.73</v>
       </c>
       <c r="AP254">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ254">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR254">
-        <v>1.42</v>
+        <v>1.59</v>
       </c>
       <c r="AS254">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="AT254">
-        <v>2.87</v>
+        <v>2.93</v>
       </c>
       <c r="AU254">
         <v>7</v>
@@ -54418,25 +54418,25 @@
         <v>1.69</v>
       </c>
       <c r="AN257">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AO257">
-        <v>0.8100000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="AP257">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ257">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR257">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="AS257">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="AT257">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="AU257">
         <v>4</v>
@@ -54624,25 +54624,25 @@
         <v>1.75</v>
       </c>
       <c r="AN258">
-        <v>1.47</v>
+        <v>1.73</v>
       </c>
       <c r="AO258">
+        <v>1.19</v>
+      </c>
+      <c r="AP258">
+        <v>1.61</v>
+      </c>
+      <c r="AQ258">
+        <v>1.22</v>
+      </c>
+      <c r="AR258">
+        <v>1.57</v>
+      </c>
+      <c r="AS258">
         <v>1.28</v>
       </c>
-      <c r="AP258">
-        <v>1.39</v>
-      </c>
-      <c r="AQ258">
-        <v>1.26</v>
-      </c>
-      <c r="AR258">
-        <v>1.48</v>
-      </c>
-      <c r="AS258">
-        <v>1.48</v>
-      </c>
       <c r="AT258">
-        <v>2.96</v>
+        <v>2.85</v>
       </c>
       <c r="AU258">
         <v>2</v>
@@ -54830,22 +54830,22 @@
         <v>3.3</v>
       </c>
       <c r="AN259">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AO259">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="AP259">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ259">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR259">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="AS259">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="AT259">
         <v>3.59</v>
@@ -55036,25 +55036,25 @@
         <v>2.7</v>
       </c>
       <c r="AN260">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="AO260">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AP260">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ260">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR260">
-        <v>2.03</v>
+        <v>2.33</v>
       </c>
       <c r="AS260">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="AT260">
-        <v>3.84</v>
+        <v>4.03</v>
       </c>
       <c r="AU260">
         <v>5</v>
@@ -55242,25 +55242,25 @@
         <v>1.59</v>
       </c>
       <c r="AN261">
-        <v>0.8100000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="AO261">
-        <v>0.84</v>
+        <v>0.25</v>
       </c>
       <c r="AP261">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ261">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR261">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="AS261">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AT261">
-        <v>2.71</v>
+        <v>2.95</v>
       </c>
       <c r="AU261">
         <v>8</v>
@@ -55448,25 +55448,25 @@
         <v>1.95</v>
       </c>
       <c r="AN262">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AO262">
-        <v>0.8100000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="AP262">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ262">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR262">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AS262">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AT262">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="AU262">
         <v>4</v>
@@ -55654,25 +55654,25 @@
         <v>1.95</v>
       </c>
       <c r="AN263">
-        <v>1.06</v>
+        <v>1.38</v>
       </c>
       <c r="AO263">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="AP263">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ263">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR263">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AS263">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AT263">
-        <v>2.68</v>
+        <v>2.81</v>
       </c>
       <c r="AU263">
         <v>8</v>
@@ -55860,25 +55860,25 @@
         <v>1.09</v>
       </c>
       <c r="AN264">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="AO264">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="AP264">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ264">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR264">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="AS264">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="AT264">
-        <v>3.26</v>
+        <v>3.18</v>
       </c>
       <c r="AU264">
         <v>3</v>
@@ -56066,25 +56066,25 @@
         <v>1.05</v>
       </c>
       <c r="AN265">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AO265">
-        <v>2.39</v>
+        <v>2.19</v>
       </c>
       <c r="AP265">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ265">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR265">
-        <v>1.48</v>
+        <v>1.68</v>
       </c>
       <c r="AS265">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="AT265">
-        <v>3.5</v>
+        <v>3.41</v>
       </c>
       <c r="AU265">
         <v>2</v>
@@ -56272,25 +56272,25 @@
         <v>2.05</v>
       </c>
       <c r="AN266">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="AO266">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AP266">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ266">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR266">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="AS266">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="AT266">
-        <v>3.58</v>
+        <v>3.55</v>
       </c>
       <c r="AU266">
         <v>4</v>
@@ -56684,25 +56684,25 @@
         <v>1.77</v>
       </c>
       <c r="AN268">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AO268">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
       <c r="AP268">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ268">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR268">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AS268">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AT268">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="AU268">
         <v>7</v>
@@ -56890,25 +56890,25 @@
         <v>1.67</v>
       </c>
       <c r="AN269">
-        <v>0.85</v>
+        <v>1.44</v>
       </c>
       <c r="AO269">
-        <v>1.12</v>
+        <v>0.75</v>
       </c>
       <c r="AP269">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ269">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR269">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AS269">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="AT269">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
       <c r="AU269">
         <v>8</v>
@@ -57096,25 +57096,25 @@
         <v>1.86</v>
       </c>
       <c r="AN270">
-        <v>0.82</v>
+        <v>1.19</v>
       </c>
       <c r="AO270">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP270">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ270">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR270">
-        <v>1.34</v>
+        <v>1.57</v>
       </c>
       <c r="AS270">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="AT270">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="AU270">
         <v>8</v>
@@ -57302,25 +57302,25 @@
         <v>1.72</v>
       </c>
       <c r="AN271">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AO271">
-        <v>0.85</v>
+        <v>0.29</v>
       </c>
       <c r="AP271">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ271">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR271">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AS271">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="AT271">
-        <v>2.87</v>
+        <v>3.03</v>
       </c>
       <c r="AU271">
         <v>8</v>
@@ -57714,25 +57714,25 @@
         <v>1.9</v>
       </c>
       <c r="AN273">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AO273">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AP273">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ273">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR273">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="AS273">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AT273">
-        <v>2.68</v>
+        <v>2.85</v>
       </c>
       <c r="AU273">
         <v>2</v>
@@ -57920,25 +57920,25 @@
         <v>1.55</v>
       </c>
       <c r="AN274">
+        <v>1.47</v>
+      </c>
+      <c r="AO274">
+        <v>0.47</v>
+      </c>
+      <c r="AP274">
+        <v>1.56</v>
+      </c>
+      <c r="AQ274">
+        <v>0.44</v>
+      </c>
+      <c r="AR274">
+        <v>1.57</v>
+      </c>
+      <c r="AS274">
         <v>1.12</v>
       </c>
-      <c r="AO274">
-        <v>0.79</v>
-      </c>
-      <c r="AP274">
-        <v>1.17</v>
-      </c>
-      <c r="AQ274">
-        <v>0.77</v>
-      </c>
-      <c r="AR274">
-        <v>1.47</v>
-      </c>
-      <c r="AS274">
-        <v>1.36</v>
-      </c>
       <c r="AT274">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AU274">
         <v>4</v>
@@ -58126,25 +58126,25 @@
         <v>2.71</v>
       </c>
       <c r="AN275">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="AO275">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="AP275">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ275">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR275">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="AS275">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="AT275">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="AU275">
         <v>7</v>
@@ -58332,25 +58332,25 @@
         <v>5</v>
       </c>
       <c r="AN276">
-        <v>2.41</v>
+        <v>2.59</v>
       </c>
       <c r="AO276">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="AP276">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ276">
+        <v>1.17</v>
+      </c>
+      <c r="AR276">
+        <v>2.29</v>
+      </c>
+      <c r="AS276">
         <v>1.39</v>
       </c>
-      <c r="AR276">
-        <v>2.02</v>
-      </c>
-      <c r="AS276">
-        <v>1.46</v>
-      </c>
       <c r="AT276">
-        <v>3.48</v>
+        <v>3.68</v>
       </c>
       <c r="AU276">
         <v>14</v>
@@ -58538,22 +58538,22 @@
         <v>2.1</v>
       </c>
       <c r="AN277">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AO277">
         <v>1.29</v>
       </c>
       <c r="AP277">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ277">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR277">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="AS277">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="AT277">
         <v>3.25</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
+        <v>1.14</v>
+      </c>
+      <c r="AQ2">
         <v>1.11</v>
-      </c>
-      <c r="AQ2">
-        <v>1.06</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2100,10 +2100,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
       <c r="AQ3">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2306,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ4">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2512,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.61</v>
+        <v>2.43</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="AQ6">
-        <v>0.76</v>
+        <v>1.17</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="AQ7">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ8">
-        <v>0.28</v>
+        <v>0.83</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AQ9">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3542,10 +3542,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AQ10">
-        <v>0.76</v>
+        <v>1.17</v>
       </c>
       <c r="AR10">
         <v>1.83</v>
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="AQ11">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AU11">
         <v>7</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
       <c r="AQ12">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AU12">
         <v>2</v>
@@ -4157,22 +4157,22 @@
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AU13">
         <v>3</v>
@@ -4363,22 +4363,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.41</v>
+        <v>0.83</v>
       </c>
       <c r="AQ14">
-        <v>2.24</v>
+        <v>2.43</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AU14">
         <v>4</v>
@@ -4566,25 +4566,25 @@
         <v>2.3</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AU15">
         <v>6</v>
@@ -4775,22 +4775,22 @@
         <v>3</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="AQ16">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR16">
         <v>1.39</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AT16">
-        <v>1.39</v>
+        <v>3.26</v>
       </c>
       <c r="AU16">
         <v>6</v>
@@ -4984,19 +4984,19 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AS17">
         <v>0.8</v>
       </c>
       <c r="AT17">
-        <v>0.8</v>
+        <v>2.01</v>
       </c>
       <c r="AU17">
         <v>6</v>
@@ -5184,25 +5184,25 @@
         <v>1.85</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ18">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AR18">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AS18">
-        <v>0.87</v>
+        <v>1.34</v>
       </c>
       <c r="AT18">
-        <v>1.99</v>
+        <v>2.41</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5393,22 +5393,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AQ19">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AR19">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT19">
-        <v>2.28</v>
+        <v>3.64</v>
       </c>
       <c r="AU19">
         <v>14</v>
@@ -5596,25 +5596,25 @@
         <v>1.4</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP20">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
       <c r="AQ20">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="AR20">
-        <v>2.09</v>
+        <v>1.59</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AT20">
-        <v>2.09</v>
+        <v>3.1</v>
       </c>
       <c r="AU20">
         <v>3</v>
@@ -5802,25 +5802,25 @@
         <v>1.87</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO21">
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="AQ21">
-        <v>0.28</v>
+        <v>0.83</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AS21">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AT21">
-        <v>1.08</v>
+        <v>2.18</v>
       </c>
       <c r="AU21">
         <v>8</v>
@@ -6014,19 +6014,19 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ22">
-        <v>0.76</v>
+        <v>1.17</v>
       </c>
       <c r="AR22">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS22">
         <v>1.31</v>
       </c>
       <c r="AT22">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="AU22">
         <v>4</v>
@@ -6214,25 +6214,25 @@
         <v>1.75</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO23">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="AQ23">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AR23">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="AS23">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="AT23">
-        <v>3.49</v>
+        <v>3.29</v>
       </c>
       <c r="AU23">
         <v>3</v>
@@ -6420,25 +6420,25 @@
         <v>2.45</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP24">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR24">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="AS24">
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
       <c r="AT24">
-        <v>3.34</v>
+        <v>2.84</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -6632,19 +6632,19 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.61</v>
+        <v>2.43</v>
       </c>
       <c r="AQ25">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="AR25">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AS25">
-        <v>1.37</v>
+        <v>1.03</v>
       </c>
       <c r="AT25">
-        <v>3.09</v>
+        <v>2.66</v>
       </c>
       <c r="AU25">
         <v>18</v>
@@ -6832,25 +6832,25 @@
         <v>1.9</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AO26">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP26">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR26">
-        <v>1.14</v>
+        <v>1.41</v>
       </c>
       <c r="AS26">
-        <v>1.06</v>
+        <v>1.27</v>
       </c>
       <c r="AT26">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="AU26">
         <v>6</v>
@@ -7041,22 +7041,22 @@
         <v>0</v>
       </c>
       <c r="AO27">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP27">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
       <c r="AQ27">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR27">
-        <v>0.7</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS27">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="AT27">
-        <v>1.89</v>
+        <v>2.39</v>
       </c>
       <c r="AU27">
         <v>7</v>
@@ -7244,25 +7244,25 @@
         <v>1.15</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO28">
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="AQ28">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AS28">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="AT28">
-        <v>2</v>
+        <v>3.71</v>
       </c>
       <c r="AU28">
         <v>3</v>
@@ -7450,25 +7450,25 @@
         <v>1.16</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO29">
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="AQ29">
-        <v>2.24</v>
+        <v>2.43</v>
       </c>
       <c r="AR29">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AS29">
-        <v>1.53</v>
+        <v>2.39</v>
       </c>
       <c r="AT29">
-        <v>3.04</v>
+        <v>3.93</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -7656,25 +7656,25 @@
         <v>1.5</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO30">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP30">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ30">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AR30">
-        <v>1.89</v>
+        <v>1.62</v>
       </c>
       <c r="AS30">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="AT30">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="AU30">
         <v>6</v>
@@ -7862,25 +7862,25 @@
         <v>2.3</v>
       </c>
       <c r="AN31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO31">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP31">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR31">
-        <v>1.82</v>
+        <v>1.19</v>
       </c>
       <c r="AS31">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT31">
-        <v>2.9</v>
+        <v>2.19</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -8068,25 +8068,25 @@
         <v>1.9</v>
       </c>
       <c r="AN32">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AQ32">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="AR32">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="AS32">
-        <v>1.09</v>
+        <v>1.66</v>
       </c>
       <c r="AT32">
-        <v>2.59</v>
+        <v>2.98</v>
       </c>
       <c r="AU32">
         <v>3</v>
@@ -8277,22 +8277,22 @@
         <v>0</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP33">
-        <v>1.41</v>
+        <v>0.83</v>
       </c>
       <c r="AQ33">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AR33">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="AS33">
-        <v>1.21</v>
+        <v>1.55</v>
       </c>
       <c r="AT33">
-        <v>2.38</v>
+        <v>2.87</v>
       </c>
       <c r="AU33">
         <v>3</v>
@@ -8480,25 +8480,25 @@
         <v>1.72</v>
       </c>
       <c r="AN34">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO34">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AP34">
+        <v>1.26</v>
+      </c>
+      <c r="AQ34">
+        <v>1.39</v>
+      </c>
+      <c r="AR34">
         <v>1.29</v>
       </c>
-      <c r="AQ34">
-        <v>1.17</v>
-      </c>
-      <c r="AR34">
-        <v>1.19</v>
-      </c>
       <c r="AS34">
-        <v>1.59</v>
+        <v>1.31</v>
       </c>
       <c r="AT34">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8686,25 +8686,25 @@
         <v>1.95</v>
       </c>
       <c r="AN35">
+        <v>1.25</v>
+      </c>
+      <c r="AO35">
+        <v>1</v>
+      </c>
+      <c r="AP35">
+        <v>1.25</v>
+      </c>
+      <c r="AQ35">
+        <v>1.14</v>
+      </c>
+      <c r="AR35">
         <v>1.5</v>
       </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>1.88</v>
-      </c>
-      <c r="AQ35">
-        <v>1.18</v>
-      </c>
-      <c r="AR35">
-        <v>1.57</v>
-      </c>
       <c r="AS35">
-        <v>0.95</v>
+        <v>1.32</v>
       </c>
       <c r="AT35">
-        <v>2.52</v>
+        <v>2.82</v>
       </c>
       <c r="AU35">
         <v>6</v>
@@ -8892,25 +8892,25 @@
         <v>1.58</v>
       </c>
       <c r="AN36">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AO36">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
       <c r="AQ36">
-        <v>0.76</v>
+        <v>1.17</v>
       </c>
       <c r="AR36">
-        <v>1.94</v>
+        <v>1.62</v>
       </c>
       <c r="AS36">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="AT36">
-        <v>3.31</v>
+        <v>2.85</v>
       </c>
       <c r="AU36">
         <v>3</v>
@@ -9098,25 +9098,25 @@
         <v>1.15</v>
       </c>
       <c r="AN37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO37">
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ37">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="AR37">
-        <v>0.96</v>
+        <v>1.05</v>
       </c>
       <c r="AS37">
-        <v>1.97</v>
+        <v>2.24</v>
       </c>
       <c r="AT37">
-        <v>2.93</v>
+        <v>3.29</v>
       </c>
       <c r="AU37">
         <v>4</v>
@@ -9304,25 +9304,25 @@
         <v>2.25</v>
       </c>
       <c r="AN38">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO38">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AP38">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AR38">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="AS38">
-        <v>0.87</v>
+        <v>1.3</v>
       </c>
       <c r="AT38">
-        <v>2.59</v>
+        <v>3.06</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9510,25 +9510,25 @@
         <v>1.88</v>
       </c>
       <c r="AN39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP39">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="AQ39">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="AR39">
-        <v>1.69</v>
+        <v>1.14</v>
       </c>
       <c r="AS39">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="AT39">
-        <v>2.75</v>
+        <v>2.33</v>
       </c>
       <c r="AU39">
         <v>4</v>
@@ -9719,22 +9719,22 @@
         <v>0</v>
       </c>
       <c r="AO40">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.41</v>
+        <v>0.83</v>
       </c>
       <c r="AQ40">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AR40">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AS40">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="AT40">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="AU40">
         <v>7</v>
@@ -9925,22 +9925,22 @@
         <v>3</v>
       </c>
       <c r="AO41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP41">
-        <v>2.61</v>
+        <v>2.43</v>
       </c>
       <c r="AQ41">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR41">
-        <v>2.82</v>
+        <v>2.23</v>
       </c>
       <c r="AS41">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="AT41">
-        <v>4.36</v>
+        <v>3.78</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -10128,25 +10128,25 @@
         <v>1.72</v>
       </c>
       <c r="AN42">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AO42">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP42">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR42">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AS42">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AT42">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -10334,25 +10334,25 @@
         <v>1.33</v>
       </c>
       <c r="AN43">
+        <v>0.8</v>
+      </c>
+      <c r="AO43">
+        <v>1.6</v>
+      </c>
+      <c r="AP43">
+        <v>1.14</v>
+      </c>
+      <c r="AQ43">
+        <v>1.26</v>
+      </c>
+      <c r="AR43">
+        <v>1.27</v>
+      </c>
+      <c r="AS43">
         <v>1.33</v>
       </c>
-      <c r="AO43">
-        <v>2</v>
-      </c>
-      <c r="AP43">
-        <v>1.11</v>
-      </c>
-      <c r="AQ43">
-        <v>1.22</v>
-      </c>
-      <c r="AR43">
-        <v>1.45</v>
-      </c>
-      <c r="AS43">
-        <v>1.39</v>
-      </c>
       <c r="AT43">
-        <v>2.84</v>
+        <v>2.6</v>
       </c>
       <c r="AU43">
         <v>5</v>
@@ -10540,25 +10540,25 @@
         <v>2.3</v>
       </c>
       <c r="AN44">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="AO44">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AP44">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ44">
-        <v>0.28</v>
+        <v>0.83</v>
       </c>
       <c r="AR44">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AS44">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AT44">
-        <v>2.96</v>
+        <v>2.72</v>
       </c>
       <c r="AU44">
         <v>6</v>
@@ -10746,25 +10746,25 @@
         <v>2.1</v>
       </c>
       <c r="AN45">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AO45">
-        <v>0.33</v>
+        <v>1.4</v>
       </c>
       <c r="AP45">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR45">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="AS45">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="AT45">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="AU45">
         <v>7</v>
@@ -10952,25 +10952,25 @@
         <v>1.8</v>
       </c>
       <c r="AN46">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AO46">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AP46">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="AQ46">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR46">
-        <v>1.72</v>
+        <v>1.25</v>
       </c>
       <c r="AS46">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AT46">
-        <v>3.15</v>
+        <v>2.74</v>
       </c>
       <c r="AU46">
         <v>5</v>
@@ -11158,25 +11158,25 @@
         <v>1.06</v>
       </c>
       <c r="AN47">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO47">
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="AQ47">
-        <v>2.24</v>
+        <v>2.43</v>
       </c>
       <c r="AR47">
-        <v>0.8100000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="AS47">
-        <v>1.64</v>
+        <v>2.12</v>
       </c>
       <c r="AT47">
-        <v>2.45</v>
+        <v>3.33</v>
       </c>
       <c r="AU47">
         <v>2</v>
@@ -11364,25 +11364,25 @@
         <v>4.75</v>
       </c>
       <c r="AN48">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AO48">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AP48">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AQ48">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="AR48">
-        <v>2.51</v>
+        <v>1.9</v>
       </c>
       <c r="AS48">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="AT48">
-        <v>3.8</v>
+        <v>3.43</v>
       </c>
       <c r="AU48">
         <v>12</v>
@@ -11570,25 +11570,25 @@
         <v>1.6</v>
       </c>
       <c r="AN49">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO49">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ49">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AR49">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AS49">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="AT49">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11776,25 +11776,25 @@
         <v>2.55</v>
       </c>
       <c r="AN50">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO50">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ50">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="AR50">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AS50">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT50">
-        <v>2.44</v>
+        <v>2.55</v>
       </c>
       <c r="AU50">
         <v>7</v>
@@ -11982,25 +11982,25 @@
         <v>1.5</v>
       </c>
       <c r="AN51">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO51">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AP51">
-        <v>1.41</v>
+        <v>0.83</v>
       </c>
       <c r="AQ51">
-        <v>0.76</v>
+        <v>1.17</v>
       </c>
       <c r="AR51">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AS51">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AT51">
-        <v>2.61</v>
+        <v>2.5</v>
       </c>
       <c r="AU51">
         <v>6</v>
@@ -12188,25 +12188,25 @@
         <v>1.78</v>
       </c>
       <c r="AN52">
-        <v>2.33</v>
+        <v>1.17</v>
       </c>
       <c r="AO52">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP52">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ52">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="AR52">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="AS52">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="AT52">
-        <v>3.16</v>
+        <v>2.79</v>
       </c>
       <c r="AU52">
         <v>7</v>
@@ -12394,25 +12394,25 @@
         <v>2.7</v>
       </c>
       <c r="AN53">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO53">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AR53">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="AS53">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AT53">
-        <v>3.03</v>
+        <v>3.31</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12600,25 +12600,25 @@
         <v>1.18</v>
       </c>
       <c r="AN54">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO54">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="AP54">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="AQ54">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="AR54">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AS54">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT54">
-        <v>3.03</v>
+        <v>3.45</v>
       </c>
       <c r="AU54">
         <v>7</v>
@@ -12806,25 +12806,25 @@
         <v>6.75</v>
       </c>
       <c r="AN55">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AO55">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP55">
-        <v>2.61</v>
+        <v>2.43</v>
       </c>
       <c r="AQ55">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="AR55">
-        <v>2.44</v>
+        <v>1.97</v>
       </c>
       <c r="AS55">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="AT55">
-        <v>3.66</v>
+        <v>3.43</v>
       </c>
       <c r="AU55">
         <v>13</v>
@@ -13012,25 +13012,25 @@
         <v>1.5</v>
       </c>
       <c r="AN56">
-        <v>3</v>
+        <v>1.17</v>
       </c>
       <c r="AO56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="AQ56">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AR56">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="AS56">
-        <v>0.93</v>
+        <v>1.27</v>
       </c>
       <c r="AT56">
-        <v>2.37</v>
+        <v>2.44</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -13221,22 +13221,22 @@
         <v>1.33</v>
       </c>
       <c r="AO57">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR57">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AS57">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="AT57">
-        <v>2.26</v>
+        <v>2.58</v>
       </c>
       <c r="AU57">
         <v>6</v>
@@ -13424,25 +13424,25 @@
         <v>2.45</v>
       </c>
       <c r="AN58">
-        <v>3</v>
+        <v>2.14</v>
       </c>
       <c r="AO58">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AP58">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="AQ58">
-        <v>0.28</v>
+        <v>0.83</v>
       </c>
       <c r="AR58">
-        <v>1.61</v>
+        <v>1.26</v>
       </c>
       <c r="AS58">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AT58">
-        <v>2.97</v>
+        <v>2.57</v>
       </c>
       <c r="AU58">
         <v>7</v>
@@ -13630,25 +13630,25 @@
         <v>1.55</v>
       </c>
       <c r="AN59">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AO59">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AP59">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ59">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR59">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AS59">
-        <v>1.26</v>
+        <v>1.55</v>
       </c>
       <c r="AT59">
-        <v>3.07</v>
+        <v>3.11</v>
       </c>
       <c r="AU59">
         <v>5</v>
@@ -13836,25 +13836,25 @@
         <v>1.68</v>
       </c>
       <c r="AN60">
-        <v>1.33</v>
+        <v>0.57</v>
       </c>
       <c r="AO60">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AP60">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR60">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="AS60">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AT60">
-        <v>3.03</v>
+        <v>2.6</v>
       </c>
       <c r="AU60">
         <v>3</v>
@@ -14045,22 +14045,22 @@
         <v>1</v>
       </c>
       <c r="AO61">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
       <c r="AP61">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AQ61">
-        <v>2.24</v>
+        <v>2.43</v>
       </c>
       <c r="AR61">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AS61">
-        <v>1.51</v>
+        <v>2.09</v>
       </c>
       <c r="AT61">
-        <v>2.95</v>
+        <v>3.37</v>
       </c>
       <c r="AU61">
         <v>2</v>
@@ -14248,25 +14248,25 @@
         <v>1.14</v>
       </c>
       <c r="AN62">
-        <v>1.33</v>
+        <v>0.57</v>
       </c>
       <c r="AO62">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="AP62">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
       <c r="AQ62">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AR62">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="AS62">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AT62">
-        <v>3.15</v>
+        <v>2.93</v>
       </c>
       <c r="AU62">
         <v>3</v>
@@ -14454,25 +14454,25 @@
         <v>1.68</v>
       </c>
       <c r="AN63">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AO63">
-        <v>0.67</v>
+        <v>1.14</v>
       </c>
       <c r="AP63">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="AQ63">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR63">
-        <v>0.9</v>
+        <v>1.26</v>
       </c>
       <c r="AS63">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AT63">
-        <v>2.26</v>
+        <v>2.74</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14660,25 +14660,25 @@
         <v>2.95</v>
       </c>
       <c r="AN64">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AO64">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AP64">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AQ64">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AR64">
-        <v>2.5</v>
+        <v>2.03</v>
       </c>
       <c r="AS64">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT64">
-        <v>3.83</v>
+        <v>3.45</v>
       </c>
       <c r="AU64">
         <v>10</v>
@@ -14869,22 +14869,22 @@
         <v>1.75</v>
       </c>
       <c r="AO65">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ65">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="AR65">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="AS65">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="AT65">
-        <v>2.63</v>
+        <v>2.78</v>
       </c>
       <c r="AU65">
         <v>6</v>
@@ -15072,25 +15072,25 @@
         <v>1.95</v>
       </c>
       <c r="AN66">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AO66">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AP66">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR66">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="AS66">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="AT66">
-        <v>2.83</v>
+        <v>2.78</v>
       </c>
       <c r="AU66">
         <v>8</v>
@@ -15278,25 +15278,25 @@
         <v>2.45</v>
       </c>
       <c r="AN67">
-        <v>2.5</v>
+        <v>1.38</v>
       </c>
       <c r="AO67">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ67">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="AR67">
-        <v>1.77</v>
+        <v>1.52</v>
       </c>
       <c r="AS67">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="AT67">
-        <v>2.87</v>
+        <v>2.67</v>
       </c>
       <c r="AU67">
         <v>12</v>
@@ -15484,25 +15484,25 @@
         <v>1.44</v>
       </c>
       <c r="AN68">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AO68">
+        <v>1.57</v>
+      </c>
+      <c r="AP68">
+        <v>0.83</v>
+      </c>
+      <c r="AQ68">
+        <v>1.39</v>
+      </c>
+      <c r="AR68">
         <v>1.33</v>
       </c>
-      <c r="AP68">
-        <v>1.41</v>
-      </c>
-      <c r="AQ68">
-        <v>1.17</v>
-      </c>
-      <c r="AR68">
-        <v>1.28</v>
-      </c>
       <c r="AS68">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="AT68">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="AU68">
         <v>2</v>
@@ -15690,25 +15690,25 @@
         <v>1.5</v>
       </c>
       <c r="AN69">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO69">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AP69">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ69">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AR69">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="AS69">
-        <v>0.99</v>
+        <v>1.32</v>
       </c>
       <c r="AT69">
-        <v>2.67</v>
+        <v>2.84</v>
       </c>
       <c r="AU69">
         <v>11</v>
@@ -15896,25 +15896,25 @@
         <v>4.25</v>
       </c>
       <c r="AN70">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AO70">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AP70">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ70">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AR70">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="AS70">
-        <v>1.07</v>
+        <v>1.21</v>
       </c>
       <c r="AT70">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="AU70">
         <v>9</v>
@@ -16102,25 +16102,25 @@
         <v>1.57</v>
       </c>
       <c r="AN71">
-        <v>2</v>
+        <v>0.88</v>
       </c>
       <c r="AO71">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AP71">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="AQ71">
-        <v>0.76</v>
+        <v>1.17</v>
       </c>
       <c r="AR71">
-        <v>1.43</v>
+        <v>1.2</v>
       </c>
       <c r="AS71">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AT71">
-        <v>2.83</v>
+        <v>2.49</v>
       </c>
       <c r="AU71">
         <v>7</v>
@@ -16308,22 +16308,22 @@
         <v>1.91</v>
       </c>
       <c r="AN72">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AO72">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AP72">
-        <v>2.61</v>
+        <v>2.43</v>
       </c>
       <c r="AQ72">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="AR72">
-        <v>2.54</v>
+        <v>2.19</v>
       </c>
       <c r="AS72">
-        <v>1.67</v>
+        <v>2.02</v>
       </c>
       <c r="AT72">
         <v>4.21</v>
@@ -16514,25 +16514,25 @@
         <v>1.6</v>
       </c>
       <c r="AN73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO73">
-        <v>0.25</v>
+        <v>1.56</v>
       </c>
       <c r="AP73">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="AQ73">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR73">
-        <v>1.65</v>
+        <v>1.29</v>
       </c>
       <c r="AS73">
-        <v>1.27</v>
+        <v>1.67</v>
       </c>
       <c r="AT73">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="AU73">
         <v>6</v>
@@ -16720,25 +16720,25 @@
         <v>1.66</v>
       </c>
       <c r="AN74">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="AO74">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP74">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
       <c r="AQ74">
-        <v>0.28</v>
+        <v>0.83</v>
       </c>
       <c r="AR74">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="AS74">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="AT74">
-        <v>2.58</v>
+        <v>2.39</v>
       </c>
       <c r="AU74">
         <v>5</v>
@@ -16926,25 +16926,25 @@
         <v>1.42</v>
       </c>
       <c r="AN75">
-        <v>0.67</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO75">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AP75">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="AQ75">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AR75">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="AS75">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT75">
-        <v>2.42</v>
+        <v>2.73</v>
       </c>
       <c r="AU75">
         <v>9</v>
@@ -17132,25 +17132,25 @@
         <v>1.42</v>
       </c>
       <c r="AN76">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="AO76">
-        <v>0.75</v>
+        <v>1.11</v>
       </c>
       <c r="AP76">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
       <c r="AQ76">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR76">
-        <v>1.65</v>
+        <v>1.37</v>
       </c>
       <c r="AS76">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="AT76">
-        <v>3.23</v>
+        <v>2.98</v>
       </c>
       <c r="AU76">
         <v>8</v>
@@ -17338,25 +17338,25 @@
         <v>1.9</v>
       </c>
       <c r="AN77">
-        <v>3</v>
+        <v>2.56</v>
       </c>
       <c r="AO77">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="AP77">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AQ77">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AR77">
-        <v>2.36</v>
+        <v>1.91</v>
       </c>
       <c r="AS77">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="AT77">
-        <v>4.42</v>
+        <v>3.83</v>
       </c>
       <c r="AU77">
         <v>4</v>
@@ -17547,22 +17547,22 @@
         <v>1.75</v>
       </c>
       <c r="AO78">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AP78">
+        <v>1.39</v>
+      </c>
+      <c r="AQ78">
+        <v>1.11</v>
+      </c>
+      <c r="AR78">
+        <v>1.45</v>
+      </c>
+      <c r="AS78">
         <v>1.61</v>
       </c>
-      <c r="AQ78">
-        <v>1.06</v>
-      </c>
-      <c r="AR78">
-        <v>1.32</v>
-      </c>
-      <c r="AS78">
-        <v>1.36</v>
-      </c>
       <c r="AT78">
-        <v>2.68</v>
+        <v>3.06</v>
       </c>
       <c r="AU78">
         <v>6</v>
@@ -17750,25 +17750,25 @@
         <v>1.02</v>
       </c>
       <c r="AN79">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AO79">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AP79">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ79">
-        <v>2.24</v>
+        <v>2.43</v>
       </c>
       <c r="AR79">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AS79">
-        <v>1.85</v>
+        <v>2.09</v>
       </c>
       <c r="AT79">
-        <v>2.99</v>
+        <v>3.26</v>
       </c>
       <c r="AU79">
         <v>3</v>
@@ -17956,25 +17956,25 @@
         <v>1.57</v>
       </c>
       <c r="AN80">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="AO80">
-        <v>0.2</v>
+        <v>1.11</v>
       </c>
       <c r="AP80">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR80">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AS80">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="AT80">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="AU80">
         <v>3</v>
@@ -18162,25 +18162,25 @@
         <v>2.5</v>
       </c>
       <c r="AN81">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AO81">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AP81">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR81">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="AS81">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT81">
-        <v>2.76</v>
+        <v>2.49</v>
       </c>
       <c r="AU81">
         <v>6</v>
@@ -18368,25 +18368,25 @@
         <v>1.68</v>
       </c>
       <c r="AN82">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AO82">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AP82">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="AQ82">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="AR82">
-        <v>1.67</v>
+        <v>1.34</v>
       </c>
       <c r="AS82">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT82">
-        <v>3.24</v>
+        <v>2.81</v>
       </c>
       <c r="AU82">
         <v>8</v>
@@ -18574,25 +18574,25 @@
         <v>2.5</v>
       </c>
       <c r="AN83">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AO83">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ83">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="AR83">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AS83">
-        <v>1.02</v>
+        <v>1.15</v>
       </c>
       <c r="AT83">
-        <v>2.83</v>
+        <v>2.71</v>
       </c>
       <c r="AU83">
         <v>7</v>
@@ -18780,25 +18780,25 @@
         <v>1.87</v>
       </c>
       <c r="AN84">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="AO84">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AP84">
-        <v>1.41</v>
+        <v>0.83</v>
       </c>
       <c r="AQ84">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="AR84">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="AS84">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="AT84">
-        <v>2.37</v>
+        <v>2.74</v>
       </c>
       <c r="AU84">
         <v>4</v>
@@ -18986,25 +18986,25 @@
         <v>2.6</v>
       </c>
       <c r="AN85">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="AO85">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AP85">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ85">
+        <v>1.14</v>
+      </c>
+      <c r="AR85">
+        <v>1.67</v>
+      </c>
+      <c r="AS85">
         <v>1.18</v>
       </c>
-      <c r="AR85">
-        <v>1.98</v>
-      </c>
-      <c r="AS85">
-        <v>1.03</v>
-      </c>
       <c r="AT85">
-        <v>3.01</v>
+        <v>2.85</v>
       </c>
       <c r="AU85">
         <v>7</v>
@@ -19192,25 +19192,25 @@
         <v>1.11</v>
       </c>
       <c r="AN86">
-        <v>2.25</v>
+        <v>1.1</v>
       </c>
       <c r="AO86">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AP86">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="AQ86">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="AR86">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="AS86">
-        <v>1.55</v>
+        <v>1.84</v>
       </c>
       <c r="AT86">
-        <v>3.01</v>
+        <v>3.09</v>
       </c>
       <c r="AU86">
         <v>6</v>
@@ -19398,25 +19398,25 @@
         <v>3.1</v>
       </c>
       <c r="AN87">
-        <v>2.6</v>
+        <v>2.11</v>
       </c>
       <c r="AO87">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP87">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
-        <v>0.76</v>
+        <v>1.17</v>
       </c>
       <c r="AR87">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AS87">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT87">
-        <v>3.19</v>
+        <v>3.14</v>
       </c>
       <c r="AU87">
         <v>8</v>
@@ -19604,25 +19604,25 @@
         <v>1.12</v>
       </c>
       <c r="AN88">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AO88">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AP88">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="AQ88">
-        <v>2.24</v>
+        <v>2.43</v>
       </c>
       <c r="AR88">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AS88">
-        <v>1.84</v>
+        <v>2.06</v>
       </c>
       <c r="AT88">
-        <v>3.47</v>
+        <v>3.68</v>
       </c>
       <c r="AU88">
         <v>8</v>
@@ -19810,25 +19810,25 @@
         <v>1.3</v>
       </c>
       <c r="AN89">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="AO89">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AP89">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
       <c r="AQ89">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="AR89">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="AS89">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT89">
-        <v>2.78</v>
+        <v>2.58</v>
       </c>
       <c r="AU89">
         <v>8</v>
@@ -20016,25 +20016,25 @@
         <v>1.42</v>
       </c>
       <c r="AN90">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="AO90">
-        <v>1.2</v>
+        <v>1.91</v>
       </c>
       <c r="AP90">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AQ90">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AR90">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="AS90">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="AT90">
-        <v>2.28</v>
+        <v>2.54</v>
       </c>
       <c r="AU90">
         <v>4</v>
@@ -20222,25 +20222,25 @@
         <v>1.63</v>
       </c>
       <c r="AN91">
+        <v>0.64</v>
+      </c>
+      <c r="AO91">
+        <v>1</v>
+      </c>
+      <c r="AP91">
+        <v>0.91</v>
+      </c>
+      <c r="AQ91">
         <v>1.4</v>
       </c>
-      <c r="AO91">
-        <v>0.33</v>
-      </c>
-      <c r="AP91">
-        <v>1.12</v>
-      </c>
-      <c r="AQ91">
-        <v>1</v>
-      </c>
       <c r="AR91">
-        <v>1.63</v>
+        <v>1.37</v>
       </c>
       <c r="AS91">
-        <v>1.11</v>
+        <v>1.27</v>
       </c>
       <c r="AT91">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="AU91">
         <v>6</v>
@@ -20428,25 +20428,25 @@
         <v>1.2</v>
       </c>
       <c r="AN92">
-        <v>1.17</v>
+        <v>0.91</v>
       </c>
       <c r="AO92">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="AP92">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="AQ92">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AR92">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AS92">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="AT92">
-        <v>3.41</v>
+        <v>3.48</v>
       </c>
       <c r="AU92">
         <v>7</v>
@@ -20634,22 +20634,22 @@
         <v>3.6</v>
       </c>
       <c r="AN93">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AO93">
+        <v>1.82</v>
+      </c>
+      <c r="AP93">
+        <v>2.43</v>
+      </c>
+      <c r="AQ93">
+        <v>1.26</v>
+      </c>
+      <c r="AR93">
+        <v>2.04</v>
+      </c>
+      <c r="AS93">
         <v>1.4</v>
-      </c>
-      <c r="AP93">
-        <v>2.61</v>
-      </c>
-      <c r="AQ93">
-        <v>1.22</v>
-      </c>
-      <c r="AR93">
-        <v>2.29</v>
-      </c>
-      <c r="AS93">
-        <v>1.15</v>
       </c>
       <c r="AT93">
         <v>3.44</v>
@@ -20840,25 +20840,25 @@
         <v>4.5</v>
       </c>
       <c r="AN94">
-        <v>3</v>
+        <v>2.64</v>
       </c>
       <c r="AO94">
-        <v>0.2</v>
+        <v>0.91</v>
       </c>
       <c r="AP94">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AQ94">
-        <v>0.28</v>
+        <v>0.83</v>
       </c>
       <c r="AR94">
-        <v>2.14</v>
+        <v>1.79</v>
       </c>
       <c r="AS94">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="AT94">
-        <v>3.62</v>
+        <v>3.14</v>
       </c>
       <c r="AU94">
         <v>10</v>
@@ -21046,25 +21046,25 @@
         <v>1.3</v>
       </c>
       <c r="AN95">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AO95">
-        <v>0.8</v>
+        <v>1.64</v>
       </c>
       <c r="AP95">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ95">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR95">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="AS95">
-        <v>1.35</v>
+        <v>1.73</v>
       </c>
       <c r="AT95">
-        <v>2.42</v>
+        <v>2.85</v>
       </c>
       <c r="AU95">
         <v>2</v>
@@ -21252,25 +21252,25 @@
         <v>1.46</v>
       </c>
       <c r="AN96">
-        <v>1.25</v>
+        <v>0.73</v>
       </c>
       <c r="AO96">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AP96">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="AQ96">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AR96">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AS96">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AT96">
-        <v>2.59</v>
+        <v>2.9</v>
       </c>
       <c r="AU96">
         <v>6</v>
@@ -21458,25 +21458,25 @@
         <v>2.05</v>
       </c>
       <c r="AN97">
-        <v>2.17</v>
+        <v>1.67</v>
       </c>
       <c r="AO97">
-        <v>0.6</v>
+        <v>1.08</v>
       </c>
       <c r="AP97">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ97">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR97">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AS97">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="AT97">
-        <v>3.21</v>
+        <v>2.97</v>
       </c>
       <c r="AU97">
         <v>5</v>
@@ -21664,25 +21664,25 @@
         <v>1.87</v>
       </c>
       <c r="AN98">
-        <v>1.8</v>
+        <v>0.92</v>
       </c>
       <c r="AO98">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AP98">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR98">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="AS98">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="AT98">
-        <v>2.63</v>
+        <v>2.37</v>
       </c>
       <c r="AU98">
         <v>6</v>
@@ -21870,25 +21870,25 @@
         <v>2.55</v>
       </c>
       <c r="AN99">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="AO99">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="AQ99">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="AR99">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="AS99">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="AT99">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="AU99">
         <v>6</v>
@@ -22076,25 +22076,25 @@
         <v>1.87</v>
       </c>
       <c r="AN100">
-        <v>1.5</v>
+        <v>0.83</v>
       </c>
       <c r="AO100">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AP100">
-        <v>1.41</v>
+        <v>0.83</v>
       </c>
       <c r="AQ100">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AR100">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AS100">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="AT100">
-        <v>2.29</v>
+        <v>2.49</v>
       </c>
       <c r="AU100">
         <v>2</v>
@@ -22282,25 +22282,25 @@
         <v>2.25</v>
       </c>
       <c r="AN101">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AO101">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="AP101">
+        <v>1.4</v>
+      </c>
+      <c r="AQ101">
+        <v>1.17</v>
+      </c>
+      <c r="AR101">
+        <v>1.71</v>
+      </c>
+      <c r="AS101">
         <v>1.35</v>
       </c>
-      <c r="AQ101">
-        <v>0.76</v>
-      </c>
-      <c r="AR101">
-        <v>2.05</v>
-      </c>
-      <c r="AS101">
-        <v>1.34</v>
-      </c>
       <c r="AT101">
-        <v>3.39</v>
+        <v>3.06</v>
       </c>
       <c r="AU101">
         <v>6</v>
@@ -22488,25 +22488,25 @@
         <v>3.4</v>
       </c>
       <c r="AN102">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="AO102">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AP102">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ102">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="AR102">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="AS102">
-        <v>1.15</v>
+        <v>1.38</v>
       </c>
       <c r="AT102">
-        <v>3.06</v>
+        <v>3.23</v>
       </c>
       <c r="AU102">
         <v>2</v>
@@ -22694,25 +22694,25 @@
         <v>1.17</v>
       </c>
       <c r="AN103">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AO103">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="AP103">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="AQ103">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="AR103">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="AS103">
-        <v>1.49</v>
+        <v>1.82</v>
       </c>
       <c r="AT103">
-        <v>2.88</v>
+        <v>3.34</v>
       </c>
       <c r="AU103">
         <v>8</v>
@@ -22900,25 +22900,25 @@
         <v>1.12</v>
       </c>
       <c r="AN104">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AO104">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AP104">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ104">
-        <v>2.24</v>
+        <v>2.43</v>
       </c>
       <c r="AR104">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AS104">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="AT104">
-        <v>3.64</v>
+        <v>3.51</v>
       </c>
       <c r="AU104">
         <v>3</v>
@@ -23106,25 +23106,25 @@
         <v>1.9</v>
       </c>
       <c r="AN105">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AO105">
-        <v>0.29</v>
+        <v>0.54</v>
       </c>
       <c r="AP105">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AQ105">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="AR105">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="AS105">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AT105">
-        <v>2.2</v>
+        <v>2.31</v>
       </c>
       <c r="AU105">
         <v>3</v>
@@ -23312,25 +23312,25 @@
         <v>1.57</v>
       </c>
       <c r="AN106">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AO106">
+        <v>1.77</v>
+      </c>
+      <c r="AP106">
         <v>1.17</v>
       </c>
-      <c r="AP106">
-        <v>1.56</v>
-      </c>
       <c r="AQ106">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AR106">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AS106">
-        <v>1.04</v>
+        <v>1.43</v>
       </c>
       <c r="AT106">
-        <v>2.41</v>
+        <v>2.79</v>
       </c>
       <c r="AU106">
         <v>2</v>
@@ -23521,19 +23521,19 @@
         <v>1</v>
       </c>
       <c r="AO107">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="AP107">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ107">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="AR107">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="AS107">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="AT107">
         <v>2.65</v>
@@ -23724,25 +23724,25 @@
         <v>2.38</v>
       </c>
       <c r="AN108">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AO108">
-        <v>0.29</v>
+        <v>1.08</v>
       </c>
       <c r="AP108">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR108">
-        <v>1.63</v>
+        <v>1.37</v>
       </c>
       <c r="AS108">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="AT108">
-        <v>2.78</v>
+        <v>2.67</v>
       </c>
       <c r="AU108">
         <v>4</v>
@@ -23930,25 +23930,25 @@
         <v>3.5</v>
       </c>
       <c r="AN109">
-        <v>3</v>
+        <v>2.46</v>
       </c>
       <c r="AO109">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AP109">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AQ109">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AR109">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AS109">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="AT109">
-        <v>3.32</v>
+        <v>3.33</v>
       </c>
       <c r="AU109">
         <v>7</v>
@@ -24136,25 +24136,25 @@
         <v>1.3</v>
       </c>
       <c r="AN110">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO110">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="AP110">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
       <c r="AQ110">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR110">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="AS110">
-        <v>1.37</v>
+        <v>1.75</v>
       </c>
       <c r="AT110">
-        <v>2.99</v>
+        <v>3.17</v>
       </c>
       <c r="AU110">
         <v>10</v>
@@ -24342,25 +24342,25 @@
         <v>2.3</v>
       </c>
       <c r="AN111">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="AO111">
-        <v>0.17</v>
+        <v>0.77</v>
       </c>
       <c r="AP111">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="AQ111">
-        <v>0.28</v>
+        <v>0.83</v>
       </c>
       <c r="AR111">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="AS111">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AT111">
-        <v>3.04</v>
+        <v>2.89</v>
       </c>
       <c r="AU111">
         <v>6</v>
@@ -24548,25 +24548,25 @@
         <v>2.45</v>
       </c>
       <c r="AN112">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="AO112">
-        <v>1.2</v>
+        <v>1.83</v>
       </c>
       <c r="AP112">
-        <v>2.61</v>
+        <v>2.43</v>
       </c>
       <c r="AQ112">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AR112">
-        <v>2.19</v>
+        <v>1.99</v>
       </c>
       <c r="AS112">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AT112">
-        <v>3.96</v>
+        <v>3.82</v>
       </c>
       <c r="AU112">
         <v>3</v>
@@ -24754,25 +24754,25 @@
         <v>1.38</v>
       </c>
       <c r="AN113">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AO113">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AP113">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
       <c r="AQ113">
-        <v>0.76</v>
+        <v>1.17</v>
       </c>
       <c r="AR113">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="AS113">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AT113">
-        <v>2.71</v>
+        <v>2.48</v>
       </c>
       <c r="AU113">
         <v>4</v>
@@ -24960,25 +24960,25 @@
         <v>1.47</v>
       </c>
       <c r="AN114">
-        <v>2</v>
+        <v>1.07</v>
       </c>
       <c r="AO114">
-        <v>0.67</v>
+        <v>1.21</v>
       </c>
       <c r="AP114">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="AQ114">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR114">
-        <v>1.49</v>
+        <v>1.26</v>
       </c>
       <c r="AS114">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="AT114">
-        <v>3.04</v>
+        <v>2.87</v>
       </c>
       <c r="AU114">
         <v>7</v>
@@ -25166,25 +25166,25 @@
         <v>1.75</v>
       </c>
       <c r="AN115">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="AO115">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AP115">
-        <v>1.41</v>
+        <v>0.83</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR115">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AS115">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT115">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AU115">
         <v>6</v>
@@ -25372,25 +25372,25 @@
         <v>2.65</v>
       </c>
       <c r="AN116">
-        <v>2.17</v>
+        <v>1.77</v>
       </c>
       <c r="AO116">
-        <v>1.17</v>
+        <v>0.93</v>
       </c>
       <c r="AP116">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="AQ116">
+        <v>1.14</v>
+      </c>
+      <c r="AR116">
+        <v>1.46</v>
+      </c>
+      <c r="AS116">
         <v>1.18</v>
       </c>
-      <c r="AR116">
-        <v>1.43</v>
-      </c>
-      <c r="AS116">
-        <v>1.08</v>
-      </c>
       <c r="AT116">
-        <v>2.51</v>
+        <v>2.64</v>
       </c>
       <c r="AU116">
         <v>5</v>
@@ -25578,25 +25578,25 @@
         <v>2.1</v>
       </c>
       <c r="AN117">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AO117">
-        <v>0.43</v>
+        <v>0.93</v>
       </c>
       <c r="AP117">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ117">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="AR117">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AS117">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AT117">
-        <v>2.91</v>
+        <v>2.89</v>
       </c>
       <c r="AU117">
         <v>6</v>
@@ -25784,25 +25784,25 @@
         <v>2.4</v>
       </c>
       <c r="AN118">
-        <v>2.29</v>
+        <v>1.92</v>
       </c>
       <c r="AO118">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="AP118">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ118">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AR118">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="AS118">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="AT118">
-        <v>2.94</v>
+        <v>3.14</v>
       </c>
       <c r="AU118">
         <v>7</v>
@@ -25990,25 +25990,25 @@
         <v>1.2</v>
       </c>
       <c r="AN119">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AO119">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AP119">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ119">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="AR119">
-        <v>2.07</v>
+        <v>1.81</v>
       </c>
       <c r="AS119">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="AT119">
-        <v>3.73</v>
+        <v>3.69</v>
       </c>
       <c r="AU119">
         <v>7</v>
@@ -26196,25 +26196,25 @@
         <v>1.2</v>
       </c>
       <c r="AN120">
-        <v>2.29</v>
+        <v>1.71</v>
       </c>
       <c r="AO120">
+        <v>2.36</v>
+      </c>
+      <c r="AP120">
+        <v>1.16</v>
+      </c>
+      <c r="AQ120">
         <v>2.43</v>
       </c>
-      <c r="AP120">
-        <v>1.38</v>
-      </c>
-      <c r="AQ120">
-        <v>2.24</v>
-      </c>
       <c r="AR120">
-        <v>1.76</v>
+        <v>1.42</v>
       </c>
       <c r="AS120">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT120">
-        <v>3.58</v>
+        <v>3.34</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -26402,25 +26402,25 @@
         <v>1.33</v>
       </c>
       <c r="AN121">
-        <v>1.43</v>
+        <v>0.87</v>
       </c>
       <c r="AO121">
-        <v>1.14</v>
+        <v>1.6</v>
       </c>
       <c r="AP121">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
       <c r="AQ121">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AR121">
-        <v>1.69</v>
+        <v>1.45</v>
       </c>
       <c r="AS121">
-        <v>1.09</v>
+        <v>1.41</v>
       </c>
       <c r="AT121">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="AU121">
         <v>6</v>
@@ -26608,25 +26608,25 @@
         <v>1.2</v>
       </c>
       <c r="AN122">
-        <v>1.86</v>
+        <v>1.07</v>
       </c>
       <c r="AO122">
-        <v>1.5</v>
+        <v>1.79</v>
       </c>
       <c r="AP122">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="AQ122">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AR122">
-        <v>1.51</v>
+        <v>1.29</v>
       </c>
       <c r="AS122">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AT122">
-        <v>3.18</v>
+        <v>3.07</v>
       </c>
       <c r="AU122">
         <v>5</v>
@@ -26814,25 +26814,25 @@
         <v>1.47</v>
       </c>
       <c r="AN123">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AO123">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AP123">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ123">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AR123">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="AS123">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
       <c r="AT123">
-        <v>2.22</v>
+        <v>2.59</v>
       </c>
       <c r="AU123">
         <v>8</v>
@@ -27020,25 +27020,25 @@
         <v>1.63</v>
       </c>
       <c r="AN124">
-        <v>1.63</v>
+        <v>1.2</v>
       </c>
       <c r="AO124">
-        <v>1.43</v>
+        <v>1.86</v>
       </c>
       <c r="AP124">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="AQ124">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="AR124">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AS124">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AT124">
-        <v>3.14</v>
+        <v>3.04</v>
       </c>
       <c r="AU124">
         <v>8</v>
@@ -27226,25 +27226,25 @@
         <v>5</v>
       </c>
       <c r="AN125">
-        <v>2.29</v>
+        <v>2.4</v>
       </c>
       <c r="AO125">
-        <v>0.14</v>
+        <v>0.67</v>
       </c>
       <c r="AP125">
-        <v>2.61</v>
+        <v>2.43</v>
       </c>
       <c r="AQ125">
-        <v>0.28</v>
+        <v>0.83</v>
       </c>
       <c r="AR125">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="AS125">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AT125">
-        <v>3.37</v>
+        <v>3.25</v>
       </c>
       <c r="AU125">
         <v>10</v>
@@ -27432,25 +27432,25 @@
         <v>1.95</v>
       </c>
       <c r="AN126">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AO126">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AP126">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="AQ126">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AR126">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AS126">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AT126">
-        <v>2.44</v>
+        <v>2.57</v>
       </c>
       <c r="AU126">
         <v>12</v>
@@ -27638,25 +27638,25 @@
         <v>1.63</v>
       </c>
       <c r="AN127">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AO127">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AP127">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ127">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR127">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AS127">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="AT127">
-        <v>3.14</v>
+        <v>3.21</v>
       </c>
       <c r="AU127">
         <v>7</v>
@@ -27844,25 +27844,25 @@
         <v>4.75</v>
       </c>
       <c r="AN128">
-        <v>3</v>
+        <v>2.53</v>
       </c>
       <c r="AO128">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="AP128">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AQ128">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="AR128">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AS128">
-        <v>0.98</v>
+        <v>1.17</v>
       </c>
       <c r="AT128">
-        <v>3.08</v>
+        <v>2.97</v>
       </c>
       <c r="AU128">
         <v>8</v>
@@ -28050,25 +28050,25 @@
         <v>1.63</v>
       </c>
       <c r="AN129">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AO129">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="AP129">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="AQ129">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AR129">
-        <v>1.69</v>
+        <v>1.44</v>
       </c>
       <c r="AS129">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="AT129">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="AU129">
         <v>3</v>
@@ -28256,25 +28256,25 @@
         <v>1.13</v>
       </c>
       <c r="AN130">
-        <v>0.75</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO130">
-        <v>2.13</v>
+        <v>2.56</v>
       </c>
       <c r="AP130">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AQ130">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="AR130">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AS130">
-        <v>1.54</v>
+        <v>1.82</v>
       </c>
       <c r="AT130">
-        <v>2.79</v>
+        <v>3.03</v>
       </c>
       <c r="AU130">
         <v>5</v>
@@ -28462,25 +28462,25 @@
         <v>1.35</v>
       </c>
       <c r="AN131">
-        <v>2.29</v>
+        <v>1.73</v>
       </c>
       <c r="AO131">
-        <v>1.43</v>
+        <v>1.73</v>
       </c>
       <c r="AP131">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="AQ131">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AR131">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="AS131">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="AT131">
-        <v>3.14</v>
+        <v>3.27</v>
       </c>
       <c r="AU131">
         <v>5</v>
@@ -28668,25 +28668,25 @@
         <v>2</v>
       </c>
       <c r="AN132">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AO132">
         <v>1.25</v>
       </c>
       <c r="AP132">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR132">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AS132">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT132">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="AU132">
         <v>5</v>
@@ -28874,25 +28874,25 @@
         <v>4.6</v>
       </c>
       <c r="AN133">
-        <v>3</v>
+        <v>2.59</v>
       </c>
       <c r="AO133">
-        <v>0.78</v>
+        <v>1.12</v>
       </c>
       <c r="AP133">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AQ133">
-        <v>0.76</v>
+        <v>1.17</v>
       </c>
       <c r="AR133">
-        <v>2.09</v>
+        <v>1.85</v>
       </c>
       <c r="AS133">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AT133">
-        <v>3.51</v>
+        <v>3.3</v>
       </c>
       <c r="AU133">
         <v>6</v>
@@ -29080,25 +29080,25 @@
         <v>2.6</v>
       </c>
       <c r="AN134">
-        <v>1.78</v>
+        <v>1.31</v>
       </c>
       <c r="AO134">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP134">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="AQ134">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="AR134">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AS134">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="AT134">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="AU134">
         <v>9</v>
@@ -29286,25 +29286,25 @@
         <v>2.18</v>
       </c>
       <c r="AN135">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AO135">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AP135">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ135">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AR135">
-        <v>1.63</v>
+        <v>1.42</v>
       </c>
       <c r="AS135">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AT135">
-        <v>2.86</v>
+        <v>2.89</v>
       </c>
       <c r="AU135">
         <v>8</v>
@@ -29492,25 +29492,25 @@
         <v>1.38</v>
       </c>
       <c r="AN136">
-        <v>1.75</v>
+        <v>1.06</v>
       </c>
       <c r="AO136">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP136">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="AQ136">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR136">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="AS136">
-        <v>1.49</v>
+        <v>1.78</v>
       </c>
       <c r="AT136">
-        <v>2.95</v>
+        <v>3.06</v>
       </c>
       <c r="AU136">
         <v>4</v>
@@ -29698,25 +29698,25 @@
         <v>4.3</v>
       </c>
       <c r="AN137">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="AO137">
-        <v>0.13</v>
+        <v>0.63</v>
       </c>
       <c r="AP137">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ137">
-        <v>0.28</v>
+        <v>0.83</v>
       </c>
       <c r="AR137">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="AS137">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AT137">
-        <v>3.16</v>
+        <v>3.11</v>
       </c>
       <c r="AU137">
         <v>14</v>
@@ -29904,25 +29904,25 @@
         <v>3.4</v>
       </c>
       <c r="AN138">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AO138">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="AP138">
-        <v>2.61</v>
+        <v>2.43</v>
       </c>
       <c r="AQ138">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="AR138">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="AS138">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT138">
-        <v>3.65</v>
+        <v>3.47</v>
       </c>
       <c r="AU138">
         <v>12</v>
@@ -30110,25 +30110,25 @@
         <v>2.6</v>
       </c>
       <c r="AN139">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="AO139">
-        <v>0.38</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP139">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="AQ139">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="AR139">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="AS139">
-        <v>1.23</v>
+        <v>1.49</v>
       </c>
       <c r="AT139">
-        <v>2.69</v>
+        <v>2.97</v>
       </c>
       <c r="AU139">
         <v>10</v>
@@ -30316,25 +30316,25 @@
         <v>1.65</v>
       </c>
       <c r="AN140">
-        <v>1.13</v>
+        <v>0.59</v>
       </c>
       <c r="AO140">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AP140">
-        <v>1.41</v>
+        <v>0.83</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR140">
         <v>1.33</v>
       </c>
       <c r="AS140">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="AT140">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="AU140">
         <v>2</v>
@@ -30522,25 +30522,25 @@
         <v>1.62</v>
       </c>
       <c r="AN141">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="AO141">
-        <v>0.71</v>
+        <v>1.41</v>
       </c>
       <c r="AP141">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ141">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR141">
-        <v>1.72</v>
+        <v>1.47</v>
       </c>
       <c r="AS141">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="AT141">
-        <v>3.2</v>
+        <v>3.06</v>
       </c>
       <c r="AU141">
         <v>2</v>
@@ -30728,25 +30728,25 @@
         <v>1.9</v>
       </c>
       <c r="AN142">
-        <v>1.5</v>
+        <v>1.06</v>
       </c>
       <c r="AO142">
-        <v>0.44</v>
+        <v>0.82</v>
       </c>
       <c r="AP142">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="AQ142">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="AR142">
+        <v>1.43</v>
+      </c>
+      <c r="AS142">
         <v>1.47</v>
       </c>
-      <c r="AS142">
-        <v>1.23</v>
-      </c>
       <c r="AT142">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AU142">
         <v>6</v>
@@ -30934,25 +30934,25 @@
         <v>1.42</v>
       </c>
       <c r="AN143">
-        <v>0.67</v>
+        <v>0.76</v>
       </c>
       <c r="AO143">
-        <v>0.75</v>
+        <v>1.39</v>
       </c>
       <c r="AP143">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AQ143">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR143">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AS143">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="AT143">
-        <v>2.66</v>
+        <v>2.77</v>
       </c>
       <c r="AU143">
         <v>3</v>
@@ -31140,25 +31140,25 @@
         <v>1.52</v>
       </c>
       <c r="AN144">
-        <v>0.86</v>
+        <v>0.65</v>
       </c>
       <c r="AO144">
-        <v>0.67</v>
+        <v>1.11</v>
       </c>
       <c r="AP144">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
       <c r="AQ144">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR144">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="AS144">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AT144">
-        <v>2.62</v>
+        <v>2.51</v>
       </c>
       <c r="AU144">
         <v>5</v>
@@ -31346,25 +31346,25 @@
         <v>1.59</v>
       </c>
       <c r="AN145">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="AO145">
-        <v>1.38</v>
+        <v>1.78</v>
       </c>
       <c r="AP145">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="AQ145">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AR145">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AS145">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="AT145">
-        <v>2.78</v>
+        <v>2.99</v>
       </c>
       <c r="AU145">
         <v>0</v>
@@ -31552,25 +31552,25 @@
         <v>2.25</v>
       </c>
       <c r="AN146">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AO146">
-        <v>0.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP146">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ146">
-        <v>0.28</v>
+        <v>0.83</v>
       </c>
       <c r="AR146">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="AS146">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AT146">
-        <v>2.98</v>
+        <v>2.79</v>
       </c>
       <c r="AU146">
         <v>2</v>
@@ -31758,25 +31758,25 @@
         <v>1.3</v>
       </c>
       <c r="AN147">
-        <v>1.89</v>
+        <v>1.65</v>
       </c>
       <c r="AO147">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="AP147">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="AQ147">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AR147">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="AS147">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="AT147">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="AU147">
         <v>7</v>
@@ -31964,25 +31964,25 @@
         <v>1.15</v>
       </c>
       <c r="AN148">
-        <v>1.75</v>
+        <v>1.59</v>
       </c>
       <c r="AO148">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AP148">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ148">
-        <v>2.24</v>
+        <v>2.43</v>
       </c>
       <c r="AR148">
-        <v>2.08</v>
+        <v>1.81</v>
       </c>
       <c r="AS148">
-        <v>1.82</v>
+        <v>2.01</v>
       </c>
       <c r="AT148">
-        <v>3.9</v>
+        <v>3.82</v>
       </c>
       <c r="AU148">
         <v>8</v>
@@ -32170,25 +32170,25 @@
         <v>4.2</v>
       </c>
       <c r="AN149">
-        <v>3</v>
+        <v>2.61</v>
       </c>
       <c r="AO149">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="AP149">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR149">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="AS149">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AT149">
-        <v>3.27</v>
+        <v>3.03</v>
       </c>
       <c r="AU149">
         <v>8</v>
@@ -32376,25 +32376,25 @@
         <v>2.75</v>
       </c>
       <c r="AN150">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
       <c r="AO150">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AP150">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ150">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AR150">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="AS150">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="AT150">
-        <v>2.82</v>
+        <v>2.65</v>
       </c>
       <c r="AU150">
         <v>10</v>
@@ -32582,25 +32582,25 @@
         <v>1.33</v>
       </c>
       <c r="AN151">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AO151">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AP151">
-        <v>1.41</v>
+        <v>0.83</v>
       </c>
       <c r="AQ151">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR151">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AS151">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AT151">
-        <v>2.91</v>
+        <v>3.17</v>
       </c>
       <c r="AU151">
         <v>7</v>
@@ -32788,25 +32788,25 @@
         <v>1.06</v>
       </c>
       <c r="AN152">
-        <v>1.25</v>
+        <v>0.83</v>
       </c>
       <c r="AO152">
-        <v>2.22</v>
+        <v>2.63</v>
       </c>
       <c r="AP152">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
       <c r="AQ152">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="AR152">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="AS152">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="AT152">
-        <v>3.37</v>
+        <v>3.33</v>
       </c>
       <c r="AU152">
         <v>0</v>
@@ -32994,25 +32994,25 @@
         <v>1.58</v>
       </c>
       <c r="AN153">
-        <v>1.9</v>
+        <v>1.32</v>
       </c>
       <c r="AO153">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AP153">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="AQ153">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AR153">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="AS153">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="AT153">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="AU153">
         <v>8</v>
@@ -33200,25 +33200,25 @@
         <v>2.45</v>
       </c>
       <c r="AN154">
-        <v>2.11</v>
+        <v>1.94</v>
       </c>
       <c r="AO154">
-        <v>1.11</v>
+        <v>1.42</v>
       </c>
       <c r="AP154">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ154">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="AR154">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="AS154">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AT154">
-        <v>3.45</v>
+        <v>3.34</v>
       </c>
       <c r="AU154">
         <v>3</v>
@@ -33406,25 +33406,25 @@
         <v>1.98</v>
       </c>
       <c r="AN155">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AO155">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AP155">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ155">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="AR155">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="AS155">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="AT155">
-        <v>2.19</v>
+        <v>2.4</v>
       </c>
       <c r="AU155">
         <v>6</v>
@@ -33612,25 +33612,25 @@
         <v>1.5</v>
       </c>
       <c r="AN156">
-        <v>1.56</v>
+        <v>1.05</v>
       </c>
       <c r="AO156">
+        <v>1.21</v>
+      </c>
+      <c r="AP156">
+        <v>1.4</v>
+      </c>
+      <c r="AQ156">
         <v>1.11</v>
       </c>
-      <c r="AP156">
-        <v>1.82</v>
-      </c>
-      <c r="AQ156">
-        <v>1.06</v>
-      </c>
       <c r="AR156">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="AS156">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="AT156">
-        <v>2.66</v>
+        <v>2.81</v>
       </c>
       <c r="AU156">
         <v>6</v>
@@ -33818,25 +33818,25 @@
         <v>4.2</v>
       </c>
       <c r="AN157">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AO157">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="AP157">
-        <v>2.61</v>
+        <v>2.43</v>
       </c>
       <c r="AQ157">
-        <v>0.76</v>
+        <v>1.17</v>
       </c>
       <c r="AR157">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="AS157">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AT157">
-        <v>3.57</v>
+        <v>3.49</v>
       </c>
       <c r="AU157">
         <v>6</v>
@@ -34024,25 +34024,25 @@
         <v>1.47</v>
       </c>
       <c r="AN158">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="AO158">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="AP158">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ158">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AR158">
-        <v>2.03</v>
+        <v>1.79</v>
       </c>
       <c r="AS158">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT158">
-        <v>3.72</v>
+        <v>3.58</v>
       </c>
       <c r="AU158">
         <v>3</v>
@@ -34230,25 +34230,25 @@
         <v>1.69</v>
       </c>
       <c r="AN159">
-        <v>1.11</v>
+        <v>0.79</v>
       </c>
       <c r="AO159">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AP159">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
       <c r="AQ159">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AR159">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="AS159">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="AT159">
-        <v>2.81</v>
+        <v>2.65</v>
       </c>
       <c r="AU159">
         <v>4</v>
@@ -34436,25 +34436,25 @@
         <v>1.01</v>
       </c>
       <c r="AN160">
-        <v>1.13</v>
+        <v>0.74</v>
       </c>
       <c r="AO160">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="AP160">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
       <c r="AQ160">
-        <v>2.24</v>
+        <v>2.43</v>
       </c>
       <c r="AR160">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="AS160">
-        <v>1.92</v>
+        <v>2.09</v>
       </c>
       <c r="AT160">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="AU160">
         <v>6</v>
@@ -34642,25 +34642,25 @@
         <v>2</v>
       </c>
       <c r="AN161">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="AO161">
-        <v>0.6</v>
+        <v>1.05</v>
       </c>
       <c r="AP161">
+        <v>1.16</v>
+      </c>
+      <c r="AQ161">
+        <v>1.4</v>
+      </c>
+      <c r="AR161">
+        <v>1.4</v>
+      </c>
+      <c r="AS161">
         <v>1.38</v>
       </c>
-      <c r="AQ161">
-        <v>1</v>
-      </c>
-      <c r="AR161">
-        <v>1.6</v>
-      </c>
-      <c r="AS161">
-        <v>1.33</v>
-      </c>
       <c r="AT161">
-        <v>2.93</v>
+        <v>2.78</v>
       </c>
       <c r="AU161">
         <v>3</v>
@@ -34848,25 +34848,25 @@
         <v>1.58</v>
       </c>
       <c r="AN162">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AO162">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AP162">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="AQ162">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR162">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AS162">
-        <v>1.56</v>
+        <v>1.76</v>
       </c>
       <c r="AT162">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="AU162">
         <v>2</v>
@@ -35054,25 +35054,25 @@
         <v>2.25</v>
       </c>
       <c r="AN163">
-        <v>1.44</v>
+        <v>1</v>
       </c>
       <c r="AO163">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="AP163">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="AQ163">
-        <v>0.28</v>
+        <v>0.83</v>
       </c>
       <c r="AR163">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AS163">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AT163">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="AU163">
         <v>9</v>
@@ -35260,22 +35260,22 @@
         <v>1.6</v>
       </c>
       <c r="AN164">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AO164">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="AP164">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AQ164">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR164">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AS164">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AT164">
         <v>2.47</v>
@@ -35466,25 +35466,25 @@
         <v>1.27</v>
       </c>
       <c r="AN165">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AO165">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AP165">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ165">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AR165">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="AS165">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="AT165">
-        <v>3.33</v>
+        <v>3.24</v>
       </c>
       <c r="AU165">
         <v>4</v>
@@ -35672,25 +35672,25 @@
         <v>1.25</v>
       </c>
       <c r="AN166">
-        <v>1.11</v>
+        <v>0.75</v>
       </c>
       <c r="AO166">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="AP166">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
       <c r="AQ166">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AR166">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AS166">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AT166">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="AU166">
         <v>5</v>
@@ -35878,25 +35878,25 @@
         <v>1.03</v>
       </c>
       <c r="AN167">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO167">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AP167">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
       <c r="AQ167">
-        <v>2.24</v>
+        <v>2.43</v>
       </c>
       <c r="AR167">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="AS167">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="AT167">
-        <v>3.53</v>
+        <v>3.54</v>
       </c>
       <c r="AU167">
         <v>2</v>
@@ -36084,22 +36084,22 @@
         <v>4.05</v>
       </c>
       <c r="AN168">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="AO168">
-        <v>0.67</v>
+        <v>1.4</v>
       </c>
       <c r="AP168">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AQ168">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR168">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="AS168">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AT168">
         <v>3.39</v>
@@ -36290,25 +36290,25 @@
         <v>1.35</v>
       </c>
       <c r="AN169">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="AO169">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="AP169">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ169">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AR169">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AS169">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="AT169">
-        <v>2.4</v>
+        <v>2.67</v>
       </c>
       <c r="AU169">
         <v>6</v>
@@ -36496,25 +36496,25 @@
         <v>1.48</v>
       </c>
       <c r="AN170">
+        <v>1.05</v>
+      </c>
+      <c r="AO170">
+        <v>1.33</v>
+      </c>
+      <c r="AP170">
+        <v>1.4</v>
+      </c>
+      <c r="AQ170">
+        <v>1.39</v>
+      </c>
+      <c r="AR170">
+        <v>1.4</v>
+      </c>
+      <c r="AS170">
         <v>1.5</v>
       </c>
-      <c r="AO170">
-        <v>1.1</v>
-      </c>
-      <c r="AP170">
-        <v>1.82</v>
-      </c>
-      <c r="AQ170">
-        <v>1.17</v>
-      </c>
-      <c r="AR170">
-        <v>1.43</v>
-      </c>
-      <c r="AS170">
-        <v>1.49</v>
-      </c>
       <c r="AT170">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AU170">
         <v>7</v>
@@ -36702,25 +36702,25 @@
         <v>1.75</v>
       </c>
       <c r="AN171">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO171">
-        <v>0.64</v>
+        <v>1.1</v>
       </c>
       <c r="AP171">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="AQ171">
-        <v>0.76</v>
+        <v>1.17</v>
       </c>
       <c r="AR171">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="AS171">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AT171">
-        <v>3.06</v>
+        <v>3.02</v>
       </c>
       <c r="AU171">
         <v>5</v>
@@ -36908,25 +36908,25 @@
         <v>2</v>
       </c>
       <c r="AN172">
-        <v>1.6</v>
+        <v>1.29</v>
       </c>
       <c r="AO172">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="AP172">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ172">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="AR172">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AS172">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AT172">
-        <v>2.61</v>
+        <v>2.76</v>
       </c>
       <c r="AU172">
         <v>7</v>
@@ -37114,25 +37114,25 @@
         <v>1.95</v>
       </c>
       <c r="AN173">
+        <v>1.43</v>
+      </c>
+      <c r="AO173">
+        <v>1.14</v>
+      </c>
+      <c r="AP173">
         <v>1.4</v>
       </c>
-      <c r="AO173">
-        <v>1.1</v>
-      </c>
-      <c r="AP173">
-        <v>1.35</v>
-      </c>
       <c r="AQ173">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AR173">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="AS173">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="AT173">
-        <v>3.23</v>
+        <v>3.27</v>
       </c>
       <c r="AU173">
         <v>4</v>
@@ -37323,22 +37323,22 @@
         <v>2</v>
       </c>
       <c r="AO174">
-        <v>0.45</v>
+        <v>0.86</v>
       </c>
       <c r="AP174">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ174">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="AR174">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="AS174">
-        <v>1.03</v>
+        <v>1.22</v>
       </c>
       <c r="AT174">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="AU174">
         <v>10</v>
@@ -37526,25 +37526,25 @@
         <v>5.75</v>
       </c>
       <c r="AN175">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="AO175">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AP175">
-        <v>2.61</v>
+        <v>2.43</v>
       </c>
       <c r="AQ175">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AR175">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AS175">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AT175">
-        <v>3.49</v>
+        <v>3.26</v>
       </c>
       <c r="AU175">
         <v>16</v>
@@ -37732,25 +37732,25 @@
         <v>1.33</v>
       </c>
       <c r="AN176">
-        <v>1.2</v>
+        <v>0.67</v>
       </c>
       <c r="AO176">
-        <v>1.1</v>
+        <v>1.38</v>
       </c>
       <c r="AP176">
-        <v>1.41</v>
+        <v>0.83</v>
       </c>
       <c r="AQ176">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AR176">
         <v>1.39</v>
       </c>
       <c r="AS176">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="AT176">
-        <v>2.57</v>
+        <v>2.76</v>
       </c>
       <c r="AU176">
         <v>6</v>
@@ -37938,25 +37938,25 @@
         <v>1.28</v>
       </c>
       <c r="AN177">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AO177">
-        <v>2.3</v>
+        <v>2.67</v>
       </c>
       <c r="AP177">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ177">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="AR177">
-        <v>1.76</v>
+        <v>1.49</v>
       </c>
       <c r="AS177">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="AT177">
-        <v>3.42</v>
+        <v>3.34</v>
       </c>
       <c r="AU177">
         <v>6</v>
@@ -38144,25 +38144,25 @@
         <v>1.3</v>
       </c>
       <c r="AN178">
+        <v>0.73</v>
+      </c>
+      <c r="AO178">
+        <v>1.59</v>
+      </c>
+      <c r="AP178">
         <v>0.91</v>
       </c>
-      <c r="AO178">
-        <v>1.4</v>
-      </c>
-      <c r="AP178">
-        <v>1.12</v>
-      </c>
       <c r="AQ178">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AR178">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AS178">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="AT178">
-        <v>2.76</v>
+        <v>2.94</v>
       </c>
       <c r="AU178">
         <v>3</v>
@@ -38350,25 +38350,25 @@
         <v>1.91</v>
       </c>
       <c r="AN179">
-        <v>1.6</v>
+        <v>1.09</v>
       </c>
       <c r="AO179">
-        <v>0.64</v>
+        <v>1.05</v>
       </c>
       <c r="AP179">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="AQ179">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR179">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="AS179">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AT179">
-        <v>2.93</v>
+        <v>2.89</v>
       </c>
       <c r="AU179">
         <v>7</v>
@@ -38556,25 +38556,25 @@
         <v>2.83</v>
       </c>
       <c r="AN180">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="AO180">
-        <v>0.18</v>
+        <v>0.77</v>
       </c>
       <c r="AP180">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="AQ180">
-        <v>0.28</v>
+        <v>0.83</v>
       </c>
       <c r="AR180">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AS180">
         <v>1.39</v>
       </c>
       <c r="AT180">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="AU180">
         <v>7</v>
@@ -38762,22 +38762,22 @@
         <v>1.72</v>
       </c>
       <c r="AN181">
-        <v>1.64</v>
+        <v>1.32</v>
       </c>
       <c r="AO181">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AP181">
+        <v>1.16</v>
+      </c>
+      <c r="AQ181">
+        <v>1.11</v>
+      </c>
+      <c r="AR181">
         <v>1.38</v>
       </c>
-      <c r="AQ181">
-        <v>1.06</v>
-      </c>
-      <c r="AR181">
-        <v>1.55</v>
-      </c>
       <c r="AS181">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="AT181">
         <v>2.83</v>
@@ -38968,25 +38968,25 @@
         <v>1.13</v>
       </c>
       <c r="AN182">
-        <v>0.91</v>
+        <v>1.05</v>
       </c>
       <c r="AO182">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AP182">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AQ182">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AR182">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="AS182">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="AT182">
-        <v>2.84</v>
+        <v>2.97</v>
       </c>
       <c r="AU182">
         <v>2</v>
@@ -39174,25 +39174,25 @@
         <v>1.57</v>
       </c>
       <c r="AN183">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="AO183">
-        <v>0.6</v>
+        <v>1.32</v>
       </c>
       <c r="AP183">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ183">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR183">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AS183">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="AT183">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="AU183">
         <v>6</v>
@@ -39380,25 +39380,25 @@
         <v>1.22</v>
       </c>
       <c r="AN184">
-        <v>1.3</v>
+        <v>0.82</v>
       </c>
       <c r="AO184">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AP184">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
       <c r="AQ184">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR184">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="AS184">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="AT184">
-        <v>3.1</v>
+        <v>3.01</v>
       </c>
       <c r="AU184">
         <v>0</v>
@@ -39586,25 +39586,25 @@
         <v>1.55</v>
       </c>
       <c r="AN185">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="AO185">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AP185">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AQ185">
-        <v>2.24</v>
+        <v>2.43</v>
       </c>
       <c r="AR185">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="AS185">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="AT185">
-        <v>3.89</v>
+        <v>3.95</v>
       </c>
       <c r="AU185">
         <v>2</v>
@@ -39792,25 +39792,25 @@
         <v>1.85</v>
       </c>
       <c r="AN186">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AO186">
-        <v>0.67</v>
+        <v>1.09</v>
       </c>
       <c r="AP186">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ186">
-        <v>0.76</v>
+        <v>1.17</v>
       </c>
       <c r="AR186">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="AS186">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AT186">
-        <v>3.12</v>
+        <v>2.99</v>
       </c>
       <c r="AU186">
         <v>4</v>
@@ -39998,25 +39998,25 @@
         <v>1.75</v>
       </c>
       <c r="AN187">
-        <v>1.45</v>
+        <v>1.04</v>
       </c>
       <c r="AO187">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AP187">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="AQ187">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AR187">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AS187">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AT187">
-        <v>2.67</v>
+        <v>2.59</v>
       </c>
       <c r="AU187">
         <v>8</v>
@@ -40204,22 +40204,22 @@
         <v>2.5</v>
       </c>
       <c r="AN188">
-        <v>1.92</v>
+        <v>1.26</v>
       </c>
       <c r="AO188">
-        <v>0.55</v>
+        <v>0.7</v>
       </c>
       <c r="AP188">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="AQ188">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="AR188">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AS188">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AT188">
         <v>2.99</v>
@@ -40410,25 +40410,25 @@
         <v>1.62</v>
       </c>
       <c r="AN189">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AO189">
-        <v>1.09</v>
+        <v>1.39</v>
       </c>
       <c r="AP189">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ189">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="AR189">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="AS189">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AT189">
-        <v>3.09</v>
+        <v>2.96</v>
       </c>
       <c r="AU189">
         <v>7</v>
@@ -40616,25 +40616,25 @@
         <v>1.85</v>
       </c>
       <c r="AN190">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AO190">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AP190">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ190">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AR190">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="AS190">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AT190">
-        <v>3.15</v>
+        <v>3.18</v>
       </c>
       <c r="AU190">
         <v>9</v>
@@ -40822,25 +40822,25 @@
         <v>5</v>
       </c>
       <c r="AN191">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="AO191">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="AP191">
-        <v>2.61</v>
+        <v>2.43</v>
       </c>
       <c r="AQ191">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR191">
-        <v>2.37</v>
+        <v>2.07</v>
       </c>
       <c r="AS191">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AT191">
-        <v>3.71</v>
+        <v>3.44</v>
       </c>
       <c r="AU191">
         <v>7</v>
@@ -41028,25 +41028,25 @@
         <v>1.85</v>
       </c>
       <c r="AN192">
-        <v>1.36</v>
+        <v>0.74</v>
       </c>
       <c r="AO192">
-        <v>0.42</v>
+        <v>0.78</v>
       </c>
       <c r="AP192">
-        <v>1.41</v>
+        <v>0.83</v>
       </c>
       <c r="AQ192">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="AR192">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AS192">
-        <v>1.03</v>
+        <v>1.21</v>
       </c>
       <c r="AT192">
-        <v>2.43</v>
+        <v>2.6</v>
       </c>
       <c r="AU192">
         <v>4</v>
@@ -41237,22 +41237,22 @@
         <v>2.09</v>
       </c>
       <c r="AO193">
-        <v>2.36</v>
+        <v>2.61</v>
       </c>
       <c r="AP193">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ193">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="AR193">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AS193">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="AT193">
-        <v>3.54</v>
+        <v>3.61</v>
       </c>
       <c r="AU193">
         <v>9</v>
@@ -41440,25 +41440,25 @@
         <v>1.83</v>
       </c>
       <c r="AN194">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AO194">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="AP194">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="AQ194">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AR194">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="AS194">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="AT194">
-        <v>2.72</v>
+        <v>2.83</v>
       </c>
       <c r="AU194">
         <v>10</v>
@@ -41646,25 +41646,25 @@
         <v>1.64</v>
       </c>
       <c r="AN195">
+        <v>0.67</v>
+      </c>
+      <c r="AO195">
+        <v>0.75</v>
+      </c>
+      <c r="AP195">
+        <v>0.91</v>
+      </c>
+      <c r="AQ195">
         <v>0.83</v>
       </c>
-      <c r="AO195">
-        <v>0.17</v>
-      </c>
-      <c r="AP195">
-        <v>1.12</v>
-      </c>
-      <c r="AQ195">
-        <v>0.28</v>
-      </c>
       <c r="AR195">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="AS195">
         <v>1.38</v>
       </c>
       <c r="AT195">
-        <v>2.92</v>
+        <v>2.79</v>
       </c>
       <c r="AU195">
         <v>9</v>
@@ -41852,22 +41852,22 @@
         <v>1.33</v>
       </c>
       <c r="AN196">
-        <v>1.18</v>
+        <v>0.79</v>
       </c>
       <c r="AO196">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="AP196">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
       <c r="AQ196">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AR196">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="AS196">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="AT196">
         <v>2.69</v>
@@ -42058,25 +42058,25 @@
         <v>1.41</v>
       </c>
       <c r="AN197">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AO197">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AP197">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ197">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AR197">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AS197">
-        <v>1.28</v>
+        <v>1.52</v>
       </c>
       <c r="AT197">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="AU197">
         <v>5</v>
@@ -42264,25 +42264,25 @@
         <v>1.33</v>
       </c>
       <c r="AN198">
-        <v>1.55</v>
+        <v>1.17</v>
       </c>
       <c r="AO198">
-        <v>2.08</v>
+        <v>2.13</v>
       </c>
       <c r="AP198">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="AQ198">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AR198">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="AS198">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="AT198">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="AU198">
         <v>3</v>
@@ -42470,25 +42470,25 @@
         <v>1.27</v>
       </c>
       <c r="AN199">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="AO199">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AP199">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AQ199">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR199">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AS199">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT199">
-        <v>2.81</v>
+        <v>2.97</v>
       </c>
       <c r="AU199">
         <v>4</v>
@@ -42676,25 +42676,25 @@
         <v>4.8</v>
       </c>
       <c r="AN200">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="AO200">
-        <v>0.55</v>
+        <v>1.33</v>
       </c>
       <c r="AP200">
-        <v>2.61</v>
+        <v>2.43</v>
       </c>
       <c r="AQ200">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR200">
-        <v>2.34</v>
+        <v>2.07</v>
       </c>
       <c r="AS200">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="AT200">
-        <v>3.77</v>
+        <v>3.64</v>
       </c>
       <c r="AU200">
         <v>8</v>
@@ -42882,25 +42882,25 @@
         <v>4</v>
       </c>
       <c r="AN201">
-        <v>2.83</v>
+        <v>2.5</v>
       </c>
       <c r="AO201">
-        <v>0.67</v>
+        <v>1.13</v>
       </c>
       <c r="AP201">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AQ201">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR201">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="AS201">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AT201">
-        <v>3.31</v>
+        <v>3.2</v>
       </c>
       <c r="AU201">
         <v>6</v>
@@ -43088,25 +43088,25 @@
         <v>3.05</v>
       </c>
       <c r="AN202">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="AO202">
-        <v>0.5</v>
+        <v>1.28</v>
       </c>
       <c r="AP202">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ202">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR202">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="AS202">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="AT202">
-        <v>3.35</v>
+        <v>3.39</v>
       </c>
       <c r="AU202">
         <v>7</v>
@@ -43294,25 +43294,25 @@
         <v>2.3</v>
       </c>
       <c r="AN203">
-        <v>1.58</v>
+        <v>1.32</v>
       </c>
       <c r="AO203">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="AP203">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="AQ203">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AR203">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="AS203">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AT203">
-        <v>2.73</v>
+        <v>2.52</v>
       </c>
       <c r="AU203">
         <v>6</v>
@@ -43500,25 +43500,25 @@
         <v>1.72</v>
       </c>
       <c r="AN204">
+        <v>1.12</v>
+      </c>
+      <c r="AO204">
+        <v>1.12</v>
+      </c>
+      <c r="AP204">
+        <v>1.11</v>
+      </c>
+      <c r="AQ204">
         <v>1.17</v>
       </c>
-      <c r="AO204">
-        <v>0.85</v>
-      </c>
-      <c r="AP204">
-        <v>1.17</v>
-      </c>
-      <c r="AQ204">
-        <v>0.76</v>
-      </c>
       <c r="AR204">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="AS204">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT204">
-        <v>2.98</v>
+        <v>2.89</v>
       </c>
       <c r="AU204">
         <v>7</v>
@@ -43706,25 +43706,25 @@
         <v>1.16</v>
       </c>
       <c r="AN205">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="AO205">
-        <v>2.33</v>
+        <v>2.48</v>
       </c>
       <c r="AP205">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ205">
-        <v>2.24</v>
+        <v>2.43</v>
       </c>
       <c r="AR205">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="AS205">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="AT205">
-        <v>3.51</v>
+        <v>3.56</v>
       </c>
       <c r="AU205">
         <v>6</v>
@@ -43912,25 +43912,25 @@
         <v>2.3</v>
       </c>
       <c r="AN206">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="AO206">
-        <v>0.92</v>
+        <v>1.28</v>
       </c>
       <c r="AP206">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ206">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR206">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="AS206">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="AT206">
-        <v>3.25</v>
+        <v>3.19</v>
       </c>
       <c r="AU206">
         <v>9</v>
@@ -44118,25 +44118,25 @@
         <v>2.1</v>
       </c>
       <c r="AN207">
-        <v>1.58</v>
+        <v>1.08</v>
       </c>
       <c r="AO207">
-        <v>0.5</v>
+        <v>0.76</v>
       </c>
       <c r="AP207">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="AQ207">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="AR207">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="AS207">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AT207">
-        <v>2.79</v>
+        <v>2.89</v>
       </c>
       <c r="AU207">
         <v>5</v>
@@ -44324,25 +44324,25 @@
         <v>2.6</v>
       </c>
       <c r="AN208">
-        <v>1.77</v>
+        <v>1.44</v>
       </c>
       <c r="AO208">
-        <v>0.46</v>
+        <v>0.8</v>
       </c>
       <c r="AP208">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="AQ208">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="AR208">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AS208">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="AT208">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="AU208">
         <v>5</v>
@@ -44530,25 +44530,25 @@
         <v>1.01</v>
       </c>
       <c r="AN209">
-        <v>1.33</v>
+        <v>0.72</v>
       </c>
       <c r="AO209">
-        <v>2.17</v>
+        <v>2.52</v>
       </c>
       <c r="AP209">
-        <v>1.41</v>
+        <v>0.83</v>
       </c>
       <c r="AQ209">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="AR209">
         <v>1.39</v>
       </c>
       <c r="AS209">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="AT209">
-        <v>2.96</v>
+        <v>3.13</v>
       </c>
       <c r="AU209">
         <v>2</v>
@@ -44736,25 +44736,25 @@
         <v>1.2</v>
       </c>
       <c r="AN210">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AO210">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="AP210">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
       <c r="AQ210">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AR210">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AS210">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AT210">
-        <v>3.35</v>
+        <v>3.28</v>
       </c>
       <c r="AU210">
         <v>5</v>
@@ -44942,25 +44942,25 @@
         <v>1.48</v>
       </c>
       <c r="AN211">
-        <v>1.17</v>
+        <v>0.77</v>
       </c>
       <c r="AO211">
-        <v>1.08</v>
+        <v>1.27</v>
       </c>
       <c r="AP211">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
       <c r="AQ211">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AR211">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="AS211">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="AT211">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AU211">
         <v>10</v>
@@ -45148,25 +45148,25 @@
         <v>1.57</v>
       </c>
       <c r="AN212">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="AO212">
         <v>1.5</v>
       </c>
       <c r="AP212">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="AQ212">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AR212">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AS212">
-        <v>1.27</v>
+        <v>1.51</v>
       </c>
       <c r="AT212">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="AU212">
         <v>7</v>
@@ -45354,25 +45354,25 @@
         <v>4</v>
       </c>
       <c r="AN213">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AO213">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="AP213">
-        <v>2.61</v>
+        <v>2.43</v>
       </c>
       <c r="AQ213">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AR213">
-        <v>2.31</v>
+        <v>2.05</v>
       </c>
       <c r="AS213">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="AT213">
-        <v>3.6</v>
+        <v>3.51</v>
       </c>
       <c r="AU213">
         <v>7</v>
@@ -45560,25 +45560,25 @@
         <v>1.66</v>
       </c>
       <c r="AN214">
-        <v>1.62</v>
+        <v>1.23</v>
       </c>
       <c r="AO214">
-        <v>0.62</v>
+        <v>1.15</v>
       </c>
       <c r="AP214">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ214">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR214">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AS214">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AT214">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="AU214">
         <v>6</v>
@@ -45766,25 +45766,25 @@
         <v>1.8</v>
       </c>
       <c r="AN215">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="AO215">
-        <v>0.15</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP215">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AQ215">
-        <v>0.28</v>
+        <v>0.83</v>
       </c>
       <c r="AR215">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AS215">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AT215">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AU215">
         <v>5</v>
@@ -45972,22 +45972,22 @@
         <v>1.37</v>
       </c>
       <c r="AN216">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="AO216">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="AP216">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="AQ216">
+        <v>1.4</v>
+      </c>
+      <c r="AR216">
         <v>1.44</v>
       </c>
-      <c r="AR216">
-        <v>1.55</v>
-      </c>
       <c r="AS216">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AT216">
         <v>3.27</v>
@@ -46178,25 +46178,25 @@
         <v>3.3</v>
       </c>
       <c r="AN217">
-        <v>2.85</v>
+        <v>2.54</v>
       </c>
       <c r="AO217">
-        <v>1.08</v>
+        <v>1.5</v>
       </c>
       <c r="AP217">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AQ217">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="AR217">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="AS217">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT217">
-        <v>3.31</v>
+        <v>3.24</v>
       </c>
       <c r="AU217">
         <v>8</v>
@@ -46384,22 +46384,22 @@
         <v>1.17</v>
       </c>
       <c r="AN218">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
       <c r="AO218">
-        <v>2.23</v>
+        <v>2.48</v>
       </c>
       <c r="AP218">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ218">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="AR218">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AS218">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="AT218">
         <v>3.2</v>
@@ -46590,25 +46590,25 @@
         <v>2</v>
       </c>
       <c r="AN219">
-        <v>1.86</v>
+        <v>1.48</v>
       </c>
       <c r="AO219">
-        <v>0.85</v>
+        <v>1.19</v>
       </c>
       <c r="AP219">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="AQ219">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR219">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AS219">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AT219">
-        <v>2.97</v>
+        <v>2.89</v>
       </c>
       <c r="AU219">
         <v>6</v>
@@ -46796,25 +46796,25 @@
         <v>1.36</v>
       </c>
       <c r="AN220">
-        <v>1.23</v>
+        <v>0.7</v>
       </c>
       <c r="AO220">
-        <v>0.6899999999999999</v>
+        <v>1.41</v>
       </c>
       <c r="AP220">
-        <v>1.41</v>
+        <v>0.83</v>
       </c>
       <c r="AQ220">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR220">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AS220">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT220">
-        <v>2.8</v>
+        <v>2.94</v>
       </c>
       <c r="AU220">
         <v>4</v>
@@ -47002,25 +47002,25 @@
         <v>1.57</v>
       </c>
       <c r="AN221">
-        <v>1.69</v>
+        <v>1.22</v>
       </c>
       <c r="AO221">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AP221">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="AQ221">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AR221">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AS221">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="AT221">
-        <v>2.73</v>
+        <v>2.91</v>
       </c>
       <c r="AU221">
         <v>5</v>
@@ -47208,25 +47208,25 @@
         <v>1.88</v>
       </c>
       <c r="AN222">
-        <v>1.31</v>
+        <v>0.85</v>
       </c>
       <c r="AO222">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="AP222">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
       <c r="AQ222">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AR222">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="AS222">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AT222">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="AU222">
         <v>5</v>
@@ -47414,25 +47414,25 @@
         <v>1.62</v>
       </c>
       <c r="AN223">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="AO223">
-        <v>0.79</v>
+        <v>1.04</v>
       </c>
       <c r="AP223">
+        <v>1.16</v>
+      </c>
+      <c r="AQ223">
+        <v>1.17</v>
+      </c>
+      <c r="AR223">
         <v>1.38</v>
       </c>
-      <c r="AQ223">
-        <v>0.76</v>
-      </c>
-      <c r="AR223">
-        <v>1.56</v>
-      </c>
       <c r="AS223">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="AT223">
-        <v>2.91</v>
+        <v>2.83</v>
       </c>
       <c r="AU223">
         <v>7</v>
@@ -47620,25 +47620,25 @@
         <v>3.2</v>
       </c>
       <c r="AN224">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AO224">
-        <v>0.46</v>
+        <v>0.74</v>
       </c>
       <c r="AP224">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ224">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="AR224">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="AS224">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="AT224">
-        <v>3.21</v>
+        <v>3.25</v>
       </c>
       <c r="AU224">
         <v>5</v>
@@ -47826,25 +47826,25 @@
         <v>1.11</v>
       </c>
       <c r="AN225">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AO225">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="AP225">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ225">
-        <v>2.24</v>
+        <v>2.43</v>
       </c>
       <c r="AR225">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="AS225">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="AT225">
-        <v>3.71</v>
+        <v>3.89</v>
       </c>
       <c r="AU225">
         <v>3</v>
@@ -48032,25 +48032,25 @@
         <v>2.8</v>
       </c>
       <c r="AN226">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AO226">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="AP226">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AQ226">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR226">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="AS226">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="AT226">
-        <v>3.64</v>
+        <v>3.59</v>
       </c>
       <c r="AU226">
         <v>12</v>
@@ -48238,25 +48238,25 @@
         <v>1.42</v>
       </c>
       <c r="AN227">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO227">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AP227">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
       <c r="AQ227">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AR227">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="AS227">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="AT227">
-        <v>2.84</v>
+        <v>2.87</v>
       </c>
       <c r="AU227">
         <v>6</v>
@@ -48444,25 +48444,25 @@
         <v>2</v>
       </c>
       <c r="AN228">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AO228">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="AP228">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="AQ228">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="AR228">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="AS228">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="AT228">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="AU228">
         <v>3</v>
@@ -48650,25 +48650,25 @@
         <v>2.1</v>
       </c>
       <c r="AN229">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO229">
-        <v>0.21</v>
+        <v>0.79</v>
       </c>
       <c r="AP229">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AQ229">
-        <v>0.28</v>
+        <v>0.83</v>
       </c>
       <c r="AR229">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AS229">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AT229">
-        <v>2.83</v>
+        <v>2.76</v>
       </c>
       <c r="AU229">
         <v>7</v>
@@ -48856,25 +48856,25 @@
         <v>1.88</v>
       </c>
       <c r="AN230">
-        <v>2.07</v>
+        <v>1.36</v>
       </c>
       <c r="AO230">
-        <v>0.79</v>
+        <v>1.29</v>
       </c>
       <c r="AP230">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="AQ230">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR230">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AS230">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AT230">
-        <v>3.07</v>
+        <v>3</v>
       </c>
       <c r="AU230">
         <v>3</v>
@@ -49062,25 +49062,25 @@
         <v>4.9</v>
       </c>
       <c r="AN231">
-        <v>2.64</v>
+        <v>2.43</v>
       </c>
       <c r="AO231">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AP231">
-        <v>2.61</v>
+        <v>2.43</v>
       </c>
       <c r="AQ231">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AR231">
-        <v>2.29</v>
+        <v>2.02</v>
       </c>
       <c r="AS231">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT231">
-        <v>3.51</v>
+        <v>3.42</v>
       </c>
       <c r="AU231">
         <v>10</v>
@@ -49268,25 +49268,25 @@
         <v>1.45</v>
       </c>
       <c r="AN232">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="AO232">
-        <v>1.08</v>
+        <v>1.43</v>
       </c>
       <c r="AP232">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AQ232">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="AR232">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AS232">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT232">
-        <v>2.56</v>
+        <v>2.69</v>
       </c>
       <c r="AU232">
         <v>3</v>
@@ -49474,25 +49474,25 @@
         <v>1.25</v>
       </c>
       <c r="AN233">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AO233">
         <v>2.07</v>
       </c>
       <c r="AP233">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ233">
+        <v>2</v>
+      </c>
+      <c r="AR233">
+        <v>1.46</v>
+      </c>
+      <c r="AS233">
         <v>1.82</v>
       </c>
-      <c r="AR233">
-        <v>1.72</v>
-      </c>
-      <c r="AS233">
-        <v>1.75</v>
-      </c>
       <c r="AT233">
-        <v>3.47</v>
+        <v>3.28</v>
       </c>
       <c r="AU233">
         <v>5</v>
@@ -49680,25 +49680,25 @@
         <v>1.03</v>
       </c>
       <c r="AN234">
-        <v>1.79</v>
+        <v>1.28</v>
       </c>
       <c r="AO234">
-        <v>2.21</v>
+        <v>2.38</v>
       </c>
       <c r="AP234">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="AQ234">
-        <v>2.24</v>
+        <v>2.43</v>
       </c>
       <c r="AR234">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AS234">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="AT234">
-        <v>3.25</v>
+        <v>3.49</v>
       </c>
       <c r="AU234">
         <v>4</v>
@@ -49886,22 +49886,22 @@
         <v>1.9</v>
       </c>
       <c r="AN235">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="AO235">
-        <v>0.64</v>
+        <v>1.34</v>
       </c>
       <c r="AP235">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ235">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="AR235">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="AS235">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AT235">
         <v>3.37</v>
@@ -50092,25 +50092,25 @@
         <v>3.2</v>
       </c>
       <c r="AN236">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AO236">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AP236">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ236">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AR236">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="AS236">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AT236">
-        <v>3.26</v>
+        <v>3.22</v>
       </c>
       <c r="AU236">
         <v>7</v>
@@ -50298,25 +50298,25 @@
         <v>1.99</v>
       </c>
       <c r="AN237">
+        <v>1.1</v>
+      </c>
+      <c r="AO237">
+        <v>0.97</v>
+      </c>
+      <c r="AP237">
+        <v>1.11</v>
+      </c>
+      <c r="AQ237">
+        <v>1.14</v>
+      </c>
+      <c r="AR237">
+        <v>1.41</v>
+      </c>
+      <c r="AS237">
         <v>1.21</v>
       </c>
-      <c r="AO237">
-        <v>1.21</v>
-      </c>
-      <c r="AP237">
-        <v>1.17</v>
-      </c>
-      <c r="AQ237">
-        <v>1.18</v>
-      </c>
-      <c r="AR237">
-        <v>1.59</v>
-      </c>
-      <c r="AS237">
-        <v>1.24</v>
-      </c>
       <c r="AT237">
-        <v>2.83</v>
+        <v>2.62</v>
       </c>
       <c r="AU237">
         <v>7</v>
@@ -50504,25 +50504,25 @@
         <v>1.16</v>
       </c>
       <c r="AN238">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="AO238">
-        <v>2.29</v>
+        <v>2.52</v>
       </c>
       <c r="AP238">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="AQ238">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="AR238">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AS238">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="AT238">
-        <v>3.18</v>
+        <v>3.16</v>
       </c>
       <c r="AU238">
         <v>3</v>
@@ -50710,25 +50710,25 @@
         <v>1.53</v>
       </c>
       <c r="AN239">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AO239">
-        <v>1.21</v>
+        <v>1.48</v>
       </c>
       <c r="AP239">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="AQ239">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="AR239">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="AS239">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="AT239">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="AU239">
         <v>5</v>
@@ -50916,25 +50916,25 @@
         <v>1.36</v>
       </c>
       <c r="AN240">
-        <v>1.36</v>
+        <v>0.79</v>
       </c>
       <c r="AO240">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AP240">
-        <v>1.41</v>
+        <v>0.83</v>
       </c>
       <c r="AQ240">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AR240">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AS240">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="AT240">
-        <v>2.53</v>
+        <v>2.82</v>
       </c>
       <c r="AU240">
         <v>6</v>
@@ -51122,25 +51122,25 @@
         <v>1.75</v>
       </c>
       <c r="AN241">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AO241">
-        <v>0.5</v>
+        <v>0.76</v>
       </c>
       <c r="AP241">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
       <c r="AQ241">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="AR241">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="AS241">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AT241">
-        <v>2.8</v>
+        <v>2.73</v>
       </c>
       <c r="AU241">
         <v>7</v>
@@ -51946,25 +51946,25 @@
         <v>3.15</v>
       </c>
       <c r="AN245">
-        <v>2.4</v>
+        <v>2.53</v>
       </c>
       <c r="AO245">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP245">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ245">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR245">
-        <v>2.04</v>
+        <v>2.35</v>
       </c>
       <c r="AS245">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="AT245">
-        <v>3.88</v>
+        <v>4.08</v>
       </c>
       <c r="AU245">
         <v>10</v>
@@ -52152,25 +52152,25 @@
         <v>2.5</v>
       </c>
       <c r="AN246">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AO246">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AP246">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ246">
+        <v>1.17</v>
+      </c>
+      <c r="AR246">
+        <v>1.87</v>
+      </c>
+      <c r="AS246">
         <v>1.39</v>
       </c>
-      <c r="AR246">
-        <v>1.79</v>
-      </c>
-      <c r="AS246">
-        <v>1.48</v>
-      </c>
       <c r="AT246">
-        <v>3.27</v>
+        <v>3.26</v>
       </c>
       <c r="AU246">
         <v>6</v>
@@ -52770,25 +52770,25 @@
         <v>1.14</v>
       </c>
       <c r="AN249">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AO249">
-        <v>2.53</v>
+        <v>2.33</v>
       </c>
       <c r="AP249">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ249">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR249">
-        <v>1.49</v>
+        <v>1.71</v>
       </c>
       <c r="AS249">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="AT249">
-        <v>3.27</v>
+        <v>3.32</v>
       </c>
       <c r="AU249">
         <v>5</v>
@@ -52976,25 +52976,25 @@
         <v>1.9</v>
       </c>
       <c r="AN250">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AO250">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="AP250">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ250">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR250">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AS250">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AT250">
-        <v>3.29</v>
+        <v>3.36</v>
       </c>
       <c r="AU250">
         <v>4</v>
@@ -53182,25 +53182,25 @@
         <v>3.1</v>
       </c>
       <c r="AN251">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="AO251">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AP251">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ251">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR251">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AS251">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="AT251">
-        <v>3.27</v>
+        <v>3.15</v>
       </c>
       <c r="AU251">
         <v>12</v>
@@ -53388,25 +53388,25 @@
         <v>1.57</v>
       </c>
       <c r="AN252">
-        <v>2.55</v>
+        <v>2.73</v>
       </c>
       <c r="AO252">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="AP252">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ252">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR252">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="AS252">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="AT252">
-        <v>3.83</v>
+        <v>3.69</v>
       </c>
       <c r="AU252">
         <v>6</v>
@@ -54624,25 +54624,25 @@
         <v>1.75</v>
       </c>
       <c r="AN258">
-        <v>1.47</v>
+        <v>1.73</v>
       </c>
       <c r="AO258">
+        <v>1.19</v>
+      </c>
+      <c r="AP258">
+        <v>1.61</v>
+      </c>
+      <c r="AQ258">
+        <v>1.22</v>
+      </c>
+      <c r="AR258">
+        <v>1.57</v>
+      </c>
+      <c r="AS258">
         <v>1.28</v>
       </c>
-      <c r="AP258">
-        <v>1.39</v>
-      </c>
-      <c r="AQ258">
-        <v>1.26</v>
-      </c>
-      <c r="AR258">
-        <v>1.48</v>
-      </c>
-      <c r="AS258">
-        <v>1.48</v>
-      </c>
       <c r="AT258">
-        <v>2.96</v>
+        <v>2.85</v>
       </c>
       <c r="AU258">
         <v>2</v>
@@ -54830,22 +54830,22 @@
         <v>3.3</v>
       </c>
       <c r="AN259">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AO259">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="AP259">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ259">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR259">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="AS259">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="AT259">
         <v>3.59</v>
@@ -55036,25 +55036,25 @@
         <v>2.7</v>
       </c>
       <c r="AN260">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="AO260">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AP260">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ260">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR260">
-        <v>2.03</v>
+        <v>2.33</v>
       </c>
       <c r="AS260">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="AT260">
-        <v>3.84</v>
+        <v>4.03</v>
       </c>
       <c r="AU260">
         <v>5</v>
@@ -55860,25 +55860,25 @@
         <v>1.09</v>
       </c>
       <c r="AN264">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="AO264">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="AP264">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ264">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR264">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="AS264">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="AT264">
-        <v>3.26</v>
+        <v>3.18</v>
       </c>
       <c r="AU264">
         <v>3</v>
@@ -56066,25 +56066,25 @@
         <v>1.05</v>
       </c>
       <c r="AN265">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AO265">
-        <v>2.39</v>
+        <v>2.19</v>
       </c>
       <c r="AP265">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ265">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR265">
-        <v>1.48</v>
+        <v>1.68</v>
       </c>
       <c r="AS265">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="AT265">
-        <v>3.5</v>
+        <v>3.41</v>
       </c>
       <c r="AU265">
         <v>2</v>
@@ -56272,25 +56272,25 @@
         <v>2.05</v>
       </c>
       <c r="AN266">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="AO266">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AP266">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ266">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR266">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="AS266">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="AT266">
-        <v>3.58</v>
+        <v>3.55</v>
       </c>
       <c r="AU266">
         <v>4</v>
@@ -58126,25 +58126,25 @@
         <v>2.71</v>
       </c>
       <c r="AN275">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="AO275">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="AP275">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ275">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR275">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="AS275">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="AT275">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="AU275">
         <v>7</v>
@@ -58332,25 +58332,25 @@
         <v>5</v>
       </c>
       <c r="AN276">
-        <v>2.41</v>
+        <v>2.59</v>
       </c>
       <c r="AO276">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="AP276">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ276">
+        <v>1.17</v>
+      </c>
+      <c r="AR276">
+        <v>2.29</v>
+      </c>
+      <c r="AS276">
         <v>1.39</v>
       </c>
-      <c r="AR276">
-        <v>2.02</v>
-      </c>
-      <c r="AS276">
-        <v>1.46</v>
-      </c>
       <c r="AT276">
-        <v>3.48</v>
+        <v>3.68</v>
       </c>
       <c r="AU276">
         <v>14</v>
@@ -58538,22 +58538,22 @@
         <v>2.1</v>
       </c>
       <c r="AN277">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AO277">
         <v>1.29</v>
       </c>
       <c r="AP277">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ277">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR277">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="AS277">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="AT277">
         <v>3.25</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ2">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2100,10 +2100,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ3">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2306,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2512,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ5">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ6">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ7">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ8">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ9">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3542,10 +3542,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ10">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR10">
         <v>1.83</v>
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ11">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR11">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>7</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ12">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR12">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>2</v>
@@ -4157,22 +4157,22 @@
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ13">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR13">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>3</v>
@@ -4363,22 +4363,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ14">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR14">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>4</v>
@@ -4566,25 +4566,25 @@
         <v>2.3</v>
       </c>
       <c r="AN15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ15">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>6</v>
@@ -4775,22 +4775,22 @@
         <v>3</v>
       </c>
       <c r="AO16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ16">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR16">
         <v>1.39</v>
       </c>
       <c r="AS16">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>3.26</v>
+        <v>1.39</v>
       </c>
       <c r="AU16">
         <v>6</v>
@@ -4984,19 +4984,19 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ17">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR17">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AS17">
         <v>0.8</v>
       </c>
       <c r="AT17">
-        <v>2.01</v>
+        <v>0.8</v>
       </c>
       <c r="AU17">
         <v>6</v>
@@ -5184,25 +5184,25 @@
         <v>1.85</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO18">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ18">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR18">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="AS18">
-        <v>1.34</v>
+        <v>0.87</v>
       </c>
       <c r="AT18">
-        <v>2.41</v>
+        <v>1.99</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5393,22 +5393,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ19">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR19">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="AS19">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>3.64</v>
+        <v>2.28</v>
       </c>
       <c r="AU19">
         <v>14</v>
@@ -5596,25 +5596,25 @@
         <v>1.4</v>
       </c>
       <c r="AN20">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ20">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR20">
-        <v>1.59</v>
+        <v>2.09</v>
       </c>
       <c r="AS20">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AT20">
-        <v>3.1</v>
+        <v>2.09</v>
       </c>
       <c r="AU20">
         <v>3</v>
@@ -5802,25 +5802,25 @@
         <v>1.87</v>
       </c>
       <c r="AN21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO21">
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ21">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR21">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AT21">
-        <v>2.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU21">
         <v>8</v>
@@ -6014,19 +6014,19 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ22">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR22">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AS22">
         <v>1.31</v>
       </c>
       <c r="AT22">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AU22">
         <v>4</v>
@@ -6214,25 +6214,25 @@
         <v>1.75</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO23">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ23">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR23">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="AS23">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="AT23">
-        <v>3.29</v>
+        <v>3.49</v>
       </c>
       <c r="AU23">
         <v>3</v>
@@ -6420,25 +6420,25 @@
         <v>2.45</v>
       </c>
       <c r="AN24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ24">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR24">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="AS24">
-        <v>1.36</v>
+        <v>1.59</v>
       </c>
       <c r="AT24">
-        <v>2.84</v>
+        <v>3.34</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -6632,19 +6632,19 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ25">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR25">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="AS25">
-        <v>1.03</v>
+        <v>1.37</v>
       </c>
       <c r="AT25">
-        <v>2.66</v>
+        <v>3.09</v>
       </c>
       <c r="AU25">
         <v>18</v>
@@ -6832,25 +6832,25 @@
         <v>1.9</v>
       </c>
       <c r="AN26">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AO26">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ26">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR26">
-        <v>1.41</v>
+        <v>1.14</v>
       </c>
       <c r="AS26">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="AT26">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="AU26">
         <v>6</v>
@@ -7041,22 +7041,22 @@
         <v>0</v>
       </c>
       <c r="AO27">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP27">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR27">
-        <v>0.9399999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="AS27">
-        <v>1.45</v>
+        <v>1.19</v>
       </c>
       <c r="AT27">
-        <v>2.39</v>
+        <v>1.89</v>
       </c>
       <c r="AU27">
         <v>7</v>
@@ -7244,25 +7244,25 @@
         <v>1.15</v>
       </c>
       <c r="AN28">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO28">
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR28">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="AT28">
-        <v>3.71</v>
+        <v>2</v>
       </c>
       <c r="AU28">
         <v>3</v>
@@ -7450,25 +7450,25 @@
         <v>1.16</v>
       </c>
       <c r="AN29">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO29">
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ29">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR29">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AS29">
-        <v>2.39</v>
+        <v>1.53</v>
       </c>
       <c r="AT29">
-        <v>3.93</v>
+        <v>3.04</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -7656,25 +7656,25 @@
         <v>1.5</v>
       </c>
       <c r="AN30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO30">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ30">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR30">
-        <v>1.62</v>
+        <v>1.89</v>
       </c>
       <c r="AS30">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="AT30">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="AU30">
         <v>6</v>
@@ -7862,25 +7862,25 @@
         <v>2.3</v>
       </c>
       <c r="AN31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO31">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ31">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR31">
-        <v>1.19</v>
+        <v>1.82</v>
       </c>
       <c r="AS31">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AT31">
-        <v>2.19</v>
+        <v>2.9</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -8068,25 +8068,25 @@
         <v>1.9</v>
       </c>
       <c r="AN32">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ32">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR32">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="AS32">
-        <v>1.66</v>
+        <v>1.09</v>
       </c>
       <c r="AT32">
-        <v>2.98</v>
+        <v>2.59</v>
       </c>
       <c r="AU32">
         <v>3</v>
@@ -8277,22 +8277,22 @@
         <v>0</v>
       </c>
       <c r="AO33">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR33">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="AS33">
-        <v>1.55</v>
+        <v>1.21</v>
       </c>
       <c r="AT33">
-        <v>2.87</v>
+        <v>2.38</v>
       </c>
       <c r="AU33">
         <v>3</v>
@@ -8480,25 +8480,25 @@
         <v>1.72</v>
       </c>
       <c r="AN34">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO34">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ34">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR34">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AS34">
-        <v>1.31</v>
+        <v>1.59</v>
       </c>
       <c r="AT34">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8686,25 +8686,25 @@
         <v>1.95</v>
       </c>
       <c r="AN35">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ35">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR35">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AS35">
-        <v>1.32</v>
+        <v>0.95</v>
       </c>
       <c r="AT35">
-        <v>2.82</v>
+        <v>2.52</v>
       </c>
       <c r="AU35">
         <v>6</v>
@@ -8892,25 +8892,25 @@
         <v>1.58</v>
       </c>
       <c r="AN36">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO36">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ36">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR36">
-        <v>1.62</v>
+        <v>1.94</v>
       </c>
       <c r="AS36">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="AT36">
-        <v>2.85</v>
+        <v>3.31</v>
       </c>
       <c r="AU36">
         <v>3</v>
@@ -9098,25 +9098,25 @@
         <v>1.15</v>
       </c>
       <c r="AN37">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO37">
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ37">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR37">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="AS37">
-        <v>2.24</v>
+        <v>1.97</v>
       </c>
       <c r="AT37">
-        <v>3.29</v>
+        <v>2.93</v>
       </c>
       <c r="AU37">
         <v>4</v>
@@ -9304,25 +9304,25 @@
         <v>2.25</v>
       </c>
       <c r="AN38">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO38">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ38">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR38">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AS38">
-        <v>1.3</v>
+        <v>0.87</v>
       </c>
       <c r="AT38">
-        <v>3.06</v>
+        <v>2.59</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9510,25 +9510,25 @@
         <v>1.88</v>
       </c>
       <c r="AN39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO39">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ39">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR39">
-        <v>1.14</v>
+        <v>1.69</v>
       </c>
       <c r="AS39">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="AT39">
-        <v>2.33</v>
+        <v>2.75</v>
       </c>
       <c r="AU39">
         <v>4</v>
@@ -9719,22 +9719,22 @@
         <v>0</v>
       </c>
       <c r="AO40">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP40">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ40">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR40">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AS40">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="AT40">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="AU40">
         <v>7</v>
@@ -9925,22 +9925,22 @@
         <v>3</v>
       </c>
       <c r="AO41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ41">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR41">
-        <v>2.23</v>
+        <v>2.82</v>
       </c>
       <c r="AS41">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="AT41">
-        <v>3.78</v>
+        <v>4.36</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -10128,25 +10128,25 @@
         <v>1.72</v>
       </c>
       <c r="AN42">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AO42">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ42">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR42">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="AS42">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AT42">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -10334,25 +10334,25 @@
         <v>1.33</v>
       </c>
       <c r="AN43">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AO43">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ43">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR43">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="AS43">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AT43">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="AU43">
         <v>5</v>
@@ -10540,25 +10540,25 @@
         <v>2.3</v>
       </c>
       <c r="AN44">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AO44">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AP44">
+        <v>1.35</v>
+      </c>
+      <c r="AQ44">
+        <v>0.28</v>
+      </c>
+      <c r="AR44">
+        <v>1.56</v>
+      </c>
+      <c r="AS44">
         <v>1.4</v>
       </c>
-      <c r="AQ44">
-        <v>0.83</v>
-      </c>
-      <c r="AR44">
-        <v>1.38</v>
-      </c>
-      <c r="AS44">
-        <v>1.34</v>
-      </c>
       <c r="AT44">
-        <v>2.72</v>
+        <v>2.96</v>
       </c>
       <c r="AU44">
         <v>6</v>
@@ -10746,25 +10746,25 @@
         <v>2.1</v>
       </c>
       <c r="AN45">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AO45">
-        <v>1.4</v>
+        <v>0.33</v>
       </c>
       <c r="AP45">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ45">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR45">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="AS45">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="AT45">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU45">
         <v>7</v>
@@ -10952,25 +10952,25 @@
         <v>1.8</v>
       </c>
       <c r="AN46">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AO46">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ46">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR46">
-        <v>1.25</v>
+        <v>1.72</v>
       </c>
       <c r="AS46">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AT46">
-        <v>2.74</v>
+        <v>3.15</v>
       </c>
       <c r="AU46">
         <v>5</v>
@@ -11158,25 +11158,25 @@
         <v>1.06</v>
       </c>
       <c r="AN47">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO47">
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ47">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR47">
-        <v>1.21</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS47">
-        <v>2.12</v>
+        <v>1.64</v>
       </c>
       <c r="AT47">
-        <v>3.33</v>
+        <v>2.45</v>
       </c>
       <c r="AU47">
         <v>2</v>
@@ -11364,25 +11364,25 @@
         <v>4.75</v>
       </c>
       <c r="AN48">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AO48">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ48">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR48">
-        <v>1.9</v>
+        <v>2.51</v>
       </c>
       <c r="AS48">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="AT48">
-        <v>3.43</v>
+        <v>3.8</v>
       </c>
       <c r="AU48">
         <v>12</v>
@@ -11570,25 +11570,25 @@
         <v>1.6</v>
       </c>
       <c r="AN49">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO49">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ49">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR49">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="AS49">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="AT49">
-        <v>2.5</v>
+        <v>2.08</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11776,25 +11776,25 @@
         <v>2.55</v>
       </c>
       <c r="AN50">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AO50">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ50">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR50">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AS50">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AT50">
-        <v>2.55</v>
+        <v>2.44</v>
       </c>
       <c r="AU50">
         <v>7</v>
@@ -11982,25 +11982,25 @@
         <v>1.5</v>
       </c>
       <c r="AN51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO51">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ51">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR51">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AS51">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT51">
-        <v>2.5</v>
+        <v>2.61</v>
       </c>
       <c r="AU51">
         <v>6</v>
@@ -12188,25 +12188,25 @@
         <v>1.78</v>
       </c>
       <c r="AN52">
+        <v>2.33</v>
+      </c>
+      <c r="AO52">
+        <v>2</v>
+      </c>
+      <c r="AP52">
+        <v>1.35</v>
+      </c>
+      <c r="AQ52">
         <v>1.17</v>
       </c>
-      <c r="AO52">
-        <v>1.6</v>
-      </c>
-      <c r="AP52">
-        <v>1.4</v>
-      </c>
-      <c r="AQ52">
-        <v>1.39</v>
-      </c>
       <c r="AR52">
+        <v>1.69</v>
+      </c>
+      <c r="AS52">
         <v>1.47</v>
       </c>
-      <c r="AS52">
-        <v>1.32</v>
-      </c>
       <c r="AT52">
-        <v>2.79</v>
+        <v>3.16</v>
       </c>
       <c r="AU52">
         <v>7</v>
@@ -12394,25 +12394,25 @@
         <v>2.7</v>
       </c>
       <c r="AN53">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO53">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ53">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR53">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="AS53">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AT53">
-        <v>3.31</v>
+        <v>3.03</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12600,25 +12600,25 @@
         <v>1.18</v>
       </c>
       <c r="AN54">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO54">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ54">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR54">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AS54">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT54">
-        <v>3.45</v>
+        <v>3.03</v>
       </c>
       <c r="AU54">
         <v>7</v>
@@ -12806,25 +12806,25 @@
         <v>6.75</v>
       </c>
       <c r="AN55">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="AO55">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ55">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR55">
-        <v>1.97</v>
+        <v>2.44</v>
       </c>
       <c r="AS55">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="AT55">
-        <v>3.43</v>
+        <v>3.66</v>
       </c>
       <c r="AU55">
         <v>13</v>
@@ -13012,25 +13012,25 @@
         <v>1.5</v>
       </c>
       <c r="AN56">
-        <v>1.17</v>
+        <v>3</v>
       </c>
       <c r="AO56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ56">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR56">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="AS56">
-        <v>1.27</v>
+        <v>0.93</v>
       </c>
       <c r="AT56">
-        <v>2.44</v>
+        <v>2.37</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -13221,22 +13221,22 @@
         <v>1.33</v>
       </c>
       <c r="AO57">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AP57">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ57">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR57">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AS57">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="AT57">
-        <v>2.58</v>
+        <v>2.26</v>
       </c>
       <c r="AU57">
         <v>6</v>
@@ -13424,25 +13424,25 @@
         <v>2.45</v>
       </c>
       <c r="AN58">
-        <v>2.14</v>
+        <v>3</v>
       </c>
       <c r="AO58">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR58">
-        <v>1.26</v>
+        <v>1.61</v>
       </c>
       <c r="AS58">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AT58">
-        <v>2.57</v>
+        <v>2.97</v>
       </c>
       <c r="AU58">
         <v>7</v>
@@ -13630,25 +13630,25 @@
         <v>1.55</v>
       </c>
       <c r="AN59">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AO59">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ59">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR59">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AS59">
-        <v>1.55</v>
+        <v>1.26</v>
       </c>
       <c r="AT59">
-        <v>3.11</v>
+        <v>3.07</v>
       </c>
       <c r="AU59">
         <v>5</v>
@@ -13836,25 +13836,25 @@
         <v>1.68</v>
       </c>
       <c r="AN60">
-        <v>0.57</v>
+        <v>1.33</v>
       </c>
       <c r="AO60">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ60">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR60">
-        <v>1.38</v>
+        <v>1.7</v>
       </c>
       <c r="AS60">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AT60">
-        <v>2.6</v>
+        <v>3.03</v>
       </c>
       <c r="AU60">
         <v>3</v>
@@ -14045,22 +14045,22 @@
         <v>1</v>
       </c>
       <c r="AO61">
-        <v>2.71</v>
+        <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ61">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR61">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AS61">
-        <v>2.09</v>
+        <v>1.51</v>
       </c>
       <c r="AT61">
-        <v>3.37</v>
+        <v>2.95</v>
       </c>
       <c r="AU61">
         <v>2</v>
@@ -14248,25 +14248,25 @@
         <v>1.14</v>
       </c>
       <c r="AN62">
-        <v>0.57</v>
+        <v>1.33</v>
       </c>
       <c r="AO62">
-        <v>2.17</v>
+        <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ62">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR62">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="AS62">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT62">
-        <v>2.93</v>
+        <v>3.15</v>
       </c>
       <c r="AU62">
         <v>3</v>
@@ -14454,25 +14454,25 @@
         <v>1.68</v>
       </c>
       <c r="AN63">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AO63">
-        <v>1.14</v>
+        <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ63">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR63">
-        <v>1.26</v>
+        <v>0.9</v>
       </c>
       <c r="AS63">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AT63">
-        <v>2.74</v>
+        <v>2.26</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14660,25 +14660,25 @@
         <v>2.95</v>
       </c>
       <c r="AN64">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="AO64">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ64">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR64">
-        <v>2.03</v>
+        <v>2.5</v>
       </c>
       <c r="AS64">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AT64">
-        <v>3.45</v>
+        <v>3.83</v>
       </c>
       <c r="AU64">
         <v>10</v>
@@ -14869,22 +14869,22 @@
         <v>1.75</v>
       </c>
       <c r="AO65">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ65">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR65">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="AS65">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="AT65">
-        <v>2.78</v>
+        <v>2.63</v>
       </c>
       <c r="AU65">
         <v>6</v>
@@ -15072,25 +15072,25 @@
         <v>1.95</v>
       </c>
       <c r="AN66">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AO66">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ66">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR66">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AS66">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AT66">
-        <v>2.78</v>
+        <v>2.83</v>
       </c>
       <c r="AU66">
         <v>8</v>
@@ -15278,25 +15278,25 @@
         <v>2.45</v>
       </c>
       <c r="AN67">
-        <v>1.38</v>
+        <v>2.5</v>
       </c>
       <c r="AO67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP67">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ67">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR67">
-        <v>1.52</v>
+        <v>1.77</v>
       </c>
       <c r="AS67">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AT67">
-        <v>2.67</v>
+        <v>2.87</v>
       </c>
       <c r="AU67">
         <v>12</v>
@@ -15484,25 +15484,25 @@
         <v>1.44</v>
       </c>
       <c r="AN68">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO68">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ68">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR68">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AS68">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT68">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="AU68">
         <v>2</v>
@@ -15690,25 +15690,25 @@
         <v>1.5</v>
       </c>
       <c r="AN69">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO69">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ69">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR69">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="AS69">
-        <v>1.32</v>
+        <v>0.99</v>
       </c>
       <c r="AT69">
-        <v>2.84</v>
+        <v>2.67</v>
       </c>
       <c r="AU69">
         <v>11</v>
@@ -15896,25 +15896,25 @@
         <v>4.25</v>
       </c>
       <c r="AN70">
-        <v>2.29</v>
+        <v>2.5</v>
       </c>
       <c r="AO70">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ70">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR70">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="AS70">
-        <v>1.21</v>
+        <v>1.07</v>
       </c>
       <c r="AT70">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="AU70">
         <v>9</v>
@@ -16102,25 +16102,25 @@
         <v>1.57</v>
       </c>
       <c r="AN71">
-        <v>0.88</v>
+        <v>2</v>
       </c>
       <c r="AO71">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AP71">
+        <v>1.82</v>
+      </c>
+      <c r="AQ71">
+        <v>0.76</v>
+      </c>
+      <c r="AR71">
+        <v>1.43</v>
+      </c>
+      <c r="AS71">
         <v>1.4</v>
       </c>
-      <c r="AQ71">
-        <v>1.17</v>
-      </c>
-      <c r="AR71">
-        <v>1.2</v>
-      </c>
-      <c r="AS71">
-        <v>1.29</v>
-      </c>
       <c r="AT71">
-        <v>2.49</v>
+        <v>2.83</v>
       </c>
       <c r="AU71">
         <v>7</v>
@@ -16308,22 +16308,22 @@
         <v>1.91</v>
       </c>
       <c r="AN72">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AO72">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ72">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR72">
-        <v>2.19</v>
+        <v>2.54</v>
       </c>
       <c r="AS72">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="AT72">
         <v>4.21</v>
@@ -16514,25 +16514,25 @@
         <v>1.6</v>
       </c>
       <c r="AN73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO73">
-        <v>1.56</v>
+        <v>0.25</v>
       </c>
       <c r="AP73">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ73">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR73">
-        <v>1.29</v>
+        <v>1.65</v>
       </c>
       <c r="AS73">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="AT73">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="AU73">
         <v>6</v>
@@ -16720,25 +16720,25 @@
         <v>1.66</v>
       </c>
       <c r="AN74">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="AO74">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP74">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ74">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR74">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="AS74">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AT74">
-        <v>2.39</v>
+        <v>2.58</v>
       </c>
       <c r="AU74">
         <v>5</v>
@@ -16926,25 +16926,25 @@
         <v>1.42</v>
       </c>
       <c r="AN75">
-        <v>0.5600000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AO75">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ75">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR75">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="AS75">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AT75">
-        <v>2.73</v>
+        <v>2.42</v>
       </c>
       <c r="AU75">
         <v>9</v>
@@ -17132,25 +17132,25 @@
         <v>1.42</v>
       </c>
       <c r="AN76">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="AO76">
-        <v>1.11</v>
+        <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR76">
-        <v>1.37</v>
+        <v>1.65</v>
       </c>
       <c r="AS76">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT76">
-        <v>2.98</v>
+        <v>3.23</v>
       </c>
       <c r="AU76">
         <v>8</v>
@@ -17338,25 +17338,25 @@
         <v>1.9</v>
       </c>
       <c r="AN77">
+        <v>3</v>
+      </c>
+      <c r="AO77">
+        <v>2</v>
+      </c>
+      <c r="AP77">
         <v>2.56</v>
       </c>
-      <c r="AO77">
-        <v>2.38</v>
-      </c>
-      <c r="AP77">
-        <v>2.49</v>
-      </c>
       <c r="AQ77">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR77">
-        <v>1.91</v>
+        <v>2.36</v>
       </c>
       <c r="AS77">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="AT77">
-        <v>3.83</v>
+        <v>4.42</v>
       </c>
       <c r="AU77">
         <v>4</v>
@@ -17547,22 +17547,22 @@
         <v>1.75</v>
       </c>
       <c r="AO78">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ78">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR78">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="AS78">
-        <v>1.61</v>
+        <v>1.36</v>
       </c>
       <c r="AT78">
-        <v>3.06</v>
+        <v>2.68</v>
       </c>
       <c r="AU78">
         <v>6</v>
@@ -17750,25 +17750,25 @@
         <v>1.02</v>
       </c>
       <c r="AN79">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AO79">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="AP79">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ79">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR79">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AS79">
-        <v>2.09</v>
+        <v>1.85</v>
       </c>
       <c r="AT79">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="AU79">
         <v>3</v>
@@ -17956,25 +17956,25 @@
         <v>1.57</v>
       </c>
       <c r="AN80">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AO80">
+        <v>0.2</v>
+      </c>
+      <c r="AP80">
         <v>1.11</v>
       </c>
-      <c r="AP80">
-        <v>1.14</v>
-      </c>
       <c r="AQ80">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR80">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AS80">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="AT80">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="AU80">
         <v>3</v>
@@ -18162,25 +18162,25 @@
         <v>2.5</v>
       </c>
       <c r="AN81">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AO81">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AP81">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ81">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR81">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="AS81">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AT81">
-        <v>2.49</v>
+        <v>2.76</v>
       </c>
       <c r="AU81">
         <v>6</v>
@@ -18368,25 +18368,25 @@
         <v>1.68</v>
       </c>
       <c r="AN82">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AO82">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AP82">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ82">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR82">
-        <v>1.34</v>
+        <v>1.67</v>
       </c>
       <c r="AS82">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AT82">
-        <v>2.81</v>
+        <v>3.24</v>
       </c>
       <c r="AU82">
         <v>8</v>
@@ -18574,25 +18574,25 @@
         <v>2.5</v>
       </c>
       <c r="AN83">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AO83">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP83">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ83">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR83">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AS83">
-        <v>1.15</v>
+        <v>1.02</v>
       </c>
       <c r="AT83">
-        <v>2.71</v>
+        <v>2.83</v>
       </c>
       <c r="AU83">
         <v>7</v>
@@ -18780,25 +18780,25 @@
         <v>1.87</v>
       </c>
       <c r="AN84">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="AO84">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AP84">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ84">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR84">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="AS84">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="AT84">
-        <v>2.74</v>
+        <v>2.37</v>
       </c>
       <c r="AU84">
         <v>4</v>
@@ -18986,25 +18986,25 @@
         <v>2.6</v>
       </c>
       <c r="AN85">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="AO85">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ85">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR85">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="AS85">
-        <v>1.18</v>
+        <v>1.03</v>
       </c>
       <c r="AT85">
-        <v>2.85</v>
+        <v>3.01</v>
       </c>
       <c r="AU85">
         <v>7</v>
@@ -19192,25 +19192,25 @@
         <v>1.11</v>
       </c>
       <c r="AN86">
-        <v>1.1</v>
+        <v>2.25</v>
       </c>
       <c r="AO86">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AP86">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ86">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR86">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="AS86">
-        <v>1.84</v>
+        <v>1.55</v>
       </c>
       <c r="AT86">
-        <v>3.09</v>
+        <v>3.01</v>
       </c>
       <c r="AU86">
         <v>6</v>
@@ -19398,25 +19398,25 @@
         <v>3.1</v>
       </c>
       <c r="AN87">
-        <v>2.11</v>
+        <v>2.6</v>
       </c>
       <c r="AO87">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ87">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR87">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="AS87">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AT87">
-        <v>3.14</v>
+        <v>3.19</v>
       </c>
       <c r="AU87">
         <v>8</v>
@@ -19604,25 +19604,25 @@
         <v>1.12</v>
       </c>
       <c r="AN88">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AO88">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AP88">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ88">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR88">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AS88">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="AT88">
-        <v>3.68</v>
+        <v>3.47</v>
       </c>
       <c r="AU88">
         <v>8</v>
@@ -19810,25 +19810,25 @@
         <v>1.3</v>
       </c>
       <c r="AN89">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="AO89">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ89">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR89">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="AS89">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AT89">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="AU89">
         <v>8</v>
@@ -20016,25 +20016,25 @@
         <v>1.42</v>
       </c>
       <c r="AN90">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AO90">
-        <v>1.91</v>
+        <v>1.2</v>
       </c>
       <c r="AP90">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ90">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR90">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AS90">
-        <v>1.37</v>
+        <v>1</v>
       </c>
       <c r="AT90">
-        <v>2.54</v>
+        <v>2.28</v>
       </c>
       <c r="AU90">
         <v>4</v>
@@ -20222,25 +20222,25 @@
         <v>1.63</v>
       </c>
       <c r="AN91">
-        <v>0.64</v>
+        <v>1.4</v>
       </c>
       <c r="AO91">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP91">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ91">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR91">
-        <v>1.37</v>
+        <v>1.63</v>
       </c>
       <c r="AS91">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="AT91">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="AU91">
         <v>6</v>
@@ -20428,25 +20428,25 @@
         <v>1.2</v>
       </c>
       <c r="AN92">
-        <v>0.91</v>
+        <v>1.17</v>
       </c>
       <c r="AO92">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="AP92">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ92">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR92">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AS92">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="AT92">
-        <v>3.48</v>
+        <v>3.41</v>
       </c>
       <c r="AU92">
         <v>7</v>
@@ -20634,22 +20634,22 @@
         <v>3.6</v>
       </c>
       <c r="AN93">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="AO93">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="AP93">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ93">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR93">
-        <v>2.04</v>
+        <v>2.29</v>
       </c>
       <c r="AS93">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="AT93">
         <v>3.44</v>
@@ -20840,25 +20840,25 @@
         <v>4.5</v>
       </c>
       <c r="AN94">
-        <v>2.64</v>
+        <v>3</v>
       </c>
       <c r="AO94">
-        <v>0.91</v>
+        <v>0.2</v>
       </c>
       <c r="AP94">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ94">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR94">
-        <v>1.79</v>
+        <v>2.14</v>
       </c>
       <c r="AS94">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="AT94">
-        <v>3.14</v>
+        <v>3.62</v>
       </c>
       <c r="AU94">
         <v>10</v>
@@ -21046,25 +21046,25 @@
         <v>1.3</v>
       </c>
       <c r="AN95">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AO95">
-        <v>1.64</v>
+        <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ95">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR95">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AS95">
-        <v>1.73</v>
+        <v>1.35</v>
       </c>
       <c r="AT95">
-        <v>2.85</v>
+        <v>2.42</v>
       </c>
       <c r="AU95">
         <v>2</v>
@@ -21252,25 +21252,25 @@
         <v>1.46</v>
       </c>
       <c r="AN96">
-        <v>0.73</v>
+        <v>1.25</v>
       </c>
       <c r="AO96">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AP96">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ96">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR96">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AS96">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="AT96">
-        <v>2.9</v>
+        <v>2.59</v>
       </c>
       <c r="AU96">
         <v>6</v>
@@ -21458,25 +21458,25 @@
         <v>2.05</v>
       </c>
       <c r="AN97">
-        <v>1.67</v>
+        <v>2.17</v>
       </c>
       <c r="AO97">
-        <v>1.08</v>
+        <v>0.6</v>
       </c>
       <c r="AP97">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ97">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR97">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AS97">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AT97">
-        <v>2.97</v>
+        <v>3.21</v>
       </c>
       <c r="AU97">
         <v>5</v>
@@ -21664,25 +21664,25 @@
         <v>1.87</v>
       </c>
       <c r="AN98">
-        <v>0.92</v>
+        <v>1.8</v>
       </c>
       <c r="AO98">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AP98">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ98">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR98">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="AS98">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="AT98">
-        <v>2.37</v>
+        <v>2.63</v>
       </c>
       <c r="AU98">
         <v>6</v>
@@ -21870,25 +21870,25 @@
         <v>2.55</v>
       </c>
       <c r="AN99">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="AO99">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AP99">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ99">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR99">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="AS99">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="AT99">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="AU99">
         <v>6</v>
@@ -22076,25 +22076,25 @@
         <v>1.87</v>
       </c>
       <c r="AN100">
-        <v>0.83</v>
+        <v>1.5</v>
       </c>
       <c r="AO100">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ100">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR100">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AS100">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="AT100">
-        <v>2.49</v>
+        <v>2.29</v>
       </c>
       <c r="AU100">
         <v>2</v>
@@ -22282,25 +22282,25 @@
         <v>2.25</v>
       </c>
       <c r="AN101">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="AO101">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="AP101">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ101">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR101">
-        <v>1.71</v>
+        <v>2.05</v>
       </c>
       <c r="AS101">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AT101">
-        <v>3.06</v>
+        <v>3.39</v>
       </c>
       <c r="AU101">
         <v>6</v>
@@ -22488,25 +22488,25 @@
         <v>3.4</v>
       </c>
       <c r="AN102">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AO102">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ102">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR102">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="AS102">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="AT102">
-        <v>3.23</v>
+        <v>3.06</v>
       </c>
       <c r="AU102">
         <v>2</v>
@@ -22694,25 +22694,25 @@
         <v>1.17</v>
       </c>
       <c r="AN103">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AO103">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP103">
+        <v>1.61</v>
+      </c>
+      <c r="AQ103">
+        <v>2.41</v>
+      </c>
+      <c r="AR103">
         <v>1.39</v>
       </c>
-      <c r="AQ103">
-        <v>2.49</v>
-      </c>
-      <c r="AR103">
-        <v>1.52</v>
-      </c>
       <c r="AS103">
-        <v>1.82</v>
+        <v>1.49</v>
       </c>
       <c r="AT103">
-        <v>3.34</v>
+        <v>2.88</v>
       </c>
       <c r="AU103">
         <v>8</v>
@@ -22900,25 +22900,25 @@
         <v>1.12</v>
       </c>
       <c r="AN104">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AO104">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AP104">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ104">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR104">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AS104">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="AT104">
-        <v>3.51</v>
+        <v>3.64</v>
       </c>
       <c r="AU104">
         <v>3</v>
@@ -23106,25 +23106,25 @@
         <v>1.9</v>
       </c>
       <c r="AN105">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AO105">
-        <v>0.54</v>
+        <v>0.29</v>
       </c>
       <c r="AP105">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ105">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR105">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AS105">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT105">
-        <v>2.31</v>
+        <v>2.2</v>
       </c>
       <c r="AU105">
         <v>3</v>
@@ -23312,25 +23312,25 @@
         <v>1.57</v>
       </c>
       <c r="AN106">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AO106">
-        <v>1.77</v>
+        <v>1.17</v>
       </c>
       <c r="AP106">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ106">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR106">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AS106">
-        <v>1.43</v>
+        <v>1.04</v>
       </c>
       <c r="AT106">
-        <v>2.79</v>
+        <v>2.41</v>
       </c>
       <c r="AU106">
         <v>2</v>
@@ -23521,19 +23521,19 @@
         <v>1</v>
       </c>
       <c r="AO107">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="AP107">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ107">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR107">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="AS107">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="AT107">
         <v>2.65</v>
@@ -23724,25 +23724,25 @@
         <v>2.38</v>
       </c>
       <c r="AN108">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AO108">
-        <v>1.08</v>
+        <v>0.29</v>
       </c>
       <c r="AP108">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ108">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR108">
-        <v>1.37</v>
+        <v>1.63</v>
       </c>
       <c r="AS108">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AT108">
-        <v>2.67</v>
+        <v>2.78</v>
       </c>
       <c r="AU108">
         <v>4</v>
@@ -23930,25 +23930,25 @@
         <v>3.5</v>
       </c>
       <c r="AN109">
-        <v>2.46</v>
+        <v>3</v>
       </c>
       <c r="AO109">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AP109">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ109">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR109">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="AS109">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="AT109">
-        <v>3.33</v>
+        <v>3.32</v>
       </c>
       <c r="AU109">
         <v>7</v>
@@ -24136,25 +24136,25 @@
         <v>1.3</v>
       </c>
       <c r="AN110">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO110">
+        <v>1.17</v>
+      </c>
+      <c r="AP110">
+        <v>1.12</v>
+      </c>
+      <c r="AQ110">
+        <v>1.44</v>
+      </c>
+      <c r="AR110">
         <v>1.62</v>
       </c>
-      <c r="AP110">
-        <v>0.91</v>
-      </c>
-      <c r="AQ110">
-        <v>1.4</v>
-      </c>
-      <c r="AR110">
-        <v>1.42</v>
-      </c>
       <c r="AS110">
-        <v>1.75</v>
+        <v>1.37</v>
       </c>
       <c r="AT110">
-        <v>3.17</v>
+        <v>2.99</v>
       </c>
       <c r="AU110">
         <v>10</v>
@@ -24342,25 +24342,25 @@
         <v>2.3</v>
       </c>
       <c r="AN111">
-        <v>1.08</v>
+        <v>1.43</v>
       </c>
       <c r="AO111">
-        <v>0.77</v>
+        <v>0.17</v>
       </c>
       <c r="AP111">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ111">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR111">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AS111">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AT111">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="AU111">
         <v>6</v>
@@ -24548,25 +24548,25 @@
         <v>2.45</v>
       </c>
       <c r="AN112">
-        <v>2.54</v>
+        <v>2.67</v>
       </c>
       <c r="AO112">
-        <v>1.83</v>
+        <v>1.2</v>
       </c>
       <c r="AP112">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ112">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR112">
-        <v>1.99</v>
+        <v>2.19</v>
       </c>
       <c r="AS112">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT112">
-        <v>3.82</v>
+        <v>3.96</v>
       </c>
       <c r="AU112">
         <v>3</v>
@@ -24754,25 +24754,25 @@
         <v>1.38</v>
       </c>
       <c r="AN113">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AO113">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AP113">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ113">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR113">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="AS113">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AT113">
-        <v>2.48</v>
+        <v>2.71</v>
       </c>
       <c r="AU113">
         <v>4</v>
@@ -24960,25 +24960,25 @@
         <v>1.47</v>
       </c>
       <c r="AN114">
-        <v>1.07</v>
+        <v>2</v>
       </c>
       <c r="AO114">
-        <v>1.21</v>
+        <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ114">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR114">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="AS114">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AT114">
-        <v>2.87</v>
+        <v>3.04</v>
       </c>
       <c r="AU114">
         <v>7</v>
@@ -25166,25 +25166,25 @@
         <v>1.75</v>
       </c>
       <c r="AN115">
-        <v>0.71</v>
+        <v>1.29</v>
       </c>
       <c r="AO115">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AP115">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ115">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR115">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AS115">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT115">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AU115">
         <v>6</v>
@@ -25372,25 +25372,25 @@
         <v>2.65</v>
       </c>
       <c r="AN116">
-        <v>1.77</v>
+        <v>2.17</v>
       </c>
       <c r="AO116">
-        <v>0.93</v>
+        <v>1.17</v>
       </c>
       <c r="AP116">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ116">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR116">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AS116">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT116">
-        <v>2.64</v>
+        <v>2.51</v>
       </c>
       <c r="AU116">
         <v>5</v>
@@ -25578,25 +25578,25 @@
         <v>2.1</v>
       </c>
       <c r="AN117">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AO117">
-        <v>0.93</v>
+        <v>0.43</v>
       </c>
       <c r="AP117">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ117">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR117">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AS117">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AT117">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="AU117">
         <v>6</v>
@@ -25784,25 +25784,25 @@
         <v>2.4</v>
       </c>
       <c r="AN118">
-        <v>1.92</v>
+        <v>2.29</v>
       </c>
       <c r="AO118">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="AP118">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ118">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR118">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="AS118">
-        <v>1.36</v>
+        <v>1.07</v>
       </c>
       <c r="AT118">
-        <v>3.14</v>
+        <v>2.94</v>
       </c>
       <c r="AU118">
         <v>7</v>
@@ -25990,25 +25990,25 @@
         <v>1.2</v>
       </c>
       <c r="AN119">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO119">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AP119">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ119">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR119">
-        <v>1.81</v>
+        <v>2.07</v>
       </c>
       <c r="AS119">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="AT119">
-        <v>3.69</v>
+        <v>3.73</v>
       </c>
       <c r="AU119">
         <v>7</v>
@@ -26196,25 +26196,25 @@
         <v>1.2</v>
       </c>
       <c r="AN120">
-        <v>1.71</v>
+        <v>2.29</v>
       </c>
       <c r="AO120">
-        <v>2.36</v>
+        <v>2.43</v>
       </c>
       <c r="AP120">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ120">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR120">
-        <v>1.42</v>
+        <v>1.76</v>
       </c>
       <c r="AS120">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="AT120">
-        <v>3.34</v>
+        <v>3.58</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -26402,25 +26402,25 @@
         <v>1.33</v>
       </c>
       <c r="AN121">
-        <v>0.87</v>
+        <v>1.43</v>
       </c>
       <c r="AO121">
-        <v>1.6</v>
+        <v>1.14</v>
       </c>
       <c r="AP121">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ121">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR121">
-        <v>1.45</v>
+        <v>1.69</v>
       </c>
       <c r="AS121">
-        <v>1.41</v>
+        <v>1.09</v>
       </c>
       <c r="AT121">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="AU121">
         <v>6</v>
@@ -26608,25 +26608,25 @@
         <v>1.2</v>
       </c>
       <c r="AN122">
-        <v>1.07</v>
+        <v>1.86</v>
       </c>
       <c r="AO122">
-        <v>1.79</v>
+        <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ122">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR122">
-        <v>1.29</v>
+        <v>1.51</v>
       </c>
       <c r="AS122">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AT122">
-        <v>3.07</v>
+        <v>3.18</v>
       </c>
       <c r="AU122">
         <v>5</v>
@@ -26814,25 +26814,25 @@
         <v>1.47</v>
       </c>
       <c r="AN123">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AO123">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AP123">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ123">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR123">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="AS123">
-        <v>1.46</v>
+        <v>1.17</v>
       </c>
       <c r="AT123">
-        <v>2.59</v>
+        <v>2.22</v>
       </c>
       <c r="AU123">
         <v>8</v>
@@ -27020,25 +27020,25 @@
         <v>1.63</v>
       </c>
       <c r="AN124">
-        <v>1.2</v>
+        <v>1.63</v>
       </c>
       <c r="AO124">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="AP124">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ124">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR124">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AS124">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AT124">
-        <v>3.04</v>
+        <v>3.14</v>
       </c>
       <c r="AU124">
         <v>8</v>
@@ -27226,25 +27226,25 @@
         <v>5</v>
       </c>
       <c r="AN125">
-        <v>2.4</v>
+        <v>2.29</v>
       </c>
       <c r="AO125">
-        <v>0.67</v>
+        <v>0.14</v>
       </c>
       <c r="AP125">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ125">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR125">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="AS125">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AT125">
-        <v>3.25</v>
+        <v>3.37</v>
       </c>
       <c r="AU125">
         <v>10</v>
@@ -27432,25 +27432,25 @@
         <v>1.95</v>
       </c>
       <c r="AN126">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AO126">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ126">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR126">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AS126">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT126">
-        <v>2.57</v>
+        <v>2.44</v>
       </c>
       <c r="AU126">
         <v>12</v>
@@ -27638,25 +27638,25 @@
         <v>1.63</v>
       </c>
       <c r="AN127">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AO127">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AP127">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ127">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR127">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AS127">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="AT127">
-        <v>3.21</v>
+        <v>3.14</v>
       </c>
       <c r="AU127">
         <v>7</v>
@@ -27844,25 +27844,25 @@
         <v>4.75</v>
       </c>
       <c r="AN128">
-        <v>2.53</v>
+        <v>3</v>
       </c>
       <c r="AO128">
-        <v>0.73</v>
+        <v>0.63</v>
       </c>
       <c r="AP128">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ128">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR128">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AS128">
-        <v>1.17</v>
+        <v>0.98</v>
       </c>
       <c r="AT128">
-        <v>2.97</v>
+        <v>3.08</v>
       </c>
       <c r="AU128">
         <v>8</v>
@@ -28050,25 +28050,25 @@
         <v>1.63</v>
       </c>
       <c r="AN129">
+        <v>2</v>
+      </c>
+      <c r="AO129">
+        <v>1.43</v>
+      </c>
+      <c r="AP129">
+        <v>1.38</v>
+      </c>
+      <c r="AQ129">
+        <v>1.22</v>
+      </c>
+      <c r="AR129">
         <v>1.69</v>
       </c>
-      <c r="AO129">
-        <v>1.75</v>
-      </c>
-      <c r="AP129">
-        <v>1.16</v>
-      </c>
-      <c r="AQ129">
-        <v>1.26</v>
-      </c>
-      <c r="AR129">
-        <v>1.44</v>
-      </c>
       <c r="AS129">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="AT129">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="AU129">
         <v>3</v>
@@ -28256,25 +28256,25 @@
         <v>1.13</v>
       </c>
       <c r="AN130">
-        <v>0.8100000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AO130">
-        <v>2.56</v>
+        <v>2.13</v>
       </c>
       <c r="AP130">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ130">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR130">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AS130">
-        <v>1.82</v>
+        <v>1.54</v>
       </c>
       <c r="AT130">
-        <v>3.03</v>
+        <v>2.79</v>
       </c>
       <c r="AU130">
         <v>5</v>
@@ -28462,25 +28462,25 @@
         <v>1.35</v>
       </c>
       <c r="AN131">
-        <v>1.73</v>
+        <v>2.29</v>
       </c>
       <c r="AO131">
-        <v>1.73</v>
+        <v>1.43</v>
       </c>
       <c r="AP131">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ131">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR131">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="AS131">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT131">
-        <v>3.27</v>
+        <v>3.14</v>
       </c>
       <c r="AU131">
         <v>5</v>
@@ -28668,25 +28668,25 @@
         <v>2</v>
       </c>
       <c r="AN132">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AO132">
         <v>1.25</v>
       </c>
       <c r="AP132">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ132">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR132">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AS132">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AT132">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="AU132">
         <v>5</v>
@@ -28874,25 +28874,25 @@
         <v>4.6</v>
       </c>
       <c r="AN133">
-        <v>2.59</v>
+        <v>3</v>
       </c>
       <c r="AO133">
-        <v>1.12</v>
+        <v>0.78</v>
       </c>
       <c r="AP133">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ133">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR133">
-        <v>1.85</v>
+        <v>2.09</v>
       </c>
       <c r="AS133">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT133">
-        <v>3.3</v>
+        <v>3.51</v>
       </c>
       <c r="AU133">
         <v>6</v>
@@ -29080,25 +29080,25 @@
         <v>2.6</v>
       </c>
       <c r="AN134">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="AO134">
-        <v>0.6899999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP134">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ134">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR134">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AS134">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="AT134">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="AU134">
         <v>9</v>
@@ -29286,25 +29286,25 @@
         <v>2.18</v>
       </c>
       <c r="AN135">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO135">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AP135">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ135">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR135">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="AS135">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="AT135">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="AU135">
         <v>8</v>
@@ -29492,25 +29492,25 @@
         <v>1.38</v>
       </c>
       <c r="AN136">
-        <v>1.06</v>
+        <v>1.75</v>
       </c>
       <c r="AO136">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP136">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ136">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR136">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="AS136">
-        <v>1.78</v>
+        <v>1.49</v>
       </c>
       <c r="AT136">
-        <v>3.06</v>
+        <v>2.95</v>
       </c>
       <c r="AU136">
         <v>4</v>
@@ -29698,25 +29698,25 @@
         <v>4.3</v>
       </c>
       <c r="AN137">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="AO137">
-        <v>0.63</v>
+        <v>0.13</v>
       </c>
       <c r="AP137">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ137">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR137">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="AS137">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AT137">
-        <v>3.11</v>
+        <v>3.16</v>
       </c>
       <c r="AU137">
         <v>14</v>
@@ -29904,25 +29904,25 @@
         <v>3.4</v>
       </c>
       <c r="AN138">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="AO138">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="AP138">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ138">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR138">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="AS138">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AT138">
-        <v>3.47</v>
+        <v>3.65</v>
       </c>
       <c r="AU138">
         <v>12</v>
@@ -30110,25 +30110,25 @@
         <v>2.6</v>
       </c>
       <c r="AN139">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="AO139">
-        <v>0.8100000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="AP139">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ139">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR139">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AS139">
-        <v>1.49</v>
+        <v>1.23</v>
       </c>
       <c r="AT139">
-        <v>2.97</v>
+        <v>2.69</v>
       </c>
       <c r="AU139">
         <v>10</v>
@@ -30316,25 +30316,25 @@
         <v>1.65</v>
       </c>
       <c r="AN140">
-        <v>0.59</v>
+        <v>1.13</v>
       </c>
       <c r="AO140">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AP140">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ140">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR140">
         <v>1.33</v>
       </c>
       <c r="AS140">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="AT140">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="AU140">
         <v>2</v>
@@ -30522,25 +30522,25 @@
         <v>1.62</v>
       </c>
       <c r="AN141">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="AO141">
-        <v>1.41</v>
+        <v>0.71</v>
       </c>
       <c r="AP141">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ141">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR141">
-        <v>1.47</v>
+        <v>1.72</v>
       </c>
       <c r="AS141">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="AT141">
-        <v>3.06</v>
+        <v>3.2</v>
       </c>
       <c r="AU141">
         <v>2</v>
@@ -30728,25 +30728,25 @@
         <v>1.9</v>
       </c>
       <c r="AN142">
-        <v>1.06</v>
+        <v>1.5</v>
       </c>
       <c r="AO142">
-        <v>0.82</v>
+        <v>0.44</v>
       </c>
       <c r="AP142">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ142">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR142">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AS142">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="AT142">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AU142">
         <v>6</v>
@@ -30934,25 +30934,25 @@
         <v>1.42</v>
       </c>
       <c r="AN143">
-        <v>0.76</v>
+        <v>0.67</v>
       </c>
       <c r="AO143">
-        <v>1.39</v>
+        <v>0.75</v>
       </c>
       <c r="AP143">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ143">
+        <v>0.63</v>
+      </c>
+      <c r="AR143">
         <v>1.25</v>
       </c>
-      <c r="AR143">
-        <v>1.21</v>
-      </c>
       <c r="AS143">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="AT143">
-        <v>2.77</v>
+        <v>2.66</v>
       </c>
       <c r="AU143">
         <v>3</v>
@@ -31140,25 +31140,25 @@
         <v>1.52</v>
       </c>
       <c r="AN144">
-        <v>0.65</v>
+        <v>0.86</v>
       </c>
       <c r="AO144">
-        <v>1.11</v>
+        <v>0.67</v>
       </c>
       <c r="AP144">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ144">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR144">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="AS144">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT144">
-        <v>2.51</v>
+        <v>2.62</v>
       </c>
       <c r="AU144">
         <v>5</v>
@@ -31346,25 +31346,25 @@
         <v>1.59</v>
       </c>
       <c r="AN145">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="AO145">
-        <v>1.78</v>
+        <v>1.38</v>
       </c>
       <c r="AP145">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ145">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR145">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AS145">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="AT145">
-        <v>2.99</v>
+        <v>2.78</v>
       </c>
       <c r="AU145">
         <v>0</v>
@@ -31552,25 +31552,25 @@
         <v>2.25</v>
       </c>
       <c r="AN146">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AO146">
-        <v>0.5600000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="AP146">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ146">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR146">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AS146">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AT146">
-        <v>2.79</v>
+        <v>2.98</v>
       </c>
       <c r="AU146">
         <v>2</v>
@@ -31758,25 +31758,25 @@
         <v>1.3</v>
       </c>
       <c r="AN147">
-        <v>1.65</v>
+        <v>1.89</v>
       </c>
       <c r="AO147">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="AP147">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ147">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR147">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="AS147">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="AT147">
-        <v>3.25</v>
+        <v>3.32</v>
       </c>
       <c r="AU147">
         <v>7</v>
@@ -31964,25 +31964,25 @@
         <v>1.15</v>
       </c>
       <c r="AN148">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="AO148">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AP148">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ148">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR148">
-        <v>1.81</v>
+        <v>2.08</v>
       </c>
       <c r="AS148">
-        <v>2.01</v>
+        <v>1.82</v>
       </c>
       <c r="AT148">
-        <v>3.82</v>
+        <v>3.9</v>
       </c>
       <c r="AU148">
         <v>8</v>
@@ -32170,25 +32170,25 @@
         <v>4.2</v>
       </c>
       <c r="AN149">
-        <v>2.61</v>
+        <v>3</v>
       </c>
       <c r="AO149">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AP149">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ149">
+        <v>1</v>
+      </c>
+      <c r="AR149">
+        <v>2.03</v>
+      </c>
+      <c r="AS149">
         <v>1.24</v>
       </c>
-      <c r="AR149">
-        <v>1.83</v>
-      </c>
-      <c r="AS149">
-        <v>1.2</v>
-      </c>
       <c r="AT149">
-        <v>3.03</v>
+        <v>3.27</v>
       </c>
       <c r="AU149">
         <v>8</v>
@@ -32376,25 +32376,25 @@
         <v>2.75</v>
       </c>
       <c r="AN150">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
       <c r="AO150">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="AP150">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ150">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR150">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="AS150">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AT150">
-        <v>2.65</v>
+        <v>2.82</v>
       </c>
       <c r="AU150">
         <v>10</v>
@@ -32582,25 +32582,25 @@
         <v>1.33</v>
       </c>
       <c r="AN151">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AO151">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AP151">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ151">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR151">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AS151">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AT151">
-        <v>3.17</v>
+        <v>2.91</v>
       </c>
       <c r="AU151">
         <v>7</v>
@@ -32788,25 +32788,25 @@
         <v>1.06</v>
       </c>
       <c r="AN152">
-        <v>0.83</v>
+        <v>1.25</v>
       </c>
       <c r="AO152">
-        <v>2.63</v>
+        <v>2.22</v>
       </c>
       <c r="AP152">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ152">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR152">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="AS152">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="AT152">
-        <v>3.33</v>
+        <v>3.37</v>
       </c>
       <c r="AU152">
         <v>0</v>
@@ -32994,25 +32994,25 @@
         <v>1.58</v>
       </c>
       <c r="AN153">
-        <v>1.32</v>
+        <v>1.9</v>
       </c>
       <c r="AO153">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AP153">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ153">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR153">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="AS153">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="AT153">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="AU153">
         <v>8</v>
@@ -33200,25 +33200,25 @@
         <v>2.45</v>
       </c>
       <c r="AN154">
-        <v>1.94</v>
+        <v>2.11</v>
       </c>
       <c r="AO154">
-        <v>1.42</v>
+        <v>1.11</v>
       </c>
       <c r="AP154">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ154">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR154">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="AS154">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AT154">
-        <v>3.34</v>
+        <v>3.45</v>
       </c>
       <c r="AU154">
         <v>3</v>
@@ -33406,25 +33406,25 @@
         <v>1.98</v>
       </c>
       <c r="AN155">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AO155">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="AP155">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ155">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR155">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AS155">
-        <v>1.18</v>
+        <v>1.03</v>
       </c>
       <c r="AT155">
-        <v>2.4</v>
+        <v>2.19</v>
       </c>
       <c r="AU155">
         <v>6</v>
@@ -33612,25 +33612,25 @@
         <v>1.5</v>
       </c>
       <c r="AN156">
-        <v>1.05</v>
+        <v>1.56</v>
       </c>
       <c r="AO156">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AP156">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ156">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR156">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="AS156">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="AT156">
-        <v>2.81</v>
+        <v>2.66</v>
       </c>
       <c r="AU156">
         <v>6</v>
@@ -33818,25 +33818,25 @@
         <v>4.2</v>
       </c>
       <c r="AN157">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="AO157">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="AP157">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ157">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR157">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="AS157">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AT157">
-        <v>3.49</v>
+        <v>3.57</v>
       </c>
       <c r="AU157">
         <v>6</v>
@@ -34024,25 +34024,25 @@
         <v>1.47</v>
       </c>
       <c r="AN158">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="AO158">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="AP158">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ158">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR158">
-        <v>1.79</v>
+        <v>2.03</v>
       </c>
       <c r="AS158">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="AT158">
-        <v>3.58</v>
+        <v>3.72</v>
       </c>
       <c r="AU158">
         <v>3</v>
@@ -34230,25 +34230,25 @@
         <v>1.69</v>
       </c>
       <c r="AN159">
-        <v>0.79</v>
+        <v>1.11</v>
       </c>
       <c r="AO159">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AP159">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ159">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR159">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="AS159">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT159">
-        <v>2.65</v>
+        <v>2.81</v>
       </c>
       <c r="AU159">
         <v>4</v>
@@ -34436,25 +34436,25 @@
         <v>1.01</v>
       </c>
       <c r="AN160">
-        <v>0.74</v>
+        <v>1.13</v>
       </c>
       <c r="AO160">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AP160">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ160">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR160">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="AS160">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT160">
-        <v>3.26</v>
+        <v>3.28</v>
       </c>
       <c r="AU160">
         <v>6</v>
@@ -34642,25 +34642,25 @@
         <v>2</v>
       </c>
       <c r="AN161">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="AO161">
-        <v>1.05</v>
+        <v>0.6</v>
       </c>
       <c r="AP161">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ161">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR161">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AS161">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT161">
-        <v>2.78</v>
+        <v>2.93</v>
       </c>
       <c r="AU161">
         <v>3</v>
@@ -34848,25 +34848,25 @@
         <v>1.58</v>
       </c>
       <c r="AN162">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AO162">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AP162">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ162">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR162">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="AS162">
-        <v>1.76</v>
+        <v>1.56</v>
       </c>
       <c r="AT162">
-        <v>3.28</v>
+        <v>3.1</v>
       </c>
       <c r="AU162">
         <v>2</v>
@@ -35054,25 +35054,25 @@
         <v>2.25</v>
       </c>
       <c r="AN163">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="AO163">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="AP163">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ163">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR163">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AS163">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AT163">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="AU163">
         <v>9</v>
@@ -35260,22 +35260,22 @@
         <v>1.6</v>
       </c>
       <c r="AN164">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AO164">
+        <v>1</v>
+      </c>
+      <c r="AP164">
+        <v>1.11</v>
+      </c>
+      <c r="AQ164">
+        <v>1</v>
+      </c>
+      <c r="AR164">
         <v>1.21</v>
       </c>
-      <c r="AP164">
-        <v>1.14</v>
-      </c>
-      <c r="AQ164">
-        <v>1.24</v>
-      </c>
-      <c r="AR164">
-        <v>1.22</v>
-      </c>
       <c r="AS164">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AT164">
         <v>2.47</v>
@@ -35466,25 +35466,25 @@
         <v>1.27</v>
       </c>
       <c r="AN165">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AO165">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AP165">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ165">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR165">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="AS165">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="AT165">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="AU165">
         <v>4</v>
@@ -35672,25 +35672,25 @@
         <v>1.25</v>
       </c>
       <c r="AN166">
-        <v>0.75</v>
+        <v>1.11</v>
       </c>
       <c r="AO166">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AP166">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ166">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR166">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AS166">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AT166">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="AU166">
         <v>5</v>
@@ -35878,25 +35878,25 @@
         <v>1.03</v>
       </c>
       <c r="AN167">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO167">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="AP167">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ167">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR167">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="AS167">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="AT167">
-        <v>3.54</v>
+        <v>3.53</v>
       </c>
       <c r="AU167">
         <v>2</v>
@@ -36084,22 +36084,22 @@
         <v>4.05</v>
       </c>
       <c r="AN168">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="AO168">
-        <v>1.4</v>
+        <v>0.67</v>
       </c>
       <c r="AP168">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ168">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR168">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="AS168">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AT168">
         <v>3.39</v>
@@ -36290,25 +36290,25 @@
         <v>1.35</v>
       </c>
       <c r="AN169">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="AO169">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AP169">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ169">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR169">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AS169">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AT169">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AU169">
         <v>6</v>
@@ -36496,25 +36496,25 @@
         <v>1.48</v>
       </c>
       <c r="AN170">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AO170">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AP170">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ170">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR170">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AS170">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AT170">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="AU170">
         <v>7</v>
@@ -36702,25 +36702,25 @@
         <v>1.75</v>
       </c>
       <c r="AN171">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO171">
-        <v>1.1</v>
+        <v>0.64</v>
       </c>
       <c r="AP171">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ171">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR171">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="AS171">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="AT171">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
       <c r="AU171">
         <v>5</v>
@@ -36908,25 +36908,25 @@
         <v>2</v>
       </c>
       <c r="AN172">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="AO172">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="AP172">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ172">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR172">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AS172">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT172">
-        <v>2.76</v>
+        <v>2.61</v>
       </c>
       <c r="AU172">
         <v>7</v>
@@ -37114,25 +37114,25 @@
         <v>1.95</v>
       </c>
       <c r="AN173">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AO173">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AP173">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ173">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR173">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="AS173">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="AT173">
-        <v>3.27</v>
+        <v>3.23</v>
       </c>
       <c r="AU173">
         <v>4</v>
@@ -37323,22 +37323,22 @@
         <v>2</v>
       </c>
       <c r="AO174">
-        <v>0.86</v>
+        <v>0.45</v>
       </c>
       <c r="AP174">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ174">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR174">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="AS174">
-        <v>1.22</v>
+        <v>1.03</v>
       </c>
       <c r="AT174">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="AU174">
         <v>10</v>
@@ -37526,25 +37526,25 @@
         <v>5.75</v>
       </c>
       <c r="AN175">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AO175">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AP175">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ175">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR175">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="AS175">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AT175">
-        <v>3.26</v>
+        <v>3.49</v>
       </c>
       <c r="AU175">
         <v>16</v>
@@ -37732,25 +37732,25 @@
         <v>1.33</v>
       </c>
       <c r="AN176">
-        <v>0.67</v>
+        <v>1.2</v>
       </c>
       <c r="AO176">
-        <v>1.38</v>
+        <v>1.1</v>
       </c>
       <c r="AP176">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ176">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR176">
         <v>1.39</v>
       </c>
       <c r="AS176">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="AT176">
-        <v>2.76</v>
+        <v>2.57</v>
       </c>
       <c r="AU176">
         <v>6</v>
@@ -37938,25 +37938,25 @@
         <v>1.28</v>
       </c>
       <c r="AN177">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="AO177">
-        <v>2.67</v>
+        <v>2.3</v>
       </c>
       <c r="AP177">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ177">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR177">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
       <c r="AS177">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="AT177">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="AU177">
         <v>6</v>
@@ -38144,25 +38144,25 @@
         <v>1.3</v>
       </c>
       <c r="AN178">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AO178">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="AP178">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ178">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR178">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AS178">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="AT178">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="AU178">
         <v>3</v>
@@ -38350,25 +38350,25 @@
         <v>1.91</v>
       </c>
       <c r="AN179">
-        <v>1.09</v>
+        <v>1.6</v>
       </c>
       <c r="AO179">
-        <v>1.05</v>
+        <v>0.64</v>
       </c>
       <c r="AP179">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ179">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR179">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="AS179">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="AT179">
-        <v>2.89</v>
+        <v>2.93</v>
       </c>
       <c r="AU179">
         <v>7</v>
@@ -38556,25 +38556,25 @@
         <v>2.83</v>
       </c>
       <c r="AN180">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="AO180">
-        <v>0.77</v>
+        <v>0.18</v>
       </c>
       <c r="AP180">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ180">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR180">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AS180">
         <v>1.39</v>
       </c>
       <c r="AT180">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AU180">
         <v>7</v>
@@ -38762,22 +38762,22 @@
         <v>1.72</v>
       </c>
       <c r="AN181">
-        <v>1.32</v>
+        <v>1.64</v>
       </c>
       <c r="AO181">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AP181">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ181">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR181">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AS181">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="AT181">
         <v>2.83</v>
@@ -38968,25 +38968,25 @@
         <v>1.13</v>
       </c>
       <c r="AN182">
-        <v>1.05</v>
+        <v>0.91</v>
       </c>
       <c r="AO182">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AP182">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ182">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR182">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AS182">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="AT182">
-        <v>2.97</v>
+        <v>2.84</v>
       </c>
       <c r="AU182">
         <v>2</v>
@@ -39174,25 +39174,25 @@
         <v>1.57</v>
       </c>
       <c r="AN183">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="AO183">
-        <v>1.32</v>
+        <v>0.6</v>
       </c>
       <c r="AP183">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ183">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR183">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AS183">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="AT183">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="AU183">
         <v>6</v>
@@ -39380,25 +39380,25 @@
         <v>1.22</v>
       </c>
       <c r="AN184">
-        <v>0.82</v>
+        <v>1.3</v>
       </c>
       <c r="AO184">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="AP184">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ184">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR184">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="AS184">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="AT184">
-        <v>3.01</v>
+        <v>3.1</v>
       </c>
       <c r="AU184">
         <v>0</v>
@@ -39586,25 +39586,25 @@
         <v>1.55</v>
       </c>
       <c r="AN185">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="AO185">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="AP185">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ185">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR185">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="AS185">
-        <v>2.12</v>
+        <v>1.87</v>
       </c>
       <c r="AT185">
-        <v>3.95</v>
+        <v>3.89</v>
       </c>
       <c r="AU185">
         <v>2</v>
@@ -39792,25 +39792,25 @@
         <v>1.85</v>
       </c>
       <c r="AN186">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AO186">
-        <v>1.09</v>
+        <v>0.67</v>
       </c>
       <c r="AP186">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ186">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR186">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="AS186">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="AT186">
-        <v>2.99</v>
+        <v>3.12</v>
       </c>
       <c r="AU186">
         <v>4</v>
@@ -39998,25 +39998,25 @@
         <v>1.75</v>
       </c>
       <c r="AN187">
-        <v>1.04</v>
+        <v>1.45</v>
       </c>
       <c r="AO187">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AP187">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ187">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR187">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AS187">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AT187">
-        <v>2.59</v>
+        <v>2.67</v>
       </c>
       <c r="AU187">
         <v>8</v>
@@ -40204,22 +40204,22 @@
         <v>2.5</v>
       </c>
       <c r="AN188">
-        <v>1.26</v>
+        <v>1.92</v>
       </c>
       <c r="AO188">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="AP188">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ188">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR188">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="AS188">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AT188">
         <v>2.99</v>
@@ -40410,25 +40410,25 @@
         <v>1.62</v>
       </c>
       <c r="AN189">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AO189">
-        <v>1.39</v>
+        <v>1.09</v>
       </c>
       <c r="AP189">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ189">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR189">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="AS189">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AT189">
-        <v>2.96</v>
+        <v>3.09</v>
       </c>
       <c r="AU189">
         <v>7</v>
@@ -40616,25 +40616,25 @@
         <v>1.85</v>
       </c>
       <c r="AN190">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AO190">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AP190">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ190">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR190">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="AS190">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="AT190">
-        <v>3.18</v>
+        <v>3.15</v>
       </c>
       <c r="AU190">
         <v>9</v>
@@ -40822,25 +40822,25 @@
         <v>5</v>
       </c>
       <c r="AN191">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="AO191">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="AP191">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ191">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR191">
-        <v>2.07</v>
+        <v>2.37</v>
       </c>
       <c r="AS191">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AT191">
-        <v>3.44</v>
+        <v>3.71</v>
       </c>
       <c r="AU191">
         <v>7</v>
@@ -41028,25 +41028,25 @@
         <v>1.85</v>
       </c>
       <c r="AN192">
-        <v>0.74</v>
+        <v>1.36</v>
       </c>
       <c r="AO192">
-        <v>0.78</v>
+        <v>0.42</v>
       </c>
       <c r="AP192">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ192">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR192">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AS192">
-        <v>1.21</v>
+        <v>1.03</v>
       </c>
       <c r="AT192">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="AU192">
         <v>4</v>
@@ -41237,22 +41237,22 @@
         <v>2.09</v>
       </c>
       <c r="AO193">
-        <v>2.61</v>
+        <v>2.36</v>
       </c>
       <c r="AP193">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ193">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR193">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="AS193">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="AT193">
-        <v>3.61</v>
+        <v>3.54</v>
       </c>
       <c r="AU193">
         <v>9</v>
@@ -41440,25 +41440,25 @@
         <v>1.83</v>
       </c>
       <c r="AN194">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="AO194">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AP194">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ194">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR194">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="AS194">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AT194">
-        <v>2.83</v>
+        <v>2.72</v>
       </c>
       <c r="AU194">
         <v>10</v>
@@ -41646,25 +41646,25 @@
         <v>1.64</v>
       </c>
       <c r="AN195">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AO195">
-        <v>0.75</v>
+        <v>0.17</v>
       </c>
       <c r="AP195">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ195">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR195">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="AS195">
         <v>1.38</v>
       </c>
       <c r="AT195">
-        <v>2.79</v>
+        <v>2.92</v>
       </c>
       <c r="AU195">
         <v>9</v>
@@ -41852,22 +41852,22 @@
         <v>1.33</v>
       </c>
       <c r="AN196">
-        <v>0.79</v>
+        <v>1.18</v>
       </c>
       <c r="AO196">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AP196">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ196">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR196">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="AS196">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="AT196">
         <v>2.69</v>
@@ -42058,25 +42058,25 @@
         <v>1.41</v>
       </c>
       <c r="AN197">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AO197">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AP197">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ197">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR197">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AS197">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
       <c r="AT197">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="AU197">
         <v>5</v>
@@ -42264,25 +42264,25 @@
         <v>1.33</v>
       </c>
       <c r="AN198">
-        <v>1.17</v>
+        <v>1.55</v>
       </c>
       <c r="AO198">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="AP198">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ198">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR198">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AS198">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AT198">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="AU198">
         <v>3</v>
@@ -42470,25 +42470,25 @@
         <v>1.27</v>
       </c>
       <c r="AN199">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="AO199">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="AP199">
+        <v>1.11</v>
+      </c>
+      <c r="AQ199">
+        <v>1.44</v>
+      </c>
+      <c r="AR199">
         <v>1.14</v>
       </c>
-      <c r="AQ199">
-        <v>1.4</v>
-      </c>
-      <c r="AR199">
-        <v>1.17</v>
-      </c>
       <c r="AS199">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT199">
-        <v>2.97</v>
+        <v>2.81</v>
       </c>
       <c r="AU199">
         <v>4</v>
@@ -42676,25 +42676,25 @@
         <v>4.8</v>
       </c>
       <c r="AN200">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="AO200">
-        <v>1.33</v>
+        <v>0.55</v>
       </c>
       <c r="AP200">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ200">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR200">
-        <v>2.07</v>
+        <v>2.34</v>
       </c>
       <c r="AS200">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="AT200">
-        <v>3.64</v>
+        <v>3.77</v>
       </c>
       <c r="AU200">
         <v>8</v>
@@ -42882,25 +42882,25 @@
         <v>4</v>
       </c>
       <c r="AN201">
-        <v>2.5</v>
+        <v>2.83</v>
       </c>
       <c r="AO201">
-        <v>1.13</v>
+        <v>0.67</v>
       </c>
       <c r="AP201">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ201">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR201">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="AS201">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AT201">
-        <v>3.2</v>
+        <v>3.31</v>
       </c>
       <c r="AU201">
         <v>6</v>
@@ -43088,25 +43088,25 @@
         <v>3.05</v>
       </c>
       <c r="AN202">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="AO202">
-        <v>1.28</v>
+        <v>0.5</v>
       </c>
       <c r="AP202">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ202">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR202">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AS202">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="AT202">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="AU202">
         <v>7</v>
@@ -43294,25 +43294,25 @@
         <v>2.3</v>
       </c>
       <c r="AN203">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="AO203">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AP203">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ203">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR203">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="AS203">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="AT203">
-        <v>2.52</v>
+        <v>2.73</v>
       </c>
       <c r="AU203">
         <v>6</v>
@@ -43500,25 +43500,25 @@
         <v>1.72</v>
       </c>
       <c r="AN204">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AO204">
-        <v>1.12</v>
+        <v>0.85</v>
       </c>
       <c r="AP204">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ204">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR204">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="AS204">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT204">
-        <v>2.89</v>
+        <v>2.98</v>
       </c>
       <c r="AU204">
         <v>7</v>
@@ -43706,25 +43706,25 @@
         <v>1.16</v>
       </c>
       <c r="AN205">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="AO205">
-        <v>2.48</v>
+        <v>2.33</v>
       </c>
       <c r="AP205">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ205">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR205">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="AS205">
-        <v>2.06</v>
+        <v>1.79</v>
       </c>
       <c r="AT205">
-        <v>3.56</v>
+        <v>3.51</v>
       </c>
       <c r="AU205">
         <v>6</v>
@@ -43912,25 +43912,25 @@
         <v>2.3</v>
       </c>
       <c r="AN206">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="AO206">
-        <v>1.28</v>
+        <v>0.92</v>
       </c>
       <c r="AP206">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ206">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR206">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="AS206">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="AT206">
-        <v>3.19</v>
+        <v>3.25</v>
       </c>
       <c r="AU206">
         <v>9</v>
@@ -44118,25 +44118,25 @@
         <v>2.1</v>
       </c>
       <c r="AN207">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="AO207">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="AP207">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ207">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR207">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="AS207">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AT207">
-        <v>2.89</v>
+        <v>2.79</v>
       </c>
       <c r="AU207">
         <v>5</v>
@@ -44324,25 +44324,25 @@
         <v>2.6</v>
       </c>
       <c r="AN208">
-        <v>1.44</v>
+        <v>1.77</v>
       </c>
       <c r="AO208">
-        <v>0.8</v>
+        <v>0.46</v>
       </c>
       <c r="AP208">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="AQ208">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR208">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AS208">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="AT208">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="AU208">
         <v>5</v>
@@ -44530,25 +44530,25 @@
         <v>1.01</v>
       </c>
       <c r="AN209">
-        <v>0.72</v>
+        <v>1.33</v>
       </c>
       <c r="AO209">
-        <v>2.52</v>
+        <v>2.17</v>
       </c>
       <c r="AP209">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ209">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR209">
         <v>1.39</v>
       </c>
       <c r="AS209">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="AT209">
-        <v>3.13</v>
+        <v>2.96</v>
       </c>
       <c r="AU209">
         <v>2</v>
@@ -44736,25 +44736,25 @@
         <v>1.2</v>
       </c>
       <c r="AN210">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AO210">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AP210">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ210">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR210">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AS210">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT210">
-        <v>3.28</v>
+        <v>3.35</v>
       </c>
       <c r="AU210">
         <v>5</v>
@@ -44942,25 +44942,25 @@
         <v>1.48</v>
       </c>
       <c r="AN211">
-        <v>0.77</v>
+        <v>1.17</v>
       </c>
       <c r="AO211">
-        <v>1.27</v>
+        <v>1.08</v>
       </c>
       <c r="AP211">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ211">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR211">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="AS211">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="AT211">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="AU211">
         <v>10</v>
@@ -45148,25 +45148,25 @@
         <v>1.57</v>
       </c>
       <c r="AN212">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="AO212">
         <v>1.5</v>
       </c>
       <c r="AP212">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ212">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR212">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AS212">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="AT212">
-        <v>3.08</v>
+        <v>2.96</v>
       </c>
       <c r="AU212">
         <v>7</v>
@@ -45354,25 +45354,25 @@
         <v>4</v>
       </c>
       <c r="AN213">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="AO213">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="AP213">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ213">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR213">
-        <v>2.05</v>
+        <v>2.31</v>
       </c>
       <c r="AS213">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="AT213">
-        <v>3.51</v>
+        <v>3.6</v>
       </c>
       <c r="AU213">
         <v>7</v>
@@ -45560,25 +45560,25 @@
         <v>1.66</v>
       </c>
       <c r="AN214">
-        <v>1.23</v>
+        <v>1.62</v>
       </c>
       <c r="AO214">
-        <v>1.15</v>
+        <v>0.62</v>
       </c>
       <c r="AP214">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ214">
+        <v>1</v>
+      </c>
+      <c r="AR214">
+        <v>1.41</v>
+      </c>
+      <c r="AS214">
         <v>1.4</v>
       </c>
-      <c r="AR214">
-        <v>1.4</v>
-      </c>
-      <c r="AS214">
-        <v>1.45</v>
-      </c>
       <c r="AT214">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
       <c r="AU214">
         <v>6</v>
@@ -45766,25 +45766,25 @@
         <v>1.8</v>
       </c>
       <c r="AN215">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AO215">
-        <v>0.6899999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="AP215">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ215">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR215">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AS215">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="AT215">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="AU215">
         <v>5</v>
@@ -45972,22 +45972,22 @@
         <v>1.37</v>
       </c>
       <c r="AN216">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="AO216">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AP216">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ216">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR216">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AS216">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AT216">
         <v>3.27</v>
@@ -46178,25 +46178,25 @@
         <v>3.3</v>
       </c>
       <c r="AN217">
-        <v>2.54</v>
+        <v>2.85</v>
       </c>
       <c r="AO217">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="AP217">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ217">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR217">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="AS217">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT217">
-        <v>3.24</v>
+        <v>3.31</v>
       </c>
       <c r="AU217">
         <v>8</v>
@@ -46384,22 +46384,22 @@
         <v>1.17</v>
       </c>
       <c r="AN218">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="AO218">
-        <v>2.48</v>
+        <v>2.23</v>
       </c>
       <c r="AP218">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ218">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR218">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AS218">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="AT218">
         <v>3.2</v>
@@ -46590,25 +46590,25 @@
         <v>2</v>
       </c>
       <c r="AN219">
-        <v>1.48</v>
+        <v>1.86</v>
       </c>
       <c r="AO219">
-        <v>1.19</v>
+        <v>0.85</v>
       </c>
       <c r="AP219">
+        <v>1.61</v>
+      </c>
+      <c r="AQ219">
+        <v>1</v>
+      </c>
+      <c r="AR219">
+        <v>1.58</v>
+      </c>
+      <c r="AS219">
         <v>1.39</v>
       </c>
-      <c r="AQ219">
-        <v>1.24</v>
-      </c>
-      <c r="AR219">
-        <v>1.47</v>
-      </c>
-      <c r="AS219">
-        <v>1.42</v>
-      </c>
       <c r="AT219">
-        <v>2.89</v>
+        <v>2.97</v>
       </c>
       <c r="AU219">
         <v>6</v>
@@ -46796,25 +46796,25 @@
         <v>1.36</v>
       </c>
       <c r="AN220">
-        <v>0.7</v>
+        <v>1.23</v>
       </c>
       <c r="AO220">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP220">
         <v>1.41</v>
       </c>
-      <c r="AP220">
-        <v>0.83</v>
-      </c>
       <c r="AQ220">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR220">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AS220">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AT220">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="AU220">
         <v>4</v>
@@ -47002,25 +47002,25 @@
         <v>1.57</v>
       </c>
       <c r="AN221">
+        <v>1.69</v>
+      </c>
+      <c r="AO221">
+        <v>1.38</v>
+      </c>
+      <c r="AP221">
+        <v>1.82</v>
+      </c>
+      <c r="AQ221">
         <v>1.22</v>
       </c>
-      <c r="AO221">
-        <v>1.44</v>
-      </c>
-      <c r="AP221">
-        <v>1.4</v>
-      </c>
-      <c r="AQ221">
-        <v>1.26</v>
-      </c>
       <c r="AR221">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AS221">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
       <c r="AT221">
-        <v>2.91</v>
+        <v>2.73</v>
       </c>
       <c r="AU221">
         <v>5</v>
@@ -47208,25 +47208,25 @@
         <v>1.88</v>
       </c>
       <c r="AN222">
-        <v>0.85</v>
+        <v>1.31</v>
       </c>
       <c r="AO222">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="AP222">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ222">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR222">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AS222">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AT222">
-        <v>2.5</v>
+        <v>2.69</v>
       </c>
       <c r="AU222">
         <v>5</v>
@@ -47414,25 +47414,25 @@
         <v>1.62</v>
       </c>
       <c r="AN223">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="AO223">
-        <v>1.04</v>
+        <v>0.79</v>
       </c>
       <c r="AP223">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ223">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR223">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AS223">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="AT223">
-        <v>2.83</v>
+        <v>2.91</v>
       </c>
       <c r="AU223">
         <v>7</v>
@@ -47620,25 +47620,25 @@
         <v>3.2</v>
       </c>
       <c r="AN224">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AO224">
-        <v>0.74</v>
+        <v>0.46</v>
       </c>
       <c r="AP224">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ224">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR224">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="AS224">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AT224">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="AU224">
         <v>5</v>
@@ -47826,25 +47826,25 @@
         <v>1.11</v>
       </c>
       <c r="AN225">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="AO225">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="AP225">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ225">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR225">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="AS225">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="AT225">
-        <v>3.89</v>
+        <v>3.71</v>
       </c>
       <c r="AU225">
         <v>3</v>
@@ -48032,25 +48032,25 @@
         <v>2.8</v>
       </c>
       <c r="AN226">
-        <v>2.5</v>
+        <v>2.71</v>
       </c>
       <c r="AO226">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="AP226">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AQ226">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR226">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="AS226">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="AT226">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
       <c r="AU226">
         <v>12</v>
@@ -48238,25 +48238,25 @@
         <v>1.42</v>
       </c>
       <c r="AN227">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO227">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AP227">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ227">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR227">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="AS227">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AT227">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
       <c r="AU227">
         <v>6</v>
@@ -48444,25 +48444,25 @@
         <v>2</v>
       </c>
       <c r="AN228">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AO228">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="AP228">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ228">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR228">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="AS228">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="AT228">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="AU228">
         <v>3</v>
@@ -48650,25 +48650,25 @@
         <v>2.1</v>
       </c>
       <c r="AN229">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO229">
-        <v>0.79</v>
+        <v>0.21</v>
       </c>
       <c r="AP229">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AQ229">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR229">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="AS229">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AT229">
-        <v>2.76</v>
+        <v>2.83</v>
       </c>
       <c r="AU229">
         <v>7</v>
@@ -48856,25 +48856,25 @@
         <v>1.88</v>
       </c>
       <c r="AN230">
-        <v>1.36</v>
+        <v>2.07</v>
       </c>
       <c r="AO230">
-        <v>1.29</v>
+        <v>0.79</v>
       </c>
       <c r="AP230">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ230">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR230">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AS230">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="AT230">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="AU230">
         <v>3</v>
@@ -49062,25 +49062,25 @@
         <v>4.9</v>
       </c>
       <c r="AN231">
-        <v>2.43</v>
+        <v>2.64</v>
       </c>
       <c r="AO231">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AP231">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AQ231">
-        <v>1.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR231">
-        <v>2.02</v>
+        <v>2.29</v>
       </c>
       <c r="AS231">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AT231">
-        <v>3.42</v>
+        <v>3.51</v>
       </c>
       <c r="AU231">
         <v>10</v>
@@ -49268,25 +49268,25 @@
         <v>1.45</v>
       </c>
       <c r="AN232">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="AO232">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="AP232">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ232">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AR232">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AS232">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="AT232">
-        <v>2.69</v>
+        <v>2.56</v>
       </c>
       <c r="AU232">
         <v>3</v>
@@ -49474,25 +49474,25 @@
         <v>1.25</v>
       </c>
       <c r="AN233">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AO233">
         <v>2.07</v>
       </c>
       <c r="AP233">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AQ233">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR233">
-        <v>1.46</v>
+        <v>1.72</v>
       </c>
       <c r="AS233">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT233">
-        <v>3.28</v>
+        <v>3.47</v>
       </c>
       <c r="AU233">
         <v>5</v>
@@ -49680,25 +49680,25 @@
         <v>1.03</v>
       </c>
       <c r="AN234">
-        <v>1.28</v>
+        <v>1.79</v>
       </c>
       <c r="AO234">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AP234">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AQ234">
-        <v>2.43</v>
+        <v>2.24</v>
       </c>
       <c r="AR234">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AS234">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
       <c r="AT234">
-        <v>3.49</v>
+        <v>3.25</v>
       </c>
       <c r="AU234">
         <v>4</v>
@@ -49886,22 +49886,22 @@
         <v>1.9</v>
       </c>
       <c r="AN235">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="AO235">
-        <v>1.34</v>
+        <v>0.64</v>
       </c>
       <c r="AP235">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AQ235">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="AR235">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="AS235">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="AT235">
         <v>3.37</v>
@@ -50092,25 +50092,25 @@
         <v>3.2</v>
       </c>
       <c r="AN236">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="AO236">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AP236">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ236">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AR236">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="AS236">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT236">
-        <v>3.22</v>
+        <v>3.26</v>
       </c>
       <c r="AU236">
         <v>7</v>
@@ -50298,25 +50298,25 @@
         <v>1.99</v>
       </c>
       <c r="AN237">
-        <v>1.1</v>
+        <v>1.21</v>
       </c>
       <c r="AO237">
-        <v>0.97</v>
+        <v>1.21</v>
       </c>
       <c r="AP237">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ237">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR237">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="AS237">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AT237">
-        <v>2.62</v>
+        <v>2.83</v>
       </c>
       <c r="AU237">
         <v>7</v>
@@ -50504,25 +50504,25 @@
         <v>1.16</v>
       </c>
       <c r="AN238">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="AO238">
-        <v>2.52</v>
+        <v>2.29</v>
       </c>
       <c r="AP238">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AQ238">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AR238">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AS238">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="AT238">
-        <v>3.16</v>
+        <v>3.18</v>
       </c>
       <c r="AU238">
         <v>3</v>
@@ -50710,25 +50710,25 @@
         <v>1.53</v>
       </c>
       <c r="AN239">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AO239">
-        <v>1.48</v>
+        <v>1.21</v>
       </c>
       <c r="AP239">
+        <v>1.56</v>
+      </c>
+      <c r="AQ239">
         <v>1.17</v>
       </c>
-      <c r="AQ239">
-        <v>1.39</v>
-      </c>
       <c r="AR239">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AS239">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AT239">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="AU239">
         <v>5</v>
@@ -50916,25 +50916,25 @@
         <v>1.36</v>
       </c>
       <c r="AN240">
-        <v>0.79</v>
+        <v>1.36</v>
       </c>
       <c r="AO240">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AP240">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ240">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AR240">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AS240">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
       <c r="AT240">
-        <v>2.82</v>
+        <v>2.53</v>
       </c>
       <c r="AU240">
         <v>6</v>
@@ -51122,25 +51122,25 @@
         <v>1.75</v>
       </c>
       <c r="AN241">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="AO241">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="AP241">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ241">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR241">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="AS241">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT241">
-        <v>2.73</v>
+        <v>2.8</v>
       </c>
       <c r="AU241">
         <v>7</v>
@@ -51328,25 +51328,25 @@
         <v>1.82</v>
       </c>
       <c r="AN242">
-        <v>0.93</v>
+        <v>0.73</v>
       </c>
       <c r="AO242">
-        <v>0.83</v>
+        <v>0.47</v>
       </c>
       <c r="AP242">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ242">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR242">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AS242">
-        <v>1.3</v>
+        <v>1.06</v>
       </c>
       <c r="AT242">
-        <v>2.52</v>
+        <v>2.25</v>
       </c>
       <c r="AU242">
         <v>4</v>
@@ -51534,25 +51534,25 @@
         <v>1.5</v>
       </c>
       <c r="AN243">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AO243">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP243">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ243">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR243">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AS243">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="AT243">
-        <v>2.78</v>
+        <v>2.58</v>
       </c>
       <c r="AU243">
         <v>5</v>
@@ -51740,25 +51740,25 @@
         <v>2.25</v>
       </c>
       <c r="AN244">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AO244">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AP244">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ244">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR244">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AS244">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AT244">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU244">
         <v>4</v>
@@ -53594,25 +53594,25 @@
         <v>1.85</v>
       </c>
       <c r="AN253">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO253">
-        <v>0.87</v>
+        <v>0.27</v>
       </c>
       <c r="AP253">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ253">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR253">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AS253">
         <v>1.37</v>
       </c>
       <c r="AT253">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="AU253">
         <v>6</v>
@@ -53800,25 +53800,25 @@
         <v>1.67</v>
       </c>
       <c r="AN254">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AO254">
-        <v>1.06</v>
+        <v>0.73</v>
       </c>
       <c r="AP254">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ254">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR254">
-        <v>1.42</v>
+        <v>1.59</v>
       </c>
       <c r="AS254">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="AT254">
-        <v>2.87</v>
+        <v>2.93</v>
       </c>
       <c r="AU254">
         <v>7</v>
@@ -54418,25 +54418,25 @@
         <v>1.69</v>
       </c>
       <c r="AN257">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AO257">
-        <v>0.8100000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="AP257">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ257">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="AR257">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="AS257">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="AT257">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="AU257">
         <v>4</v>
@@ -55242,25 +55242,25 @@
         <v>1.59</v>
       </c>
       <c r="AN261">
-        <v>0.8100000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="AO261">
-        <v>0.84</v>
+        <v>0.25</v>
       </c>
       <c r="AP261">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ261">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR261">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="AS261">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AT261">
-        <v>2.71</v>
+        <v>2.95</v>
       </c>
       <c r="AU261">
         <v>8</v>
@@ -55448,25 +55448,25 @@
         <v>1.95</v>
       </c>
       <c r="AN262">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AO262">
-        <v>0.8100000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="AP262">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ262">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR262">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AS262">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AT262">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="AU262">
         <v>4</v>
@@ -55654,25 +55654,25 @@
         <v>1.95</v>
       </c>
       <c r="AN263">
-        <v>1.06</v>
+        <v>1.38</v>
       </c>
       <c r="AO263">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="AP263">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AQ263">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR263">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AS263">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AT263">
-        <v>2.68</v>
+        <v>2.81</v>
       </c>
       <c r="AU263">
         <v>8</v>
@@ -56684,25 +56684,25 @@
         <v>1.77</v>
       </c>
       <c r="AN268">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AO268">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
       <c r="AP268">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AQ268">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AR268">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AS268">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AT268">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="AU268">
         <v>7</v>
@@ -56890,25 +56890,25 @@
         <v>1.67</v>
       </c>
       <c r="AN269">
-        <v>0.85</v>
+        <v>1.44</v>
       </c>
       <c r="AO269">
-        <v>1.12</v>
+        <v>0.75</v>
       </c>
       <c r="AP269">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AQ269">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="AR269">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AS269">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="AT269">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
       <c r="AU269">
         <v>8</v>
@@ -57096,25 +57096,25 @@
         <v>1.86</v>
       </c>
       <c r="AN270">
-        <v>0.82</v>
+        <v>1.19</v>
       </c>
       <c r="AO270">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP270">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AQ270">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AR270">
-        <v>1.34</v>
+        <v>1.57</v>
       </c>
       <c r="AS270">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="AT270">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="AU270">
         <v>8</v>
@@ -57302,25 +57302,25 @@
         <v>1.72</v>
       </c>
       <c r="AN271">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AO271">
-        <v>0.85</v>
+        <v>0.29</v>
       </c>
       <c r="AP271">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AQ271">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="AR271">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AS271">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="AT271">
-        <v>2.87</v>
+        <v>3.03</v>
       </c>
       <c r="AU271">
         <v>8</v>
@@ -57714,25 +57714,25 @@
         <v>1.9</v>
       </c>
       <c r="AN273">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AO273">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AP273">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AQ273">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AR273">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="AS273">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AT273">
-        <v>2.68</v>
+        <v>2.85</v>
       </c>
       <c r="AU273">
         <v>2</v>
@@ -57920,25 +57920,25 @@
         <v>1.55</v>
       </c>
       <c r="AN274">
+        <v>1.47</v>
+      </c>
+      <c r="AO274">
+        <v>0.47</v>
+      </c>
+      <c r="AP274">
+        <v>1.56</v>
+      </c>
+      <c r="AQ274">
+        <v>0.44</v>
+      </c>
+      <c r="AR274">
+        <v>1.57</v>
+      </c>
+      <c r="AS274">
         <v>1.12</v>
       </c>
-      <c r="AO274">
-        <v>0.79</v>
-      </c>
-      <c r="AP274">
-        <v>1.17</v>
-      </c>
-      <c r="AQ274">
-        <v>0.77</v>
-      </c>
-      <c r="AR274">
-        <v>1.47</v>
-      </c>
-      <c r="AS274">
-        <v>1.36</v>
-      </c>
       <c r="AT274">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AU274">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20232024.xlsx
@@ -2127,10 +2127,10 @@
         <v>2</v>
       </c>
       <c r="AY3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA3">
         <v>3</v>
@@ -2333,10 +2333,10 @@
         <v>5</v>
       </c>
       <c r="AY4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA4">
         <v>2</v>
@@ -2539,10 +2539,10 @@
         <v>2</v>
       </c>
       <c r="AY5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA5">
         <v>8</v>
@@ -2745,10 +2745,10 @@
         <v>4</v>
       </c>
       <c r="AY6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA6">
         <v>6</v>
@@ -2954,7 +2954,7 @@
         <v>14</v>
       </c>
       <c r="AZ7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA7">
         <v>6</v>
@@ -3157,10 +3157,10 @@
         <v>5</v>
       </c>
       <c r="AY8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA8">
         <v>4</v>
@@ -3363,10 +3363,10 @@
         <v>6</v>
       </c>
       <c r="AY9">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AZ9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA9">
         <v>8</v>
@@ -3569,10 +3569,10 @@
         <v>7</v>
       </c>
       <c r="AY10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA10">
         <v>1</v>
@@ -3775,10 +3775,10 @@
         <v>2</v>
       </c>
       <c r="AY11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA11">
         <v>5</v>
@@ -3984,7 +3984,7 @@
         <v>4</v>
       </c>
       <c r="AZ12">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA12">
         <v>0</v>
@@ -4187,10 +4187,10 @@
         <v>5</v>
       </c>
       <c r="AY13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA13">
         <v>5</v>
@@ -4599,10 +4599,10 @@
         <v>2</v>
       </c>
       <c r="AY15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA15">
         <v>2</v>
@@ -4805,10 +4805,10 @@
         <v>2</v>
       </c>
       <c r="AY16">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA16">
         <v>6</v>
@@ -5011,10 +5011,10 @@
         <v>5</v>
       </c>
       <c r="AY17">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ17">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA17">
         <v>2</v>
@@ -5217,7 +5217,7 @@
         <v>2</v>
       </c>
       <c r="AY18">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ18">
         <v>5</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="AY19">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA19">
         <v>6</v>
@@ -5629,10 +5629,10 @@
         <v>4</v>
       </c>
       <c r="AY20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA20">
         <v>2</v>
@@ -5835,10 +5835,10 @@
         <v>9</v>
       </c>
       <c r="AY21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ21">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA21">
         <v>7</v>
@@ -6041,10 +6041,10 @@
         <v>5</v>
       </c>
       <c r="AY22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA22">
         <v>7</v>
@@ -6247,10 +6247,10 @@
         <v>4</v>
       </c>
       <c r="AY23">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ23">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BA23">
         <v>3</v>
@@ -6453,7 +6453,7 @@
         <v>5</v>
       </c>
       <c r="AY24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ24">
         <v>9</v>
@@ -6659,10 +6659,10 @@
         <v>5</v>
       </c>
       <c r="AY25">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AZ25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA25">
         <v>12</v>
@@ -6865,7 +6865,7 @@
         <v>1</v>
       </c>
       <c r="AY26">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ26">
         <v>3</v>
@@ -7071,10 +7071,10 @@
         <v>8</v>
       </c>
       <c r="AY27">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA27">
         <v>8</v>
@@ -7483,10 +7483,10 @@
         <v>6</v>
       </c>
       <c r="AY29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA29">
         <v>2</v>
@@ -7689,10 +7689,10 @@
         <v>3</v>
       </c>
       <c r="AY30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA30">
         <v>6</v>
@@ -7895,10 +7895,10 @@
         <v>5</v>
       </c>
       <c r="AY31">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA31">
         <v>5</v>
@@ -8101,10 +8101,10 @@
         <v>6</v>
       </c>
       <c r="AY32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ32">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA32">
         <v>5</v>
@@ -8307,10 +8307,10 @@
         <v>5</v>
       </c>
       <c r="AY33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ33">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA33">
         <v>1</v>
@@ -8513,7 +8513,7 @@
         <v>3</v>
       </c>
       <c r="AY34">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ34">
         <v>8</v>
@@ -8719,10 +8719,10 @@
         <v>3</v>
       </c>
       <c r="AY35">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA35">
         <v>4</v>
@@ -8925,7 +8925,7 @@
         <v>4</v>
       </c>
       <c r="AY36">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ36">
         <v>8</v>
@@ -9131,7 +9131,7 @@
         <v>1</v>
       </c>
       <c r="AY37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ37">
         <v>3</v>
@@ -9337,10 +9337,10 @@
         <v>3</v>
       </c>
       <c r="AY38">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA38">
         <v>5</v>
@@ -9543,10 +9543,10 @@
         <v>8</v>
       </c>
       <c r="AY39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ39">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA39">
         <v>4</v>
@@ -9752,7 +9752,7 @@
         <v>10</v>
       </c>
       <c r="AZ40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA40">
         <v>7</v>
@@ -9955,7 +9955,7 @@
         <v>3</v>
       </c>
       <c r="AY41">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ41">
         <v>5</v>
@@ -10161,7 +10161,7 @@
         <v>7</v>
       </c>
       <c r="AY42">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ42">
         <v>12</v>
@@ -10367,10 +10367,10 @@
         <v>4</v>
       </c>
       <c r="AY43">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ43">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA43">
         <v>9</v>
@@ -10573,10 +10573,10 @@
         <v>3</v>
       </c>
       <c r="AY44">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ44">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA44">
         <v>2</v>
@@ -10779,10 +10779,10 @@
         <v>5</v>
       </c>
       <c r="AY45">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ45">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA45">
         <v>5</v>
@@ -10985,10 +10985,10 @@
         <v>2</v>
       </c>
       <c r="AY46">
+        <v>9</v>
+      </c>
+      <c r="AZ46">
         <v>8</v>
-      </c>
-      <c r="AZ46">
-        <v>7</v>
       </c>
       <c r="BA46">
         <v>6</v>
@@ -11191,10 +11191,10 @@
         <v>2</v>
       </c>
       <c r="AY47">
+        <v>8</v>
+      </c>
+      <c r="AZ47">
         <v>7</v>
-      </c>
-      <c r="AZ47">
-        <v>5</v>
       </c>
       <c r="BA47">
         <v>2</v>
@@ -11397,10 +11397,10 @@
         <v>2</v>
       </c>
       <c r="AY48">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ48">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA48">
         <v>7</v>
@@ -11603,7 +11603,7 @@
         <v>4</v>
       </c>
       <c r="AY49">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ49">
         <v>8</v>
@@ -11809,7 +11809,7 @@
         <v>2</v>
       </c>
       <c r="AY50">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ50">
         <v>6</v>
@@ -12221,10 +12221,10 @@
         <v>5</v>
       </c>
       <c r="AY52">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ52">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA52">
         <v>12</v>
@@ -12427,10 +12427,10 @@
         <v>4</v>
       </c>
       <c r="AY53">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ53">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA53">
         <v>4</v>
@@ -12633,10 +12633,10 @@
         <v>12</v>
       </c>
       <c r="AY54">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ54">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA54">
         <v>6</v>
@@ -12839,10 +12839,10 @@
         <v>1</v>
       </c>
       <c r="AY55">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AZ55">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA55">
         <v>9</v>
@@ -13045,10 +13045,10 @@
         <v>3</v>
       </c>
       <c r="AY56">
+        <v>16</v>
+      </c>
+      <c r="AZ56">
         <v>10</v>
-      </c>
-      <c r="AZ56">
-        <v>8</v>
       </c>
       <c r="BA56">
         <v>7</v>
@@ -13251,10 +13251,10 @@
         <v>2</v>
       </c>
       <c r="AY57">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA57">
         <v>9</v>
@@ -13457,10 +13457,10 @@
         <v>3</v>
       </c>
       <c r="AY58">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ58">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA58">
         <v>5</v>
@@ -13663,10 +13663,10 @@
         <v>3</v>
       </c>
       <c r="AY59">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ59">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA59">
         <v>4</v>
@@ -14075,10 +14075,10 @@
         <v>14</v>
       </c>
       <c r="AY61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ61">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA61">
         <v>5</v>
@@ -14284,7 +14284,7 @@
         <v>4</v>
       </c>
       <c r="AZ62">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA62">
         <v>5</v>
@@ -14487,10 +14487,10 @@
         <v>7</v>
       </c>
       <c r="AY63">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ63">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA63">
         <v>7</v>
@@ -14693,10 +14693,10 @@
         <v>2</v>
       </c>
       <c r="AY64">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ64">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA64">
         <v>3</v>
@@ -14899,10 +14899,10 @@
         <v>6</v>
       </c>
       <c r="AY65">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AZ65">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA65">
         <v>8</v>
@@ -15105,10 +15105,10 @@
         <v>1</v>
       </c>
       <c r="AY66">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ66">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA66">
         <v>9</v>
@@ -15311,7 +15311,7 @@
         <v>1</v>
       </c>
       <c r="AY67">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AZ67">
         <v>3</v>
@@ -15517,10 +15517,10 @@
         <v>6</v>
       </c>
       <c r="AY68">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ68">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA68">
         <v>9</v>
@@ -15929,10 +15929,10 @@
         <v>2</v>
       </c>
       <c r="AY70">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA70">
         <v>5</v>
@@ -16135,10 +16135,10 @@
         <v>4</v>
       </c>
       <c r="AY71">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ71">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA71">
         <v>2</v>
@@ -16341,10 +16341,10 @@
         <v>6</v>
       </c>
       <c r="AY72">
+        <v>12</v>
+      </c>
+      <c r="AZ72">
         <v>10</v>
-      </c>
-      <c r="AZ72">
-        <v>8</v>
       </c>
       <c r="BA72">
         <v>7</v>
@@ -16547,10 +16547,10 @@
         <v>8</v>
       </c>
       <c r="AY73">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ73">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA73">
         <v>11</v>
@@ -16753,10 +16753,10 @@
         <v>4</v>
       </c>
       <c r="AY74">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ74">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA74">
         <v>10</v>
@@ -16959,10 +16959,10 @@
         <v>4</v>
       </c>
       <c r="AY75">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA75">
         <v>6</v>
@@ -17165,10 +17165,10 @@
         <v>11</v>
       </c>
       <c r="AY76">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ76">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA76">
         <v>3</v>
@@ -17577,7 +17577,7 @@
         <v>3</v>
       </c>
       <c r="AY78">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ78">
         <v>6</v>
@@ -17989,10 +17989,10 @@
         <v>3</v>
       </c>
       <c r="AY80">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ80">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA80">
         <v>0</v>
@@ -18195,10 +18195,10 @@
         <v>4</v>
       </c>
       <c r="AY81">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ81">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA81">
         <v>3</v>
@@ -18404,7 +18404,7 @@
         <v>12</v>
       </c>
       <c r="AZ82">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA82">
         <v>4</v>
@@ -18607,10 +18607,10 @@
         <v>2</v>
       </c>
       <c r="AY83">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA83">
         <v>9</v>
@@ -18813,7 +18813,7 @@
         <v>4</v>
       </c>
       <c r="AY84">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ84">
         <v>8</v>
@@ -19019,10 +19019,10 @@
         <v>2</v>
       </c>
       <c r="AY85">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AZ85">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA85">
         <v>10</v>
@@ -19431,10 +19431,10 @@
         <v>4</v>
       </c>
       <c r="AY87">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ87">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA87">
         <v>7</v>
@@ -19637,10 +19637,10 @@
         <v>5</v>
       </c>
       <c r="AY88">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ88">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA88">
         <v>7</v>
@@ -19843,10 +19843,10 @@
         <v>3</v>
       </c>
       <c r="AY89">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ89">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA89">
         <v>4</v>
@@ -20049,10 +20049,10 @@
         <v>6</v>
       </c>
       <c r="AY90">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ90">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA90">
         <v>6</v>
@@ -20255,10 +20255,10 @@
         <v>5</v>
       </c>
       <c r="AY91">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ91">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA91">
         <v>3</v>
@@ -20461,10 +20461,10 @@
         <v>9</v>
       </c>
       <c r="AY92">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ92">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA92">
         <v>4</v>
@@ -20873,10 +20873,10 @@
         <v>10</v>
       </c>
       <c r="AY94">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ94">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA94">
         <v>2</v>
@@ -21079,10 +21079,10 @@
         <v>8</v>
       </c>
       <c r="AY95">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ95">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA95">
         <v>2</v>
@@ -22315,10 +22315,10 @@
         <v>3</v>
       </c>
       <c r="AY101">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ101">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA101">
         <v>11</v>
@@ -22521,10 +22521,10 @@
         <v>9</v>
       </c>
       <c r="AY102">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ102">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA102">
         <v>11</v>
@@ -22727,10 +22727,10 @@
         <v>8</v>
       </c>
       <c r="AY103">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ103">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="BA103">
         <v>3</v>
@@ -22936,7 +22936,7 @@
         <v>5</v>
       </c>
       <c r="AZ104">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA104">
         <v>3</v>
@@ -23139,10 +23139,10 @@
         <v>4</v>
       </c>
       <c r="AY105">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ105">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA105">
         <v>5</v>
@@ -23345,10 +23345,10 @@
         <v>5</v>
       </c>
       <c r="AY106">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ106">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA106">
         <v>1</v>
@@ -23551,10 +23551,10 @@
         <v>3</v>
       </c>
       <c r="AY107">
+        <v>7</v>
+      </c>
+      <c r="AZ107">
         <v>6</v>
-      </c>
-      <c r="AZ107">
-        <v>5</v>
       </c>
       <c r="BA107">
         <v>5</v>
@@ -23757,10 +23757,10 @@
         <v>6</v>
       </c>
       <c r="AY108">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ108">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA108">
         <v>8</v>
@@ -23963,10 +23963,10 @@
         <v>3</v>
       </c>
       <c r="AY109">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ109">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA109">
         <v>9</v>
@@ -24169,10 +24169,10 @@
         <v>8</v>
       </c>
       <c r="AY110">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ110">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BA110">
         <v>3</v>
@@ -24375,10 +24375,10 @@
         <v>3</v>
       </c>
       <c r="AY111">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ111">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA111">
         <v>4</v>
@@ -24581,10 +24581,10 @@
         <v>5</v>
       </c>
       <c r="AY112">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ112">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA112">
         <v>1</v>
@@ -24787,10 +24787,10 @@
         <v>5</v>
       </c>
       <c r="AY113">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ113">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA113">
         <v>2</v>
@@ -24993,10 +24993,10 @@
         <v>4</v>
       </c>
       <c r="AY114">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ114">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA114">
         <v>5</v>
@@ -25199,10 +25199,10 @@
         <v>6</v>
       </c>
       <c r="AY115">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AZ115">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA115">
         <v>10</v>
@@ -25405,10 +25405,10 @@
         <v>4</v>
       </c>
       <c r="AY116">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ116">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA116">
         <v>4</v>
@@ -25611,10 +25611,10 @@
         <v>3</v>
       </c>
       <c r="AY117">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ117">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA117">
         <v>7</v>
@@ -25817,10 +25817,10 @@
         <v>5</v>
       </c>
       <c r="AY118">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ118">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA118">
         <v>7</v>
@@ -26023,10 +26023,10 @@
         <v>1</v>
       </c>
       <c r="AY119">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AZ119">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BA119">
         <v>16</v>
@@ -26229,10 +26229,10 @@
         <v>4</v>
       </c>
       <c r="AY120">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ120">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA120">
         <v>2</v>
@@ -26435,10 +26435,10 @@
         <v>4</v>
       </c>
       <c r="AY121">
+        <v>16</v>
+      </c>
+      <c r="AZ121">
         <v>14</v>
-      </c>
-      <c r="AZ121">
-        <v>11</v>
       </c>
       <c r="BA121">
         <v>7</v>
@@ -26641,10 +26641,10 @@
         <v>6</v>
       </c>
       <c r="AY122">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ122">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="BA122">
         <v>2</v>
@@ -26847,10 +26847,10 @@
         <v>5</v>
       </c>
       <c r="AY123">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ123">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA123">
         <v>6</v>
@@ -27053,10 +27053,10 @@
         <v>5</v>
       </c>
       <c r="AY124">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ124">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA124">
         <v>4</v>
@@ -27259,10 +27259,10 @@
         <v>2</v>
       </c>
       <c r="AY125">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AZ125">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA125">
         <v>11</v>
@@ -27468,7 +27468,7 @@
         <v>18</v>
       </c>
       <c r="AZ126">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA126">
         <v>6</v>
@@ -27671,10 +27671,10 @@
         <v>6</v>
       </c>
       <c r="AY127">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ127">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA127">
         <v>6</v>
@@ -27880,7 +27880,7 @@
         <v>15</v>
       </c>
       <c r="AZ128">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA128">
         <v>5</v>
@@ -28289,10 +28289,10 @@
         <v>8</v>
       </c>
       <c r="AY130">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ130">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="BA130">
         <v>4</v>
@@ -28495,10 +28495,10 @@
         <v>4</v>
       </c>
       <c r="AY131">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ131">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA131">
         <v>14</v>
@@ -28701,10 +28701,10 @@
         <v>4</v>
       </c>
       <c r="AY132">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ132">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA132">
         <v>1</v>
@@ -28907,10 +28907,10 @@
         <v>5</v>
       </c>
       <c r="AY133">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ133">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA133">
         <v>4</v>
@@ -29113,10 +29113,10 @@
         <v>1</v>
       </c>
       <c r="AY134">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ134">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA134">
         <v>5</v>
@@ -29319,10 +29319,10 @@
         <v>5</v>
       </c>
       <c r="AY135">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ135">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA135">
         <v>4</v>
@@ -29525,10 +29525,10 @@
         <v>2</v>
       </c>
       <c r="AY136">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ136">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA136">
         <v>4</v>
@@ -29731,10 +29731,10 @@
         <v>3</v>
       </c>
       <c r="AY137">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AZ137">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA137">
         <v>6</v>
@@ -29937,7 +29937,7 @@
         <v>8</v>
       </c>
       <c r="AY138">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ138">
         <v>11</v>
@@ -30143,10 +30143,10 @@
         <v>4</v>
       </c>
       <c r="AY139">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ139">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA139">
         <v>8</v>
@@ -30349,10 +30349,10 @@
         <v>12</v>
       </c>
       <c r="AY140">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ140">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BA140">
         <v>5</v>
@@ -30555,10 +30555,10 @@
         <v>4</v>
       </c>
       <c r="AY141">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ141">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA141">
         <v>6</v>
@@ -30761,10 +30761,10 @@
         <v>5</v>
       </c>
       <c r="AY142">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ142">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA142">
         <v>2</v>
@@ -30967,10 +30967,10 @@
         <v>5</v>
       </c>
       <c r="AY143">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ143">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA143">
         <v>2</v>
@@ -31173,10 +31173,10 @@
         <v>5</v>
       </c>
       <c r="AY144">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ144">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA144">
         <v>5</v>
@@ -31379,10 +31379,10 @@
         <v>8</v>
       </c>
       <c r="AY145">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ145">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA145">
         <v>6</v>
@@ -31585,10 +31585,10 @@
         <v>3</v>
       </c>
       <c r="AY146">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ146">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA146">
         <v>10</v>
@@ -31791,10 +31791,10 @@
         <v>8</v>
       </c>
       <c r="AY147">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ147">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA147">
         <v>6</v>
@@ -31997,10 +31997,10 @@
         <v>11</v>
       </c>
       <c r="AY148">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ148">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BA148">
         <v>3</v>
@@ -32203,10 +32203,10 @@
         <v>6</v>
       </c>
       <c r="AY149">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ149">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA149">
         <v>6</v>
@@ -32409,10 +32409,10 @@
         <v>4</v>
       </c>
       <c r="AY150">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ150">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA150">
         <v>7</v>
@@ -32615,10 +32615,10 @@
         <v>6</v>
       </c>
       <c r="AY151">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ151">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA151">
         <v>11</v>
@@ -32821,10 +32821,10 @@
         <v>5</v>
       </c>
       <c r="AY152">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ152">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA152">
         <v>3</v>
@@ -33027,10 +33027,10 @@
         <v>4</v>
       </c>
       <c r="AY153">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ153">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA153">
         <v>9</v>
@@ -33233,10 +33233,10 @@
         <v>6</v>
       </c>
       <c r="AY154">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ154">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA154">
         <v>4</v>
@@ -33439,10 +33439,10 @@
         <v>4</v>
       </c>
       <c r="AY155">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ155">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA155">
         <v>8</v>
@@ -33645,10 +33645,10 @@
         <v>7</v>
       </c>
       <c r="AY156">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ156">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA156">
         <v>7</v>
@@ -33851,10 +33851,10 @@
         <v>0</v>
       </c>
       <c r="AY157">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AZ157">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA157">
         <v>10</v>
@@ -34057,10 +34057,10 @@
         <v>5</v>
       </c>
       <c r="AY158">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ158">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA158">
         <v>3</v>
@@ -34263,10 +34263,10 @@
         <v>6</v>
       </c>
       <c r="AY159">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ159">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA159">
         <v>6</v>
@@ -34472,7 +34472,7 @@
         <v>12</v>
       </c>
       <c r="AZ160">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA160">
         <v>2</v>
@@ -34675,10 +34675,10 @@
         <v>9</v>
       </c>
       <c r="AY161">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ161">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="BA161">
         <v>5</v>
@@ -34881,10 +34881,10 @@
         <v>6</v>
       </c>
       <c r="AY162">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ162">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="BA162">
         <v>3</v>
@@ -35087,10 +35087,10 @@
         <v>3</v>
       </c>
       <c r="AY163">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AZ163">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA163">
         <v>4</v>
@@ -35293,10 +35293,10 @@
         <v>10</v>
       </c>
       <c r="AY164">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ164">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA164">
         <v>5</v>
@@ -35499,7 +35499,7 @@
         <v>2</v>
       </c>
       <c r="AY165">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ165">
         <v>7</v>
@@ -35705,10 +35705,10 @@
         <v>1</v>
       </c>
       <c r="AY166">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ166">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA166">
         <v>0</v>
@@ -35911,7 +35911,7 @@
         <v>6</v>
       </c>
       <c r="AY167">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ167">
         <v>13</v>
@@ -36117,10 +36117,10 @@
         <v>5</v>
       </c>
       <c r="AY168">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ168">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA168">
         <v>7</v>
@@ -36323,10 +36323,10 @@
         <v>5</v>
       </c>
       <c r="AY169">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ169">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA169">
         <v>8</v>
@@ -36529,10 +36529,10 @@
         <v>2</v>
       </c>
       <c r="AY170">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AZ170">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA170">
         <v>12</v>
@@ -36735,7 +36735,7 @@
         <v>2</v>
       </c>
       <c r="AY171">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ171">
         <v>8</v>
@@ -36941,10 +36941,10 @@
         <v>3</v>
       </c>
       <c r="AY172">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ172">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA172">
         <v>5</v>
@@ -37147,10 +37147,10 @@
         <v>1</v>
       </c>
       <c r="AY173">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AZ173">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA173">
         <v>8</v>
@@ -37353,10 +37353,10 @@
         <v>4</v>
       </c>
       <c r="AY174">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AZ174">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA174">
         <v>9</v>
@@ -37559,10 +37559,10 @@
         <v>2</v>
       </c>
       <c r="AY175">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AZ175">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA175">
         <v>15</v>
@@ -37765,10 +37765,10 @@
         <v>5</v>
       </c>
       <c r="AY176">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ176">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA176">
         <v>7</v>
@@ -37971,10 +37971,10 @@
         <v>3</v>
       </c>
       <c r="AY177">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ177">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA177">
         <v>5</v>
@@ -38177,10 +38177,10 @@
         <v>5</v>
       </c>
       <c r="AY178">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ178">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BA178">
         <v>6</v>
@@ -38383,10 +38383,10 @@
         <v>3</v>
       </c>
       <c r="AY179">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ179">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA179">
         <v>5</v>
@@ -38589,10 +38589,10 @@
         <v>2</v>
       </c>
       <c r="AY180">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ180">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA180">
         <v>10</v>
@@ -38795,10 +38795,10 @@
         <v>2</v>
       </c>
       <c r="AY181">
+        <v>13</v>
+      </c>
+      <c r="AZ181">
         <v>11</v>
-      </c>
-      <c r="AZ181">
-        <v>8</v>
       </c>
       <c r="BA181">
         <v>3</v>
@@ -39001,10 +39001,10 @@
         <v>10</v>
       </c>
       <c r="AY182">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ182">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="BA182">
         <v>2</v>
@@ -39207,10 +39207,10 @@
         <v>6</v>
       </c>
       <c r="AY183">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ183">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA183">
         <v>1</v>
@@ -39413,10 +39413,10 @@
         <v>5</v>
       </c>
       <c r="AY184">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ184">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA184">
         <v>3</v>
@@ -39619,10 +39619,10 @@
         <v>3</v>
       </c>
       <c r="AY185">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ185">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA185">
         <v>7</v>
@@ -39825,10 +39825,10 @@
         <v>2</v>
       </c>
       <c r="AY186">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ186">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA186">
         <v>2</v>
@@ -40031,10 +40031,10 @@
         <v>2</v>
       </c>
       <c r="AY187">
+        <v>14</v>
+      </c>
+      <c r="AZ187">
         <v>13</v>
-      </c>
-      <c r="AZ187">
-        <v>7</v>
       </c>
       <c r="BA187">
         <v>4</v>
@@ -40237,10 +40237,10 @@
         <v>5</v>
       </c>
       <c r="AY188">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ188">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA188">
         <v>6</v>
@@ -40443,10 +40443,10 @@
         <v>2</v>
       </c>
       <c r="AY189">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AZ189">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA189">
         <v>9</v>
@@ -40649,10 +40649,10 @@
         <v>2</v>
       </c>
       <c r="AY190">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ190">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA190">
         <v>6</v>
@@ -40855,10 +40855,10 @@
         <v>8</v>
       </c>
       <c r="AY191">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AZ191">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA191">
         <v>8</v>
@@ -41061,10 +41061,10 @@
         <v>6</v>
       </c>
       <c r="AY192">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ192">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA192">
         <v>4</v>
@@ -41267,7 +41267,7 @@
         <v>3</v>
       </c>
       <c r="AY193">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ193">
         <v>5</v>
@@ -41473,7 +41473,7 @@
         <v>2</v>
       </c>
       <c r="AY194">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ194">
         <v>7</v>
@@ -41679,10 +41679,10 @@
         <v>8</v>
       </c>
       <c r="AY195">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ195">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA195">
         <v>9</v>
@@ -41885,10 +41885,10 @@
         <v>1</v>
       </c>
       <c r="AY196">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ196">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA196">
         <v>4</v>
@@ -42091,10 +42091,10 @@
         <v>1</v>
       </c>
       <c r="AY197">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ197">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA197">
         <v>7</v>
@@ -42297,10 +42297,10 @@
         <v>6</v>
       </c>
       <c r="AY198">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ198">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA198">
         <v>4</v>
@@ -42503,10 +42503,10 @@
         <v>12</v>
       </c>
       <c r="AY199">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ199">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BA199">
         <v>8</v>
@@ -42709,10 +42709,10 @@
         <v>5</v>
       </c>
       <c r="AY200">
+        <v>17</v>
+      </c>
+      <c r="AZ200">
         <v>12</v>
-      </c>
-      <c r="AZ200">
-        <v>11</v>
       </c>
       <c r="BA200">
         <v>4</v>
@@ -42915,10 +42915,10 @@
         <v>5</v>
       </c>
       <c r="AY201">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ201">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA201">
         <v>6</v>
@@ -43121,10 +43121,10 @@
         <v>6</v>
       </c>
       <c r="AY202">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ202">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA202">
         <v>7</v>
@@ -43327,10 +43327,10 @@
         <v>6</v>
       </c>
       <c r="AY203">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ203">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA203">
         <v>9</v>
@@ -43533,10 +43533,10 @@
         <v>3</v>
       </c>
       <c r="AY204">
+        <v>12</v>
+      </c>
+      <c r="AZ204">
         <v>9</v>
-      </c>
-      <c r="AZ204">
-        <v>7</v>
       </c>
       <c r="BA204">
         <v>6</v>
@@ -43739,10 +43739,10 @@
         <v>5</v>
       </c>
       <c r="AY205">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ205">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA205">
         <v>4</v>
@@ -43945,10 +43945,10 @@
         <v>5</v>
       </c>
       <c r="AY206">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ206">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA206">
         <v>6</v>
@@ -44151,10 +44151,10 @@
         <v>1</v>
       </c>
       <c r="AY207">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ207">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA207">
         <v>10</v>
@@ -44360,7 +44360,7 @@
         <v>7</v>
       </c>
       <c r="AZ208">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA208">
         <v>7</v>
@@ -44563,10 +44563,10 @@
         <v>5</v>
       </c>
       <c r="AY209">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ209">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA209">
         <v>6</v>
@@ -44769,10 +44769,10 @@
         <v>7</v>
       </c>
       <c r="AY210">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ210">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA210">
         <v>3</v>
@@ -44975,10 +44975,10 @@
         <v>2</v>
       </c>
       <c r="AY211">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ211">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA211">
         <v>2</v>
@@ -45181,7 +45181,7 @@
         <v>5</v>
       </c>
       <c r="AY212">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ212">
         <v>7</v>
@@ -45387,10 +45387,10 @@
         <v>3</v>
       </c>
       <c r="AY213">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AZ213">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA213">
         <v>7</v>
@@ -45593,10 +45593,10 @@
         <v>4</v>
       </c>
       <c r="AY214">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ214">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA214">
         <v>4</v>
@@ -45799,7 +45799,7 @@
         <v>0</v>
       </c>
       <c r="AY215">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AZ215">
         <v>5</v>
@@ -46005,10 +46005,10 @@
         <v>4</v>
       </c>
       <c r="AY216">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ216">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA216">
         <v>6</v>
@@ -46211,10 +46211,10 @@
         <v>2</v>
       </c>
       <c r="AY217">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ217">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA217">
         <v>7</v>
@@ -46417,10 +46417,10 @@
         <v>4</v>
       </c>
       <c r="AY218">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ218">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA218">
         <v>6</v>
@@ -46623,10 +46623,10 @@
         <v>7</v>
       </c>
       <c r="AY219">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ219">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA219">
         <v>12</v>
@@ -47035,10 +47035,10 @@
         <v>4</v>
       </c>
       <c r="AY221">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ221">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA221">
         <v>7</v>
@@ -47241,10 +47241,10 @@
         <v>7</v>
       </c>
       <c r="AY222">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ222">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BA222">
         <v>7</v>
@@ -47447,10 +47447,10 @@
         <v>3</v>
       </c>
       <c r="AY223">
+        <v>15</v>
+      </c>
+      <c r="AZ223">
         <v>13</v>
-      </c>
-      <c r="AZ223">
-        <v>6</v>
       </c>
       <c r="BA223">
         <v>6</v>
@@ -47653,10 +47653,10 @@
         <v>4</v>
       </c>
       <c r="AY224">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ224">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA224">
         <v>9</v>
@@ -47859,10 +47859,10 @@
         <v>7</v>
       </c>
       <c r="AY225">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ225">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA225">
         <v>5</v>
@@ -48065,10 +48065,10 @@
         <v>5</v>
       </c>
       <c r="AY226">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ226">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA226">
         <v>14</v>
@@ -48271,10 +48271,10 @@
         <v>4</v>
       </c>
       <c r="AY227">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ227">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA227">
         <v>8</v>
@@ -48477,10 +48477,10 @@
         <v>0</v>
       </c>
       <c r="AY228">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA228">
         <v>10</v>
@@ -48683,10 +48683,10 @@
         <v>8</v>
       </c>
       <c r="AY229">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ229">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA229">
         <v>1</v>
@@ -48889,10 +48889,10 @@
         <v>6</v>
       </c>
       <c r="AY230">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ230">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA230">
         <v>3</v>
@@ -49095,7 +49095,7 @@
         <v>0</v>
       </c>
       <c r="AY231">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AZ231">
         <v>3</v>
@@ -49301,10 +49301,10 @@
         <v>9</v>
       </c>
       <c r="AY232">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ232">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA232">
         <v>4</v>
@@ -49507,7 +49507,7 @@
         <v>8</v>
       </c>
       <c r="AY233">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ233">
         <v>10</v>
@@ -49713,10 +49713,10 @@
         <v>5</v>
       </c>
       <c r="AY234">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ234">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA234">
         <v>5</v>
@@ -49919,10 +49919,10 @@
         <v>7</v>
       </c>
       <c r="AY235">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ235">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA235">
         <v>8</v>
@@ -50125,10 +50125,10 @@
         <v>8</v>
       </c>
       <c r="AY236">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ236">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA236">
         <v>4</v>
@@ -50331,10 +50331,10 @@
         <v>6</v>
       </c>
       <c r="AY237">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ237">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA237">
         <v>4</v>
@@ -50537,10 +50537,10 @@
         <v>7</v>
       </c>
       <c r="AY238">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ238">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA238">
         <v>1</v>
@@ -50743,10 +50743,10 @@
         <v>5</v>
       </c>
       <c r="AY239">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ239">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA239">
         <v>3</v>
@@ -50949,10 +50949,10 @@
         <v>9</v>
       </c>
       <c r="AY240">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ240">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="BA240">
         <v>5</v>
@@ -51155,10 +51155,10 @@
         <v>2</v>
       </c>
       <c r="AY241">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AZ241">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA241">
         <v>6</v>
@@ -51361,10 +51361,10 @@
         <v>9</v>
       </c>
       <c r="AY242">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ242">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA242">
         <v>8</v>
@@ -51567,10 +51567,10 @@
         <v>5</v>
       </c>
       <c r="AY243">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ243">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA243">
         <v>6</v>
@@ -51773,7 +51773,7 @@
         <v>5</v>
       </c>
       <c r="AY244">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ244">
         <v>8</v>
@@ -51979,10 +51979,10 @@
         <v>4</v>
       </c>
       <c r="AY245">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ245">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA245">
         <v>2</v>
@@ -52185,10 +52185,10 @@
         <v>4</v>
       </c>
       <c r="AY246">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ246">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA246">
         <v>4</v>
@@ -52391,10 +52391,10 @@
         <v>3</v>
       </c>
       <c r="AY247">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ247">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BA247">
         <v>1</v>
@@ -52597,10 +52597,10 @@
         <v>1</v>
       </c>
       <c r="AY248">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ248">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA248">
         <v>8</v>
@@ -52803,10 +52803,10 @@
         <v>4</v>
       </c>
       <c r="AY249">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ249">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA249">
         <v>1</v>
@@ -53009,7 +53009,7 @@
         <v>3</v>
       </c>
       <c r="AY250">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AZ250">
         <v>7</v>
@@ -53218,7 +53218,7 @@
         <v>20</v>
       </c>
       <c r="AZ251">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA251">
         <v>5</v>
@@ -53421,10 +53421,10 @@
         <v>5</v>
       </c>
       <c r="AY252">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ252">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA252">
         <v>3</v>
@@ -53627,10 +53627,10 @@
         <v>8</v>
       </c>
       <c r="AY253">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ253">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA253">
         <v>2</v>
@@ -53833,7 +53833,7 @@
         <v>6</v>
       </c>
       <c r="AY254">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AZ254">
         <v>12</v>
@@ -54039,10 +54039,10 @@
         <v>1</v>
       </c>
       <c r="AY255">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ255">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA255">
         <v>5</v>
@@ -54245,7 +54245,7 @@
         <v>4</v>
       </c>
       <c r="AY256">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ256">
         <v>10</v>
@@ -54451,7 +54451,7 @@
         <v>6</v>
       </c>
       <c r="AY257">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ257">
         <v>10</v>
@@ -54657,10 +54657,10 @@
         <v>5</v>
       </c>
       <c r="AY258">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AZ258">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA258">
         <v>8</v>
@@ -54863,7 +54863,7 @@
         <v>5</v>
       </c>
       <c r="AY259">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AZ259">
         <v>9</v>
@@ -55069,10 +55069,10 @@
         <v>3</v>
       </c>
       <c r="AY260">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ260">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA260">
         <v>7</v>
@@ -55275,10 +55275,10 @@
         <v>7</v>
       </c>
       <c r="AY261">
+        <v>22</v>
+      </c>
+      <c r="AZ261">
         <v>16</v>
-      </c>
-      <c r="AZ261">
-        <v>13</v>
       </c>
       <c r="BA261">
         <v>6</v>
@@ -55481,10 +55481,10 @@
         <v>6</v>
       </c>
       <c r="AY262">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AZ262">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA262">
         <v>3</v>
@@ -55687,10 +55687,10 @@
         <v>3</v>
       </c>
       <c r="AY263">
+        <v>17</v>
+      </c>
+      <c r="AZ263">
         <v>12</v>
-      </c>
-      <c r="AZ263">
-        <v>9</v>
       </c>
       <c r="BA263">
         <v>4</v>
@@ -55893,10 +55893,10 @@
         <v>10</v>
       </c>
       <c r="AY264">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ264">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA264">
         <v>3</v>
@@ -56099,10 +56099,10 @@
         <v>13</v>
       </c>
       <c r="AY265">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ265">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="BA265">
         <v>2</v>
@@ -56305,10 +56305,10 @@
         <v>9</v>
       </c>
       <c r="AY266">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ266">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA266">
         <v>4</v>
@@ -56511,10 +56511,10 @@
         <v>6</v>
       </c>
       <c r="AY267">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ267">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA267">
         <v>8</v>
@@ -56717,10 +56717,10 @@
         <v>4</v>
       </c>
       <c r="AY268">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ268">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA268">
         <v>2</v>
@@ -56923,7 +56923,7 @@
         <v>8</v>
       </c>
       <c r="AY269">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ269">
         <v>14</v>
@@ -57129,10 +57129,10 @@
         <v>7</v>
       </c>
       <c r="AY270">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ270">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA270">
         <v>4</v>
@@ -57335,10 +57335,10 @@
         <v>8</v>
       </c>
       <c r="AY271">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ271">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA271">
         <v>14</v>
@@ -57747,10 +57747,10 @@
         <v>9</v>
       </c>
       <c r="AY273">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ273">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA273">
         <v>6</v>
@@ -57953,10 +57953,10 @@
         <v>13</v>
       </c>
       <c r="AY274">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ274">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BA274">
         <v>2</v>
@@ -58159,10 +58159,10 @@
         <v>8</v>
       </c>
       <c r="AY275">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ275">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA275">
         <v>6</v>
@@ -58365,10 +58365,10 @@
         <v>2</v>
       </c>
       <c r="AY276">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AZ276">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA276">
         <v>11</v>
@@ -58571,7 +58571,7 @@
         <v>2</v>
       </c>
       <c r="AY277">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ277">
         <v>4</v>
@@ -58777,7 +58777,7 @@
         <v>3</v>
       </c>
       <c r="AY278">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ278">
         <v>7</v>
